--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1218.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1218.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07025045252758821</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06383055784136892</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01383055784136891</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01233945082409633</v>
+        <v>0.01022474759559215</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0005260033711504269</v>
+        <v>0.001299962245683899</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008082541992820396</v>
+        <v>0.0007800723382931426</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001391815621332233</v>
+        <v>0.003960684617895088</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007962975057833023</v>
+        <v>0.0007715389941110865</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004082031066631853</v>
+        <v>0.007376233726151538</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007905715275440976</v>
+        <v>0.0007710434139570532</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.005450032499286772</v>
+        <v>0.001299962245683899</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007285415543301008</v>
+        <v>0.0007800723382931426</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002896057595740714</v>
+        <v>0.002635853903244723</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001616508398564079</v>
+        <v>0.001560144676586285</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002608965531700799</v>
+        <v>0.007682289090476108</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001592595011566605</v>
+        <v>0.001543077988222173</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.00899999999999998</v>
+        <v>0.01425715553457879</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001718893348623849</v>
+        <v>0.001542086827914106</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01300000000000001</v>
+        <v>0.002635853903244723</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001691438802083335</v>
+        <v>0.001560144676586285</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004231201385121855</v>
+        <v>0.00375310640183367</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002424762597846119</v>
+        <v>0.002340217014879428</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.01199999999999998</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002498124999999998</v>
+        <v>0.002449142156862741</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01142010169787053</v>
+        <v>0.02074679443898608</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002371714582632293</v>
+        <v>0.00231313024187116</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01546078829359643</v>
+        <v>0.00375310640183367</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002185624662990302</v>
+        <v>0.002340217014879428</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003444446481441446</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003233016797128158</v>
+        <v>0.003122656249999998</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.004739164844544695</v>
+        <v>0.0141541043696769</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003185190023133209</v>
+        <v>0.003086155976444346</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01432156705237622</v>
+        <v>0.0254491794530779</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00316228611017639</v>
+        <v>0.003084173655828213</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0198451613029893</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002914166217320403</v>
+        <v>0.003122656249999998</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004113150274698776</v>
+        <v>0.003122656249999998</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.005715394274091727</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004113150274698776</v>
+        <v>0.003900361691465713</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.005552976848294068</v>
+        <v>0.01654997355909404</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003981487528916512</v>
+        <v>0.003857694970555433</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01690475083437237</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003952857637720488</v>
+        <v>0.003863079896907221</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02368904517270015</v>
+        <v>0.005715394274091727</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003642707771650504</v>
+        <v>0.003900361691465713</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007412557372155015</v>
+        <v>0.006790436865959489</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004849525195692237</v>
+        <v>0.004680434029758856</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006509903434547271</v>
+        <v>0.01924641209030969</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004777785034699814</v>
+        <v>0.004629233964666519</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01953736075898158</v>
+        <v>0.03260742583659121</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004743429165264585</v>
+        <v>0.00462626048374232</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02706399339078297</v>
+        <v>0.006790436865959489</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004371249325980604</v>
+        <v>0.004680434029758856</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008241030292189297</v>
+        <v>0.007418795220167085</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005657779394974277</v>
+        <v>0.005460506368051998</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007216450976606358</v>
+        <v>0.02118784063168222</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005574082540483117</v>
+        <v>0.005400772958777606</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02198710454132624</v>
+        <v>0.03486529601357857</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005534000692808684</v>
+        <v>0.005397303897699372</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0311415594452919</v>
+        <v>0.007418795220167085</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005099790880310705</v>
+        <v>0.005460506368051998</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008001228493686306</v>
+        <v>0.008196984744519034</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006466033594256316</v>
+        <v>0.00624057870634514</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008079125847773344</v>
+        <v>0.02321867985156986</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006370380046266419</v>
+        <v>0.006172311952888692</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.024021689896529</v>
+        <v>0.03711135325330567</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006324572220352781</v>
+        <v>0.006168347311656426</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03389329682428133</v>
+        <v>0.008196984744519034</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005828332434640806</v>
+        <v>0.00624057870634514</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007707765576445397</v>
+        <v>0.009121520846819831</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007274287793538356</v>
+        <v>0.007020651044638284</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.008904434421350305</v>
+        <v>0.02428335041833085</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007166677552049722</v>
+        <v>0.006943850946999779</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006913384282605329</v>
+        <v>0.007214182600545708</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03649075901580551</v>
+        <v>0.009121520846819831</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006556873988970907</v>
+        <v>0.007020651044638284</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008375255140265936</v>
+        <v>0.009688918934873954</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008082541992820394</v>
+        <v>0.007800723382931425</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.009398883070639255</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007962975057833024</v>
+        <v>0.007387832223568439</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02690777890797949</v>
+        <v>0.03999184003799977</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007905715275440976</v>
+        <v>0.007710434139570532</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.009688918934873954</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007289330335968059</v>
+        <v>0.007800723382931425</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01001831078494729</v>
+        <v>0.01029569441648592</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008890796192102436</v>
+        <v>0.008580795721224568</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01006897816894224</v>
+        <v>0.02656179861024732</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008759272563616327</v>
+        <v>0.008486928935221951</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02817655394434382</v>
+        <v>0.04084313992229427</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008696286802985074</v>
+        <v>0.008481477553527586</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04101131427483284</v>
+        <v>0.01029569441648592</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008013957097631108</v>
+        <v>0.008580795721224568</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00965154611028881</v>
+        <v>0.01083836269946024</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009699050391384474</v>
+        <v>0.009360868059517712</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0107212260895613</v>
+        <v>0.02774006728195591</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009555570069399628</v>
+        <v>0.009258467929333039</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03012268075223029</v>
+        <v>0.04218372417216631</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009486858330529171</v>
+        <v>0.009252520967484639</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04290137626949375</v>
+        <v>0.01083836269946024</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008742498651961209</v>
+        <v>0.009360868059517712</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01228957471608986</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01050730459066651</v>
+        <v>0.01022474759559215</v>
       </c>
       <c r="J78" t="n">
+        <v>0.02850094999944777</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.01003000692344413</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.04371275421633375</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.01002356438144169</v>
+      </c>
+      <c r="N78" t="n">
         <v>0.01146031254146931</v>
       </c>
-      <c r="K78" t="n">
+      <c r="O78" t="n">
         <v>0.01022474759559215</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.03114194243055687</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.01027742985807327</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.04476986710027564</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.009471040206291309</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0129470102021498</v>
+        <v>0.01184520765290783</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01131555878994855</v>
+        <v>0.010921012736104</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01201926940035866</v>
+        <v>0.0296442427046317</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01114816508096623</v>
+        <v>0.01080154591755521</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03263012207824156</v>
+        <v>0.04512939148351486</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01106800138561737</v>
+        <v>0.01079460779539874</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04731096258157702</v>
+        <v>0.01184520765290783</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01019958176062141</v>
+        <v>0.010921012736104</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01383055784136891</v>
+        <v>0.01207359362819511</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01233945082409633</v>
+        <v>0.01170108507439714</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01269903152127903</v>
+        <v>0.03016974133941652</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01194446258674954</v>
+        <v>0.0115730849116663</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0339830027942023</v>
+        <v>0.04673279740242736</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01185857291316146</v>
+        <v>0.0115656512093558</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04911883852779658</v>
+        <v>0.01207359362819511</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01092812331495151</v>
+        <v>0.01170108507439714</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01438695434657726</v>
+        <v>0.01269864118477261</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01293206718851263</v>
+        <v>0.01248115741269028</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01349554920847501</v>
+        <v>0.03147724184571105</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01274076009253284</v>
+        <v>0.01234462390577738</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03519636767735707</v>
+        <v>0.04772213340178943</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01264914444070556</v>
+        <v>0.01233669462331285</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05138767075333295</v>
+        <v>0.01269864118477261</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01165666486928161</v>
+        <v>0.01248115741269028</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01521372640038515</v>
+        <v>0.01291999810333139</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01374032138779467</v>
+        <v>0.01326122975098342</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01430249843175971</v>
+        <v>0.03186654016542401</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01353705759831614</v>
+        <v>0.01311616289988847</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03656599982662387</v>
+        <v>0.0491965609103191</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01343971596824966</v>
+        <v>0.0131077380372699</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0532116350725847</v>
+        <v>0.01291999810333139</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01238520642361171</v>
+        <v>0.01326122975098342</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01510471482528323</v>
+        <v>0.01353731216456253</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01454857558707671</v>
+        <v>0.01404130208927657</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01491355516094631</v>
+        <v>0.03273743224046421</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01433335510409944</v>
+        <v>0.01388770189399956</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03778768234092067</v>
+        <v>0.05035524135673419</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01423028749579376</v>
+        <v>0.01387878145122696</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05478490729995045</v>
+        <v>0.01353731216456253</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01311374797794181</v>
+        <v>0.01404130208927657</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01704438248162722</v>
+        <v>0.01375023114915709</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01535682978635875</v>
+        <v>0.01482137442756971</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01552239536584793</v>
+        <v>0.03368971401274043</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01512965260988275</v>
+        <v>0.01465924088811064</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03925719831916544</v>
+        <v>0.05179733616975279</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01502085902333786</v>
+        <v>0.01464982486518401</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05680166324982883</v>
+        <v>0.01375023114915709</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01384228953227191</v>
+        <v>0.01482137442756971</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01701719222977283</v>
+        <v>0.01425840283780618</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01616508398564079</v>
+        <v>0.01560144676586285</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01632269501627773</v>
+        <v>0.03452318142416147</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01592595011566605</v>
+        <v>0.01543077988222173</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04017033086027619</v>
+        <v>0.05272200677809302</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01581143055088195</v>
+        <v>0.01542086827914106</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05885607873661858</v>
+        <v>0.01425840283780618</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01457083108660201</v>
+        <v>0.01560144676586285</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01900760693007576</v>
+        <v>0.01476147501120086</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01697333818492283</v>
+        <v>0.01638151910415599</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01690813008204886</v>
+        <v>0.0356376304166362</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01672224762144935</v>
+        <v>0.01620231887633282</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04132286306317087</v>
+        <v>0.05382841461047266</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01660200207842605</v>
+        <v>0.01619191169309812</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06024232957471803</v>
+        <v>0.01476147501120086</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01529937264093211</v>
+        <v>0.01638151910415599</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01800008944289173</v>
+        <v>0.01495909545003218</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01778159238420487</v>
+        <v>0.01716159144244914</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01777237653297443</v>
+        <v>0.03653285693207325</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01751854512723265</v>
+        <v>0.0169738578704439</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0419105780267674</v>
+        <v>0.05531572109560989</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01739257360597015</v>
+        <v>0.01696295510705517</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06155459157852605</v>
+        <v>0.01495909545003218</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01602791419526222</v>
+        <v>0.01716159144244914</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01897910262857644</v>
+        <v>0.01555091193499128</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01858984658348691</v>
+        <v>0.01794166378074228</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01840911033886765</v>
+        <v>0.03720865691238162</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01831484263301596</v>
+        <v>0.01774539686455499</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04312925884998386</v>
+        <v>0.05608308766222264</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01818314513351425</v>
+        <v>0.01773399852101222</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06328704056244111</v>
+        <v>0.01555091193499128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01675645574959232</v>
+        <v>0.01794166378074228</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01992910934748558</v>
+        <v>0.01573657224676916</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01939810078276895</v>
+        <v>0.01872173611903542</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01901200746954164</v>
+        <v>0.03786482629946988</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01911114013879926</v>
+        <v>0.01851693585866608</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04377468863173822</v>
+        <v>0.05712967573902888</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01897371666105834</v>
+        <v>0.01850504193496928</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06483385234086186</v>
+        <v>0.01573657224676916</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01748499730392242</v>
+        <v>0.01872173611903542</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02083457245997491</v>
+        <v>0.01631572416605696</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02020635498205099</v>
+        <v>0.01950180845732856</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01947474389480953</v>
+        <v>0.03850116103524698</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01990743764458256</v>
+        <v>0.01928847485277716</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04454265047094838</v>
+        <v>0.05815464675474669</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01976428818860244</v>
+        <v>0.01927608534892633</v>
       </c>
       <c r="N90" t="n">
-        <v>0.066289202728187</v>
+        <v>0.01631572416605696</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01821353885825252</v>
+        <v>0.01950180845732856</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0236799548264001</v>
+        <v>0.01648801547354574</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02101460918133303</v>
+        <v>0.02028188079562171</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01989099558448448</v>
+        <v>0.03931745706162162</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02070373515036586</v>
+        <v>0.02006001384688825</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04512892746653238</v>
+        <v>0.05925716213809407</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02055485971614654</v>
+        <v>0.02004712876288338</v>
       </c>
       <c r="N91" t="n">
-        <v>0.067147267538815</v>
+        <v>0.01648801547354574</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01894208041258262</v>
+        <v>0.02028188079562171</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02244971930711687</v>
+        <v>0.01695309394992654</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02182286338061507</v>
+        <v>0.02106195313391485</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02035443850837965</v>
+        <v>0.03981351032050259</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02150003265614917</v>
+        <v>0.02083155284099934</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04622930271740819</v>
+        <v>0.0607363833177888</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02134543124369064</v>
+        <v>0.02081817217684044</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06830222258714458</v>
+        <v>0.01695309394992654</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01967062196691272</v>
+        <v>0.02106195313391485</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02512832876248093</v>
+        <v>0.01731060737589049</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02263111757989711</v>
+        <v>0.02184202547220799</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02085874863630816</v>
+        <v>0.04048911675379877</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02229633016193247</v>
+        <v>0.02160309183511042</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04673955932249377</v>
+        <v>0.06179147172254923</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02213600277123473</v>
+        <v>0.02158921559079749</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06954824368757428</v>
+        <v>0.01731060737589049</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02039916352124282</v>
+        <v>0.02184202547220799</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02570024605284799</v>
+        <v>0.0176602035321286</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02343937177917915</v>
+        <v>0.02262209781050114</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02109760193808317</v>
+        <v>0.0414440723034189</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02309262766771577</v>
+        <v>0.02237463082922151</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04695548038070707</v>
+        <v>0.06282158878109306</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02292657429877883</v>
+        <v>0.02236025900475454</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07077950665450289</v>
+        <v>0.0176602035321286</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02112770507557292</v>
+        <v>0.02262209781050114</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02514993403857373</v>
+        <v>0.01800153019933202</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02424762597846119</v>
+        <v>0.02340217014879428</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02146467438351786</v>
+        <v>0.04217817291127177</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02388892517349907</v>
+        <v>0.02314616982333259</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04697284899096613</v>
+        <v>0.0634258959221386</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02371714582632293</v>
+        <v>0.0231313024187116</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07109018730232886</v>
+        <v>0.01800153019933202</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02185624662990302</v>
+        <v>0.02340217014879428</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0244618555800139</v>
+        <v>0.01823423515819178</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02505588017774323</v>
+        <v>0.02418224248708742</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02155364194242533</v>
+        <v>0.04259121451926615</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02468522267928237</v>
+        <v>0.02391770881744368</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04738744825218885</v>
+        <v>0.0649035545744035</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02450771735386703</v>
+        <v>0.02390234583266865</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07227446144545069</v>
+        <v>0.01823423515819178</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02258478818423312</v>
+        <v>0.02418224248708742</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0246204735375242</v>
+        <v>0.01865796618939898</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02586413437702527</v>
+        <v>0.02496231482538056</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02185818058461875</v>
+        <v>0.04308299306931085</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02548152018506568</v>
+        <v>0.02468924781155477</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04759506126329327</v>
+        <v>0.06575372616660596</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02529828888141112</v>
+        <v>0.0246733892466257</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07292650489826724</v>
+        <v>0.01865796618939898</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02331332973856323</v>
+        <v>0.02496231482538056</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02462560325637635</v>
+        <v>0.01907237107364466</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02667238857630731</v>
+        <v>0.02574238716367371</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02167300552541016</v>
+        <v>0.04395330450331467</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02627781769084898</v>
+        <v>0.02546078680566586</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04729194404871934</v>
+        <v>0.06677557212746399</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02608886040895522</v>
+        <v>0.02544443266058276</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07264049347517709</v>
+        <v>0.01907237107364466</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02404187129289332</v>
+        <v>0.02574238716367371</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02654634695280517</v>
+        <v>0.01937709759161996</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02748064277558935</v>
+        <v>0.02652245950196685</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02170875231685833</v>
+        <v>0.04400194476318636</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02707411519663228</v>
+        <v>0.02623232579977694</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04728161084693314</v>
+        <v>0.06756825388569554</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02687943193649932</v>
+        <v>0.02621547607453981</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0736106029905787</v>
+        <v>0.01937709759161996</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02477041284722343</v>
+        <v>0.02652245950196685</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0254010923154519</v>
+        <v>0.01947179352401586</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02828889697487138</v>
+        <v>0.02730253184025999</v>
       </c>
       <c r="J100" t="n">
-        <v>0.021476980380917</v>
+        <v>0.04502870979083479</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02787041270241558</v>
+        <v>0.02700386479388803</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04727307673682743</v>
+        <v>0.06873093287001869</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02767000346404342</v>
+        <v>0.02698651948849686</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07373100925887083</v>
+        <v>0.01947179352401586</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02549895440155353</v>
+        <v>0.02730253184025999</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02419912658854505</v>
+        <v>0.01985610665152353</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02909715117415342</v>
+        <v>0.02808260417855313</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02128678263308374</v>
+        <v>0.04503339552816865</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02866671020819889</v>
+        <v>0.02777540378799912</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04707547659001091</v>
+        <v>0.06956277050915127</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02846057499158751</v>
+        <v>0.02775756290245391</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07353040502680841</v>
+        <v>0.01985610665152353</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02622749595588363</v>
+        <v>0.02808260417855313</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02594973701631299</v>
+        <v>0.02002968475483401</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02990540537343546</v>
+        <v>0.02886267651684627</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0210472519888561</v>
+        <v>0.04571579791709682</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02946300771398219</v>
+        <v>0.0285469427821102</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04639794527809224</v>
+        <v>0.06986292823181139</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02925114651913161</v>
+        <v>0.02852860631641097</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07265502968338983</v>
+        <v>0.02002968475483401</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02695603751021373</v>
+        <v>0.02886267651684627</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02466221084298421</v>
+        <v>0.02039217561463837</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0307136595727175</v>
+        <v>0.02964274885513942</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02086748136373159</v>
+        <v>0.04627571289952803</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03025930521976549</v>
+        <v>0.02931848177622129</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04604961767268032</v>
+        <v>0.07113056746671703</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03004171804667571</v>
+        <v>0.02929964973036802</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0719466175221653</v>
+        <v>0.02039217561463837</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02768457906454383</v>
+        <v>0.02964274885513942</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02334583531278714</v>
+        <v>0.0207432270116277</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03152191377199955</v>
+        <v>0.03042282119343256</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02045656367320779</v>
+        <v>0.04651293641737109</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03105560272554879</v>
+        <v>0.03009002077033238</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04543962864538376</v>
+        <v>0.0715648496425863</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03083228957421981</v>
+        <v>0.03007069314432508</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07075745856109533</v>
+        <v>0.0207432270116277</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02841312061887393</v>
+        <v>0.03042282119343256</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02400989766995021</v>
+        <v>0.02078248672649305</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03233016797128158</v>
+        <v>0.0312028935317257</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02012359183278224</v>
+        <v>0.04692726441253484</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03185190023133209</v>
+        <v>0.03086155976444346</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04517711306781136</v>
+        <v>0.07246493618813704</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0316228611017639</v>
+        <v>0.03084173655828213</v>
       </c>
       <c r="N105" t="n">
-        <v>0.06933984281814026</v>
+        <v>0.02078248672649305</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02914166217320403</v>
+        <v>0.0312028935317257</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02266368515870187</v>
+        <v>0.02110960253992551</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03313842217056362</v>
+        <v>0.03198296587001884</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0198776587579525</v>
+        <v>0.047218492826928</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0326481977371154</v>
+        <v>0.03163309875855455</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04457120581157176</v>
+        <v>0.07312998853208735</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03241343262930801</v>
+        <v>0.03161277997223919</v>
       </c>
       <c r="N106" t="n">
-        <v>0.06834606031126034</v>
+        <v>0.02110960253992551</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02987020372753414</v>
+        <v>0.03198296587001884</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02231648502327055</v>
+        <v>0.02132422223261619</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03394667636984566</v>
+        <v>0.03276303820831199</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0196278573642161</v>
+        <v>0.04768641760245937</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0334444952428987</v>
+        <v>0.03240463775266564</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0440310417482738</v>
+        <v>0.07385916810315513</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0332040041568521</v>
+        <v>0.03238382338619623</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06642840105841608</v>
+        <v>0.02132422223261619</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03059874528186423</v>
+        <v>0.03276303820831199</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02297758450788472</v>
+        <v>0.02142599358525613</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0347549305691277</v>
+        <v>0.03354311054660513</v>
       </c>
       <c r="J108" t="n">
-        <v>0.01918328056707061</v>
+        <v>0.04793083468103776</v>
       </c>
       <c r="K108" t="n">
-        <v>0.034240792748682</v>
+        <v>0.03317617674677673</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04326575574952615</v>
+        <v>0.07445163633005852</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0339945756843962</v>
+        <v>0.03315486680015329</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06453915507756774</v>
+        <v>0.02142599358525613</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03132728683619433</v>
+        <v>0.03354311054660513</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02365627085677277</v>
+        <v>0.0217145643785364</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03556318476840974</v>
+        <v>0.03432318288489827</v>
       </c>
       <c r="J109" t="n">
-        <v>0.01885302128201356</v>
+        <v>0.04855154000457199</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03503709025446531</v>
+        <v>0.03394771574088781</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04248448268693755</v>
+        <v>0.07470655464151538</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03478514721194029</v>
+        <v>0.03392591021411034</v>
       </c>
       <c r="N109" t="n">
-        <v>0.06313061238667578</v>
+        <v>0.0217145643785364</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03205582839052443</v>
+        <v>0.03432318288489827</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02136183131416319</v>
+        <v>0.02178958239314811</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03637143896769178</v>
+        <v>0.03510325522319142</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01864617242454253</v>
+        <v>0.04854832951497079</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03583338776024861</v>
+        <v>0.03471925473499889</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04179635743211677</v>
+        <v>0.07532308446624386</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0355757187394844</v>
+        <v>0.0346969536280674</v>
       </c>
       <c r="N110" t="n">
-        <v>0.06105506300370056</v>
+        <v>0.02178958239314811</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03278436994485454</v>
+        <v>0.03510325522319142</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0211035531242844</v>
+        <v>0.02215069540978229</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03717969316697382</v>
+        <v>0.03588332756148456</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01817182691015504</v>
+        <v>0.04932099915414301</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03662968526603191</v>
+        <v>0.03549079372910998</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04091051485667252</v>
+        <v>0.07580038723296179</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03636629026702849</v>
+        <v>0.03546799704202445</v>
       </c>
       <c r="N111" t="n">
-        <v>0.05986479694660241</v>
+        <v>0.02215069540978229</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03351291149918464</v>
+        <v>0.03588332756148456</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02089072353136485</v>
+        <v>0.02209755120913007</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03798794736625586</v>
+        <v>0.0366633998997777</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01803907765434863</v>
+        <v>0.04936934486399738</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03742598277181521</v>
+        <v>0.03626233272322107</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04023608983221355</v>
+        <v>0.07583762437038732</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03715686179457259</v>
+        <v>0.0362390404559815</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0585121042333418</v>
+        <v>0.02209755120913007</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03424145305351473</v>
+        <v>0.0366633998997777</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02073262977963297</v>
+        <v>0.02232979757188247</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0387962015655379</v>
+        <v>0.03744347223807085</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01795701757262089</v>
+        <v>0.04929316258644276</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03822228027759851</v>
+        <v>0.03703387171733215</v>
       </c>
       <c r="L113" t="n">
-        <v>0.03968221723034859</v>
+        <v>0.07643395730723834</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03794743332211668</v>
+        <v>0.03701008386993856</v>
       </c>
       <c r="N113" t="n">
-        <v>0.05724927488187892</v>
+        <v>0.02232979757188247</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03496999460784483</v>
+        <v>0.03744347223807085</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0206385591133172</v>
+        <v>0.02244708227873062</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03960445576481994</v>
+        <v>0.03822354457636399</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01783473958046931</v>
+        <v>0.04969224826338786</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03901857778338182</v>
+        <v>0.03780541071144324</v>
       </c>
       <c r="L114" t="n">
-        <v>0.03915803192268638</v>
+        <v>0.07668854747223297</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03873800484966078</v>
+        <v>0.03778112728389561</v>
       </c>
       <c r="N114" t="n">
-        <v>0.05582859891017433</v>
+        <v>0.02244708227873062</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03569853616217494</v>
+        <v>0.03822354457636399</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02161649507724329</v>
+        <v>0.02264905311036555</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04041270996410198</v>
+        <v>0.03900361691465713</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01758133659339151</v>
+        <v>0.04986639783674152</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03981487528916512</v>
+        <v>0.03857694970555433</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0387726687808356</v>
+        <v>0.07710055629408907</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03952857637720488</v>
+        <v>0.03855217069785266</v>
       </c>
       <c r="N115" t="n">
-        <v>0.05510236633618826</v>
+        <v>0.02264905311036555</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03642707771650504</v>
+        <v>0.03900361691465713</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02264022856580469</v>
+        <v>0.02253535784747836</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04122096416338401</v>
+        <v>0.03978368925295027</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01779121556206181</v>
+        <v>0.05021540724841256</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04061117279494842</v>
+        <v>0.03934848869966542</v>
       </c>
       <c r="L116" t="n">
-        <v>0.03783526267640505</v>
+        <v>0.07736914520152477</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04031914790474898</v>
+        <v>0.03932321411180972</v>
       </c>
       <c r="N116" t="n">
-        <v>0.05512286717788123</v>
+        <v>0.02253535784747836</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03715561927083514</v>
+        <v>0.03978368925295027</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02069462302202942</v>
+        <v>0.02260564427076014</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04202921836266606</v>
+        <v>0.04056376159124341</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01783671926160277</v>
+        <v>0.05003907244030967</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04140747030073172</v>
+        <v>0.0401200276937765</v>
       </c>
       <c r="L117" t="n">
-        <v>0.03725494848100344</v>
+        <v>0.0776934756232579</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04110971943229308</v>
+        <v>0.04009425752576676</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05499266750154991</v>
+        <v>0.02260564427076014</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03788416082516523</v>
+        <v>0.04056376159124341</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02177755526837334</v>
+        <v>0.02275956016090194</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04283747256194809</v>
+        <v>0.04134383392953656</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01771447172467043</v>
+        <v>0.05013718935434178</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04220376780651502</v>
+        <v>0.04089156668788758</v>
       </c>
       <c r="L118" t="n">
-        <v>0.03734086106623952</v>
+        <v>0.07747270898800673</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04190029095983717</v>
+        <v>0.04086530093972383</v>
       </c>
       <c r="N118" t="n">
-        <v>0.05528718300080521</v>
+        <v>0.02275956016090194</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03861270237949534</v>
+        <v>0.04134383392953656</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02188690212729234</v>
+        <v>0.02269675329859484</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04364572676123014</v>
+        <v>0.0421239062678297</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01792195899965025</v>
+        <v>0.05040955393241758</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04300006531229833</v>
+        <v>0.04166310568199867</v>
       </c>
       <c r="L119" t="n">
-        <v>0.03660213530372197</v>
+        <v>0.07780600672448901</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04269086248738128</v>
+        <v>0.04163634435368087</v>
       </c>
       <c r="N119" t="n">
-        <v>0.05546799412916847</v>
+        <v>0.02269675329859484</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03934124393382545</v>
+        <v>0.0421239062678297</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02302054042124226</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04445398096051217</v>
+        <v>0.04290397860612284</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01805666713492768</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04379636281808163</v>
+        <v>0.04243464467610976</v>
       </c>
       <c r="L120" t="n">
-        <v>0.03634790606505961</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04348143401492537</v>
+        <v>0.04240738776763793</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0555305047899306</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04006978548815554</v>
+        <v>0.04290397860612284</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02117634697267896</v>
+        <v>0.02292020703990361</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04526223515979422</v>
+        <v>0.04368405094441598</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01831608217888812</v>
+        <v>0.05037620984833546</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04459266032386493</v>
+        <v>0.04320618367022085</v>
       </c>
       <c r="L121" t="n">
-        <v>0.03638730822186109</v>
+        <v>0.07833144102752632</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04427200554246947</v>
+        <v>0.04317843118159498</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05547011888638248</v>
+        <v>0.02292020703990361</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04079832704248564</v>
+        <v>0.04368405094441598</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02235219860405832</v>
+        <v>0.02281438211956345</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04607048935907625</v>
+        <v>0.04446412328270912</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01849769017991705</v>
+        <v>0.05046778957352149</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04538895782964823</v>
+        <v>0.04397772266433193</v>
       </c>
       <c r="L122" t="n">
-        <v>0.03642947664573523</v>
+        <v>0.07822049306628859</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04506257707001356</v>
+        <v>0.04394947459555204</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05658224032181502</v>
+        <v>0.02281438211956345</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04152686859681574</v>
+        <v>0.04446412328270912</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0215459721378362</v>
+        <v>0.02270187582314383</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04687874355835829</v>
+        <v>0.04524419562100227</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01869897718639989</v>
+        <v>0.05012538534203553</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04618525533543154</v>
+        <v>0.04474926165844302</v>
       </c>
       <c r="L123" t="n">
-        <v>0.03621464744292782</v>
+        <v>0.07805632069611163</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04585314859755767</v>
+        <v>0.04472051800950909</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05666227299951909</v>
+        <v>0.02270187582314383</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04225541015114585</v>
+        <v>0.04524419562100227</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02275554439646844</v>
+        <v>0.02278291643005456</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04768699775764033</v>
+        <v>0.04602426795929541</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01881742924672206</v>
+        <v>0.05005025017927434</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04698155284121484</v>
+        <v>0.04552080065255411</v>
       </c>
       <c r="L124" t="n">
-        <v>0.03646975659175952</v>
+        <v>0.07754115391197369</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04664372012510176</v>
+        <v>0.04549156142346614</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05710562082278575</v>
+        <v>0.02278291643005456</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04298395170547595</v>
+        <v>0.04602426795929541</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02197879220241095</v>
+        <v>0.0228577322197055</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04849525195692237</v>
+        <v>0.04680434029758856</v>
       </c>
       <c r="J125" t="n">
-        <v>0.01905053240926902</v>
+        <v>0.05044397064224762</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04777785034699814</v>
+        <v>0.04629233964666519</v>
       </c>
       <c r="L125" t="n">
-        <v>0.03697732808117649</v>
+        <v>0.07787754684441278</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04743429165264586</v>
+        <v>0.04626260483742319</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05810768769490582</v>
+        <v>0.0228577322197055</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04371249325980605</v>
+        <v>0.04680434029758856</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02321359237811954</v>
+        <v>0.02262655147150648</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04930350615620441</v>
+        <v>0.0475844126358817</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01939577272242619</v>
+        <v>0.05010813328796512</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04857414785278145</v>
+        <v>0.04706387864077628</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0376198512757584</v>
+        <v>0.07776805362396677</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04822486318018995</v>
+        <v>0.04703364825138025</v>
       </c>
       <c r="N126" t="n">
-        <v>0.05816387751917018</v>
+        <v>0.02262655147150648</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04444103481413614</v>
+        <v>0.0475844126358817</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02445782174605012</v>
+        <v>0.0227896024648674</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05011176035548645</v>
+        <v>0.04836448497417484</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01955063623457903</v>
+        <v>0.05014432467343655</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04937044535856475</v>
+        <v>0.04783541763488736</v>
       </c>
       <c r="L127" t="n">
-        <v>0.03837981554008504</v>
+        <v>0.07761522838117391</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04901543470773406</v>
+        <v>0.0478046916653373</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05896959419886977</v>
+        <v>0.0227896024648674</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04516957636846625</v>
+        <v>0.04836448497417484</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02370935712865851</v>
+        <v>0.02264711347919805</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05092001455476849</v>
+        <v>0.04914455731246798</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01981260899411298</v>
+        <v>0.04955413135567152</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05016674286434805</v>
+        <v>0.04860695662899845</v>
       </c>
       <c r="L128" t="n">
-        <v>0.03903971023873606</v>
+        <v>0.07722162524657206</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04980600623527815</v>
+        <v>0.04857573507929436</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06022024163729556</v>
+        <v>0.02264711347919805</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04589811792279635</v>
+        <v>0.04914455731246798</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02296607534840062</v>
+        <v>0.02269931279390833</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05172826875405053</v>
+        <v>0.04992462965076112</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02007917704941348</v>
+        <v>0.04923913989167986</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05096304037013135</v>
+        <v>0.04937849562310954</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0395820247362913</v>
+        <v>0.07668979835069928</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05059657776282225</v>
+        <v>0.04934677849325141</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06111122373773831</v>
+        <v>0.02269931279390833</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04662665947712645</v>
+        <v>0.04992462965076112</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02522585322773228</v>
+        <v>0.02254642868840805</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05253652295333257</v>
+        <v>0.05070470198905427</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02034782644886592</v>
+        <v>0.04900093683847118</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05175933787591466</v>
+        <v>0.05015003461722062</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04048924839733042</v>
+        <v>0.07632230182409372</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05138714929036634</v>
+        <v>0.05011782190720846</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06143794440348915</v>
+        <v>0.02254642868840805</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04735520103145655</v>
+        <v>0.05070470198905427</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02448656758910936</v>
+        <v>0.02258868944210708</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05334477715261461</v>
+        <v>0.05148477432734741</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02061604324085581</v>
+        <v>0.04874110875305523</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05255563538169796</v>
+        <v>0.05092157361133171</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0419438705864332</v>
+        <v>0.07562168979729333</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05217772081791044</v>
+        <v>0.05088886532116552</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06249580753783879</v>
+        <v>0.02258868944210708</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04808374258578665</v>
+        <v>0.05148477432734741</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02374609525498773</v>
+        <v>0.02232632333441525</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05415303135189665</v>
+        <v>0.05226484666564055</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02078131347376852</v>
+        <v>0.04886124219244176</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05335193288748126</v>
+        <v>0.0516931126054428</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04262838066817931</v>
+        <v>0.07519051640083607</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05296829234545455</v>
+        <v>0.05165990873512256</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06368021704407822</v>
+        <v>0.02232632333441525</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04881228414011676</v>
+        <v>0.05226484666564055</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02500231304782326</v>
+        <v>0.02235955864474244</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05496128555117869</v>
+        <v>0.0530449190039337</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02124112319598956</v>
+        <v>0.04846292371364036</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05414823039326457</v>
+        <v>0.05246465159955389</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04352526800714854</v>
+        <v>0.07503133576526005</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05375886387299864</v>
+        <v>0.05243095214907962</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06428657682549843</v>
+        <v>0.02235955864474244</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04954082569444685</v>
+        <v>0.0530449190039337</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0252530977900718</v>
+        <v>0.02218862365249848</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05576953975046073</v>
+        <v>0.05382499134222683</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02149295845590431</v>
+        <v>0.04834773987366087</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05494452789904786</v>
+        <v>0.05323619059366497</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04451702196792057</v>
+        <v>0.07444670202110326</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05454943540054274</v>
+        <v>0.05320199556303667</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06501029078539022</v>
+        <v>0.02218862365249848</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05026936724877695</v>
+        <v>0.05382499134222683</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02549632630418922</v>
+        <v>0.02211374663709322</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05657779394974276</v>
+        <v>0.05460506368051998</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02173430530189824</v>
+        <v>0.04761727722951287</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05574082540483117</v>
+        <v>0.05400772958777606</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04588613191507521</v>
+        <v>0.07373916929890378</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05534000692808683</v>
+        <v>0.05397303897699373</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06604676282704453</v>
+        <v>0.02211374663709322</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05099790880310705</v>
+        <v>0.05460506368051998</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02472987541263137</v>
+        <v>0.02223515587793652</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05738604814902481</v>
+        <v>0.05538513601881312</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02196264978235676</v>
+        <v>0.04727312233820619</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05653712291061447</v>
+        <v>0.05477926858188714</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04641508721319212</v>
+        <v>0.07341129172919958</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05613057845563093</v>
+        <v>0.05474408239095079</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06739139685375234</v>
+        <v>0.02223515587793652</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05172645035743715</v>
+        <v>0.05538513601881312</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02495162193785413</v>
+        <v>0.0220530796544382</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05819430234830685</v>
+        <v>0.05616520835710627</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02217547794566535</v>
+        <v>0.04731686175675048</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05733342041639777</v>
+        <v>0.05555080757599824</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0473863772268511</v>
+        <v>0.0725656234425287</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05692114998317502</v>
+        <v>0.05551512580490783</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06823959676880448</v>
+        <v>0.0220530796544382</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05245499191176726</v>
+        <v>0.05616520835710627</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02515944270231336</v>
+        <v>0.02186774624600815</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05900255654758889</v>
+        <v>0.05694528069539941</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02227027584020941</v>
+        <v>0.04695008204215542</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05812971792218108</v>
+        <v>0.05632234657010932</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04818249132063185</v>
+        <v>0.07250471856942919</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05771172151071913</v>
+        <v>0.05628616921886489</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06878676647549187</v>
+        <v>0.02186774624600815</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05318353346609736</v>
+        <v>0.05694528069539941</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02535121452846492</v>
+        <v>0.0219793839320562</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05981081074687093</v>
+        <v>0.05772535303369255</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0224445295143744</v>
+        <v>0.04647436975143077</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05892601542796438</v>
+        <v>0.0570938855642204</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04868591885911402</v>
+        <v>0.07143113124043909</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05850229303826323</v>
+        <v>0.05705721263282194</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06972830987710554</v>
+        <v>0.0219793839320562</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05391207502042746</v>
+        <v>0.05772535303369255</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02752481423876468</v>
+        <v>0.0218882209919922</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06061906494615296</v>
+        <v>0.05850542537198569</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02269572501654574</v>
+        <v>0.04599131144158622</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05972231293374768</v>
+        <v>0.05786542455833149</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04947914920687746</v>
+        <v>0.07094741558609641</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05929286456580733</v>
+        <v>0.057828256046779</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07105963087693618</v>
+        <v>0.0218882209919922</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05464061657475755</v>
+        <v>0.05850542537198569</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02766111568273782</v>
+        <v>0.02169448570522599</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06142731914543501</v>
+        <v>0.05928549771027884</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02272134839510888</v>
+        <v>0.04580249366963146</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06051861043953098</v>
+        <v>0.05863696355244258</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04994467172850189</v>
+        <v>0.07095612573693916</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06008343609335142</v>
+        <v>0.05859929946073604</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07167613337827489</v>
+        <v>0.02169448570522599</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05536915812908766</v>
+        <v>0.05928549771027884</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02582573960442397</v>
+        <v>0.02149840635116743</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06223557334471704</v>
+        <v>0.06006557004857199</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.04530950299257619</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06131490794531429</v>
+        <v>0.05940850254655367</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05056497578856697</v>
+        <v>0.07005981582350534</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06087400762089552</v>
+        <v>0.0593703428746931</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07287322128441248</v>
+        <v>0.02149840635116743</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05609769968341776</v>
+        <v>0.06006557004857199</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02597649061291632</v>
+        <v>0.02160021120922637</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06304382754399909</v>
+        <v>0.06084564238686512</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02280057085920831</v>
+        <v>0.04461392596743013</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06211120545109759</v>
+        <v>0.06018004154066475</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.06906103997633306</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06166457914843961</v>
+        <v>0.06014138628865016</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07384629849863994</v>
+        <v>0.02160021120922637</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05682624123774786</v>
+        <v>0.06084564238686512</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02812989508790223</v>
+        <v>0.02150012855881264</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06385208174328112</v>
+        <v>0.06162571472515826</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02288146810861928</v>
+        <v>0.04431734915120303</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0629075029568809</v>
+        <v>0.06095158053477584</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05037870845080239</v>
+        <v>0.06846235232596037</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06245515067598371</v>
+        <v>0.06091242970260721</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0741907689242482</v>
+        <v>0.02150012855881264</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05755478279207796</v>
+        <v>0.06162571472515826</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02628529266988591</v>
+        <v>0.02129838667933612</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06466033594256315</v>
+        <v>0.0624057870634514</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02296144549725156</v>
+        <v>0.04392135910090453</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06370380046266419</v>
+        <v>0.06172311952888693</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05061558438880542</v>
+        <v>0.06816630700292514</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06324572220352781</v>
+        <v>0.06168347311656425</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07540203646452798</v>
+        <v>0.02129838667933612</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05828332434640806</v>
+        <v>0.0624057870634514</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02644202299937166</v>
+        <v>0.02119521385020666</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06546859014184521</v>
+        <v>0.06318585940174455</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02324036438292883</v>
+        <v>0.04382754237354436</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0645000979684475</v>
+        <v>0.06249465852299801</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05104830634418561</v>
+        <v>0.06777545813776559</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06403629373107191</v>
+        <v>0.06245451653052131</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07587550502277046</v>
+        <v>0.02119521385020666</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05901186590073816</v>
+        <v>0.06318585940174455</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02759942571686373</v>
+        <v>0.02119083835083407</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06627684434112724</v>
+        <v>0.06396593174003769</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02331808612347472</v>
+        <v>0.04313748552613225</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0652963954742308</v>
+        <v>0.0632661975171091</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05127682031010483</v>
+        <v>0.06669235986101962</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06482686525861601</v>
+        <v>0.06322555994447837</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07650657850226633</v>
+        <v>0.02119083835083407</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05974040745506827</v>
+        <v>0.06396593174003769</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02775684046286636</v>
+        <v>0.02108548846062824</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06708509854040928</v>
+        <v>0.06474600407833084</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02329447207671294</v>
+        <v>0.04265277511567789</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06609269298001411</v>
+        <v>0.06403773651122018</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05100107227972503</v>
+        <v>0.06641956630322521</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06561743678616011</v>
+        <v>0.06399660335843542</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07749066080630668</v>
+        <v>0.02108548846062824</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06046894900939837</v>
+        <v>0.06474600407833084</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02791360687788379</v>
+        <v>0.02097939245899899</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06789335273969133</v>
+        <v>0.06552607641662397</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02326938360046715</v>
+        <v>0.04227499769919096</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0668889904857974</v>
+        <v>0.06480927550533128</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05112100824620802</v>
+        <v>0.06615963159492061</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06640800831370421</v>
+        <v>0.06476764677239247</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.02097939245899899</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06119749056372846</v>
+        <v>0.06552607641662397</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02806906460242029</v>
+        <v>0.02087277862535621</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06870160693897337</v>
+        <v>0.06630614875491712</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02354268205256103</v>
+        <v>0.04230573983368124</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0676852879915807</v>
+        <v>0.06558081449944235</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05113657420271575</v>
+        <v>0.06561510986664365</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0671985798412483</v>
+        <v>0.06553869018634953</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07882507783318604</v>
+        <v>0.02087277862535621</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06192603211805857</v>
+        <v>0.06630614875491712</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02722255327698009</v>
+        <v>0.02076587523910969</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0695098611382554</v>
+        <v>0.06708622109321026</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02351422879081826</v>
+        <v>0.04174658807615836</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06848158549736401</v>
+        <v>0.06635235349355345</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05154771614241008</v>
+        <v>0.0647885552489324</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0679891513687924</v>
+        <v>0.06630973360030658</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07904330639881252</v>
+        <v>0.02076587523910969</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06265457367238866</v>
+        <v>0.06708622109321026</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02937341254206748</v>
+        <v>0.02065891057966933</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07031811533753744</v>
+        <v>0.06786629343150341</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02348388517306252</v>
+        <v>0.0415945870393378</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06927788300314731</v>
+        <v>0.06712389248766452</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05145438005845285</v>
+        <v>0.063982521872325</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06877972289633649</v>
+        <v>0.06708077701426364</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0801771205677862</v>
+        <v>0.02065891057966933</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06338311522671876</v>
+        <v>0.06786629343150341</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02952098203818666</v>
+        <v>0.02035211292644495</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07112636953681949</v>
+        <v>0.06864636576979655</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02365151255711744</v>
+        <v>0.04103565340546256</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07007418050893062</v>
+        <v>0.06789543148177561</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05165651194400608</v>
+        <v>0.06359956386735938</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06957029442388059</v>
+        <v>0.06785182042822069</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08072450731713021</v>
+        <v>0.02035211292644495</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06411165678104887</v>
+        <v>0.06864636576979655</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02766460140584194</v>
+        <v>0.02024571055884641</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07193462373610152</v>
+        <v>0.06942643810808968</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02361697230080675</v>
+        <v>0.04086889629731522</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07087047801471391</v>
+        <v>0.0686669704758867</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05185405779223154</v>
+        <v>0.06304223536457348</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07036086595142468</v>
+        <v>0.06862286384217774</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08148345362386766</v>
+        <v>0.02024571055884641</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06484019833537898</v>
+        <v>0.06942643810808968</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02880361028553753</v>
+        <v>0.02013993175628358</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07274287793538356</v>
+        <v>0.07020651044638283</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02368012576195409</v>
+        <v>0.0400945977471821</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07166677552049722</v>
+        <v>0.06943850946999779</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05174696359629116</v>
+        <v>0.06261309049450553</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07115143747896879</v>
+        <v>0.0693939072561348</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08175194646502171</v>
+        <v>0.02013993175628358</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06556873988970907</v>
+        <v>0.07020651044638283</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02793734831777771</v>
+        <v>0.02023500479816627</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0735511321346656</v>
+        <v>0.07098658278467597</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02374083429838315</v>
+        <v>0.03991303978734978</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07246307302628052</v>
+        <v>0.07021004846410887</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05193517534934683</v>
+        <v>0.06231468338769336</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07194200900651289</v>
+        <v>0.07016495067009185</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08212797281761547</v>
+        <v>0.02023500479816627</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06629728144403917</v>
+        <v>0.07098658278467597</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03006515514306669</v>
+        <v>0.02003115796390434</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07435938633394763</v>
+        <v>0.07176665512296912</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02389895926791762</v>
+        <v>0.03952450445010469</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07325937053206383</v>
+        <v>0.07098158745821996</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05221863904456042</v>
+        <v>0.06214694951897004</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07273258053405698</v>
+        <v>0.0709359940840489</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08290951965867199</v>
+        <v>0.02003115796390434</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06702582299836927</v>
+        <v>0.07176665512296912</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03018637040190879</v>
+        <v>0.01992861953290767</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07516764053322968</v>
+        <v>0.07254672746126226</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02385436202838113</v>
+        <v>0.03902927376773332</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07405566803784713</v>
+        <v>0.07175312645233105</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05199730067509384</v>
+        <v>0.06179653496849408</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07352315206160108</v>
+        <v>0.07170703749800596</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0841945739652144</v>
+        <v>0.01992861953290767</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06775436455269937</v>
+        <v>0.07254672746126226</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02830033373480821</v>
+        <v>0.01972761778458607</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07597589473251172</v>
+        <v>0.07332679979955541</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02410690393759739</v>
+        <v>0.03862762977252213</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07485196554363042</v>
+        <v>0.07252466544644214</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05227110623410897</v>
+        <v>0.06166047141172698</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07431372358914518</v>
+        <v>0.07247808091196301</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08478112271426574</v>
+        <v>0.01972761778458607</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06848290610702946</v>
+        <v>0.07332679979955541</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03040638478226922</v>
+        <v>0.01982811142186781</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07678414893179376</v>
+        <v>0.07410687213784854</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02395644635339006</v>
+        <v>0.03821985449675758</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07564826304941373</v>
+        <v>0.07329620444055322</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05254000171476766</v>
+        <v>0.06093791724427278</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07510429511668927</v>
+        <v>0.07324912432592007</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08556715288284922</v>
+        <v>0.01982811142186781</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06921144766135957</v>
+        <v>0.07410687213784854</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02950386318479604</v>
+        <v>0.01952741844397091</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07759240313107579</v>
+        <v>0.07488694447614169</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02420285063358284</v>
+        <v>0.03770622997272616</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07644456055519702</v>
+        <v>0.07406774343466431</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05230393311023188</v>
+        <v>0.06102803086173553</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07589486664423337</v>
+        <v>0.07402016773987712</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08625065144798799</v>
+        <v>0.01952741844397091</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06993998921568967</v>
+        <v>0.07488694447614169</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02959210858289298</v>
+        <v>0.01942478089053438</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07840065733035784</v>
+        <v>0.07566701681443483</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02414597813599935</v>
+        <v>0.03748703823271432</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07724085806098033</v>
+        <v>0.0748392824287754</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05226284641366344</v>
+        <v>0.06082997065971929</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07668543817177746</v>
+        <v>0.07479121115383416</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08662960538670506</v>
+        <v>0.01942478089053438</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07066853077001978</v>
+        <v>0.07566701681443483</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02867046061706424</v>
+        <v>0.0195201815364603</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07920891152963988</v>
+        <v>0.07644708915272798</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02408569021846332</v>
+        <v>0.03686256130900856</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07803715556676363</v>
+        <v>0.07561082142288648</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05271668761822429</v>
+        <v>0.06014289503382825</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07747600969932156</v>
+        <v>0.07556225456779123</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08720200167602349</v>
+        <v>0.0195201815364603</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07139707232434989</v>
+        <v>0.07644708915272798</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02873825892781413</v>
+        <v>0.01921360315665067</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08001716572892191</v>
+        <v>0.07722716149102112</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02412184823879841</v>
+        <v>0.03673308123389535</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07883345307254692</v>
+        <v>0.07638236041699757</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05266540271707629</v>
+        <v>0.05966596237966626</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07826658122686567</v>
+        <v>0.07633329798174826</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08786582729296649</v>
+        <v>0.01921360315665067</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07212561387867998</v>
+        <v>0.07722716149102112</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02879484315564683</v>
+        <v>0.01920502852600758</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08082541992820395</v>
+        <v>0.07800723382931425</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02415431355482825</v>
+        <v>0.0361988800396611</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07962975057833023</v>
+        <v>0.07715389941110866</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05260893770338129</v>
+        <v>0.05999833109283764</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07905715275440976</v>
+        <v>0.07710434139570532</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08881906921455712</v>
+        <v>0.01920502852600758</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07285415543301008</v>
+        <v>0.07800723382931425</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02883955294106665</v>
+        <v>0.01919444041943308</v>
       </c>
       <c r="G166" t="n">
-        <v>0.081633674127486</v>
+        <v>0.07878730616760739</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02438294752437659</v>
+        <v>0.03566023975859239</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08042604808411354</v>
+        <v>0.07792543840521975</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05284723857030124</v>
+        <v>0.05943915956894641</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07984772428195386</v>
+        <v>0.07787538480966238</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08895971441781853</v>
+        <v>0.01919444041943308</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07358269698734018</v>
+        <v>0.07878730616760739</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02887172792457782</v>
+        <v>0.0190818216118292</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08244192832676803</v>
+        <v>0.07956737850590054</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02440761150526706</v>
+        <v>0.03501744242297558</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08122234558989684</v>
+        <v>0.07869697739933083</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05248025131099798</v>
+        <v>0.05938760620359662</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08063829580949795</v>
+        <v>0.07864642822361943</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08958574987977386</v>
+        <v>0.0190818216118292</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07431123854167028</v>
+        <v>0.07956737850590054</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02889070774668458</v>
+        <v>0.01876715487809798</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08325018252605007</v>
+        <v>0.08034745084419369</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02432816685532331</v>
+        <v>0.03497077006509722</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08201864309568015</v>
+        <v>0.07946851639344192</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05270792191863344</v>
+        <v>0.05904282939239225</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08142886733704206</v>
+        <v>0.07941747163757648</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09039516257744601</v>
+        <v>0.01876715487809798</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07503978009600037</v>
+        <v>0.08034745084419369</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02889571595230281</v>
+        <v>0.01885042299314151</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08405843672533211</v>
+        <v>0.08112752318248682</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02444447493236909</v>
+        <v>0.0344205047172437</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08281494060146344</v>
+        <v>0.08024005538755301</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0527301963863695</v>
+        <v>0.05910398753093754</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08221943886458616</v>
+        <v>0.08018851505153353</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09078593948785835</v>
+        <v>0.01885042299314151</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07576832165033047</v>
+        <v>0.08112752318248682</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03087916683735313</v>
+        <v>0.01853160873186177</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08486669092461416</v>
+        <v>0.08190759552077997</v>
       </c>
       <c r="J170" t="n">
-        <v>0.024356397094228</v>
+        <v>0.0341669284117016</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08361123810724674</v>
+        <v>0.0810115943816641</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05284702070736799</v>
+        <v>0.0588702390148364</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08301001039213025</v>
+        <v>0.08095955846549059</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09195606758803382</v>
+        <v>0.01853160873186177</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07649686320466058</v>
+        <v>0.08190759552077997</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03083778462556305</v>
+        <v>0.01861069486916091</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08567494512389619</v>
+        <v>0.08268766785907311</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02436379469872374</v>
+        <v>0.03341032318075729</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08440753561303005</v>
+        <v>0.08178313337577517</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05275834087479089</v>
+        <v>0.05834074223969316</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08380058191967435</v>
+        <v>0.08173060187944765</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09220353385499552</v>
+        <v>0.01861069486916091</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07722540475899069</v>
+        <v>0.08268766785907311</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03077293520944523</v>
+        <v>0.01838766417994089</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08648319932317823</v>
+        <v>0.08346774019736626</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02436652910368001</v>
+        <v>0.0327509710566973</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08520383311881335</v>
+        <v>0.08255467236988627</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0527641028818</v>
+        <v>0.05801465560111169</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08459115344721846</v>
+        <v>0.08250164529340469</v>
       </c>
       <c r="N172" t="n">
-        <v>0.09282632526576678</v>
+        <v>0.01838766417994089</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07795394631332078</v>
+        <v>0.08346774019736626</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02868598448151227</v>
+        <v>0.01836249943910384</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08729145352246027</v>
+        <v>0.0842478125356594</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02425448809053221</v>
+        <v>0.03228915407180807</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08600013062459666</v>
+        <v>0.08332621136399734</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05286009587744256</v>
+        <v>0.0578911374946961</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08538172497476255</v>
+        <v>0.08327268870736175</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09292242879737034</v>
+        <v>0.01836249943910384</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07868248786765089</v>
+        <v>0.0842478125356594</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0295782983342768</v>
+        <v>0.01823518342155173</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0880997077217423</v>
+        <v>0.08502788487395255</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02431552838758987</v>
+        <v>0.03212515425837612</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08679642813037995</v>
+        <v>0.08409775035810844</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0529191385828606</v>
+        <v>0.05746934631605055</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08617229650230665</v>
+        <v>0.08404373212131881</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09348983142682965</v>
+        <v>0.01823518342155173</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07941102942198099</v>
+        <v>0.08502788487395255</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03045124266025147</v>
+        <v>0.01810569890218665</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08890796192102435</v>
+        <v>0.08580795721224568</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0241514346279504</v>
+        <v>0.03155925364868786</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08759272563616326</v>
+        <v>0.08486928935221952</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05243789465619436</v>
+        <v>0.05704844046077906</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08696286802985075</v>
+        <v>0.08481477553527586</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09432652013116766</v>
+        <v>0.01810569890218665</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08013957097631108</v>
+        <v>0.08580795721224568</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03030618335194887</v>
+        <v>0.01797402865591063</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08971621612030639</v>
+        <v>0.08658802955053883</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02426405730079466</v>
+        <v>0.03119173427502983</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08838902314194656</v>
+        <v>0.08564082834633062</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05271827759640801</v>
+        <v>0.0573275783244856</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08775343955739484</v>
+        <v>0.08558581894923291</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09473048188740746</v>
+        <v>0.01797402865591063</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08086811253064119</v>
+        <v>0.08658802955053883</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02814448630188164</v>
+        <v>0.01764015545762575</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09052447031958843</v>
+        <v>0.08736810188883197</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02395524689530344</v>
+        <v>0.0308228781696884</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08918532064772987</v>
+        <v>0.08641236734044169</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05236220090246571</v>
+        <v>0.05660591830277445</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08854401108493894</v>
+        <v>0.08635686236318996</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09489970367257222</v>
+        <v>0.01764015545762575</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08159665408497128</v>
+        <v>0.08736810188883197</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02896751740256241</v>
+        <v>0.01750406208223405</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09133272451887046</v>
+        <v>0.08814817422712511</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02402685390065755</v>
+        <v>0.02995296736495012</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08998161815351317</v>
+        <v>0.08718390633455278</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05217157807333159</v>
+        <v>0.05658261879124954</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08933458261248303</v>
+        <v>0.08712790577714702</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09523217246368504</v>
+        <v>0.01750406208223405</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08232519563930138</v>
+        <v>0.08814817422712511</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02777664254650382</v>
+        <v>0.01736573130463757</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09214097871815251</v>
+        <v>0.08892824656541824</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02368072880603786</v>
+        <v>0.02998228389310145</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09077791565929647</v>
+        <v>0.08795544532866387</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0520483226079699</v>
+        <v>0.05625683818551508</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09012515414002713</v>
+        <v>0.08789894919110408</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09582587523776903</v>
+        <v>0.01736573130463757</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08305373719363149</v>
+        <v>0.08892824656541824</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02957322762621849</v>
+        <v>0.01732514589973837</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09294923291743455</v>
+        <v>0.08970831890371139</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02371872210062516</v>
+        <v>0.02951110978642885</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09157421316507977</v>
+        <v>0.08872698432277495</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05179434800534477</v>
+        <v>0.05652773488117507</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09091572566757122</v>
+        <v>0.08866999260506112</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09607879897184723</v>
+        <v>0.01732514589973837</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08378227874796158</v>
+        <v>0.08970831890371139</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02835863853421902</v>
+        <v>0.01708228864243848</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09375748711671658</v>
+        <v>0.09048839124200454</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02354268427360026</v>
+        <v>0.0288397270772188</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09237051067086308</v>
+        <v>0.08949852331688604</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05121156776442032</v>
+        <v>0.05569446727383354</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09170629719511533</v>
+        <v>0.08944103601901818</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09598893064294273</v>
+        <v>0.01708228864243848</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08451082030229169</v>
+        <v>0.09048839124200454</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02713424116301805</v>
+        <v>0.01703714230763999</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09456574131599864</v>
+        <v>0.09126846358029768</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02335446581414402</v>
+        <v>0.02806841779775776</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09316680817664638</v>
+        <v>0.09027006231099713</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05110189538416079</v>
+        <v>0.0560561937590946</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09249686872265943</v>
+        <v>0.09021207943297523</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09625425722807884</v>
+        <v>0.01703714230763999</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0852393618566218</v>
+        <v>0.09126846358029768</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02790140140512823</v>
+        <v>0.0167896896702449</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09537399551528067</v>
+        <v>0.09204853591859083</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02305591721143724</v>
+        <v>0.0279974639803322</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09396310568242967</v>
+        <v>0.09104160130510822</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05046724436353037</v>
+        <v>0.0552120727325624</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09328744025020352</v>
+        <v>0.09098312284693229</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09587276570427844</v>
+        <v>0.0167896896702449</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0859679034109519</v>
+        <v>0.09204853591859083</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02766148515306215</v>
+        <v>0.01673991350515529</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0961822497145627</v>
+        <v>0.09282860825688397</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02294888895466073</v>
+        <v>0.02722714765722858</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09475940318821298</v>
+        <v>0.0918131402992193</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05030952820149318</v>
+        <v>0.05566126258984094</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09407801177774762</v>
+        <v>0.09175416626088934</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09664244304856479</v>
+        <v>0.01673991350515529</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08669644496528199</v>
+        <v>0.09282860825688397</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02641585829933245</v>
+        <v>0.0164877965872732</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09699050391384474</v>
+        <v>0.09360868059517712</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02273523153299535</v>
+        <v>0.0267577508607334</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09555570069399628</v>
+        <v>0.09258467929333038</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05003066039701337</v>
+        <v>0.05540292172653438</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09486858330529171</v>
+        <v>0.09252520967484638</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09666023281074065</v>
+        <v>0.0164877965872732</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0874249865196121</v>
+        <v>0.09360868059517712</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02816588673645178</v>
+        <v>0.01653332169150069</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09779875811312679</v>
+        <v>0.09438875293347025</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02231679543562189</v>
+        <v>0.02638955562313314</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09635199819977959</v>
+        <v>0.09335621828744148</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04983255444905518</v>
+        <v>0.05443620853824671</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09565915483283581</v>
+        <v>0.09329625308880345</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09585842817313678</v>
+        <v>0.01653332169150069</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08815352807394219</v>
+        <v>0.09438875293347025</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02791293635693273</v>
+        <v>0.0162764715927398</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09860701231240883</v>
+        <v>0.0951688252717634</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02229543115172121</v>
+        <v>0.02612284397671424</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0971482957055629</v>
+        <v>0.09412775728155255</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04911712385658273</v>
+        <v>0.05486028142058202</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09644972636037991</v>
+        <v>0.09406729650276051</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09610382880492307</v>
+        <v>0.0162764715927398</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08888206962827229</v>
+        <v>0.0951688252717634</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02765837305328793</v>
+        <v>0.0162172290658926</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09941526651169086</v>
+        <v>0.09594889761005654</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02197298917047408</v>
+        <v>0.02565789795376316</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09794459321134619</v>
+        <v>0.09489929627566365</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04868628211856021</v>
+        <v>0.05387429876914451</v>
       </c>
       <c r="M188" t="n">
-        <v>0.097240297887924</v>
+        <v>0.09483833991671754</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09590552027026411</v>
+        <v>0.0162172290658926</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08961061118260238</v>
+        <v>0.09594889761005654</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02640356271803004</v>
+        <v>0.01605557688586109</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1002235207109729</v>
+        <v>0.09672896994834967</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02165131998106136</v>
+        <v>0.02499499958656642</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09874089071712949</v>
+        <v>0.09567083526977473</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04854194273395182</v>
+        <v>0.05387741897953796</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09803086941546811</v>
+        <v>0.0956093833306746</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09467258813332458</v>
+        <v>0.01605557688586109</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09033915273693249</v>
+        <v>0.09672896994834967</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02714987124367164</v>
+        <v>0.01589088808386586</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1010317749102549</v>
+        <v>0.09750904228664281</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02153227407266387</v>
+        <v>0.02453443090741042</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0995371882229128</v>
+        <v>0.09644237426388583</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04798601920172169</v>
+        <v>0.05326880044736682</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09882144094301221</v>
+        <v>0.09638042674463165</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09411411795826907</v>
+        <v>0.01589088808386586</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0910676942912626</v>
+        <v>0.09750904228664281</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02589866452272539</v>
+        <v>0.01551421660189183</v>
       </c>
       <c r="G191" t="n">
-        <v>0.101840029109537</v>
+        <v>0.09828911462493596</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02141770193446242</v>
+        <v>0.02417647394858169</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1003334857286961</v>
+        <v>0.0972139132579969</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04712042502083397</v>
+        <v>0.05324760156823494</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0996120124705563</v>
+        <v>0.09715147015858872</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09323919530926211</v>
+        <v>0.01551421660189183</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0917962358455927</v>
+        <v>0.09828911462493596</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02665130844770391</v>
+        <v>0.01532339376928549</v>
       </c>
       <c r="G192" t="n">
-        <v>0.102648283308819</v>
+        <v>0.0990691869632291</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02120945405563786</v>
+        <v>0.02381253395549229</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1011297832344794</v>
+        <v>0.097985452252108</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0468470736902529</v>
+        <v>0.0527129807377465</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1004025839981004</v>
+        <v>0.09792251357254576</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09295690575046839</v>
+        <v>0.01532339376928549</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09252477739992281</v>
+        <v>0.0990691869632291</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02640916891111983</v>
+        <v>0.015319442583662</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1034565375081011</v>
+        <v>0.09984925930152225</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02090938092537097</v>
+        <v>0.02313243712730484</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1019260807402627</v>
+        <v>0.09875699124621908</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04656787870894261</v>
+        <v>0.05286409635150552</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1011931555256445</v>
+        <v>0.09869355698650281</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09177633484605241</v>
+        <v>0.015319442583662</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0932533189542529</v>
+        <v>0.09984925930152225</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02617361180548575</v>
+        <v>0.01500338604263655</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1042647917073831</v>
+        <v>0.1006293316398154</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02061933303284258</v>
+        <v>0.02243769302180348</v>
       </c>
       <c r="K194" t="n">
-        <v>0.102722378246046</v>
+        <v>0.09952853024033016</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04578475357586725</v>
+        <v>0.05260010680511595</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1019837270531886</v>
+        <v>0.09946460040045987</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09050656816017888</v>
+        <v>0.01500338604263655</v>
       </c>
       <c r="O194" t="n">
-        <v>0.093981860508583</v>
+        <v>0.1006293316398154</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0249460030233143</v>
+        <v>0.01477624714382433</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1050730459066651</v>
+        <v>0.1014094039781085</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02044116086723355</v>
+        <v>0.02222985035086988</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1035186757518293</v>
+        <v>0.1003000692344412</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04539961178999105</v>
+        <v>0.05172017049418215</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1027742985807327</v>
+        <v>0.1002356438144169</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08965669125701237</v>
+        <v>0.01477624714382433</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0947104020629131</v>
+        <v>0.1014094039781085</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02572770845711815</v>
+        <v>0.01453904888484051</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1058813001059472</v>
+        <v>0.1021894763164017</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02037671491772469</v>
+        <v>0.02181045782638569</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1043149732576126</v>
+        <v>0.1010716082285523</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04501436685027813</v>
+        <v>0.05152344581430801</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1035648701082768</v>
+        <v>0.101006687228374</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08793578970071741</v>
+        <v>0.01453904888484051</v>
       </c>
       <c r="O196" t="n">
-        <v>0.0954389436172432</v>
+        <v>0.1021894763164017</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02352009399940988</v>
+        <v>0.0143928142633003</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1066895543052292</v>
+        <v>0.1029695486546948</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02022784567349679</v>
+        <v>0.02098106416023243</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1051112707633959</v>
+        <v>0.1018431472226634</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0446309322556927</v>
+        <v>0.05080909116109777</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1043554416358209</v>
+        <v>0.101777730642331</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08665294905545867</v>
+        <v>0.0143928142633003</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09616748517157329</v>
+        <v>0.1029695486546948</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02532452554270213</v>
+        <v>0.01393856627681887</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1074978085045113</v>
+        <v>0.103749620992988</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02019640362373072</v>
+        <v>0.02074321806429183</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1059075682691792</v>
+        <v>0.1026146862167745</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04415122150519887</v>
+        <v>0.0507762649301553</v>
       </c>
       <c r="M198" t="n">
-        <v>0.105146013163365</v>
+        <v>0.1025487740562881</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08591725488540064</v>
+        <v>0.01393856627681887</v>
       </c>
       <c r="O198" t="n">
-        <v>0.0968960267259034</v>
+        <v>0.103749620992988</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02414236897950753</v>
+        <v>0.0138773279230114</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1083060627037933</v>
+        <v>0.1045296933312811</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01998423925760726</v>
+        <v>0.01999846825044541</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1067038657749625</v>
+        <v>0.1033862252108856</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04357714809776089</v>
+        <v>0.05012412551708473</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1059365846909091</v>
+        <v>0.1033198174702451</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08443779275470814</v>
+        <v>0.0138773279230114</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09762456828023351</v>
+        <v>0.1045296933312811</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0239749902023387</v>
+        <v>0.01341012219949307</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1091143169030753</v>
+        <v>0.1053097656695742</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01999320306430727</v>
+        <v>0.01944836343057493</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1075001632807458</v>
+        <v>0.1041577642049967</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04281062553234288</v>
+        <v>0.04995183131749031</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1067271562184532</v>
+        <v>0.1040908608842022</v>
       </c>
       <c r="N200" t="n">
-        <v>0.0830236482275456</v>
+        <v>0.01341012219949307</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09835310983456361</v>
+        <v>0.1053097656695742</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02282375510370828</v>
+        <v>0.01333797210387909</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1099225711023574</v>
+        <v>0.1060898380078674</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01982514553301154</v>
+        <v>0.01889445231656187</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1082964607865291</v>
+        <v>0.1049293031991078</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04265356730790901</v>
+        <v>0.04885854072697587</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1075177277459973</v>
+        <v>0.1048619042981592</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08158390686807765</v>
+        <v>0.01333797210387909</v>
       </c>
       <c r="O201" t="n">
-        <v>0.0990816513888937</v>
+        <v>0.1060898380078674</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02469002957612888</v>
+        <v>0.01286190063378463</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1107308253016394</v>
+        <v>0.1068699103461605</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01978191715290091</v>
+        <v>0.01863828362028799</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1090927582923124</v>
+        <v>0.1057008421932188</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0422078869234235</v>
+        <v>0.04874341214114558</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1083082992735414</v>
+        <v>0.1056329477121163</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07962765424046886</v>
+        <v>0.01286190063378463</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09981019294322381</v>
+        <v>0.1068699103461605</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02256938247748755</v>
+        <v>0.01278293078682488</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1115390795009215</v>
+        <v>0.1076499826844537</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01976536841315621</v>
+        <v>0.01808140605363484</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1098890557980957</v>
+        <v>0.1064723811873299</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04167096579660867</v>
+        <v>0.04790507837592456</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1090988708010855</v>
+        <v>0.1064039911260733</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07856397590888381</v>
+        <v>0.01278293078682488</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1005387344975539</v>
+        <v>0.1076499826844537</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02344944722599286</v>
+        <v>0.01250208556061501</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1123473337002035</v>
+        <v>0.1084300550227468</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0197652556004405</v>
+        <v>0.01712536832848408</v>
       </c>
       <c r="K204" t="n">
-        <v>0.110685353303879</v>
+        <v>0.107243920181441</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04152983849811076</v>
+        <v>0.04783760979344981</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1098894423286296</v>
+        <v>0.1071750345400304</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07740195743748729</v>
+        <v>0.01250208556061501</v>
       </c>
       <c r="O204" t="n">
-        <v>0.101267276051884</v>
+        <v>0.1084300550227468</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0233297913350287</v>
+        <v>0.01202038795277021</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1131555878994855</v>
+        <v>0.10921012736104</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01966529447300555</v>
+        <v>0.01687171915671729</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1114816508096623</v>
+        <v>0.1080154591755521</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04108355135646752</v>
+        <v>0.04627515353878525</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1106800138561737</v>
+        <v>0.1079460779539875</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07525068439044369</v>
+        <v>0.01202038795277021</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1019958176062141</v>
+        <v>0.10921012736104</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02221046269368412</v>
+        <v>0.01173886096090566</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1139638420987676</v>
+        <v>0.1099901996993331</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01966540506712941</v>
+        <v>0.01612200725021617</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1122779483154456</v>
+        <v>0.1087869981696632</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04043210508080905</v>
+        <v>0.04553683110491547</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1114705853837178</v>
+        <v>0.1087171213679445</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07451924233191776</v>
+        <v>0.01173886096090566</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1027243591605442</v>
+        <v>0.1099901996993331</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02209150919104824</v>
+        <v>0.01165852758263657</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1147720962980496</v>
+        <v>0.1107702720376262</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01976562494493671</v>
+        <v>0.01587778132086223</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1130742458212289</v>
+        <v>0.1095585371637743</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03967550038026546</v>
+        <v>0.04414176398482517</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1122611569112619</v>
+        <v>0.1094881647819016</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07251671682607402</v>
+        <v>0.01165852758263657</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1034529007148743</v>
+        <v>0.1107702720376262</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02397297871621006</v>
+        <v>0.01128041081557809</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1155803504973317</v>
+        <v>0.1115503443759194</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01966599166855207</v>
+        <v>0.01494059008053722</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1138705433270122</v>
+        <v>0.1103300761578854</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03941373796396688</v>
+        <v>0.04280907367149905</v>
       </c>
       <c r="M208" t="n">
-        <v>0.113051728438806</v>
+        <v>0.1102592081958586</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07105219343707703</v>
+        <v>0.01128041081557809</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1041814422692044</v>
+        <v>0.1115503443759194</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02385491915825869</v>
+        <v>0.01090553365734543</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1163886046966137</v>
+        <v>0.1123304167142125</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01966654280010015</v>
+        <v>0.01441198224112269</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1146668408327955</v>
+        <v>0.1111016151519965</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03894681854104354</v>
+        <v>0.0414578816579218</v>
       </c>
       <c r="M209" t="n">
-        <v>0.11384229996635</v>
+        <v>0.1110302516098157</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07043475772909141</v>
+        <v>0.01090553365734543</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1049099838235345</v>
+        <v>0.1123304167142125</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02173737840628316</v>
+        <v>0.01083491910555377</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1171968588958957</v>
+        <v>0.1131104890525057</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01986731590170558</v>
+        <v>0.01379350651450031</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1154631383385788</v>
+        <v>0.1118731541461075</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03857474282062548</v>
+        <v>0.04040730943707799</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1146328714938942</v>
+        <v>0.1118012950237727</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06887349526628184</v>
+        <v>0.01083491910555377</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1056385253778646</v>
+        <v>0.1131104890525057</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02162040434937254</v>
+        <v>0.0104695901578183</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1180051130951778</v>
+        <v>0.1138905613907988</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01976834853549302</v>
+        <v>0.01348671161255169</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1162594358443622</v>
+        <v>0.1126446931402186</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0380975115118429</v>
+        <v>0.03807647850195239</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1154234430214383</v>
+        <v>0.1125723384377298</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06777749161281293</v>
+        <v>0.0104695901578183</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1063670669321947</v>
+        <v>0.1138905613907988</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02150404487661593</v>
+        <v>0.01031056981175419</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1188133672944598</v>
+        <v>0.114670633729092</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01976967826358707</v>
+        <v>0.01289314624715843</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1170557333501454</v>
+        <v>0.1134162321343297</v>
       </c>
       <c r="L212" t="n">
-        <v>0.03781512532382597</v>
+        <v>0.03638451034552964</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1162140145489824</v>
+        <v>0.1133433818516868</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06615583233284916</v>
+        <v>0.01031056981175419</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1070956084865248</v>
+        <v>0.114670633729092</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02238834787710237</v>
+        <v>0.00995888106497661</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1196216214937419</v>
+        <v>0.1154507060673851</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01987134264811241</v>
+        <v>0.01281435913020221</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1178520308559288</v>
+        <v>0.1141877711284408</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03712758496570473</v>
+        <v>0.03495052646079433</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1170045860765265</v>
+        <v>0.1141144252656439</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06541760299055516</v>
+        <v>0.00995888106497661</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1078241500408549</v>
+        <v>0.1154507060673851</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02327336123992091</v>
+        <v>0.009815546915100788</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1204298756930239</v>
+        <v>0.1162307784056782</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01977337925119364</v>
+        <v>0.01195189897356461</v>
       </c>
       <c r="K214" t="n">
-        <v>0.118648328361712</v>
+        <v>0.1149593101225519</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03673489114660944</v>
+        <v>0.03349364834073126</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1177951576040705</v>
+        <v>0.1148854686796009</v>
       </c>
       <c r="N214" t="n">
-        <v>0.06467188915009564</v>
+        <v>0.009815546915100788</v>
       </c>
       <c r="O214" t="n">
-        <v>0.108552691595185</v>
+        <v>0.1162307784056782</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02115913285416064</v>
+        <v>0.009381590359741877</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1212381298923059</v>
+        <v>0.1170108507439714</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01977582563495543</v>
+        <v>0.0114073144891273</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1194446258674954</v>
+        <v>0.115730849116663</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03633704457567016</v>
+        <v>0.031532997478325</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1185857291316147</v>
+        <v>0.115656512093558</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06349711484600618</v>
+        <v>0.009381590359741877</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1092812331495151</v>
+        <v>0.1170108507439714</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0210457106089106</v>
+        <v>0.009358034396515072</v>
       </c>
       <c r="G216" t="n">
-        <v>0.122046384091588</v>
+        <v>0.1177909230822645</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01987871936152243</v>
+        <v>0.01128215438877181</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1202409233732787</v>
+        <v>0.1165023881107741</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03553404596201706</v>
+        <v>0.02988769536656033</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1193763006591587</v>
+        <v>0.116427555507515</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06302871855638503</v>
+        <v>0.009358034396515072</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1100097747038452</v>
+        <v>0.1177909230822645</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02293314239325987</v>
+        <v>0.008945902023035558</v>
       </c>
       <c r="G217" t="n">
-        <v>0.12285463829087</v>
+        <v>0.1185709954205577</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01988209799301924</v>
+        <v>0.01097796738437989</v>
       </c>
       <c r="K217" t="n">
-        <v>0.121037220879062</v>
+        <v>0.1172739271048852</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03502589601478026</v>
+        <v>0.02827686349842184</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1201668721867028</v>
+        <v>0.1171985989214721</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06156435567115814</v>
+        <v>0.008945902023035558</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1107383162581753</v>
+        <v>0.1185709954205577</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0228214760962975</v>
+        <v>0.008946216236918512</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1236628924901521</v>
+        <v>0.1193510677588508</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01968599909157051</v>
+        <v>0.01039630218783311</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1218335183848453</v>
+        <v>0.1180454660989962</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03481259544308993</v>
+        <v>0.02651962336689428</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1209574437142469</v>
+        <v>0.1179696423354291</v>
       </c>
       <c r="N218" t="n">
-        <v>0.06130420574431872</v>
+        <v>0.008946216236918512</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1114668578125054</v>
+        <v>0.1193510677588508</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02071075960711258</v>
+        <v>0.008560000035779121</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1244711466894341</v>
+        <v>0.120131140097144</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01979046021930089</v>
+        <v>0.01003870751101307</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1226298158906286</v>
+        <v>0.1188170050931073</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03429414495607616</v>
+        <v>0.02443509646496222</v>
       </c>
       <c r="M219" t="n">
-        <v>0.121748015241791</v>
+        <v>0.1187406857493862</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06024844832986037</v>
+        <v>0.008560000035779121</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1121953993668355</v>
+        <v>0.120131140097144</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02260104081479417</v>
+        <v>0.008588276417232581</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1252794008887161</v>
+        <v>0.1209112124354371</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01979551893833503</v>
+        <v>0.01000673206580144</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1234261133964119</v>
+        <v>0.1195885440872184</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03347054526286922</v>
+        <v>0.02324240428561031</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1225385867693351</v>
+        <v>0.1195117291633433</v>
       </c>
       <c r="N220" t="n">
-        <v>0.05939726298177667</v>
+        <v>0.008588276417232581</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1129239409211656</v>
+        <v>0.1209112124354371</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02149236760843128</v>
+        <v>0.008332068378894067</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1260876550879982</v>
+        <v>0.1216912847737302</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01970121281079755</v>
+        <v>0.009701924564079811</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1242224109021952</v>
+        <v>0.1203600830813295</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03274179707259911</v>
+        <v>0.02226066832182338</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1233291582968792</v>
+        <v>0.1202827725773003</v>
       </c>
       <c r="N221" t="n">
-        <v>0.05865082925406112</v>
+        <v>0.008332068378894067</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1136524824754957</v>
+        <v>0.1216912847737302</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02138478787711305</v>
+        <v>0.008192398918378758</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1268959092872802</v>
+        <v>0.1224713571120234</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0198075793988131</v>
+        <v>0.009025833717729831</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1250187084079785</v>
+        <v>0.1211316220754406</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03250790109439602</v>
+        <v>0.02070901006658593</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1241197298244233</v>
+        <v>0.1210538159912574</v>
       </c>
       <c r="N222" t="n">
-        <v>0.05750932670070713</v>
+        <v>0.008192398918378758</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1143810240298258</v>
+        <v>0.1224713571120234</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02027834950992852</v>
+        <v>0.008170291033301851</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1277041634865622</v>
+        <v>0.1232514294503165</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01991465626450631</v>
+        <v>0.00868000823863313</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1258150059137618</v>
+        <v>0.1219031610695517</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03166885803739014</v>
+        <v>0.0194065510128828</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1249103013519674</v>
+        <v>0.1218248594052144</v>
       </c>
       <c r="N223" t="n">
-        <v>0.05667293487570835</v>
+        <v>0.008170291033301851</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1151095655841559</v>
+        <v>0.1232514294503165</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02217310039596672</v>
+        <v>0.008066767721278525</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1285124176858443</v>
+        <v>0.1240315017886097</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01992248097000182</v>
+        <v>0.008657812410562349</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1266113034195451</v>
+        <v>0.1226747000636628</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03122466861071152</v>
+        <v>0.01845612227757626</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1257008728795115</v>
+        <v>0.1225959028191715</v>
       </c>
       <c r="N224" t="n">
-        <v>0.05624183333305821</v>
+        <v>0.008066767721278525</v>
       </c>
       <c r="O224" t="n">
-        <v>0.115838107138486</v>
+        <v>0.1240315017886097</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02006908842431675</v>
+        <v>0.007981783343583126</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1293206718851263</v>
+        <v>0.1248115741269028</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01993109107742429</v>
+        <v>0.00853802224832878</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1274076009253284</v>
+        <v>0.1234462390577739</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03097533352349041</v>
+        <v>0.01753694351273816</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1264914444070556</v>
+        <v>0.1233669462331285</v>
       </c>
       <c r="N225" t="n">
-        <v>0.05541620162675026</v>
+        <v>0.007981783343583126</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1165666486928161</v>
+        <v>0.1248115741269028</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02096636148406766</v>
+        <v>0.007901967686204742</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1301289260844084</v>
+        <v>0.125591646465196</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01984052414889834</v>
+        <v>0.008219639526033051</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1282038984311117</v>
+        <v>0.1242177780518849</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03002085348485681</v>
+        <v>0.01652127569777434</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1272820159345997</v>
+        <v>0.1241379896470856</v>
       </c>
       <c r="N226" t="n">
-        <v>0.05409621931077802</v>
+        <v>0.007901967686204742</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1172951902471462</v>
+        <v>0.125591646465196</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02086496746430852</v>
+        <v>0.007623070620811051</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1309371802836904</v>
+        <v>0.1263717188034891</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01985081774654859</v>
+        <v>0.008002880196701895</v>
       </c>
       <c r="K227" t="n">
-        <v>0.129000195936895</v>
+        <v>0.124989317045996</v>
       </c>
       <c r="L227" t="n">
-        <v>0.02986122920394102</v>
+        <v>0.01580996994801748</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1280725874621438</v>
+        <v>0.1249090330610426</v>
       </c>
       <c r="N227" t="n">
-        <v>0.05358206593913495</v>
+        <v>0.007623070620811051</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1180237318014763</v>
+        <v>0.1263717188034891</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0217649542541284</v>
+        <v>0.007645153726528311</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1317454344829725</v>
+        <v>0.1271517911417822</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01976200943249973</v>
+        <v>0.00758796021336211</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1297964934426783</v>
+        <v>0.1257608560401071</v>
       </c>
       <c r="L228" t="n">
-        <v>0.02889646138987303</v>
+        <v>0.01500387737880016</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1288631589896879</v>
+        <v>0.1256800764749997</v>
       </c>
       <c r="N228" t="n">
-        <v>0.05287392106581457</v>
+        <v>0.007645153726528311</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1187522733558064</v>
+        <v>0.1271517911417822</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01966636974261635</v>
+        <v>0.007668278582482792</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1325536886822545</v>
+        <v>0.1279318634800754</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01987413676887637</v>
+        <v>0.007575095529040454</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1305927909484616</v>
+        <v>0.1265323950342182</v>
       </c>
       <c r="L229" t="n">
-        <v>0.02872655075178313</v>
+        <v>0.01380384910545507</v>
       </c>
       <c r="M229" t="n">
-        <v>0.129653730517232</v>
+        <v>0.1264511198889567</v>
       </c>
       <c r="N229" t="n">
-        <v>0.05167196424481046</v>
+        <v>0.007668278582482792</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1194808149101365</v>
+        <v>0.1279318634800754</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02156926181886146</v>
+        <v>0.007492506767800722</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1333619428815365</v>
+        <v>0.1287119358183685</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01988723731780313</v>
+        <v>0.007164502096763697</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1313890884542449</v>
+        <v>0.1273039340283293</v>
       </c>
       <c r="L230" t="n">
-        <v>0.02825149799880136</v>
+        <v>0.01291073624331479</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1304443020447761</v>
+        <v>0.1272221633029138</v>
       </c>
       <c r="N230" t="n">
-        <v>0.05147637503011609</v>
+        <v>0.007492506767800722</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1202093564644666</v>
+        <v>0.1287119358183685</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01947367837195275</v>
+        <v>0.007517899861608376</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1341701970808186</v>
+        <v>0.1294920081566617</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02000134864140468</v>
+        <v>0.006956395869558651</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1321853859600282</v>
+        <v>0.1280754730224404</v>
       </c>
       <c r="L231" t="n">
-        <v>0.02717130384005786</v>
+        <v>0.01232538990771193</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1312348735723202</v>
+        <v>0.1279932067168708</v>
       </c>
       <c r="N231" t="n">
-        <v>0.049987332975725</v>
+        <v>0.007517899861608376</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1209378980187967</v>
+        <v>0.1294920081566617</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02037966729097933</v>
+        <v>0.007444519443032004</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1349784512801006</v>
+        <v>0.1302720804949548</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01981650830180566</v>
+        <v>0.006750992800452077</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1329816834658115</v>
+        <v>0.1288470120165515</v>
       </c>
       <c r="L232" t="n">
-        <v>0.02658596898468285</v>
+        <v>0.01144866121397914</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1320254450998643</v>
+        <v>0.1287642501308279</v>
       </c>
       <c r="N232" t="n">
-        <v>0.04990501763563071</v>
+        <v>0.007444519443032004</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1216664395731268</v>
+        <v>0.1302720804949548</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02028727646503022</v>
+        <v>0.007272427091197846</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1357867054793827</v>
+        <v>0.1310521528332479</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01993275386113069</v>
+        <v>0.006748508842470718</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1337779809715948</v>
+        <v>0.1296185510106626</v>
       </c>
       <c r="L233" t="n">
-        <v>0.02599549414180641</v>
+        <v>0.01028140127744909</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1328160166274084</v>
+        <v>0.1295352935447849</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0491296085638267</v>
+        <v>0.007272427091197846</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1223949811274569</v>
+        <v>0.1310521528332479</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01919655378319453</v>
+        <v>0.007301684385232168</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1365949596786647</v>
+        <v>0.1318322251715411</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02005012288150443</v>
+        <v>0.006849159948641381</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1345742784773781</v>
+        <v>0.1303900900047736</v>
       </c>
       <c r="L234" t="n">
-        <v>0.02569988002055867</v>
+        <v>0.009324461213454371</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1336065881549525</v>
+        <v>0.130306336958742</v>
       </c>
       <c r="N234" t="n">
-        <v>0.04776128531430646</v>
+        <v>0.007301684385232168</v>
       </c>
       <c r="O234" t="n">
-        <v>0.123123522681787</v>
+        <v>0.1318322251715411</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0201075471345613</v>
+        <v>0.007032352904261227</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1374032138779467</v>
+        <v>0.1326122975098342</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01996865292505148</v>
+        <v>0.006453162071990814</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1353705759831614</v>
+        <v>0.1311616289988847</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02499912733006984</v>
+        <v>0.00887869213732756</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1343971596824966</v>
+        <v>0.1310773803726991</v>
       </c>
       <c r="N235" t="n">
-        <v>0.04740022744106359</v>
+        <v>0.007032352904261227</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1238520642361171</v>
+        <v>0.1326122975098342</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0200203044082196</v>
+        <v>0.007064494227411254</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1382114680772288</v>
+        <v>0.1333923698481274</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01998838155389654</v>
+        <v>0.006260731165545763</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1361668734889447</v>
+        <v>0.1319331679929958</v>
       </c>
       <c r="L236" t="n">
-        <v>0.02439323677946997</v>
+        <v>0.007744945164401329</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1351877312100407</v>
+        <v>0.1318484237866561</v>
       </c>
       <c r="N236" t="n">
-        <v>0.04684661449809147</v>
+        <v>0.007064494227411254</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1245806057904472</v>
+        <v>0.1333923698481274</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01893487349325848</v>
+        <v>0.006998169933808529</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1390197222765108</v>
+        <v>0.1341724421864205</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0200093463301642</v>
+        <v>0.006272083182333049</v>
       </c>
       <c r="K237" t="n">
-        <v>0.136963170994728</v>
+        <v>0.1327047069871069</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02358220907788927</v>
+        <v>0.007324071410008404</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1359783027375848</v>
+        <v>0.1326194672006132</v>
       </c>
       <c r="N237" t="n">
-        <v>0.04550062603938376</v>
+        <v>0.006998169933808529</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1253091473447773</v>
+        <v>0.1341724421864205</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.020851302278767</v>
+        <v>0.006933441602579291</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1398279764757928</v>
+        <v>0.1349525145247137</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02003158481597911</v>
+        <v>0.005787434075379461</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1377594685005113</v>
+        <v>0.133476245981218</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0231660449344579</v>
+        <v>0.006416921989481239</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1367688742651289</v>
+        <v>0.1333905106145702</v>
       </c>
       <c r="N238" t="n">
-        <v>0.04496244161893387</v>
+        <v>0.006933441602579291</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1260376888991074</v>
+        <v>0.1349525145247137</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02076963865383426</v>
+        <v>0.006870370812849802</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1406362306750749</v>
+        <v>0.1357325868630068</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02015513457346593</v>
+        <v>0.005706999797711693</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1385557660062946</v>
+        <v>0.134247784975329</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02254474505830592</v>
+        <v>0.005524348018152547</v>
       </c>
       <c r="M239" t="n">
-        <v>0.137559445792673</v>
+        <v>0.1341615540285273</v>
       </c>
       <c r="N239" t="n">
-        <v>0.04393224079073543</v>
+        <v>0.006870370812849802</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1267662304534375</v>
+        <v>0.1357325868630068</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0186899305075493</v>
+        <v>0.006909019143746309</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1414444848743569</v>
+        <v>0.1365126592013</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01998003316474928</v>
+        <v>0.005430996302356605</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1393520635120779</v>
+        <v>0.1350193239694402</v>
       </c>
       <c r="L240" t="n">
-        <v>0.02171831015856351</v>
+        <v>0.004647200611354985</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1383500173202171</v>
+        <v>0.1349325974424843</v>
       </c>
       <c r="N240" t="n">
-        <v>0.04341020310878185</v>
+        <v>0.006909019143746309</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1274947720077676</v>
+        <v>0.1365126592013</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0206122257290012</v>
+        <v>0.006749448174395066</v>
       </c>
       <c r="G241" t="n">
-        <v>0.142252739073639</v>
+        <v>0.1372927315395931</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02010631815195379</v>
+        <v>0.005359639542340922</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1401483610178612</v>
+        <v>0.1357908629635512</v>
       </c>
       <c r="L241" t="n">
-        <v>0.02118674094436085</v>
+        <v>0.004386330884421086</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1391405888477612</v>
+        <v>0.1357036408564414</v>
       </c>
       <c r="N241" t="n">
-        <v>0.04289650812706658</v>
+        <v>0.006749448174395066</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1282233135620977</v>
+        <v>0.1372927315395931</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01953657220727902</v>
+        <v>0.006691719483922332</v>
       </c>
       <c r="G242" t="n">
-        <v>0.143060993272921</v>
+        <v>0.1380728038778862</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02003402709720413</v>
+        <v>0.005293145470691402</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1409446585236445</v>
+        <v>0.1365624019576623</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02045003812482801</v>
+        <v>0.003342589952683495</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1399311603753053</v>
+        <v>0.1364746842703984</v>
       </c>
       <c r="N242" t="n">
-        <v>0.04189133539958345</v>
+        <v>0.006691719483922332</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1289518551164278</v>
+        <v>0.1380728038778862</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02046301783147179</v>
+        <v>0.006635894651454352</v>
       </c>
       <c r="G243" t="n">
-        <v>0.143869247472203</v>
+        <v>0.1388528762161794</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02026319756262493</v>
+        <v>0.004831730040434856</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1417409560294278</v>
+        <v>0.1373339409517734</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0200082024090952</v>
+        <v>0.002616828931475024</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1407217319028494</v>
+        <v>0.1372457276843555</v>
       </c>
       <c r="N243" t="n">
-        <v>0.04119486448032561</v>
+        <v>0.006635894651454352</v>
       </c>
       <c r="O243" t="n">
-        <v>0.129680396670758</v>
+        <v>0.1388528762161794</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01839161049066861</v>
+        <v>0.006682035256117394</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1446775016714851</v>
+        <v>0.1396329485544725</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02009386711034081</v>
+        <v>0.004875609204598064</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1425372535352111</v>
+        <v>0.1381054799458845</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01956123450629252</v>
+        <v>0.001709898936128051</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1415123034303935</v>
+        <v>0.1380167710983125</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0406072749232867</v>
+        <v>0.006682035256117394</v>
       </c>
       <c r="O244" t="n">
-        <v>0.130408938225088</v>
+        <v>0.1396329485544725</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01832239807395852</v>
+        <v>0.006630202877037694</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1454857558707671</v>
+        <v>0.1404130208927657</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02012607330247643</v>
+        <v>0.004524998916207751</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1433335510409944</v>
+        <v>0.1388770189399956</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0186091351255501</v>
+        <v>0.001122651081975345</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1423028749579376</v>
+        <v>0.1387878145122696</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0398287462824603</v>
+        <v>0.006630202877037694</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1311374797794181</v>
+        <v>0.1404130208927657</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01825542847043062</v>
+        <v>0.006580459093341519</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1462940100700492</v>
+        <v>0.1411930932310588</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0201598537011564</v>
+        <v>0.00428011512829074</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1441298485467777</v>
+        <v>0.1396485579341067</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01795190497599813</v>
+        <v>0.0003559364843495061</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1430934464854817</v>
+        <v>0.1395588579262267</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03905945811183986</v>
+        <v>0.006580459093341519</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1318660213337482</v>
+        <v>0.1411930932310588</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01819074956917395</v>
+        <v>0.006532865484155111</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1471022642693312</v>
+        <v>0.1419731655693519</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02039524586850541</v>
+        <v>0.004641173793873771</v>
       </c>
       <c r="K247" t="n">
-        <v>0.144926146052561</v>
+        <v>0.1404200969282177</v>
       </c>
       <c r="L247" t="n">
-        <v>0.01738954476676677</v>
+        <v>1.060625858312347e-05</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1438840180130258</v>
+        <v>0.1403299013401837</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03869958996541889</v>
+        <v>0.006532865484155111</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1325945628880783</v>
+        <v>0.1419731655693519</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02012840925927759</v>
+        <v>0.006487483628604733</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1479105184686133</v>
+        <v>0.1427532379076451</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02033228736664805</v>
+        <v>0.004208390865983624</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1457224435583443</v>
+        <v>0.1411916359223289</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01682205520698604</v>
+        <v>-0.0009124884799910915</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1446745895405699</v>
+        <v>0.1411009447541407</v>
       </c>
       <c r="N248" t="n">
-        <v>0.03824932139719101</v>
+        <v>0.006487483628604733</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1333231044424084</v>
+        <v>0.1427532379076451</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01806845542983056</v>
+        <v>0.006444375105816628</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1487187726678953</v>
+        <v>0.1435333102459382</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02037101575770899</v>
+        <v>0.004081982297647085</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1465187410641277</v>
+        <v>0.1419631749164399</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0163494370057862</v>
+        <v>-0.001412496616040593</v>
       </c>
       <c r="M249" t="n">
-        <v>0.145465161068114</v>
+        <v>0.1418719881680978</v>
       </c>
       <c r="N249" t="n">
-        <v>0.03740883196114952</v>
+        <v>0.006444375105816628</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1340516459967385</v>
+        <v>0.1435333102459382</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01801093596992198</v>
+        <v>0.006403601494917067</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1495270268671773</v>
+        <v>0.1443133825842314</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02051146860381285</v>
+        <v>0.004062164041890887</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1473150385699109</v>
+        <v>0.142734713910551</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01537169087229737</v>
+        <v>-0.002088567034232741</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1462557325956581</v>
+        <v>0.1426430315820549</v>
       </c>
       <c r="N250" t="n">
-        <v>0.03677830121128817</v>
+        <v>0.006403601494917067</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1347801875510687</v>
+        <v>0.1443133825842314</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01995589876864089</v>
+        <v>0.00626522437503229</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1503352810664594</v>
+        <v>0.1450934549225245</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02045368346708427</v>
+        <v>0.003949152051741872</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1481113360756943</v>
+        <v>0.1435062529046621</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01448881751564959</v>
+        <v>-0.002839848619234864</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1470463041232022</v>
+        <v>0.1434140749960119</v>
       </c>
       <c r="N251" t="n">
-        <v>0.03625790870160028</v>
+        <v>0.00626522437503229</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1355087291053987</v>
+        <v>0.1450934549225245</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01890339171507635</v>
+        <v>0.00632930532528856</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1511435352657414</v>
+        <v>0.1458735272608177</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02039769790964792</v>
+        <v>0.003743162280226753</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1489076335814775</v>
+        <v>0.1442777918987732</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01430081764497315</v>
+        <v>-0.002765490255714403</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1478368756507462</v>
+        <v>0.1441851184099689</v>
       </c>
       <c r="N252" t="n">
-        <v>0.03534783398607955</v>
+        <v>0.00632930532528856</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1362372706597288</v>
+        <v>0.1458735272608177</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01885346269831743</v>
+        <v>0.006195905924812117</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1519517894650234</v>
+        <v>0.1466535995991108</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02064354949362841</v>
+        <v>0.003544410680372284</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1497039310872608</v>
+        <v>0.1450493308928843</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01340769196939814</v>
+        <v>-0.003464640828338666</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1486274471782904</v>
+        <v>0.144956161823926</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0346482566187194</v>
+        <v>0.006195905924812117</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1369658122140589</v>
+        <v>0.1466535995991108</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0198061596074532</v>
+        <v>0.00606508775272923</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1527600436643055</v>
+        <v>0.1474336719374039</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02069127578115038</v>
+        <v>0.003853113205205316</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1505002285930442</v>
+        <v>0.1458208698869954</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01260944119805466</v>
+        <v>-0.003736449221775073</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1494180187058345</v>
+        <v>0.1457272052378831</v>
       </c>
       <c r="N254" t="n">
-        <v>0.03445935615351325</v>
+        <v>0.00606508775272923</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1376943537683891</v>
+        <v>0.1474336719374039</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0197615303315727</v>
+        <v>0.006036912388166137</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1535682978635875</v>
+        <v>0.1482137442756971</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02064091433433847</v>
+        <v>0.003269485807752603</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1512965260988275</v>
+        <v>0.1465924088811064</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01220606604007288</v>
+        <v>-0.004180064320690929</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1502085902333785</v>
+        <v>0.1464982486518401</v>
       </c>
       <c r="N255" t="n">
-        <v>0.03348131214445482</v>
+        <v>0.006036912388166137</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1384228953227191</v>
+        <v>0.1482137442756971</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01771962275976502</v>
+        <v>0.006011441410249105</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1543765520628695</v>
+        <v>0.1489938166139902</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02069250271531733</v>
+        <v>0.003693744441040842</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1520928236046108</v>
+        <v>0.1473639478752175</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01129756720458294</v>
+        <v>-0.004794635009753662</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1509991617609227</v>
+        <v>0.1472692920657972</v>
       </c>
       <c r="N256" t="n">
-        <v>0.03301430414553741</v>
+        <v>0.006011441410249105</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1391514368770493</v>
+        <v>0.1489938166139902</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01868048478111922</v>
+        <v>0.006188736398104383</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1551848062621516</v>
+        <v>0.1497738889522834</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0208460784862116</v>
+        <v>0.003526105058096918</v>
       </c>
       <c r="K257" t="n">
-        <v>0.152889121110394</v>
+        <v>0.1481354868693286</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01028394540071498</v>
+        <v>-0.005179310173630658</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1517897332884667</v>
+        <v>0.1480403354797542</v>
       </c>
       <c r="N257" t="n">
-        <v>0.03295851171075465</v>
+        <v>0.006188736398104383</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1398799784313793</v>
+        <v>0.1497738889522834</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01764416428472436</v>
+        <v>0.006168858930858216</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1559930604614336</v>
+        <v>0.1505539612905765</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02080167920914591</v>
+        <v>0.003366783611947533</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1536854186161773</v>
+        <v>0.1489070258634397</v>
       </c>
       <c r="L258" t="n">
-        <v>0.009865201337599161</v>
+        <v>-0.005833238696989207</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1525803048160108</v>
+        <v>0.1488113788937113</v>
       </c>
       <c r="N258" t="n">
-        <v>0.03211411439410011</v>
+        <v>0.006168858930858216</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1406085199857094</v>
+        <v>0.1505539612905765</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0186107091596695</v>
+        <v>0.005951870587636868</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1568013146607157</v>
+        <v>0.1513340336288697</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0207593424462449</v>
+        <v>0.003515996055619447</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1544817161219607</v>
+        <v>0.1496785648575508</v>
       </c>
       <c r="L259" t="n">
-        <v>0.009341335724365601</v>
+        <v>-0.005755569464496818</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1533708763435549</v>
+        <v>0.1495824223076683</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03128129174956717</v>
+        <v>0.005951870587636868</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1413370615400396</v>
+        <v>0.1513340336288697</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01758016729504372</v>
+        <v>0.005937832947566599</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1576095688599977</v>
+        <v>0.1521141059671628</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02091910575963322</v>
+        <v>0.003073958342139443</v>
       </c>
       <c r="K260" t="n">
-        <v>0.155278013627744</v>
+        <v>0.1504501038516619</v>
       </c>
       <c r="L260" t="n">
-        <v>0.008212349270144415</v>
+        <v>-0.005845451360820764</v>
       </c>
       <c r="M260" t="n">
-        <v>0.154161447871099</v>
+        <v>0.1503534657216254</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03096022333114939</v>
+        <v>0.005937832947566599</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1420656030943696</v>
+        <v>0.1521141059671628</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01955258657993607</v>
+        <v>0.006026807589773635</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1584178230592798</v>
+        <v>0.152894178305456</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0209810067114355</v>
+        <v>0.003040886424534373</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1560743111335273</v>
+        <v>0.151221642845773</v>
       </c>
       <c r="L261" t="n">
-        <v>0.007578242684065845</v>
+        <v>-0.006802033270628421</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1549520193986431</v>
+        <v>0.1511245091355825</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03045108869284036</v>
+        <v>0.006026807589773635</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1427941446486998</v>
+        <v>0.152894178305456</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01952801490343561</v>
+        <v>0.005918856093384273</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1592260772585618</v>
+        <v>0.1536742506437491</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02104508286377638</v>
+        <v>0.003116996255830895</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1568706086393106</v>
+        <v>0.1519931818398841</v>
       </c>
       <c r="L262" t="n">
-        <v>0.006839016675259907</v>
+        <v>-0.006424464078587155</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1557425909261872</v>
+        <v>0.1518955525495395</v>
       </c>
       <c r="N262" t="n">
-        <v>0.03025406738863351</v>
+        <v>0.005918856093384273</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1435226862030299</v>
+        <v>0.1536742506437491</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01850650015463141</v>
+        <v>0.006114040037524728</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1600343314578438</v>
+        <v>0.1544543229820422</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02121137177878051</v>
+        <v>0.003002503789055866</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1576669061450938</v>
+        <v>0.1527647208339951</v>
       </c>
       <c r="L263" t="n">
-        <v>0.005894671952856811</v>
+        <v>-0.006611892669364378</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1565331624537313</v>
+        <v>0.1526665959634965</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02996933897252235</v>
+        <v>0.006114040037524728</v>
       </c>
       <c r="O263" t="n">
-        <v>0.14425122775736</v>
+        <v>0.1544543229820422</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01948809022261255</v>
+        <v>0.00601242100132126</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1608425856571259</v>
+        <v>0.1552343953203354</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0211799110185725</v>
+        <v>0.00339762497723603</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1584632036508772</v>
+        <v>0.1535362598281062</v>
       </c>
       <c r="L264" t="n">
-        <v>0.005445209225986708</v>
+        <v>-0.007063467927627493</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1573237339812754</v>
+        <v>0.1534376393774536</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02909708299850045</v>
+        <v>0.00601242100132126</v>
       </c>
       <c r="O264" t="n">
-        <v>0.14497976931169</v>
+        <v>0.1552343953203354</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1218.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1218.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07025045252758821</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.09134391969784558</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.04134391969784558</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01022474759559215</v>
+        <v>0.0251346704277108</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001299962245683899</v>
+        <v>0.001155202475878248</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007800723382931426</v>
+        <v>0.0007585572770475839</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003960684617895088</v>
+        <v>0.001263891458938751</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007715389941110865</v>
+        <v>0.0007800723382931426</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007376233726151538</v>
+        <v>0.004290024486505256</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007710434139570532</v>
+        <v>0.0007712817341789024</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001299962245683899</v>
+        <v>0.006884568411396952</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007800723382931426</v>
+        <v>0.0007697865502562833</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002635853903244723</v>
+        <v>0.002317126383471174</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001560144676586285</v>
+        <v>0.001517114554095168</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007682289090476108</v>
+        <v>0.002457914930071976</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001543077988222173</v>
+        <v>0.001560144676586285</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01425715553457879</v>
+        <v>0.008675339253152087</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001542086827914106</v>
+        <v>0.001542563468357805</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002635853903244723</v>
+        <v>0.01275313744825035</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001560144676586285</v>
+        <v>0.001539573100512567</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00375310640183367</v>
+        <v>0.003485622505330042</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002340217014879428</v>
+        <v>0.002275671831142751</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01199999999999998</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002449142156862741</v>
+        <v>0.002498124999999998</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02074679443898608</v>
+        <v>0.01292415070306993</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00231313024187116</v>
+        <v>0.002313845202536707</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.00375310640183367</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002340217014879428</v>
+        <v>0.001940291262135924</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.00466054162400615</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003122656249999998</v>
+        <v>0.003034229108190335</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0141541043696769</v>
+        <v>0.004572919887403402</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003086155976444346</v>
+        <v>0.00312028935317257</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0254491794530779</v>
+        <v>0.01570466523938815</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003084173655828213</v>
+        <v>0.00308512693671561</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.02260638739828591</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003122656249999998</v>
+        <v>0.003079146201025133</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003122656249999998</v>
+        <v>0.01645260109879512</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005715394274091727</v>
+        <v>0.005841734522050758</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003900361691465713</v>
+        <v>0.00379278638523792</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01654997355909404</v>
+        <v>0.005512058096547992</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003857694970555433</v>
+        <v>0.003900361691465713</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.01799999999999999</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003863079896907221</v>
+        <v>0.00363804611650485</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.005715394274091727</v>
+        <v>0.02711849785668052</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003900361691465713</v>
+        <v>0.003848932751281417</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006790436865959489</v>
+        <v>0.007029051982015165</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004680434029758856</v>
+        <v>0.004551343662285503</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01924641209030969</v>
+        <v>0.006613010136595515</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004629233964666519</v>
+        <v>0.004680434029758856</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03260742583659121</v>
+        <v>0.02018027897899391</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00462626048374232</v>
+        <v>0.004627690405073414</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.006790436865959489</v>
+        <v>0.03100982213168779</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004680434029758856</v>
+        <v>0.0046187193015377</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007418795220167085</v>
+        <v>0.008222344786450633</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005460506368051998</v>
+        <v>0.005309900939333087</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02118784063168222</v>
+        <v>0.007470563106525038</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005400772958777606</v>
+        <v>0.005460506368051998</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03486529601357857</v>
+        <v>0.02197249095205459</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005397303897699372</v>
+        <v>0.005398972139252316</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.007418795220167085</v>
+        <v>0.03424269699531413</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005460506368051998</v>
+        <v>0.005388505851793983</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008196984744519034</v>
+        <v>0.00942146371790846</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00624057870634514</v>
+        <v>0.006068458216380671</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02321867985156986</v>
+        <v>0.008179504105315587</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006172311952888692</v>
+        <v>0.00624057870634514</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03711135325330567</v>
+        <v>0.02349652220330195</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006168347311656426</v>
+        <v>0.006170253873431219</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.008196984744519034</v>
+        <v>0.03717945921956622</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00624057870634514</v>
+        <v>0.006158292402050266</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009121520846819831</v>
+        <v>0.01062625955893991</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007020651044638284</v>
+        <v>0.006827015493428255</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02428335041833085</v>
+        <v>0.009034620231946226</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006943850946999779</v>
+        <v>0.007020651044638284</v>
       </c>
       <c r="L74" s="172" t="n">
+        <v>0.0253385825335139</v>
+      </c>
+      <c r="M74" s="170" t="n">
+        <v>0.007316105697126028</v>
+      </c>
+      <c r="N74" s="171" t="n">
         <v>0.03921685252555845</v>
       </c>
-      <c r="M74" s="170" t="n">
-        <v>0.007214182600545708</v>
-      </c>
-      <c r="N74" s="171" t="n">
-        <v>0.009121520846819831</v>
-      </c>
       <c r="O74" s="172" t="n">
-        <v>0.007020651044638284</v>
+        <v>0.006793938953911977</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009688918934873954</v>
+        <v>0.01183658309209627</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007800723382931425</v>
+        <v>0.007585572770475839</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.009530698585395986</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007387832223568439</v>
+        <v>0.007800723382931425</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03999184003799977</v>
+        <v>0.0258110480521283</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007710434139570532</v>
+        <v>0.007712817341789024</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.009688918934873954</v>
+        <v>0.04038282454229242</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007800723382931425</v>
+        <v>0.007697865502562833</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01029569441648592</v>
+        <v>0.01305228509992882</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008580795721224568</v>
+        <v>0.008344130047523423</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02656179861024732</v>
+        <v>0.01016252626464392</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008486928935221951</v>
+        <v>0.008580795721224568</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04084313992229427</v>
+        <v>0.02662233678730122</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008481477553527586</v>
+        <v>0.008484099075967927</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01029569441648592</v>
+        <v>0.042437861102187</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008580795721224568</v>
+        <v>0.008467652052819116</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01083836269946024</v>
+        <v>0.01427321636498884</v>
       </c>
       <c r="G77" t="n">
+        <v>0.009102687324571005</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01092489036866907</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009360868059517712</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.02774006728195591</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009258467929333039</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04218372417216631</v>
+        <v>0.027523648974493</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009252520967484639</v>
+        <v>0.009255380810146829</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01083836269946024</v>
+        <v>0.0440614782530207</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009360868059517712</v>
+        <v>0.009237438603075401</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
+        <v>0.01549922766982761</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.00986124460161859</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.01146031254146931</v>
       </c>
-      <c r="G78" t="n">
+      <c r="K78" t="n">
         <v>0.01022474759559215</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.02850094999944777</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01003000692344413</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.04371275421633375</v>
+        <v>0.02831454135414088</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01002356438144169</v>
+        <v>0.01002666254432573</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.04565356633857109</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01022474759559215</v>
+        <v>0.01000722515333168</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01184520765290783</v>
+        <v>0.0167301697969964</v>
       </c>
       <c r="G79" t="n">
+        <v>0.01061980187866617</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01165165466559193</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.010921012736104</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.0296442427046317</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01080154591755521</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.04512939148351486</v>
+        <v>0.02909457066668231</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01079460779539874</v>
+        <v>0.01079794427850463</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01184520765290783</v>
+        <v>0.04671401570261585</v>
       </c>
       <c r="O79" t="n">
-        <v>0.010921012736104</v>
+        <v>0.01077701170358797</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01207359362819511</v>
+        <v>0.01796589352904651</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01137835915571376</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01208661516922659</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01170108507439714</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03016974133941652</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.0115730849116663</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.04673279740242736</v>
+        <v>0.02996329365255454</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0115656512093558</v>
+        <v>0.01156922601268353</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01207359362819511</v>
+        <v>0.04854271668893251</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01170108507439714</v>
+        <v>0.01154679825384425</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01269864118477261</v>
+        <v>0.0192062496485292</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01213691643276134</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01271757603482586</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01248115741269028</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03147724184571105</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01234462390577738</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.04772213340178943</v>
+        <v>0.03112026705219487</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01233669462331285</v>
+        <v>0.01234050774686244</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01269864118477261</v>
+        <v>0.04963955964129857</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01248115741269028</v>
+        <v>0.01231658480410053</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01291999810333139</v>
+        <v>0.02045108893799577</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01289547370980893</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01294421002165912</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01326122975098342</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03186654016542401</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01311616289988847</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.0491965609103191</v>
+        <v>0.03176504760604065</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0131077380372699</v>
+        <v>0.01311178948104134</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01291999810333139</v>
+        <v>0.05120443490349191</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01326122975098342</v>
+        <v>0.01308637135435682</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01353731216456253</v>
+        <v>0.02170026217999747</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01365403098685651</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01346618988899581</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01404130208927657</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03273743224046421</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01388770189399956</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.05035524135673419</v>
+        <v>0.03239719205452921</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01387878145122696</v>
+        <v>0.01388307121522024</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01353731216456253</v>
+        <v>0.05193723281928991</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01404130208927657</v>
+        <v>0.0138561579046131</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01375023114915709</v>
+        <v>0.0229536201570856</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01441258826390409</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01378318839610534</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01482137442756971</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03368971401274043</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01465924088811064</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.05179733616975279</v>
+        <v>0.03321625713809789</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01464982486518401</v>
+        <v>0.01465435294939915</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01375023114915709</v>
+        <v>0.05393784373247024</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01482137442756971</v>
+        <v>0.01462594445486938</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01425840283780618</v>
+        <v>0.02421101365181146</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01517114554095168</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01429487830225712</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01560144676586285</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03452318142416147</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01543077988222173</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.05272200677809302</v>
+        <v>0.034421799597184</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01542086827914106</v>
+        <v>0.01542563468357805</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01425840283780618</v>
+        <v>0.05510615798681057</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01560144676586285</v>
+        <v>0.01539573100512567</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01476147501120086</v>
+        <v>0.02547229344672627</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01592970281799926</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0146009323667206</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01638151910415599</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.0356376304166362</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01620231887633282</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.05382841461047266</v>
+        <v>0.03491337617222484</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01619191169309812</v>
+        <v>0.01619691641775695</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01476147501120086</v>
+        <v>0.05624206592608832</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01638151910415599</v>
+        <v>0.01616551755538195</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01495909545003218</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01645260109879512</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01520102334876515</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01716159144244914</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03653285693207325</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.0169738578704439</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.05531572109560989</v>
+        <v>0.03559054360365771</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01696295510705517</v>
+        <v>0.01696819815193585</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01495909545003218</v>
+        <v>0.05694545789408134</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01716159144244914</v>
+        <v>0.01693530410563823</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01555091193499128</v>
+        <v>0.0280612472867087</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01744681737209443</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01559482400766021</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01794166378074228</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.03720865691238162</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01774539686455499</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.05608308766222264</v>
+        <v>0.03645285863192002</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01773399852101222</v>
+        <v>0.01773947988611475</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01555091193499128</v>
+        <v>0.05871622423456707</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01794166378074228</v>
+        <v>0.01770509065589452</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01573657224676916</v>
+        <v>0.02943422249112231</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01820537464914201</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01578200710267519</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01872173611903542</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.03786482629946988</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01851693585866608</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.05712967573902888</v>
+        <v>0.03699987799744905</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01850504193496928</v>
+        <v>0.01851076162029366</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01573657224676916</v>
+        <v>0.05985425529132321</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01872173611903542</v>
+        <v>0.0184748772061508</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01631572416605696</v>
+        <v>0.03084182282568816</v>
       </c>
       <c r="G90" t="n">
+        <v>0.0189639319261896</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01636224539307951</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01950180845732856</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.03850116103524698</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01928847485277716</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.05815464675474669</v>
+        <v>0.0381311584406821</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01927608534892633</v>
+        <v>0.01928204335447256</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01631572416605696</v>
+        <v>0.06075944140812728</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01950180845732856</v>
+        <v>0.01924466375640708</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01648801547354574</v>
+        <v>0.03226624241877295</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01972248920323718</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01653521163814259</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02028188079562171</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.03931745706162162</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02006001384688825</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.05925716213809407</v>
+        <v>0.0387462567020565</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02004712876288338</v>
+        <v>0.02005332508865146</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01648801547354574</v>
+        <v>0.06203167292875694</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02028188079562171</v>
+        <v>0.02001445030666337</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01695309394992654</v>
+        <v>0.03368967539874335</v>
       </c>
       <c r="G92" t="n">
+        <v>0.02048104648028477</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01690057859713386</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02106195313391485</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.03981351032050259</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02083155284099934</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.0607363833177888</v>
+        <v>0.03944472952200961</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02081817217684044</v>
+        <v>0.02082460682283037</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01695309394992654</v>
+        <v>0.06287084019698974</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02106195313391485</v>
+        <v>0.02078423685691965</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01731060737589049</v>
+        <v>0.03509431589396601</v>
       </c>
       <c r="G93" t="n">
+        <v>0.02123960375733235</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01735801902932269</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02184202547220799</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04048911675379877</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02160309183511042</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06179147172254923</v>
+        <v>0.03982613364097873</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02158921559079749</v>
+        <v>0.02159588855700927</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01731060737589049</v>
+        <v>0.06377683355660346</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02184202547220799</v>
+        <v>0.02155402340717593</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0176602035321286</v>
+        <v>0.03646235803280763</v>
       </c>
       <c r="G94" t="n">
+        <v>0.02199816103437993</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01770720569397856</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02262209781050114</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.0414440723034189</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02237463082922151</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06282158878109306</v>
+        <v>0.0406900257994012</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02236025900475454</v>
+        <v>0.02236717029118817</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0176602035321286</v>
+        <v>0.06454954335137553</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02262209781050114</v>
+        <v>0.02232380995743222</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01800153019933202</v>
+        <v>0.03777599594363483</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02275671831142751</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.01814781135037083</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02340217014879428</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04217817291127177</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02314616982333259</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.0634258959221386</v>
+        <v>0.04143596273771427</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0231313024187116</v>
+        <v>0.02313845202536707</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01800153019933202</v>
+        <v>0.06558885992508362</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02340217014879428</v>
+        <v>0.0230935965076885</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01823423515819178</v>
+        <v>0.03901742375481432</v>
       </c>
       <c r="G96" t="n">
+        <v>0.0235152755884751</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01837950875776893</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02418224248708742</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04259121451926615</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02391770881744368</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.0649035545744035</v>
+        <v>0.04206350119635538</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02390234583266865</v>
+        <v>0.02390973375954597</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01823423515819178</v>
+        <v>0.06669467362150522</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02418224248708742</v>
+        <v>0.02386338305794479</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01865796618939898</v>
+        <v>0.04016883559471272</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02427383286552268</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.01860197067544231</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02496231482538056</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.04308299306931085</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02468924781155477</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.06575372616660596</v>
+        <v>0.04237219791576174</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0246733892466257</v>
+        <v>0.02468101549372488</v>
       </c>
       <c r="N97" t="n">
-        <v>0.01865796618939898</v>
+        <v>0.06786687478441816</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02496231482538056</v>
+        <v>0.02463316960820107</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01907237107364466</v>
+        <v>0.04134391969784558</v>
       </c>
       <c r="G98" t="n">
+        <v>0.0251346704277108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.01901486986266035</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02574238716367371</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04395330450331467</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02546078680566586</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.06677557212746399</v>
+        <v>0.04336160963637081</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02544443266058276</v>
+        <v>0.02545229722790378</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01907237107364466</v>
+        <v>0.0687053537575999</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02574238716367371</v>
+        <v>0.02540295615845735</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01937709759161996</v>
+        <v>0.04217948191124025</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02579094741961785</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.0192178790786925</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02652245950196685</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04400194476318636</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02623232579977694</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.06756825388569554</v>
+        <v>0.04373129309861976</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02621547607453981</v>
+        <v>0.02622357896208268</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01937709759161996</v>
+        <v>0.06921000088482809</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02652245950196685</v>
+        <v>0.02617274270871364</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01947179352401586</v>
+        <v>0.04314063071106457</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02654950469666544</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.01971067108280815</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02730253184025999</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04502870979083479</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02700386479388803</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.06873093287001869</v>
+        <v>0.04418080504294597</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02698651948849686</v>
+        <v>0.02699486069626158</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01947179352401586</v>
+        <v>0.07018070650988034</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02730253184025999</v>
+        <v>0.02694252925896992</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01985610665152353</v>
+        <v>0.04409222430440007</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02730806197371302</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.01999291863427671</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02808260417855313</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04503339552816865</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02777540378799912</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.06956277050915127</v>
+        <v>0.0446097022097868</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02775756290245391</v>
+        <v>0.02776614243044049</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01985610665152353</v>
+        <v>0.07061736097653426</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02808260417855313</v>
+        <v>0.0277123158092262</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02002968475483401</v>
+        <v>0.04502946196656821</v>
       </c>
       <c r="G102" t="n">
+        <v>0.0280666192507606</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02006429449236762</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02886267651684627</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.04571579791709682</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.0285469427821102</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.06986292823181139</v>
+        <v>0.04511754133957954</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02852860631641097</v>
+        <v>0.02853742416461939</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02002968475483401</v>
+        <v>0.07161985462856729</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02886267651684627</v>
+        <v>0.02848210235948248</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02039217561463837</v>
+        <v>0.04594754297289039</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02882517652780818</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02042447141635029</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02964274885513942</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.04627571289952803</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02931848177622129</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.07113056746671703</v>
+        <v>0.04570387917276159</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02929964973036802</v>
+        <v>0.02930870589879829</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02039217561463837</v>
+        <v>0.0719880778097573</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02964274885513942</v>
+        <v>0.02925188890973877</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0207432270116277</v>
+        <v>0.04684166659868803</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02958373380485577</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02057312216549412</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03042282119343256</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.04651293641737109</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03009002077033238</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.0715648496425863</v>
+        <v>0.04606827244977016</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03007069314432508</v>
+        <v>0.03007998763297719</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0207432270116277</v>
+        <v>0.07232192086388178</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03042282119343256</v>
+        <v>0.03002167545999505</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02078248672649305</v>
+        <v>0.04770703211928261</v>
       </c>
       <c r="G105" t="n">
+        <v>0.03034229108190336</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02090991949906856</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.0312028935317257</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.04692726441253484</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03086155976444346</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.07246493618813704</v>
+        <v>0.04681027791104259</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03084173655828213</v>
+        <v>0.0308512693671561</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02078248672649305</v>
+        <v>0.07312127413471836</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0312028935317257</v>
+        <v>0.03079146201025133</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02110960253992551</v>
+        <v>0.04853883880999549</v>
       </c>
       <c r="G106" t="n">
+        <v>0.03110084835895094</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02123453617634301</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03198296587001884</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.047218492826928</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03163309875855455</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.07312998853208735</v>
+        <v>0.04732945229701627</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03161277997223919</v>
+        <v>0.03162255110133499</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02110960253992551</v>
+        <v>0.0737860279660445</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03198296587001884</v>
+        <v>0.03156124856050762</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02132422223261619</v>
+        <v>0.04933228594614815</v>
       </c>
       <c r="G107" t="n">
+        <v>0.03185940563599852</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02144664495658685</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03276303820831199</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.04768641760245937</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03240463775266564</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.07385916810315513</v>
+        <v>0.04762535234812845</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03238382338619623</v>
+        <v>0.0323938328355139</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02132422223261619</v>
+        <v>0.07431607270163798</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03276303820831199</v>
+        <v>0.03233103511076391</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02142599358525613</v>
+        <v>0.05008257280306201</v>
       </c>
       <c r="G108" t="n">
+        <v>0.0326179629130461</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02164591859906956</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03354311054660513</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.04793083468103776</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03317617674677673</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.07445163633005852</v>
+        <v>0.04769753480481656</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03315486680015329</v>
+        <v>0.0331651145696928</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02142599358525613</v>
+        <v>0.07491129868527641</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03354311054660513</v>
+        <v>0.03310082166102019</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0217145643785364</v>
+        <v>0.05078489865605849</v>
       </c>
       <c r="G109" t="n">
+        <v>0.03337652019009369</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02183202986306051</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03432318288489827</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.04855154000457199</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03394771574088781</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.07470655464151538</v>
+        <v>0.0484455564075178</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03392591021411034</v>
+        <v>0.03393639630387171</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0217145643785364</v>
+        <v>0.07517159626073733</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03432318288489827</v>
+        <v>0.03387060821127647</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02178958239314811</v>
+        <v>0.05143446278045902</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03413507746714127</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02200465150782914</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03510325522319142</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.04854832951497079</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03471925473499889</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.07532308446624386</v>
+        <v>0.04886897389666955</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0346969536280674</v>
+        <v>0.03470767803805061</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02178958239314811</v>
+        <v>0.07589685577179839</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03510325522319142</v>
+        <v>0.03464039476153275</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02215069540978229</v>
+        <v>0.05202646445158504</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03489363474418886</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02216345629264486</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03588332756148456</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.04932099915414301</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03549079372910998</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.07580038723296179</v>
+        <v>0.04896734401270914</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03546799704202445</v>
+        <v>0.03547895977222951</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02215069540978229</v>
+        <v>0.07648696756223705</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03588332756148456</v>
+        <v>0.03541018131178903</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02209755120913007</v>
+        <v>0.05255610294475797</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03565219202123644</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02220811697677709</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.0366633998997777</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.04936934486399738</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03626233272322107</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.07583762437038732</v>
+        <v>0.04894022349607388</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0362390404559815</v>
+        <v>0.03625024150640841</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02209755120913007</v>
+        <v>0.07684182197583111</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0366633998997777</v>
+        <v>0.03617996786204532</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02232979757188247</v>
+        <v>0.05301857753529926</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03641074929828402</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02243830631949524</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03744347223807085</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.04929316258644276</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03703387171733215</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.07643395730723834</v>
+        <v>0.04958716908720118</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03701008386993856</v>
+        <v>0.03702152324058731</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02232979757188247</v>
+        <v>0.07716130935635812</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03744347223807085</v>
+        <v>0.0369497544123016</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02244708227873062</v>
+        <v>0.05340908749853029</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03716930657533161</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02235369708006872</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03822354457636399</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.04969224826338786</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03780541071144324</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.07668854747223297</v>
+        <v>0.04950773752652812</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03778112728389561</v>
+        <v>0.03779280497476621</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02244708227873062</v>
+        <v>0.07724532004759571</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03822354457636399</v>
+        <v>0.03771954096255788</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02264905311036555</v>
+        <v>0.05373047921208558</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03792786385237919</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02245396201776699</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03900361691465713</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.04986639783674152</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03857694970555433</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.07710055629408907</v>
+        <v>0.04990148555449231</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03855217069785266</v>
+        <v>0.03856408670894512</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02264905311036555</v>
+        <v>0.07759374439332134</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03900361691465713</v>
+        <v>0.03848932751281417</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02253535784747836</v>
+        <v>0.05403620013477115</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03868642112942678</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02263877389185941</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03978368925295027</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.05021540724841256</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03934848869966542</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.07736914520152477</v>
+        <v>0.05016796991153091</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03932321411180972</v>
+        <v>0.03933536844312402</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02253535784747836</v>
+        <v>0.07740647273731271</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03978368925295027</v>
+        <v>0.03925911406307045</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02260564427076014</v>
+        <v>0.0543374115749541</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03944497840647436</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02260780546161542</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04056376159124341</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.05003907244030967</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0401200276937765</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.0776934756232579</v>
+        <v>0.05030674733808127</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04009425752576676</v>
+        <v>0.04010665017730292</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02260564427076014</v>
+        <v>0.07748339542334753</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04056376159124341</v>
+        <v>0.04002890061332674</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02275956016090194</v>
+        <v>0.05463403799130503</v>
       </c>
       <c r="G118" t="n">
+        <v>0.04020353568352195</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02276072948630443</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04134383392953656</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.05013718935434178</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04089156668788758</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.07747270898800673</v>
+        <v>0.05051737457458078</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04086530093972383</v>
+        <v>0.04087793191148183</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02275956016090194</v>
+        <v>0.07822440279520326</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04134383392953656</v>
+        <v>0.04079868716358302</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02269675329859484</v>
+        <v>0.05492600384249451</v>
       </c>
       <c r="G119" t="n">
+        <v>0.04096209296056953</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02289721872519589</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.0421239062678297</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05040955393241758</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04166310568199867</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.07780600672448901</v>
+        <v>0.05029940836146662</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04163634435368087</v>
+        <v>0.04164921364566073</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02269675329859484</v>
+        <v>0.07772938519665756</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0421239062678297</v>
+        <v>0.04156847371383929</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.05521323358719302</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.04172065023761712</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.02292062508293861</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04290397860612284</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.05067716506702777</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04243464467610976</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04242049537983963</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.07843370505111691</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04240738776763793</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.02292062508293861</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04290397860612284</v>
+        <v>0.04233826026409558</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02292020703990361</v>
+        <v>0.05549565168407111</v>
       </c>
       <c r="G121" t="n">
+        <v>0.0424792075146647</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02272026588976007</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04368405094441598</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.05037620984833546</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04320618367022085</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.07833144102752632</v>
+        <v>0.05047592254814695</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04317843118159498</v>
+        <v>0.04319177711401853</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02292020703990361</v>
+        <v>0.07843083646347226</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04368405094441598</v>
+        <v>0.04310804681435187</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02281438211956345</v>
+        <v>0.05577318259179939</v>
       </c>
       <c r="G122" t="n">
+        <v>0.04323776479171228</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02281525776269647</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04446412328270912</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.05046778957352149</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04397772266433193</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.07822049306628859</v>
+        <v>0.05026689493453887</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04394947459555204</v>
+        <v>0.04396305884819744</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02281438211956345</v>
+        <v>0.0777284254395591</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04446412328270912</v>
+        <v>0.04387783336460815</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02270187582314383</v>
+        <v>0.05604575076904833</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04399632206875986</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02270449576055071</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04524419562100227</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.05012538534203553</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04474926165844302</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.07805632069611163</v>
+        <v>0.05031870569320201</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04472051800950909</v>
+        <v>0.04473434058237633</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02270187582314383</v>
+        <v>0.07809677003907722</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04524419562100227</v>
+        <v>0.04464761991486443</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02278291643005456</v>
+        <v>0.05631328067448853</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04475487934580744</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.0228881654117925</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04602426795929541</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05005025017927434</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04552080065255411</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.07754115391197369</v>
+        <v>0.05023272914922433</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04549156142346614</v>
+        <v>0.04550562231655524</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02278291643005456</v>
+        <v>0.07823732049601473</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04602426795929541</v>
+        <v>0.04541740646512072</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0228577322197055</v>
+        <v>0.05657569676679051</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04551343662285503</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02286645224489148</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04680434029758856</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.05044397064224762</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04629233964666519</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.07787754684441278</v>
+        <v>0.04991079901209131</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04626260483742319</v>
+        <v>0.04627690405073414</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0228577322197055</v>
+        <v>0.07825097239496603</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04680434029758856</v>
+        <v>0.046187193015377</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02262655147150648</v>
+        <v>0.05683292350462481</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04627199389990262</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02283954178831731</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.0475844126358817</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05010813328796512</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04706387864077628</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.07776805362396677</v>
+        <v>0.04985474899128839</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04703364825138025</v>
+        <v>0.04704818578491304</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02262655147150648</v>
+        <v>0.07763862132052574</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0475844126358817</v>
+        <v>0.04695697956563329</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0227896024648674</v>
+        <v>0.05708488534666201</v>
       </c>
       <c r="G127" t="n">
+        <v>0.0470305511769502</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02270761957053966</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04836448497417484</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.05014432467343655</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04783541763488736</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.07761522838117391</v>
+        <v>0.04996641279630104</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0478046916653373</v>
+        <v>0.04781946751909195</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0227896024648674</v>
+        <v>0.0777011628572884</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04836448497417484</v>
+        <v>0.04772676611588957</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02264711347919805</v>
+        <v>0.05733150675157259</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04778910845399778</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02267087112002819</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04914455731246798</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.04955413135567152</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04860695662899845</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.07722162524657206</v>
+        <v>0.04964762413661461</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04857573507929436</v>
+        <v>0.04859074925327085</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02264711347919805</v>
+        <v>0.0776394925898487</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04914455731246798</v>
+        <v>0.04849655266614585</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02269931279390833</v>
+        <v>0.05757271217802715</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04854766573104537</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02252948196525255</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04992462965076112</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.04923913989167986</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04937849562310954</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.07668979835069928</v>
+        <v>0.04910021672171463</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04934677849325141</v>
+        <v>0.04936203098744976</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02269931279390833</v>
+        <v>0.07755450610280112</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04992462965076112</v>
+        <v>0.04926633921640213</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02254642868840805</v>
+        <v>0.05780842608469623</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04930622300809295</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02268363763468245</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05070470198905427</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.04900093683847118</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05015003461722062</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.07632230182409372</v>
+        <v>0.04882602426108648</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05011782190720846</v>
+        <v>0.05013331272162865</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02254642868840805</v>
+        <v>0.07744709898074031</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05070470198905427</v>
+        <v>0.05003612576665842</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02258868944210708</v>
+        <v>0.05803857293025035</v>
       </c>
       <c r="G131" t="n">
+        <v>0.05006478028514053</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.0224335236567875</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05148477432734741</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.04874110875305523</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05092157361133171</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.07562168979729333</v>
+        <v>0.04902688046421569</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05088886532116552</v>
+        <v>0.05090459445580756</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02258868944210708</v>
+        <v>0.0769181668082608</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05148477432734741</v>
+        <v>0.0508059123169147</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02232632333441525</v>
+        <v>0.05826307717336007</v>
       </c>
       <c r="G132" t="n">
+        <v>0.05082333756218812</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02247932556003739</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05226484666564055</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.04886124219244176</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.0516931126054428</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.07519051640083607</v>
+        <v>0.04860461904058763</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05165990873512256</v>
+        <v>0.05167587618998646</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02232632333441525</v>
+        <v>0.0768686051699573</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05226484666564055</v>
+        <v>0.05157569886717098</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02235955864474244</v>
+        <v>0.05848186327269593</v>
       </c>
       <c r="G133" t="n">
+        <v>0.0515818948392357</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0225212288729018</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.0530449190039337</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.04846292371364036</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05246465159955389</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.07503133576526005</v>
+        <v>0.04796107369968769</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05243095214907962</v>
+        <v>0.05244715792416536</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02235955864474244</v>
+        <v>0.07649930965042423</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0530449190039337</v>
+        <v>0.05234548541742727</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02218862365249848</v>
+        <v>0.05869485568692848</v>
       </c>
       <c r="G134" t="n">
+        <v>0.05234045211628329</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02235941912385034</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05382499134222683</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.04834773987366087</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05323619059366497</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.07444670202110326</v>
+        <v>0.04769807815100147</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05320199556303667</v>
+        <v>0.05321843965834427</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02218862365249848</v>
+        <v>0.07571117583425635</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05382499134222683</v>
+        <v>0.05311527196768356</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02211374663709322</v>
+        <v>0.05890197887472826</v>
       </c>
       <c r="G135" t="n">
+        <v>0.05309900939333087</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0222940818413527</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05460506368051998</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.04761727722951287</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05400772958777606</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.07373916929890378</v>
+        <v>0.0473174661040143</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05397303897699373</v>
+        <v>0.05398972139252316</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02211374663709322</v>
+        <v>0.07590509930604811</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05460506368051998</v>
+        <v>0.05388505851793984</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02223515587793652</v>
+        <v>0.05910315729476583</v>
       </c>
       <c r="G136" t="n">
+        <v>0.05385756667037846</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02212540255387858</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05538513601881312</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.04727312233820619</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05477926858188714</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.07341129172919958</v>
+        <v>0.04682107126821158</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05474408239095079</v>
+        <v>0.05476100312670207</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02223515587793652</v>
+        <v>0.07568197565039408</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05538513601881312</v>
+        <v>0.05465484506819612</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0220530796544382</v>
+        <v>0.05929831540571172</v>
       </c>
       <c r="G137" t="n">
+        <v>0.05461612394742604</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0220535667898976</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05616520835710627</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.04731686175675048</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05555080757599824</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.0725656234425287</v>
+        <v>0.04661072735307886</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05551512580490783</v>
+        <v>0.05553228486088097</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0220530796544382</v>
+        <v>0.07494270045188894</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05616520835710627</v>
+        <v>0.0554246316184524</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02186774624600815</v>
+        <v>0.05948737766623649</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05537468122447362</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02197876007787944</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05694528069539941</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.04695008204215542</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05632234657010932</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.07250471856942919</v>
+        <v>0.04598826806810152</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05628616921886489</v>
+        <v>0.05630356659505987</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02186774624600815</v>
+        <v>0.07438816929512732</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05694528069539941</v>
+        <v>0.05619441816870868</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0219793839320562</v>
+        <v>0.05967026853501065</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05613323850152121</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02200116794629375</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05772535303369255</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.04647436975143077</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.0570938855642204</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.07143113124043909</v>
+        <v>0.04585552712276506</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05705721263282194</v>
+        <v>0.05707484832923877</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0219793839320562</v>
+        <v>0.0743192777647036</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05772535303369255</v>
+        <v>0.05696420471896496</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0218882209919922</v>
+        <v>0.05984691247070477</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05689179577856879</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02192097592361021</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05850542537198569</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.04599131144158622</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05786542455833149</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.07094741558609641</v>
+        <v>0.0452143382265548</v>
       </c>
       <c r="M140" t="n">
-        <v>0.057828256046779</v>
+        <v>0.05784613006341768</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0218882209919922</v>
+        <v>0.0737369214452126</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05850542537198569</v>
+        <v>0.05773399126922125</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02169448570522599</v>
+        <v>0.06001723393198939</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05765035305561637</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02173836953829848</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05928549771027884</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.04580249366963146</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05863696355244258</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.07095612573693916</v>
+        <v>0.04476653508895628</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05859929946073604</v>
+        <v>0.05861741179759659</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02169448570522599</v>
+        <v>0.07354199592124872</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05928549771027884</v>
+        <v>0.05850377781947753</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02149840635116743</v>
+        <v>0.06018115737753507</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05840891033266395</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02165353431882822</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06006557004857199</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.04530950299257619</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05940850254655367</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.07005981582350534</v>
+        <v>0.04431395141945496</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0593703428746931</v>
+        <v>0.05938869353177548</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02149840635116743</v>
+        <v>0.0732353967774067</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06006557004857199</v>
+        <v>0.05927356436973381</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02160021120922637</v>
+        <v>0.06033860726601234</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05916746760971154</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.0216666557936691</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06084564238686512</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.04461392596743013</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06018004154066475</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.06906103997633306</v>
+        <v>0.04395842092753618</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06014138628865016</v>
+        <v>0.06015997526595438</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02160021120922637</v>
+        <v>0.07301801959828108</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06084564238686512</v>
+        <v>0.06004335091999011</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02150012855881264</v>
+        <v>0.06048950805609177</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05992602488675913</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02147791949129076</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06162571472515826</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.04431734915120303</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06095158053477584</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.06846235232596037</v>
+        <v>0.04340177732268546</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06091242970260721</v>
+        <v>0.06093125700013329</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02150012855881264</v>
+        <v>0.07249075996846632</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06162571472515826</v>
+        <v>0.06081313747024639</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02129838667933612</v>
+        <v>0.06063378420644386</v>
       </c>
       <c r="G145" t="n">
+        <v>0.06068458216380671</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02158751094016288</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.0624057870634514</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.04392135910090453</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06172311952888693</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.06816630700292514</v>
+        <v>0.04294585431438827</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06168347311656425</v>
+        <v>0.0617025387343122</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02129838667933612</v>
+        <v>0.07215451347255719</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0624057870634514</v>
+        <v>0.06158292402050267</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02119521385020666</v>
+        <v>0.06077136017573918</v>
       </c>
       <c r="G146" t="n">
+        <v>0.0614431394408543</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02149561566875513</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06318585940174455</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.04382754237354436</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06249465852299801</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.06777545813776559</v>
+        <v>0.04239248561212997</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06245451653052131</v>
+        <v>0.06247382046849109</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02119521385020666</v>
+        <v>0.07121017569514815</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06318585940174455</v>
+        <v>0.06235271057075895</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02119083835083407</v>
+        <v>0.06090216042264827</v>
       </c>
       <c r="G147" t="n">
+        <v>0.06220169671790187</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02130241920553717</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06396593174003769</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.04313748552613225</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.0632661975171091</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.06669235986101962</v>
+        <v>0.04214350492539604</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06322555994447837</v>
+        <v>0.06324510220266999</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02119083835083407</v>
+        <v>0.0706586422208339</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06396593174003769</v>
+        <v>0.06312249712101524</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02108548846062824</v>
+        <v>0.06102610940584169</v>
       </c>
       <c r="G148" t="n">
+        <v>0.06296025399494946</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02110810707897866</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06474600407833084</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.04265277511567789</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06403773651122018</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.06641956630322521</v>
+        <v>0.0415007459636719</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06399660335843542</v>
+        <v>0.0640163839368489</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02108548846062824</v>
+        <v>0.07040080863420889</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06474600407833084</v>
+        <v>0.06389228367127152</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02097939245899899</v>
+        <v>0.06114313158398997</v>
       </c>
       <c r="G149" t="n">
+        <v>0.06371881127199704</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02111286481754926</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06552607641662397</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.04227499769919096</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06480927550533128</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.06615963159492061</v>
+        <v>0.04136604243644307</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06476764677239247</v>
+        <v>0.0647876656710278</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02097939245899899</v>
+        <v>0.07023757051986779</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06552607641662397</v>
+        <v>0.06466207022152781</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02087277862535621</v>
+        <v>0.06125315141576367</v>
       </c>
       <c r="G150" t="n">
+        <v>0.06447736854904462</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02111687794971864</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06630614875491712</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.04230573983368124</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06558081449944235</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.06561510986664365</v>
+        <v>0.04104122805319488</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06553869018634953</v>
+        <v>0.06555894740520669</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02087277862535621</v>
+        <v>0.06966982346240513</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06630614875491712</v>
+        <v>0.06543185677178409</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02076587523910969</v>
+        <v>0.0613560933598333</v>
       </c>
       <c r="G151" t="n">
+        <v>0.06523592582609221</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02082033200395646</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06708622109321026</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.04174658807615836</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06635235349355345</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.0647885552489324</v>
+        <v>0.04062813652341279</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06630973360030658</v>
+        <v>0.0663302291393856</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02076587523910969</v>
+        <v>0.06909846304641559</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06708622109321026</v>
+        <v>0.06620164332204037</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02065891057966933</v>
+        <v>0.06145188187486944</v>
       </c>
       <c r="G152" t="n">
+        <v>0.06599448310313979</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02082341250873239</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06786629343150341</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.0415945870393378</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06712389248766452</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.063982521872325</v>
+        <v>0.03972860155658234</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06708077701426364</v>
+        <v>0.06710151087356452</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02065891057966933</v>
+        <v>0.06872438485649374</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06786629343150341</v>
+        <v>0.06697142987229665</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02035211292644495</v>
+        <v>0.06154044141954261</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06675304038018738</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02082630499251609</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06864636576979655</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.04103565340546256</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06789543148177561</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.06359956386735938</v>
+        <v>0.03974445686218889</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06785182042822069</v>
+        <v>0.06787279260774341</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02035211292644495</v>
+        <v>0.06804848447723411</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06864636576979655</v>
+        <v>0.06774121642255293</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02024571055884641</v>
+        <v>0.0616216964525234</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06751159765723495</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0205291949837772</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06942643810808968</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.04086889629731522</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.0686669704758867</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.06304223536457348</v>
+        <v>0.03947753614971788</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06862286384217774</v>
+        <v>0.06864407434192231</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02024571055884641</v>
+        <v>0.06757165749323124</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06942643810808968</v>
+        <v>0.06851100297280921</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02013993175628358</v>
+        <v>0.06169557143248229</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06827015493428254</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02063226801098543</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07020651044638283</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.0400945977471821</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06943850946999779</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.06261309049450553</v>
+        <v>0.03882967312865476</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0693939072561348</v>
+        <v>0.06941535607610122</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02013993175628358</v>
+        <v>0.06729479948907979</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07020651044638283</v>
+        <v>0.0692807895230655</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02023500479816627</v>
+        <v>0.06176199081808988</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06902871221133013</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.0204357096026104</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07098658278467597</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.03991303978734978</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07021004846410887</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.06231468338769336</v>
+        <v>0.03880270150848503</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07016495067009185</v>
+        <v>0.07018663781028012</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02023500479816627</v>
+        <v>0.06711880604937442</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07098658278467597</v>
+        <v>0.07005057607332178</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02003115796390434</v>
+        <v>0.06182087906801668</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06978726948837771</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02023970528712181</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07176665512296912</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.03952450445010469</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07098158745821996</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.06214694951897004</v>
+        <v>0.03839845499869404</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0709359940840489</v>
+        <v>0.07095791954445901</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02003115796390434</v>
+        <v>0.06634457275870959</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07176665512296912</v>
+        <v>0.07082036262357806</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01992861953290767</v>
+        <v>0.06187216064093327</v>
       </c>
       <c r="G158" t="n">
+        <v>0.0705458267654253</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02024150156631088</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07254672746126226</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.03902927376773332</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07175312645233105</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.06179653496849408</v>
+        <v>0.03801211077181782</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07170703749800596</v>
+        <v>0.07172920127863792</v>
       </c>
       <c r="N158" t="n">
-        <v>0.01992861953290767</v>
+        <v>0.06615691680265967</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07254672746126226</v>
+        <v>0.07159014917383436</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01972761778458607</v>
+        <v>0.06191575999551015</v>
       </c>
       <c r="G159" t="n">
+        <v>0.07130438404247288</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02023650036646238</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07332679979955541</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.03862762977252213</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07252466544644214</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.06166047141172698</v>
+        <v>0.03763278576946746</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07247808091196301</v>
+        <v>0.07250048301281682</v>
       </c>
       <c r="N159" t="n">
-        <v>0.01972761778458607</v>
+        <v>0.06523008093444727</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07332679979955541</v>
+        <v>0.07235993572409063</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01982811142186781</v>
+        <v>0.06195160159041789</v>
       </c>
       <c r="G160" t="n">
+        <v>0.07206294131952047</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.01992493877503788</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07410687213784854</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.03821985449675758</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07329620444055322</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.06093791724427278</v>
+        <v>0.03725986066891798</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07324912432592007</v>
+        <v>0.07327176474699572</v>
       </c>
       <c r="N160" t="n">
-        <v>0.01982811142186781</v>
+        <v>0.06446546300238803</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07410687213784854</v>
+        <v>0.07312972227434691</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01952741844397091</v>
+        <v>0.06197960988432706</v>
       </c>
       <c r="G161" t="n">
+        <v>0.07282149859656804</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.01990712658909857</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07488694447614169</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.03770622997272616</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07406774343466431</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.06102803086173553</v>
+        <v>0.03699290390883492</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07402016773987712</v>
+        <v>0.07404304648117463</v>
       </c>
       <c r="N161" t="n">
-        <v>0.01952741844397091</v>
+        <v>0.06426490718348432</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07488694447614169</v>
+        <v>0.07389950882460321</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01942478089053438</v>
+        <v>0.06199970933590815</v>
       </c>
       <c r="G162" t="n">
+        <v>0.07358005587361563</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.01988337360570563</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07566701681443483</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.03748703823271432</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.0748392824287754</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.06082997065971929</v>
+        <v>0.0371314839278836</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07479121115383416</v>
+        <v>0.07481432821535354</v>
       </c>
       <c r="N162" t="n">
-        <v>0.01942478089053438</v>
+        <v>0.06313025765473829</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07566701681443483</v>
+        <v>0.07466929537485949</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0195201815364603</v>
+        <v>0.06201182440383174</v>
       </c>
       <c r="G163" t="n">
+        <v>0.07433861315066322</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.01975398962192024</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07644708915272798</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.03686256130900856</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07561082142288648</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.06014289503382825</v>
+        <v>0.03657516916472944</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07556225456779123</v>
+        <v>0.07558560994953242</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0195201815364603</v>
+        <v>0.06256335859315215</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07644708915272798</v>
+        <v>0.07543908192511577</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01921360315665067</v>
+        <v>0.06201587954676839</v>
       </c>
       <c r="G164" t="n">
+        <v>0.0750971704277108</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.01951928443480354</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07722716149102112</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.03673308123389535</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07638236041699757</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.05966596237966626</v>
+        <v>0.03632352805803787</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07633329798174826</v>
+        <v>0.07635689168371133</v>
       </c>
       <c r="N164" t="n">
-        <v>0.01921360315665067</v>
+        <v>0.06196605417572826</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07722716149102112</v>
+        <v>0.07620886847537205</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01920502852600758</v>
+        <v>0.06201587954676838</v>
       </c>
       <c r="G165" t="n">
+        <v>0.0750971704277108</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.01927956784141675</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07800723382931425</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.0361988800396611</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07715389941110866</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.05999833109283764</v>
+        <v>0.03627612904647434</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07710434139570532</v>
+        <v>0.07712817341789024</v>
       </c>
       <c r="N165" t="n">
-        <v>0.01920502852600758</v>
+        <v>0.06164018857946879</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07800723382931425</v>
+        <v>0.07697865502562834</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01919444041943308</v>
+        <v>0.0609919516263786</v>
       </c>
       <c r="G166" t="n">
+        <v>0.07509690189924678</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.01913514963882104</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07878730616760739</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.03566023975859239</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07792543840521975</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.05943915956894641</v>
+        <v>0.03573254056870423</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07787538480966238</v>
+        <v>0.07789945515206914</v>
       </c>
       <c r="N166" t="n">
-        <v>0.01919444041943308</v>
+        <v>0.06028760598137606</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07878730616760739</v>
+        <v>0.07774844157588462</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0190818216118292</v>
+        <v>0.05997934620877411</v>
       </c>
       <c r="G167" t="n">
+        <v>0.07509663337078278</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.01898633962407757</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07956737850590054</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.03501744242297558</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07869697739933083</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.05938760620359662</v>
+        <v>0.03539233106339298</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07864642822361943</v>
+        <v>0.07867073688624804</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0190818216118292</v>
+        <v>0.05981015055845218</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07956737850590054</v>
+        <v>0.0785182281261409</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01876715487809798</v>
+        <v>0.0589785678538997</v>
       </c>
       <c r="G168" t="n">
+        <v>0.07509636484231874</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.01903344759424756</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08034745084419369</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.03497077006509722</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07946851639344192</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.05904282939239225</v>
+        <v>0.03565506896920603</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07941747163757648</v>
+        <v>0.07944201862042695</v>
       </c>
       <c r="N168" t="n">
-        <v>0.01876715487809798</v>
+        <v>0.0592096664876996</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08034745084419369</v>
+        <v>0.07928801467639719</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01885042299314151</v>
+        <v>0.05799012112183052</v>
       </c>
       <c r="G169" t="n">
+        <v>0.07509609631385473</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.01887678334639216</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08112752318248682</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.0344205047172437</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08024005538755301</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.05910398753093754</v>
+        <v>0.03542032272480874</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08018851505153353</v>
+        <v>0.08021330035460585</v>
       </c>
       <c r="N169" t="n">
-        <v>0.01885042299314151</v>
+        <v>0.0581879979461204</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08112752318248682</v>
+        <v>0.08005780122665347</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01853160873186177</v>
+        <v>0.05701451057251085</v>
       </c>
       <c r="G170" t="n">
+        <v>0.07509582778539071</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.01851665667757256</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08190759552077997</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.0341669284117016</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.0810115943816641</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.0588702390148364</v>
+        <v>0.0348876607688666</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08095955846549059</v>
+        <v>0.08098458208878474</v>
       </c>
       <c r="N170" t="n">
-        <v>0.01853160873186177</v>
+        <v>0.05764698911071681</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08190759552077997</v>
+        <v>0.08082758777690975</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01861069486916091</v>
+        <v>0.05605224076592867</v>
       </c>
       <c r="G171" t="n">
+        <v>0.07509555925692671</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.01855337738484995</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08268766785907311</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.03341032318075729</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08178313337577517</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.05834074223969316</v>
+        <v>0.03495665154004496</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08173060187944765</v>
+        <v>0.08175586382296365</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01861069486916091</v>
+        <v>0.05648848415849117</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08268766785907311</v>
+        <v>0.08159737432716603</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01838766417994089</v>
+        <v>0.05510381626203106</v>
       </c>
       <c r="G172" t="n">
+        <v>0.07509529072846267</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.01828725526528546</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08346774019736626</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.0327509710566973</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08255467236988627</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.05801465560111169</v>
+        <v>0.03462686347700927</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08250164529340469</v>
+        <v>0.08252714555714255</v>
       </c>
       <c r="N172" t="n">
-        <v>0.01838766417994089</v>
+        <v>0.0558143272664457</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08346774019736626</v>
+        <v>0.08236716087742231</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01836249943910384</v>
+        <v>0.0541697416208887</v>
       </c>
       <c r="G173" t="n">
+        <v>0.07509502219999867</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.01811860011594033</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.0842478125356594</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.03228915407180807</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08332621136399734</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.0578911374946961</v>
+        <v>0.03419786501842498</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08327268870736175</v>
+        <v>0.08329842729132146</v>
       </c>
       <c r="N173" t="n">
-        <v>0.01836249943910384</v>
+        <v>0.05472636261158265</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0842478125356594</v>
+        <v>0.08313694742767859</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01823518342155173</v>
+        <v>0.05325052140244801</v>
       </c>
       <c r="G174" t="n">
+        <v>0.07509475367153465</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.01784772173387569</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08502788487395255</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.03212515425837612</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08409775035810844</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.05746934631605055</v>
+        <v>0.03406922460295744</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08404373212131881</v>
+        <v>0.08406970902550036</v>
       </c>
       <c r="N174" t="n">
-        <v>0.01823518342155173</v>
+        <v>0.05392643437090416</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08502788487395255</v>
+        <v>0.08390673397793488</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01810569890218665</v>
+        <v>0.05234666016669706</v>
       </c>
       <c r="G175" t="n">
+        <v>0.07509448514307064</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.01787492991615278</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08580795721224568</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.03155925364868786</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08486928935221952</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.05704844046077906</v>
+        <v>0.03394051066927217</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08481477553527586</v>
+        <v>0.08484099075967926</v>
       </c>
       <c r="N175" t="n">
-        <v>0.01810569890218665</v>
+        <v>0.05301638672141268</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08580795721224568</v>
+        <v>0.08467652052819116</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01797402865591063</v>
+        <v>0.05145866247358559</v>
       </c>
       <c r="G176" t="n">
+        <v>0.07509421661460661</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.01770053445983273</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08658802955053883</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.03119173427502983</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08564082834633062</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.0573275783244856</v>
+        <v>0.0335112916560345</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08558581894923291</v>
+        <v>0.08561227249385817</v>
       </c>
       <c r="N176" t="n">
-        <v>0.01797402865591063</v>
+        <v>0.05219806384011039</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08658802955053883</v>
+        <v>0.08544630707844744</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01764015545762575</v>
+        <v>0.05058703288317895</v>
       </c>
       <c r="G177" t="n">
+        <v>0.0750939480861426</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.01742484516197672</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08736810188883197</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.0308228781696884</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08641236734044169</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.05660591830277445</v>
+        <v>0.03338113600190987</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08635686236318996</v>
+        <v>0.08638355422803706</v>
       </c>
       <c r="N177" t="n">
-        <v>0.01764015545762575</v>
+        <v>0.05107330990399933</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08736810188883197</v>
+        <v>0.08621609362870374</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01750406208223405</v>
+        <v>0.0497322759554262</v>
       </c>
       <c r="G178" t="n">
+        <v>0.07509367955767858</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.01734817181964597</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08814817422712511</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.02995296736495012</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08718390633455278</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.05658261879124954</v>
+        <v>0.03324961214556371</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08712790577714702</v>
+        <v>0.08715483596221596</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01750406208223405</v>
+        <v>0.05044396909008203</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08814817422712511</v>
+        <v>0.08698588017896002</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01736573130463757</v>
+        <v>0.0488948962503154</v>
       </c>
       <c r="G179" t="n">
+        <v>0.07509341102921456</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.01697082422990159</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08892824656541824</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.02998228389310145</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08795544532866387</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.05625683818551508</v>
+        <v>0.03301628852566144</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08789894919110408</v>
+        <v>0.08792611769639487</v>
       </c>
       <c r="N179" t="n">
-        <v>0.01736573130463757</v>
+        <v>0.04951188557536057</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08892824656541824</v>
+        <v>0.08775566672921629</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01732514589973837</v>
+        <v>0.04807539832779931</v>
       </c>
       <c r="G180" t="n">
+        <v>0.07509314250075054</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01679311218980482</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08970831890371139</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.02951110978642885</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08872698432277495</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.05652773488117507</v>
+        <v>0.03258073358086847</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08866999260506112</v>
+        <v>0.08869739943057378</v>
       </c>
       <c r="N180" t="n">
-        <v>0.01732514589973837</v>
+        <v>0.04797890353683726</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08970831890371139</v>
+        <v>0.08852545327947259</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01708228864243848</v>
+        <v>0.04727428674793734</v>
       </c>
       <c r="G181" t="n">
+        <v>0.07509287397228652</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01661534549641684</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09048839124200454</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.0288397270772188</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08949852331688604</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.05569446727383354</v>
+        <v>0.03264251574985019</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08944103601901818</v>
+        <v>0.08946868116475266</v>
       </c>
       <c r="N181" t="n">
-        <v>0.01708228864243848</v>
+        <v>0.04774686715151422</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09048839124200454</v>
+        <v>0.08929523982972887</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01703714230763999</v>
+        <v>0.04649206607068147</v>
       </c>
       <c r="G182" t="n">
+        <v>0.07509260544382251</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.01643783394679879</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09126846358029768</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.02806841779775776</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09027006231099713</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.0560561937590946</v>
+        <v>0.03220120347127209</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09021207943297523</v>
+        <v>0.09023996289893157</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01703714230763999</v>
+        <v>0.0466176205963939</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09126846358029768</v>
+        <v>0.09006502637998515</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0167896896702449</v>
+        <v>0.04572924085601973</v>
       </c>
       <c r="G183" t="n">
+        <v>0.07509233691535849</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.0163608873380119</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09204853591859083</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.0279974639803322</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09104160130510822</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.0552120727325624</v>
+        <v>0.03175636518379954</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09098312284693229</v>
+        <v>0.09101124463311049</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0167896896702449</v>
+        <v>0.04559300804847827</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09204853591859083</v>
+        <v>0.09083481293024144</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01673991350515529</v>
+        <v>0.04498631566390832</v>
       </c>
       <c r="G184" t="n">
+        <v>0.07509206838689447</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01618481546711729</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09282860825688397</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.02722714765722858</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.0918131402992193</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.05566126258984094</v>
+        <v>0.03190756932609798</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09175416626088934</v>
+        <v>0.09178252636728938</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01673991350515529</v>
+        <v>0.04487487368476994</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09282860825688397</v>
+        <v>0.09160459948049772</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0164877965872732</v>
+        <v>0.04426379505439991</v>
       </c>
       <c r="G185" t="n">
+        <v>0.07509179985843045</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01600992813117619</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09360868059517712</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.0267577508607334</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09258467929333038</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.05540292172653438</v>
+        <v>0.03145438433683281</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09252520967484638</v>
+        <v>0.09255380810146828</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0164877965872732</v>
+        <v>0.04346506168227088</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09360868059517712</v>
+        <v>0.092374386030754</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01653332169150069</v>
+        <v>0.04356218358744983</v>
       </c>
       <c r="G186" t="n">
+        <v>0.07509153132996645</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01583653512724975</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09438875293347025</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.02638955562313314</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09335621828744148</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.05443620853824671</v>
+        <v>0.03109637865466949</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09329625308880345</v>
+        <v>0.09332508983564719</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01653332169150069</v>
+        <v>0.04296541621798344</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09438875293347025</v>
+        <v>0.09314417258101029</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0162764715927398</v>
+        <v>0.0428819858230461</v>
       </c>
       <c r="G187" t="n">
+        <v>0.07509126280150243</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01556494625239915</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.0951688252717634</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.02612284397671424</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09412775728155255</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.05486028142058202</v>
+        <v>0.03073312071827333</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09406729650276051</v>
+        <v>0.09409637156982609</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0162764715927398</v>
+        <v>0.04217778146890983</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0951688252717634</v>
+        <v>0.09391395913126657</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0162172290658926</v>
+        <v>0.04222370632114864</v>
       </c>
       <c r="G188" t="n">
+        <v>0.07509099427303841</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.0155954713036856</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09594889761005654</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.02565789795376316</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09489929627566365</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.05387429876914451</v>
+        <v>0.03056417896630992</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09483833991671754</v>
+        <v>0.09486765330400498</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0162172290658926</v>
+        <v>0.04090400161205227</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09594889761005654</v>
+        <v>0.09468374568152285</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01605557688586109</v>
+        <v>0.04158784964180276</v>
       </c>
       <c r="G189" t="n">
+        <v>0.07509072574457439</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01522842007817023</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09672896994834967</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.02499499958656642</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09567083526977473</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.05387741897953796</v>
+        <v>0.03018912183744446</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0956093833306746</v>
+        <v>0.09563893503818389</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01605557688586109</v>
+        <v>0.04014592082441304</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09672896994834967</v>
+        <v>0.09545353223177915</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01589088808386586</v>
+        <v>0.04097286005834933</v>
       </c>
       <c r="G190" t="n">
+        <v>0.07509045721611037</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01506410237291428</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09750904228664281</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.02453443090741042</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09644237426388583</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.05326880044736682</v>
+        <v>0.03010751777034262</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09638042674463165</v>
+        <v>0.09641021677236279</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01589088808386586</v>
+        <v>0.03950538328299447</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09750904228664281</v>
+        <v>0.09622331878203542</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01551421660189183</v>
+        <v>0.04036688041106919</v>
       </c>
       <c r="G191" t="n">
+        <v>0.07509018868764636</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01500282798497889</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09828911462493596</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.02417647394858169</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.0972139132579969</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.05324760156823494</v>
+        <v>0.02991893520366964</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09715147015858872</v>
+        <v>0.0971814985065417</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01551421660189183</v>
+        <v>0.03878423316479862</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09828911462493596</v>
+        <v>0.0969931053322917</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01532339376928549</v>
+        <v>0.03976835497330673</v>
       </c>
       <c r="G192" t="n">
+        <v>0.07508992015918232</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01494490671142525</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.0990691869632291</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.02381253395549229</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.097985452252108</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.0527129807377465</v>
+        <v>0.02922294257609098</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09792251357254576</v>
+        <v>0.0979527802407206</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01532339376928549</v>
+        <v>0.0373843146468279</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0990691869632291</v>
+        <v>0.09776289188254798</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.015319442583662</v>
+        <v>0.03917778830510216</v>
       </c>
       <c r="G193" t="n">
+        <v>0.07508965163071832</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01458642784758971</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09984925930152225</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.02313243712730484</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09875699124621908</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.05286409635150552</v>
+        <v>0.02931771129146085</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09869355698650281</v>
+        <v>0.09872406197489951</v>
       </c>
       <c r="N193" t="n">
-        <v>0.015319442583662</v>
+        <v>0.03679336841757092</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09984925930152225</v>
+        <v>0.09853267843280426</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01500338604263655</v>
+        <v>0.03859568496641731</v>
       </c>
       <c r="G194" t="n">
+        <v>0.0750893831022543</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01442252244082955</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1006293316398154</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.02243769302180348</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09952853024033016</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.05260010680511595</v>
+        <v>0.02900171679106509</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09946460040045987</v>
+        <v>0.09949534370907841</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01500338604263655</v>
+        <v>0.03599476027332471</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1006293316398154</v>
+        <v>0.09930246498306054</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01477624714382433</v>
+        <v>0.0380225495172402</v>
       </c>
       <c r="G195" t="n">
+        <v>0.07508911457379029</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01435364673594801</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1014094039781085</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.02222985035086988</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1003000692344412</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.05172017049418215</v>
+        <v>0.02827552922870441</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1002356438144169</v>
+        <v>0.1002666254432573</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01477624714382433</v>
+        <v>0.03508922280375176</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1014094039781085</v>
+        <v>0.1000722515333168</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01453904888484051</v>
+        <v>0.0374588865175346</v>
       </c>
       <c r="G196" t="n">
+        <v>0.07508884604532626</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01418027322050899</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1021894763164017</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.02181045782638569</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1010716082285523</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.05152344581430801</v>
+        <v>0.02803972402361365</v>
       </c>
       <c r="M196" t="n">
-        <v>0.101006687228374</v>
+        <v>0.1010379071774362</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01453904888484051</v>
+        <v>0.03417754717310956</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1021894763164017</v>
+        <v>0.1008420380835731</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0143928142633003</v>
+        <v>0.03690520052733759</v>
       </c>
       <c r="G197" t="n">
+        <v>0.07508857751686225</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01390287438207638</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1029695486546948</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.02098106416023243</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1018431472226634</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.05080909116109777</v>
+        <v>0.0278948765950276</v>
       </c>
       <c r="M197" t="n">
-        <v>0.101777730642331</v>
+        <v>0.1018091889116151</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0143928142633003</v>
+        <v>0.03386052454565569</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1029695486546948</v>
+        <v>0.1016118246338294</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01393856627681887</v>
+        <v>0.03636199610661249</v>
       </c>
       <c r="G198" t="n">
+        <v>0.07508830898839823</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01392192270821407</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.103749620992988</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.02074321806429183</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1026146862167745</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.0507762649301553</v>
+        <v>0.02744156236218109</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1025487740562881</v>
+        <v>0.102580470645794</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01393856627681887</v>
+        <v>0.03263894608564794</v>
       </c>
       <c r="O198" t="n">
-        <v>0.103749620992988</v>
+        <v>0.1023816111840857</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0138773279230114</v>
+        <v>0.03582977781534735</v>
       </c>
       <c r="G199" t="n">
+        <v>0.07508804045993422</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01363789068648597</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1045296933312811</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.01999846825044541</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1033862252108856</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.05012412551708473</v>
+        <v>0.02738035674430889</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1033198174702451</v>
+        <v>0.1033517523799729</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0138773279230114</v>
+        <v>0.03171360295734399</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1045296933312811</v>
+        <v>0.103151397734342</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01341012219949307</v>
+        <v>0.0353090502135078</v>
       </c>
       <c r="G200" t="n">
+        <v>0.07508777193147019</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01355125080445592</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1053097656695742</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.01944836343057493</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1041577642049967</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.04995183131749031</v>
+        <v>0.02701183516064579</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1040908608842022</v>
+        <v>0.1041230341141518</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01341012219949307</v>
+        <v>0.03118528632500123</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1053097656695742</v>
+        <v>0.1039211842845982</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01333797210387909</v>
+        <v>0.03480031786112725</v>
       </c>
       <c r="G201" t="n">
+        <v>0.07508750340300618</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01316247554968783</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1060898380078674</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.01889445231656187</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1049293031991078</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.04885854072697587</v>
+        <v>0.02663657303042669</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1048619042981592</v>
+        <v>0.1048943158483307</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01333797210387909</v>
+        <v>0.03005478735287753</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1060898380078674</v>
+        <v>0.1046909708348545</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01286190063378463</v>
+        <v>0.03430408531817082</v>
       </c>
       <c r="G202" t="n">
+        <v>0.07508723487454216</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01297203740974565</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1068699103461605</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.01863828362028799</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1057008421932188</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.04874341214114558</v>
+        <v>0.02595514577288627</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1056329477121163</v>
+        <v>0.1056655975825096</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01286190063378463</v>
+        <v>0.0293228972052304</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1068699103461605</v>
+        <v>0.1054607573851108</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01278293078682488</v>
+        <v>0.03382085714462654</v>
       </c>
       <c r="G203" t="n">
+        <v>0.07508696634607814</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01298040887219319</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1076499826844537</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.01808140605363484</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1064723811873299</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.04790507837592456</v>
+        <v>0.02536812880725947</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1064039911260733</v>
+        <v>0.1064368793166885</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01278293078682488</v>
+        <v>0.0289904070463175</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1076499826844537</v>
+        <v>0.1062305439353671</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01250208556061501</v>
+        <v>0.03335113790046233</v>
       </c>
       <c r="G204" t="n">
+        <v>0.07508669781761412</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01268806242459437</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1084300550227468</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.01712536832848408</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.107243920181441</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.04783760979344981</v>
+        <v>0.02497609755278099</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1071750345400304</v>
+        <v>0.1072081610508674</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01250208556061501</v>
+        <v>0.02805810804039666</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1084300550227468</v>
+        <v>0.1070003304856234</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01202038795277021</v>
+        <v>0.03289543214570713</v>
       </c>
       <c r="G205" t="n">
+        <v>0.0750864292891501</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01259547055451311</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.10921012736104</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.01687171915671729</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1080154591755521</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.04627515353878525</v>
+        <v>0.02467962742868568</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1079460779539875</v>
+        <v>0.1079794427850463</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01202038795277021</v>
+        <v>0.02712679135172513</v>
       </c>
       <c r="O205" t="n">
-        <v>0.10921012736104</v>
+        <v>0.1077701170358797</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01173886096090566</v>
+        <v>0.03245424444032825</v>
       </c>
       <c r="G206" t="n">
+        <v>0.0750861607606861</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01230310574951327</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1099901996993331</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.01612200725021617</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1087869981696632</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.04553683110491547</v>
+        <v>0.02467929385420836</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1087171213679445</v>
+        <v>0.1087507245192252</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01173886096090566</v>
+        <v>0.02639724814456085</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1099901996993331</v>
+        <v>0.108539903586136</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01165852758263657</v>
+        <v>0.03202807934431372</v>
       </c>
       <c r="G207" t="n">
+        <v>0.07508589223222208</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01221144049715876</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1107702720376262</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.01587778132086223</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1095585371637743</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.04414176398482517</v>
+        <v>0.02407567224858376</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1094881647819016</v>
+        <v>0.1095220062534041</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01165852758263657</v>
+        <v>0.02537026958316141</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1107702720376262</v>
+        <v>0.1093096901363922</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01128041081557809</v>
+        <v>0.03161744141763409</v>
       </c>
       <c r="G208" t="n">
+        <v>0.07508562370375806</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01182094728501343</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1115503443759194</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.01494059008053722</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1103300761578854</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.04280907367149905</v>
+        <v>0.02356933803104683</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1102592081958586</v>
+        <v>0.110293287987583</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01128041081557809</v>
+        <v>0.0247466468317844</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1115503443759194</v>
+        <v>0.1100794766866485</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01090553365734543</v>
+        <v>0.03122283522031315</v>
       </c>
       <c r="G209" t="n">
+        <v>0.07508535517529404</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01183209860064121</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1123304167142125</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.01441198224112269</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1111016151519965</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.0414578816579218</v>
+        <v>0.02346086662083219</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1110302516098157</v>
+        <v>0.1110645697217619</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01090553365734543</v>
+        <v>0.02392717105468739</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1123304167142125</v>
+        <v>0.1108492632369048</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01083491910555377</v>
+        <v>0.03084476531232073</v>
       </c>
       <c r="G210" t="n">
+        <v>0.07508508664683003</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.011545366931606</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1131104890525057</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.01379350651450031</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1118731541461075</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.04040730943707799</v>
+        <v>0.02295083343717483</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1118012950237727</v>
+        <v>0.1118358514559409</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01083491910555377</v>
+        <v>0.02261263341612813</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1131104890525057</v>
+        <v>0.1116190497871611</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0104695901578183</v>
+        <v>0.03048373625364485</v>
       </c>
       <c r="G211" t="n">
+        <v>0.07508481811836601</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01126122476547165</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1138905613907988</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.01348671161255169</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1126446931402186</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.03807647850195239</v>
+        <v>0.02253981389930945</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1125723384377298</v>
+        <v>0.1126071331901197</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0104695901578183</v>
+        <v>0.02220382508036423</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1138905613907988</v>
+        <v>0.1123888363374174</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01031056981175419</v>
+        <v>0.03014025260425905</v>
       </c>
       <c r="G212" t="n">
+        <v>0.07508454958990199</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01108014458980208</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.114670633729092</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.01289314624715843</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1134162321343297</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.03638451034552964</v>
+        <v>0.02172838342647085</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1133433818516868</v>
+        <v>0.1133784149242986</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01031056981175419</v>
+        <v>0.02130153721165334</v>
       </c>
       <c r="O212" t="n">
-        <v>0.114670633729092</v>
+        <v>0.1131586228876737</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.00995888106497661</v>
+        <v>0.02981481892418127</v>
       </c>
       <c r="G213" t="n">
+        <v>0.07508428106143797</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01110259889216118</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1154507060673851</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.01281435913020221</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1141877711284408</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03495052646079433</v>
+        <v>0.02131711743789388</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1141144252656439</v>
+        <v>0.1141496966584775</v>
       </c>
       <c r="N213" t="n">
-        <v>0.00995888106497661</v>
+        <v>0.020706560974253</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1154507060673851</v>
+        <v>0.1139284094379299</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.009815546915100788</v>
+        <v>0.02950793977338419</v>
       </c>
       <c r="G214" t="n">
+        <v>0.07508401253297396</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01082906016011283</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1162307784056782</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.01195189897356461</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1149593101225519</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03349364834073126</v>
+        <v>0.02100659135281333</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1148854686796009</v>
+        <v>0.1149209783926565</v>
       </c>
       <c r="N214" t="n">
-        <v>0.009815546915100788</v>
+        <v>0.01971968753242093</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1162307784056782</v>
+        <v>0.1146981959881862</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.009381590359741877</v>
+        <v>0.02950793977338419</v>
       </c>
       <c r="G215" t="n">
+        <v>0.07508401253297396</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01066000088122093</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1170108507439714</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.0114073144891273</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.115730849116663</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.031532997478325</v>
+        <v>0.02089738059046403</v>
       </c>
       <c r="M215" t="n">
-        <v>0.115656512093558</v>
+        <v>0.1156922601268354</v>
       </c>
       <c r="N215" t="n">
-        <v>0.009381590359741877</v>
+        <v>0.01914170805041482</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1170108507439714</v>
+        <v>0.1154679825384425</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.009358034396515072</v>
+        <v>0.02876201813742549</v>
       </c>
       <c r="G216" t="n">
+        <v>0.07495442793965719</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01059589354304936</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1177909230822645</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.01128215438877181</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1165023881107741</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.02988769536656033</v>
+        <v>0.02009006057008073</v>
       </c>
       <c r="M216" t="n">
-        <v>0.116427555507515</v>
+        <v>0.1164635418610143</v>
       </c>
       <c r="N216" t="n">
-        <v>0.009358034396515072</v>
+        <v>0.01807341369249221</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1177909230822645</v>
+        <v>0.1162377690886988</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.008945902023035558</v>
+        <v>0.02802405428303156</v>
       </c>
       <c r="G217" t="n">
+        <v>0.07482484334634044</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01033721063316202</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1185709954205577</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.01097796738437989</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1172739271048852</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.02827686349842184</v>
+        <v>0.02008520671089831</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1171985989214721</v>
+        <v>0.1172348235951932</v>
       </c>
       <c r="N217" t="n">
-        <v>0.008945902023035558</v>
+        <v>0.01761559562291082</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1185709954205577</v>
+        <v>0.1170075556389551</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.008946216236918512</v>
+        <v>0.02729435956695576</v>
       </c>
       <c r="G218" t="n">
+        <v>0.07469525875302369</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.0100844246391228</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1193510677588508</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.01039630218783311</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1180454660989962</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.02651962336689428</v>
+        <v>0.01938339443215151</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1179696423354291</v>
+        <v>0.1180061053293721</v>
       </c>
       <c r="N218" t="n">
-        <v>0.008946216236918512</v>
+        <v>0.0165690450059281</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1193510677588508</v>
+        <v>0.1177773421892114</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.008560000035779121</v>
+        <v>0.0265732453459516</v>
       </c>
       <c r="G219" t="n">
+        <v>0.07456567415970693</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01013800804849559</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.120131140097144</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.01003870751101307</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1188170050931073</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.02443509646496222</v>
+        <v>0.01928519915307514</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1187406857493862</v>
+        <v>0.118777387063551</v>
       </c>
       <c r="N219" t="n">
-        <v>0.008560000035779121</v>
+        <v>0.01623455300580195</v>
       </c>
       <c r="O219" t="n">
-        <v>0.120131140097144</v>
+        <v>0.1185471287394676</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.008588276417232581</v>
+        <v>0.02586102297677255</v>
       </c>
       <c r="G220" t="n">
+        <v>0.07443608956639017</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.009998433348844288</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1209112124354371</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.01000673206580144</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1195885440872184</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.02324240428561031</v>
+        <v>0.01899119629290408</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1195117291633433</v>
+        <v>0.1195486687977299</v>
       </c>
       <c r="N220" t="n">
-        <v>0.008588276417232581</v>
+        <v>0.01491291078678991</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1209112124354371</v>
+        <v>0.1193169152897239</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.008332068378894067</v>
+        <v>0.02515800381617214</v>
       </c>
       <c r="G221" t="n">
+        <v>0.07430650497307342</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.009866173027732766</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1216912847737302</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.009701924564079811</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1203600830813295</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.02226066832182338</v>
+        <v>0.01820196127087306</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1202827725773003</v>
+        <v>0.1203199505319088</v>
       </c>
       <c r="N221" t="n">
-        <v>0.008332068378894067</v>
+        <v>0.01460490951314947</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1216912847737302</v>
+        <v>0.1200867018399802</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.008192398918378758</v>
+        <v>0.02446449922090373</v>
       </c>
       <c r="G222" t="n">
+        <v>0.07417692037975666</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.009741699572724929</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1224713571120234</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.009025833717729831</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1211316220754406</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.02070901006658593</v>
+        <v>0.01821806950621693</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1210538159912574</v>
+        <v>0.1210912322660877</v>
       </c>
       <c r="N222" t="n">
-        <v>0.008192398918378758</v>
+        <v>0.01391134034913838</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1224713571120234</v>
+        <v>0.1208564883902365</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.008170291033301851</v>
+        <v>0.02378082054772085</v>
       </c>
       <c r="G223" t="n">
+        <v>0.07404733578643991</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.00962548547138467</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1232514294503165</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.00868000823863313</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1219031610695517</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0194065510128828</v>
+        <v>0.01754009641817045</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1218248594052144</v>
+        <v>0.1218625140002666</v>
       </c>
       <c r="N223" t="n">
-        <v>0.008170291033301851</v>
+        <v>0.01333299445901442</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1232514294503165</v>
+        <v>0.1216262749404928</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.008066767721278525</v>
+        <v>0.02310727915337699</v>
       </c>
       <c r="G224" t="n">
+        <v>0.07391775119312316</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.00941800321127588</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1240315017886097</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.008657812410562349</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1226747000636628</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.01845612227757626</v>
+        <v>0.01716861742596848</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1225959028191715</v>
+        <v>0.1226337957344455</v>
       </c>
       <c r="N224" t="n">
-        <v>0.008066767721278525</v>
+        <v>0.01237066300703499</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1240315017886097</v>
+        <v>0.1223960614907491</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.007981783343583126</v>
+        <v>0.0224441863946255</v>
       </c>
       <c r="G225" t="n">
+        <v>0.0737881665998064</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.009319725279962436</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1248115741269028</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.00853802224832878</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1234462390577739</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.01753694351273816</v>
+        <v>0.01690420794884576</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1233669462331285</v>
+        <v>0.1234050774686244</v>
       </c>
       <c r="N225" t="n">
-        <v>0.007981783343583126</v>
+        <v>0.0120251371574579</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1248115741269028</v>
+        <v>0.1231658480410053</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.007901967686204742</v>
+        <v>0.02179185362821996</v>
       </c>
       <c r="G226" t="n">
+        <v>0.07365858200648963</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.00923112416500825</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.125591646465196</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.008219639526033051</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1242177780518849</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.01652127569777434</v>
+        <v>0.01644744340603721</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1241379896470856</v>
+        <v>0.1241763592028033</v>
       </c>
       <c r="N226" t="n">
-        <v>0.007901967686204742</v>
+        <v>0.01149720807454069</v>
       </c>
       <c r="O226" t="n">
-        <v>0.125591646465196</v>
+        <v>0.1239356345912616</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.007623070620811051</v>
+        <v>0.0211505922109138</v>
       </c>
       <c r="G227" t="n">
+        <v>0.07352899741317287</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.009152672353977188</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1263717188034891</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.008002880196701895</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.124989317045996</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.01580996994801748</v>
+        <v>0.01629889921677755</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1249090330610426</v>
+        <v>0.1249476409369822</v>
       </c>
       <c r="N227" t="n">
-        <v>0.007623070620811051</v>
+        <v>0.01028766692254096</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1263717188034891</v>
+        <v>0.1247054211415179</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.007645153726528311</v>
+        <v>0.02052071349946052</v>
       </c>
       <c r="G228" t="n">
+        <v>0.07339941281985612</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.009184842334433167</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1271517911417822</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.00758796021336211</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1257608560401071</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.01500387737880016</v>
+        <v>0.01595915080030155</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1256800764749997</v>
+        <v>0.1257189226711611</v>
       </c>
       <c r="N228" t="n">
-        <v>0.007645153726528311</v>
+        <v>0.01019730486571652</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1271517911417822</v>
+        <v>0.1254752076917742</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.007668278582482792</v>
+        <v>0.01990252885061353</v>
       </c>
       <c r="G229" t="n">
+        <v>0.07326982822653937</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.009128106593940075</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1279318634800754</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.007575095529040454</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1265323950342182</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.01380384910545507</v>
+        <v>0.01542877357584407</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1264511198889567</v>
+        <v>0.12649020440534</v>
       </c>
       <c r="N229" t="n">
-        <v>0.007668278582482792</v>
+        <v>0.009726913068324794</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1279318634800754</v>
+        <v>0.1262449942420305</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.007492506767800722</v>
+        <v>0.01929634962112629</v>
       </c>
       <c r="G230" t="n">
+        <v>0.07314024363322261</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.008882860407388213</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1287119358183685</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.007164502096763697</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1273039340283293</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.01291073624331479</v>
+        <v>0.01500830544603782</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1272221633029138</v>
+        <v>0.1272614861395189</v>
       </c>
       <c r="N230" t="n">
-        <v>0.007492506767800722</v>
+        <v>0.008777197626807898</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1287119358183685</v>
+        <v>0.1270147807922868</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.007517899861608376</v>
+        <v>0.01870248716775237</v>
       </c>
       <c r="G231" t="n">
+        <v>0.07301065903990586</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.009042607117571343</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1294920081566617</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.006956395869558651</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1280754730224404</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.01232538990771193</v>
+        <v>0.01469331563669238</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1279932067168708</v>
+        <v>0.1280327678736978</v>
       </c>
       <c r="N231" t="n">
-        <v>0.007517899861608376</v>
+        <v>0.008238782945022227</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1294920081566617</v>
+        <v>0.127784567342543</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.007444519443032004</v>
+        <v>0.0181212528472451</v>
       </c>
       <c r="G232" t="n">
+        <v>0.0728810744465891</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.008902983738554505</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1302720804949548</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.006750992800452077</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1288470120165515</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.01144866121397914</v>
+        <v>0.01478048493057427</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1287642501308279</v>
+        <v>0.1288040496078767</v>
       </c>
       <c r="N232" t="n">
-        <v>0.007444519443032004</v>
+        <v>0.007505059918846646</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1302720804949548</v>
+        <v>0.1285543538927993</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.007272427091197846</v>
+        <v>0.01755295801635803</v>
       </c>
       <c r="G233" t="n">
+        <v>0.07275148985327234</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.008864025453334673</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1310521528332479</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.006748508842470718</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1296185510106626</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.01028140127744909</v>
+        <v>0.01436984622505424</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1295352935447849</v>
+        <v>0.1295753313420556</v>
       </c>
       <c r="N233" t="n">
-        <v>0.007272427091197846</v>
+        <v>0.007276241959584873</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1310521528332479</v>
+        <v>0.1293241404430556</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.007301684385232168</v>
+        <v>0.0169979140318446</v>
       </c>
       <c r="G234" t="n">
+        <v>0.07262190525995559</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.008825767444908809</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1318322251715411</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.006849159948641381</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1303900900047736</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.009324461213454371</v>
+        <v>0.01416143241750309</v>
       </c>
       <c r="M234" t="n">
-        <v>0.130306336958742</v>
+        <v>0.1303466130762345</v>
       </c>
       <c r="N234" t="n">
-        <v>0.007301684385232168</v>
+        <v>0.006452542478541157</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1318322251715411</v>
+        <v>0.1300939269933119</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.007032352904261227</v>
+        <v>0.01645643225045834</v>
       </c>
       <c r="G235" t="n">
+        <v>0.07249232066663884</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.008788244896273875</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1326122975098342</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.006453162071990814</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1311616289988847</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.00887869213732756</v>
+        <v>0.01345527640529165</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1310773803726991</v>
+        <v>0.1311178948104134</v>
       </c>
       <c r="N235" t="n">
-        <v>0.007032352904261227</v>
+        <v>0.006434174887019251</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1326122975098342</v>
+        <v>0.1308637135435682</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.007064494227411254</v>
+        <v>0.0159288240289526</v>
       </c>
       <c r="G236" t="n">
+        <v>0.07236273607332207</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.008851492990426854</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1333923698481274</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.006260731165545763</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1319331679929958</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.007744945164401329</v>
+        <v>0.0134514110857907</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1318484237866561</v>
+        <v>0.1318891765445923</v>
       </c>
       <c r="N236" t="n">
-        <v>0.007064494227411254</v>
+        <v>0.00562135259632307</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1333923698481274</v>
+        <v>0.1316335000938245</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.006998169933808529</v>
+        <v>0.01541540072408092</v>
       </c>
       <c r="G237" t="n">
+        <v>0.07223315148000531</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.008615546910364702</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1341724421864205</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.006272083182333049</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1327047069871069</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.007324071410008404</v>
+        <v>0.01284986935637095</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1326194672006132</v>
+        <v>0.1326604582787712</v>
       </c>
       <c r="N237" t="n">
-        <v>0.006998169933808529</v>
+        <v>0.005214289017756724</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1341724421864205</v>
+        <v>0.1324032866440807</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.006933441602579291</v>
+        <v>0.0149164736925968</v>
       </c>
       <c r="G238" t="n">
+        <v>0.07210356688668856</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.008580441839084373</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1349525145247137</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.005787434075379461</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.133476245981218</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.006416921989481239</v>
+        <v>0.01275068411440336</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1333905106145702</v>
+        <v>0.1334317400129501</v>
       </c>
       <c r="N238" t="n">
-        <v>0.006933441602579291</v>
+        <v>0.005113197562623961</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1349525145247137</v>
+        <v>0.133173073194337</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.006870370812849802</v>
+        <v>0.01443235429125361</v>
       </c>
       <c r="G239" t="n">
+        <v>0.0719739822933718</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.008646212959582851</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1357325868630068</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.005706999797711693</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.134247784975329</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.005524348018152547</v>
+        <v>0.0121538882572586</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1341615540285273</v>
+        <v>0.134203021747129</v>
       </c>
       <c r="N239" t="n">
-        <v>0.006870370812849802</v>
+        <v>0.004018291642228888</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1357325868630068</v>
+        <v>0.1339428597445933</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.006909019143746309</v>
+        <v>0.01396208250339489</v>
       </c>
       <c r="G240" t="n">
+        <v>0.07184439770005505</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.008612895454857106</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1365126592013</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.005430996302356605</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1350193239694402</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.004647200611354985</v>
+        <v>0.01235951468230748</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1349325974424843</v>
+        <v>0.1349743034813079</v>
       </c>
       <c r="N240" t="n">
-        <v>0.006909019143746309</v>
+        <v>0.003429784667875413</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1365126592013</v>
+        <v>0.1347126462948496</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.006749448174395066</v>
+        <v>0.01349834144531416</v>
       </c>
       <c r="G241" t="n">
+        <v>0.07171481310673829</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.008580524507904086</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1372927315395931</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.005359639542340922</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1357908629635512</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.004386330884421086</v>
+        <v>0.01166759628692082</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1357036408564414</v>
+        <v>0.1357455852154868</v>
       </c>
       <c r="N241" t="n">
-        <v>0.006749448174395066</v>
+        <v>0.003247890050867341</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1372927315395931</v>
+        <v>0.1354824328451059</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.006691719483922332</v>
+        <v>0.01304017110035494</v>
       </c>
       <c r="G242" t="n">
+        <v>0.07158522851342154</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.008449135301720784</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1380728038778862</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.005293145470691402</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1365624019576623</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.003342589952683495</v>
+        <v>0.01167816596846941</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1364746842703984</v>
+        <v>0.1365168669496657</v>
       </c>
       <c r="N242" t="n">
-        <v>0.006691719483922332</v>
+        <v>0.002472821202508746</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1380728038778862</v>
+        <v>0.1362522193953622</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.006635894651454352</v>
+        <v>0.01258788282527061</v>
       </c>
       <c r="G243" t="n">
+        <v>0.07145564392010478</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.008418763019304151</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1388528762161794</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.004831730040434856</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1373339409517734</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.002616828931475024</v>
+        <v>0.01149125662432401</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1372457276843555</v>
+        <v>0.1372881486838446</v>
       </c>
       <c r="N243" t="n">
-        <v>0.006635894651454352</v>
+        <v>0.002304791534103512</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1388528762161794</v>
+        <v>0.1370220059456184</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.006682035256117394</v>
+        <v>0.01214178797681469</v>
       </c>
       <c r="G244" t="n">
+        <v>0.07132605932678802</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.008589442843651145</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1396329485544725</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.004875609204598064</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1381054799458845</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.001709898936128051</v>
+        <v>0.01080690115185545</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1380167710983125</v>
+        <v>0.1380594304180235</v>
       </c>
       <c r="N244" t="n">
-        <v>0.006682035256117394</v>
+        <v>0.0018440144569557</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1396329485544725</v>
+        <v>0.1377917924958747</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.006630202877037694</v>
+        <v>0.01170219791174069</v>
       </c>
       <c r="G245" t="n">
+        <v>0.07119647473347128</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.008361209957758756</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1404130208927657</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.004524998916207751</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1388770189399956</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.001122651081975345</v>
+        <v>0.01072513244843454</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1387878145122696</v>
+        <v>0.1388307121522024</v>
       </c>
       <c r="N245" t="n">
-        <v>0.006630202877037694</v>
+        <v>0.001090703382369218</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1404130208927657</v>
+        <v>0.138561579046131</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.006580459093341519</v>
+        <v>0.01126942398680197</v>
       </c>
       <c r="G246" t="n">
+        <v>0.07106689014015451</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.00853409954462394</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1411930932310588</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.00428011512829074</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1396485579341067</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.0003559364843495061</v>
+        <v>0.01014598341143202</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1395588579262267</v>
+        <v>0.1396019938863813</v>
       </c>
       <c r="N246" t="n">
-        <v>0.006580459093341519</v>
+        <v>0.001045071721647861</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1411930932310588</v>
+        <v>0.1393313655963873</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.006532865484155111</v>
+        <v>0.01084377755875206</v>
       </c>
       <c r="G247" t="n">
+        <v>0.07093730554683775</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.008508146787243653</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1419731655693519</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.004641173793873771</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1404200969282177</v>
-      </c>
       <c r="L247" t="n">
-        <v>1.060625858312347e-05</v>
+        <v>0.01036948693821874</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1403299013401837</v>
+        <v>0.1403732756205602</v>
       </c>
       <c r="N247" t="n">
-        <v>0.006532865484155111</v>
+        <v>0.0004073328860956238</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1419731655693519</v>
+        <v>0.1401011521466436</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.006487483628604733</v>
+        <v>0.01042556998434442</v>
       </c>
       <c r="G248" t="n">
+        <v>0.07080772095352099</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.008483386868614884</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1427532379076451</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.004208390865983624</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1411916359223289</v>
-      </c>
       <c r="L248" t="n">
-        <v>-0.0009124884799910915</v>
+        <v>0.00959567592616542</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1411009447541407</v>
+        <v>0.1411445573547391</v>
       </c>
       <c r="N248" t="n">
-        <v>0.006487483628604733</v>
+        <v>0.0003777002870166135</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1427532379076451</v>
+        <v>0.1408709386968999</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.006444375105816628</v>
+        <v>0.01001511262033256</v>
       </c>
       <c r="G249" t="n">
+        <v>0.07067813636020424</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.008459854971734578</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1435333102459382</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.004081982297647085</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1419631749164399</v>
-      </c>
       <c r="L249" t="n">
-        <v>-0.001412496616040593</v>
+        <v>0.009824583272642934</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1418719881680978</v>
+        <v>0.141915839088918</v>
       </c>
       <c r="N249" t="n">
-        <v>0.006444375105816628</v>
+        <v>-0.0004436126642853866</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1435333102459382</v>
+        <v>0.1416407252471561</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.006403601494917067</v>
+        <v>0.009612716823469869</v>
       </c>
       <c r="G250" t="n">
+        <v>0.07054855176688749</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.008237586279599723</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1443133825842314</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.004062164041890887</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.142734713910551</v>
-      </c>
       <c r="L250" t="n">
-        <v>-0.002088567034232741</v>
+        <v>0.00905624187502202</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1426430315820549</v>
+        <v>0.142687120823097</v>
       </c>
       <c r="N250" t="n">
-        <v>0.006403601494917067</v>
+        <v>-0.0007563925565064467</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1443133825842314</v>
+        <v>0.1424105117974124</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.00626522437503229</v>
+        <v>0.009218693950509838</v>
       </c>
       <c r="G251" t="n">
+        <v>0.07041896717357073</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.008316615975207269</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1450934549225245</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.003949152051741872</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1435062529046621</v>
-      </c>
       <c r="L251" t="n">
-        <v>-0.002839848619234864</v>
+        <v>0.00919068463067349</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1434140749960119</v>
+        <v>0.1434584025572758</v>
       </c>
       <c r="N251" t="n">
-        <v>0.00626522437503229</v>
+        <v>-0.0007604259783424716</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1450934549225245</v>
+        <v>0.1431802983476687</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.00632930532528856</v>
+        <v>0.008833355358205987</v>
       </c>
       <c r="G252" t="n">
+        <v>0.07028938258025398</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.008396979241554192</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1458735272608177</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.003743162280226753</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1442777918987732</v>
-      </c>
       <c r="L252" t="n">
-        <v>-0.002765490255714403</v>
+        <v>0.008927944436968149</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1441851184099689</v>
+        <v>0.1442296842914547</v>
       </c>
       <c r="N252" t="n">
-        <v>0.00632930532528856</v>
+        <v>-0.00135549951848965</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1458735272608177</v>
+        <v>0.143950084897925</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.006195905924812117</v>
+        <v>0.008457012403311696</v>
       </c>
       <c r="G253" t="n">
+        <v>0.07015979798693722</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.008278711261637463</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1466535995991108</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.003544410680372284</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1450493308928843</v>
-      </c>
       <c r="L253" t="n">
-        <v>-0.003464640828338666</v>
+        <v>0.008468054191276775</v>
       </c>
       <c r="M253" t="n">
-        <v>0.144956161823926</v>
+        <v>0.1450009660256336</v>
       </c>
       <c r="N253" t="n">
-        <v>0.006195905924812117</v>
+        <v>-0.001741399765643997</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1466535995991108</v>
+        <v>0.1447198714481813</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.00606508775272923</v>
+        <v>0.008089976442580478</v>
       </c>
       <c r="G254" t="n">
+        <v>0.07003021339362046</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.008361847218454038</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1474336719374039</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.003853113205205316</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1458208698869954</v>
-      </c>
       <c r="L254" t="n">
-        <v>-0.003736449221775073</v>
+        <v>0.008011046790970172</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1457272052378831</v>
+        <v>0.1457722477598125</v>
       </c>
       <c r="N254" t="n">
-        <v>0.00606508775272923</v>
+        <v>-0.002017913308501568</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1474336719374039</v>
+        <v>0.1454896579984376</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006036912388166137</v>
+        <v>0.007732558832765808</v>
       </c>
       <c r="G255" t="n">
+        <v>0.0699006288003037</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.008346422295000884</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1482137442756971</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.003269485807752603</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1465924088811064</v>
-      </c>
       <c r="L255" t="n">
-        <v>-0.004180064320690929</v>
+        <v>0.007856955133419136</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1464982486518401</v>
+        <v>0.1465435294939914</v>
       </c>
       <c r="N255" t="n">
-        <v>0.006036912388166137</v>
+        <v>-0.002884826735758406</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1482137442756971</v>
+        <v>0.1462594445486938</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006011441410249105</v>
+        <v>0.007385070930621171</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06977104420698695</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.008132471674274978</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1489938166139902</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.003693744441040842</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1473639478752175</v>
-      </c>
       <c r="L256" t="n">
-        <v>-0.004794635009753662</v>
+        <v>0.007905812115994448</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1472692920657972</v>
+        <v>0.1473148112281704</v>
       </c>
       <c r="N256" t="n">
-        <v>0.006011441410249105</v>
+        <v>-0.003241926636110615</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1489938166139902</v>
+        <v>0.1470292310989501</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006188736398104383</v>
+        <v>0.00704782409289996</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06964145961367019</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.008320030539273285</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1497738889522834</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.003526105058096918</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1481354868693286</v>
-      </c>
       <c r="L257" t="n">
-        <v>-0.005179310173630658</v>
+        <v>0.007557650636066893</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1480403354797542</v>
+        <v>0.1480860929623493</v>
       </c>
       <c r="N257" t="n">
-        <v>0.006188736398104383</v>
+        <v>-0.003388999598254228</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1497738889522834</v>
+        <v>0.1477990176492064</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006168858930858216</v>
+        <v>0.006721129676355707</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06951187502035343</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.008309134072992767</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1505539612905765</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.003366783611947533</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1489070258634397</v>
-      </c>
       <c r="L258" t="n">
-        <v>-0.005833238696989207</v>
+        <v>0.007312503591007269</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1488113788937113</v>
+        <v>0.1488573746965282</v>
       </c>
       <c r="N258" t="n">
-        <v>0.006168858930858216</v>
+        <v>-0.003625832210885249</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1505539612905765</v>
+        <v>0.1485688041994627</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005951870587636868</v>
+        <v>0.006405299037741875</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06938229042703668</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.008099817458430393</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1513340336288697</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.003515996055619447</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1496785648575508</v>
-      </c>
       <c r="L259" t="n">
-        <v>-0.005755569464496818</v>
+        <v>0.007270403878186421</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1495824223076683</v>
+        <v>0.1496286564307071</v>
       </c>
       <c r="N259" t="n">
-        <v>0.005951870587636868</v>
+        <v>-0.004152211062699834</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1513340336288697</v>
+        <v>0.149338590749719</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005937832947566599</v>
+        <v>0.006100643533811879</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06925270583371992</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.00819211587858313</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1521141059671628</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.003073958342139443</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1504501038516619</v>
-      </c>
       <c r="L260" t="n">
-        <v>-0.005845451360820764</v>
+        <v>0.006531384394975082</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1503534657216254</v>
+        <v>0.150399938164886</v>
       </c>
       <c r="N260" t="n">
-        <v>0.005937832947566599</v>
+        <v>-0.003967922742393937</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1521141059671628</v>
+        <v>0.1501083772999753</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.006026807589773635</v>
+        <v>0.005807474521319238</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06912312124040317</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.008186064516447947</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.152894178305456</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.003040886424534373</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.151221642845773</v>
-      </c>
       <c r="L261" t="n">
-        <v>-0.006802033270628421</v>
+        <v>0.006795478038744057</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1511245091355825</v>
+        <v>0.1511712198990648</v>
       </c>
       <c r="N261" t="n">
-        <v>0.006026807589773635</v>
+        <v>-0.004972753838663718</v>
       </c>
       <c r="O261" t="n">
-        <v>0.152894178305456</v>
+        <v>0.1508781638502315</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005918856093384273</v>
+        <v>0.005526103357017385</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06899353664708641</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.008281698555021803</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1536742506437491</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.003116996255830895</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1519931818398841</v>
-      </c>
       <c r="L262" t="n">
-        <v>-0.006424464078587155</v>
+        <v>0.006362717706864196</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1518955525495395</v>
+        <v>0.1519425016332438</v>
       </c>
       <c r="N262" t="n">
-        <v>0.005918856093384273</v>
+        <v>-0.004966490940205154</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1536742506437491</v>
+        <v>0.1516479504004878</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.006114040037524728</v>
+        <v>0.005256841397659834</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06886395205376966</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.008179053177301686</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1544543229820422</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.003002503789055866</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1527647208339951</v>
-      </c>
       <c r="L263" t="n">
-        <v>-0.006611892669364378</v>
+        <v>0.005933136296706165</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1526665959634965</v>
+        <v>0.1527137833674227</v>
       </c>
       <c r="N263" t="n">
-        <v>0.006114040037524728</v>
+        <v>-0.004948920635714282</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1544543229820422</v>
+        <v>0.1524177369507441</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.00601242100132126</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.0687343674604529</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.008178163566284535</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1552343953203354</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.00339762497723603</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1535362598281062</v>
-      </c>
       <c r="L264" t="n">
-        <v>-0.007063467927627493</v>
+        <v>0.005706766705640881</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1534376393774536</v>
+        <v>0.1534850651016016</v>
       </c>
       <c r="N264" t="n">
-        <v>0.00601242100132126</v>
+        <v>-0.005819829513887237</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1552343953203354</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1531875235010004</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06872120956571605</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005767807694624101</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06872147809418007</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006531578684958857</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06872174662264408</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.00729127034034445</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06872201515110811</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008046840030021978</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06872228367957212</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008798245123331813</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06872255220803614</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009545442989581182</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06872282073650016</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01028839099810954</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06872308926496418</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01102704651815943</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.0687233577934282</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01176136691907051</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0687236263218922</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01249130957015</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06872389485035622</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01321683184073658</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06872416337882024</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01393789110007433</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06872443190728426</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01465444471750214</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06872470043574827</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01536645006232724</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06872496896421229</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01607386450388752</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06872523749267631</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01677664541142864</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06872550602114033</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01747475015428869</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06872577454960434</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0181681361017749</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06872604307806836</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01885676062322436</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06872631160653238</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01954058108788434</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0687265801349964</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02021955486509212</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06872684866346042</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02089363932415497</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06872711719192443</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02156279183440905</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06872738572038846</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0222269697651034</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06872765424885247</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02288630456090329</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06872792277731649</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02354179804308912</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06872819130578049</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02419358165632518</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06872845983424453</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02484161276986198</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06872872836270853</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02548584875303518</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06872899689117255</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02612624697515202</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06872926541963657</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0267627648055473</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06872953394810059</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02739535961347289</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06872980247656461</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02802398876826373</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06873007100502862</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02864860963922709</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06873033953349264</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02926917959569708</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06873060806195666</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02988565600692693</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06873087659042068</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03049799624225093</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06873114511888469</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03110615767097631</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06873141364734871</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03171009766243647</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06873168217581273</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03230977358588609</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06873195070427675</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03290514281065875</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06873221923274075</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03349616270606165</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06873248776120477</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03408279064142748</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06873275628966879</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03466498398601237</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06873302481813282</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03524270010914918</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06873329334659684</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03581589638014511</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06873356187506084</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03638453016833205</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06873383040352488</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03694855884296773</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06873409893198888</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03750793977338419</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.0687343674604529</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03750793977338419</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06872120956571605</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03811598097690518</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06885133121596083</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03871873931610398</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06898145286620563</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03931609026184681</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06911157451645043</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03990790928499972</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06924169616669522</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04049407185642895</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06937181781694</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04107445344700064</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06950193946718479</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04164892952758095</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06963206111742959</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0422173755690361</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06976218276767439</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04277966704223213</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06989230441791917</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04333567941803529</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.07002242606816396</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04388528816731173</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.07015254771840874</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04442836876092758</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.07028266936865353</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04496479666974909</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.07041279101889834</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04549444736464231</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.07054291266914313</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04601719631647347</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.07067303431938791</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04653291899610869</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.0708031559696327</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04704149087441419</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.07093327761987749</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04754278742225611</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.07106339927012228</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04803668411050058</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.07119352092036708</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04852305641001375</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.07132364257061187</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04900177979166183</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.07145376422085666</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04947272972631098</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.07158388587110144</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04993578168482737</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.07171400752134624</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0503908111380771</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.07184412917159104</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05083820205088957</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.07197425082183583</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05128088085790991</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.07210437247208061</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05171923152396751</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0722344941223254</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05215312951992855</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0723646157725702</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.05258245031665912</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.07249473742281498</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.05300706938502542</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.07262485907305978</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.05342686219589357</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.07275498072330457</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.05384170422012984</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.07288510237354937</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05425147092860028</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.07301522402379415</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05465603779217108</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.07314534567403894</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05505528028170843</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.07327546732428374</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05544907386807846</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.07340558897452852</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05583729402214739</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.07353571062477331</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05621981621478134</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.07366583227501811</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05659651591684645</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.07379595392526289</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05696726859920891</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.07392607557550768</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05733194973273487</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.07405619722575248</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05769043478829053</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.07418631887599728</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05804259923674199</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.07431644052624206</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05838831854895546</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.07444656217648685</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05872746819579706</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.07457668382673163</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05905992364813301</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.07470680547697643</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05938556037682945</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.07483692712722123</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05970425385275251</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.07496704877746602</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.06001587954676837</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.0750971704277108</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05634391969784558</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.0750971704277108</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.06022200614952453</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07736794082060755</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.06041345997427369</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0796387112135043</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.06059078276862138</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.08190948160640103</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.06075451628017313</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.08418025199929778</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.06090520225653441</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08645102239219453</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.06104338244531075</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08872179278509129</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.06116959859410766</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.09099256317798803</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.06128439245053065</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.09326333357088477</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.06138830576218521</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.09553410396378152</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.06148188027667685</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09780487435667827</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.06156565774161112</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.100075644749575</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.06164017990459347</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1023464151424718</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.06170598851322946</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1046171855353685</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.06176362531512455</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1068879559282652</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.06181363205788429</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.109158726321162</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.06185655048911418</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1114294967140587</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0618929223564197</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1137002671069555</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06192328940740638</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1159710374998522</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06194819338967973</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.118241807892749</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.06196817605084526</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1205125782856457</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06198377913850847</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1227833486785425</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06199554440027488</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1250541190714392</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.06200401358375</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.127324889464336</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06200972843653933</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1295956598572327</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06201323070624837</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1318664302501295</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06201506214048264</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1341372006430262</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06201576448684763</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1364079710359229</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0620158794929489</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1386787414288197</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06196725500595972</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1409495118217165</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06180851670795273</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1432202822146132</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.06154810149200568</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1454910526075099</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.06119486724579215</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1477618230004067</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06075767185698573</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06024537321326001</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1523033637862002</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05966682920228855</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1545741341790969</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05903089771174497</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1568449045719937</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05834643662930285</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1591156749648904</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05762230384263577</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1613864453577872</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05686735723941731</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1636572157506839</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05609045470732107</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1659279861435807</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05530045413402065</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1681987565364774</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05450621340718963</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1704695269293741</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.05371659041450155</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1727402973222709</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.05294044304363006</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1750110677151676</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.05218662918224873</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1772818381080644</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.05146400671803114</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1795526085009611</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.05078143353865086</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1818233788938579</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05014776753178152</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1840941492867546</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04957186658509669</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1863649196796514</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04906258858626993</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1886356900725481</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04862879142297484</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1909064604654449</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04825945997269648</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1931772308583416</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04790923178811618</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1954480012512383</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04757475906339861</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1977187716441351</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04725487309943363</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1999895420370319</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04694840519711115</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2022603124299286</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04665418665732107</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2045310828228253</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04637104878095323</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2068018532157221</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04609782286889752</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2090726236086188</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04583334022204384</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2113433940015156</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04557643214128208</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2136141643944123</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04532592992750209</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2158849347873091</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04508066488159376</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2181557051802058</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04483946830444699</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2204264755731025</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04460117149695167</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2226972459659994</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04436460575999764</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2249680163588961</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04412860239447482</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2272387867517928</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04389199270127307</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2295095571446895</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.04365360798128229</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2317803275375863</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04341227953539235</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2340510979304831</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.04316683866449313</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2363218683233798</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.04291611666947451</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2385926387162765</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.0426589448512264</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2408634091091733</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.04239415451063863</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.24313417950207</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.04212057694860115</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2454049498949668</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0418370434660038</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2476757202878636</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.04154428642310067</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2499464906807603</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.0412485005465838</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.252217261073657</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.04095030324444805</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2544880314665537</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.04064972637105273</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2567588018594505</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.04034680178075711</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2590295722523472</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.04004156132792046</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.261300342645244</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03973403686690209</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2635711130381407</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03942426025206124</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2658418834310375</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03911226333775721</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2681126538239342</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03879807797834929</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.270383424216831</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03848173602819674</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2726541946097278</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03816326934165885</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2749249650026245</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03784270977309491</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2771957353955212</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03752008917686417</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.279466505788418</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03719543940732596</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2817372761813147</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03686879231883951</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2840080465742115</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03654017976576412</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2862788169671082</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03620963360245909</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.288549587360005</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03587718568328366</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2908203577529017</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03554286786259712</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2930911281457985</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03520671199475879</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2953618985386952</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.0348687499341279</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.297632668931592</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03452901353506377</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2999034393244887</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1218.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1218.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.09134391969784558</v>
+        <v>0.06383055784136892</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04134391969784558</v>
+        <v>0.01383055784136891</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0251346704277108</v>
+        <v>0.01233945082409633</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001155202475878248</v>
+        <v>0.001943488726881201</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007585572770475839</v>
+        <v>0.001644229443926366</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001263891458938751</v>
+        <v>0.003071253379120932</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007800723382931426</v>
+        <v>0.001652834983126887</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004290024486505256</v>
+        <v>0.008419283875014422</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007712817341789024</v>
+        <v>0.001655777184367465</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006884568411396952</v>
+        <v>0.01568674101022338</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007697865502562833</v>
+        <v>0.001959371994308214</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002317126383471174</v>
+        <v>0.004522317243823834</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001517114554095168</v>
+        <v>0.003288458887852732</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002457914930071976</v>
+        <v>0.005599758012101705</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001560144676586285</v>
+        <v>0.003305669966253774</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.008675339253152087</v>
+        <v>0.01317606291742723</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001542563468357805</v>
+        <v>0.002857244112465095</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01275313744825035</v>
+        <v>0.01967084490615972</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001539573100512567</v>
+        <v>0.003305669966253774</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003485622505330042</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002275671831142751</v>
+        <v>0.004113150274698776</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.006761584399466891</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002498124999999998</v>
+        <v>0.004222820756979558</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01292415070306993</v>
+        <v>0.01615323163000187</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002313845202536707</v>
+        <v>0.004967331553102395</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.02458467685796006</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.001940291262135924</v>
+        <v>0.004958504949380661</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00466054162400615</v>
+        <v>0.008216168537231498</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003034229108190335</v>
+        <v>0.006576917775705463</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.004572919887403402</v>
+        <v>0.008245199878568296</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00312028935317257</v>
+        <v>0.006611339932507548</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01570466523938815</v>
+        <v>0.01847419210616555</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00308512693671561</v>
+        <v>0.006623108737469859</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02260638739828591</v>
+        <v>0.02795083432019263</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003079146201025133</v>
+        <v>0.006611339932507548</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01645260109879512</v>
+        <v>0.004113150274698776</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005841734522050758</v>
+        <v>0.01071567198351182</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00379278638523792</v>
+        <v>0.00822114721963183</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.005512058096547992</v>
+        <v>0.008958297957758016</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003900361691465713</v>
+        <v>0.008264174915634435</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01799999999999999</v>
+        <v>0.01995779634534658</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00363804611650485</v>
+        <v>0.008278885921837323</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02711849785668052</v>
+        <v>0.03034124086885326</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003848932751281417</v>
+        <v>0.008264174915634435</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007029051982015165</v>
+        <v>0.01005148551191629</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004551343662285503</v>
+        <v>0.009865376663558195</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006613010136595515</v>
+        <v>0.009734026661574725</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004680434029758856</v>
+        <v>0.009917009898761322</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02018027897899391</v>
+        <v>0.02137339952797032</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004627690405073414</v>
+        <v>0.00993466310620479</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03100982213168779</v>
+        <v>0.03272782007993791</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.0046187193015377</v>
+        <v>0.009917009898761322</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008222344786450633</v>
+        <v>0.01125882773380761</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005309900939333087</v>
+        <v>0.01150960610748456</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007470563106525038</v>
+        <v>0.01035416238002285</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005460506368051998</v>
+        <v>0.01156984488188821</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02197249095205459</v>
+        <v>0.0222903568344622</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005398972139252316</v>
+        <v>0.01159044029057225</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03424269699531413</v>
+        <v>0.03508249552944243</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005388505851793983</v>
+        <v>0.01156984488188821</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00942146371790846</v>
+        <v>0.01383055784136891</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006068458216380671</v>
+        <v>0.01233945082409633</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008179504105315587</v>
+        <v>0.01110048150310682</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00624057870634514</v>
+        <v>0.0132226798650151</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02349652220330195</v>
+        <v>0.0239780234452478</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006170253873431219</v>
+        <v>0.01324621747493972</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03717945921956622</v>
+        <v>0.03787719079336282</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006158292402050266</v>
+        <v>0.0132226798650151</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01062625955893991</v>
+        <v>0.01348598992930736</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006827015493428255</v>
+        <v>0.01479806499533729</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009034620231946226</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007020651044638284</v>
+        <v>0.01405195312499999</v>
       </c>
       <c r="L74" s="172" t="n">
         <v>0.0253385825335139</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007316105697126028</v>
+        <v>0.01463745117187499</v>
       </c>
       <c r="N74" s="171" t="n">
         <v>0.03921685252555845</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006793938953911977</v>
+        <v>0.01405195312499999</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01183658309209627</v>
+        <v>0.01657497937773791</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007585572770475839</v>
+        <v>0.01644229443926366</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.009530698585395986</v>
+        <v>0.01253739662219742</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007800723382931425</v>
+        <v>0.01652834983126887</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0258110480521283</v>
+        <v>0.02711740941960153</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007712817341789024</v>
+        <v>0.01655777184367465</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04038282454229242</v>
+        <v>0.04320826337405448</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007697865502562833</v>
+        <v>0.01652834983126887</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01305228509992882</v>
+        <v>0.01763883375290293</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008344130047523423</v>
+        <v>0.01808652388319002</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01016252626464392</v>
+        <v>0.01326580399914914</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008580795721224568</v>
+        <v>0.01818118481439576</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02662233678730122</v>
+        <v>0.02872001063673532</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008484099075967927</v>
+        <v>0.01821354902804211</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.042437861102187</v>
+        <v>0.04584411478234468</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008467652052819116</v>
+        <v>0.01818118481439576</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01427321636498884</v>
+        <v>0.01666843249014557</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009102687324571005</v>
+        <v>0.01973075332711639</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01092489036866907</v>
+        <v>0.01431192997250351</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009360868059517712</v>
+        <v>0.01983401979752264</v>
       </c>
       <c r="L77" t="n">
-        <v>0.027523648974493</v>
+        <v>0.03097778424242947</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009255380810146829</v>
+        <v>0.01986932621240958</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0440614782530207</v>
+        <v>0.04879049614974662</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009237438603075401</v>
+        <v>0.01983401979752264</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01549922766982761</v>
+        <v>0.01865465502480905</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00986124460161859</v>
+        <v>0.02137498277104276</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.01516159996158023</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01022474759559215</v>
+        <v>0.02148685478064953</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02831454135414088</v>
+        <v>0.03275837756283001</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01002666254432573</v>
+        <v>0.02152510339677704</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04565356633857109</v>
+        <v>0.05170727427151189</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01000722515333168</v>
+        <v>0.02148685478064953</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0167301697969964</v>
+        <v>0.01958838079223653</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01061980187866617</v>
+        <v>0.02301921221496912</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01165165466559193</v>
+        <v>0.01590063938569906</v>
       </c>
       <c r="K79" t="n">
-        <v>0.010921012736104</v>
+        <v>0.02313968976377642</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02909457066668231</v>
+        <v>0.03442943792408293</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01079794427850463</v>
+        <v>0.02318088058114451</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04671401570261585</v>
+        <v>0.05505431594289178</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01077701170358797</v>
+        <v>0.02313968976377642</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01796589352904651</v>
+        <v>0.02046048922777118</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01137835915571376</v>
+        <v>0.02466344165889549</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01208661516922659</v>
+        <v>0.01661487366417971</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01170108507439714</v>
+        <v>0.0247925247469033</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02996329365255454</v>
+        <v>0.03635861265233417</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01156922601268353</v>
+        <v>0.02483665776551197</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04854271668893251</v>
+        <v>0.05779148795913785</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01154679825384425</v>
+        <v>0.0247925247469033</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0192062496485292</v>
+        <v>0.02126185976675615</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01213691643276134</v>
+        <v>0.02630767110282185</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01271757603482586</v>
+        <v>0.01759012821634191</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01248115741269028</v>
+        <v>0.02644535973003019</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03112026705219487</v>
+        <v>0.03801354907372978</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01234050774686244</v>
+        <v>0.02649243494987943</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04963955964129857</v>
+        <v>0.06037865711550133</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01231658480410053</v>
+        <v>0.02644535973003019</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02045108893799577</v>
+        <v>0.02298337184453469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01289547370980893</v>
+        <v>0.02795190054674822</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01294421002165912</v>
+        <v>0.01831222846150538</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01326122975098342</v>
+        <v>0.02809819471315708</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03176504760604065</v>
+        <v>0.03956189451441569</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01311178948104134</v>
+        <v>0.0281482121342469</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05120443490349191</v>
+        <v>0.06237569020723377</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01308637135435682</v>
+        <v>0.02809819471315708</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02170026217999747</v>
+        <v>0.02261590489644993</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01365403098685651</v>
+        <v>0.02959612999067458</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01346618988899581</v>
+        <v>0.0189669998189898</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01404130208927657</v>
+        <v>0.02975102969628397</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03239719205452921</v>
+        <v>0.04097129630053803</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01388307121522024</v>
+        <v>0.02980398931861436</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05193723281928991</v>
+        <v>0.06454245402958647</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0138561579046131</v>
+        <v>0.02975102969628397</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0229536201570856</v>
+        <v>0.02315033835784507</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01441258826390409</v>
+        <v>0.03124035943460095</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01378318839610534</v>
+        <v>0.01934026770811495</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01482137442756971</v>
+        <v>0.03140386467941085</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03321625713809789</v>
+        <v>0.0428094017582426</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01465435294939915</v>
+        <v>0.03145976650298183</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05393784373247024</v>
+        <v>0.06643881537781093</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01462594445486938</v>
+        <v>0.03140386467941085</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02421101365181146</v>
+        <v>0.02257755166406326</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01517114554095168</v>
+        <v>0.03288458887852732</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01429487830225712</v>
+        <v>0.01981785754820053</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01560144676586285</v>
+        <v>0.03305669966253774</v>
       </c>
       <c r="L85" t="n">
-        <v>0.034421799597184</v>
+        <v>0.04364385821367558</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01542563468357805</v>
+        <v>0.03311554368734929</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05510615798681057</v>
+        <v>0.06842464104715851</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01539573100512567</v>
+        <v>0.03305669966253774</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02547229344672627</v>
+        <v>0.02391651909537586</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01592970281799926</v>
+        <v>0.03452881832245368</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0146009323667206</v>
+        <v>0.02038559475856629</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01638151910415599</v>
+        <v>0.03470953464566463</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03491337617222484</v>
+        <v>0.04444231299298282</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01619691641775695</v>
+        <v>0.03477132087171676</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05624206592608832</v>
+        <v>0.06905979783288063</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01616551755538195</v>
+        <v>0.03470953464566463</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.02324171331090749</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01645260109879512</v>
+        <v>0.03617304776638005</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01520102334876515</v>
+        <v>0.02046650261650777</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01716159144244914</v>
+        <v>0.03636236962879151</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03559054360365771</v>
+        <v>0.0452014060505054</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01696819815193585</v>
+        <v>0.03642709805608422</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05694545789408134</v>
+        <v>0.07062016425363077</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01693530410563823</v>
+        <v>0.03636236962879151</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0280612472867087</v>
+        <v>0.02455579489486941</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01744681737209443</v>
+        <v>0.03781727721030641</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01559482400766021</v>
+        <v>0.02073673402649674</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01794166378074228</v>
+        <v>0.0380152046119184</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03645285863192002</v>
+        <v>0.04570567876875448</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01773947988611475</v>
+        <v>0.03808287524045169</v>
       </c>
       <c r="N88" t="n">
-        <v>0.05871622423456707</v>
+        <v>0.07144488819243816</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01770509065589452</v>
+        <v>0.0380152046119184</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02943422249112231</v>
+        <v>0.02385657133960717</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01820537464914201</v>
+        <v>0.03946150665423278</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01578200710267519</v>
+        <v>0.0211975158566705</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01872173611903542</v>
+        <v>0.03966803959504529</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03699987799744905</v>
+        <v>0.04649026703402565</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01851076162029366</v>
+        <v>0.03973865242481916</v>
       </c>
       <c r="N89" t="n">
-        <v>0.05985425529132321</v>
+        <v>0.07233727594698341</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0184748772061508</v>
+        <v>0.03966803959504529</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03084182282568816</v>
+        <v>0.02514185013746642</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0189639319261896</v>
+        <v>0.04110573609815914</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01636224539307951</v>
+        <v>0.0214470026705183</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01950180845732856</v>
+        <v>0.04132087457817217</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0381311584406821</v>
+        <v>0.04695106878492381</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01928204335447256</v>
+        <v>0.04139442960918662</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06075944140812728</v>
+        <v>0.07279101248779207</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01924466375640708</v>
+        <v>0.04132087457817217</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03226624241877295</v>
+        <v>0.02640943878079274</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01972248920323718</v>
+        <v>0.04274996554208552</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01653521163814259</v>
+        <v>0.02148334903152944</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02028188079562171</v>
+        <v>0.04297370956129906</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0387462567020565</v>
+        <v>0.04768398196005402</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02005332508865146</v>
+        <v>0.04305020679355408</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06203167292875694</v>
+        <v>0.07369978278538986</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02001445030666337</v>
+        <v>0.04297370956129906</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03368967539874335</v>
+        <v>0.02465714476193177</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02048104648028477</v>
+        <v>0.04439419498601188</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01690057859713386</v>
+        <v>0.02180470950319326</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02106195313391485</v>
+        <v>0.04462654454442595</v>
       </c>
       <c r="L92" t="n">
-        <v>0.03944472952200961</v>
+        <v>0.0482849044980212</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02082460682283037</v>
+        <v>0.04470598397792155</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06287084019698974</v>
+        <v>0.07435727181030205</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02078423685691965</v>
+        <v>0.04462654454442595</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03509431589396601</v>
+        <v>0.02488277557322909</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02123960375733235</v>
+        <v>0.04603842442993824</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01735801902932269</v>
+        <v>0.02210923864899894</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02184202547220799</v>
+        <v>0.04627937952755283</v>
       </c>
       <c r="L93" t="n">
-        <v>0.03982613364097873</v>
+        <v>0.04864973433743044</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02159588855700927</v>
+        <v>0.04636176116228902</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06377683355660346</v>
+        <v>0.07565716453305427</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02155402340717593</v>
+        <v>0.04627937952755283</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03646235803280763</v>
+        <v>0.02508413870703032</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02199816103437993</v>
+        <v>0.04768265387386461</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01770720569397856</v>
+        <v>0.02219509103243583</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02262209781050114</v>
+        <v>0.04793221451067972</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0406900257994012</v>
+        <v>0.04897436941688665</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02236717029118817</v>
+        <v>0.04801753834665647</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06454954335137553</v>
+        <v>0.075993145924172</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02232380995743222</v>
+        <v>0.04793221451067972</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03777599594363483</v>
+        <v>0.02625904165568106</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02275671831142751</v>
+        <v>0.04932688331779098</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01814781135037083</v>
+        <v>0.02226042121699319</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02340217014879428</v>
+        <v>0.04958504949380661</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04143596273771427</v>
+        <v>0.04915470767499491</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02313845202536707</v>
+        <v>0.04967331553102394</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06558885992508362</v>
+        <v>0.07625890095418092</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0230935965076885</v>
+        <v>0.04958504949380661</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03901742375481432</v>
+        <v>0.02640529191152692</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0235152755884751</v>
+        <v>0.05097111276171734</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01837950875776893</v>
+        <v>0.02260338376616032</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02418224248708742</v>
+        <v>0.0512378844769335</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04206350119635538</v>
+        <v>0.04978664705036018</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02390973375954597</v>
+        <v>0.05132909271539141</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06669467362150522</v>
+        <v>0.07714811459360632</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02386338305794479</v>
+        <v>0.0512378844769335</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04016883559471272</v>
+        <v>0.0255206969669135</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02427383286552268</v>
+        <v>0.05261534220564371</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01860197067544231</v>
+        <v>0.0225221332434265</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02496231482538056</v>
+        <v>0.05289071946006038</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04237219791576174</v>
+        <v>0.05006608548158745</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02468101549372488</v>
+        <v>0.05298486989975887</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06786687478441816</v>
+        <v>0.07775447181297385</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02463316960820107</v>
+        <v>0.05289071946006038</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04134391969784558</v>
+        <v>0.02560306431418642</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0251346704277108</v>
+        <v>0.05425957164957008</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01901486986266035</v>
+        <v>0.02271482421228099</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02574238716367371</v>
+        <v>0.05454355444318727</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04336160963637081</v>
+        <v>0.05008892090728173</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02545229722790378</v>
+        <v>0.05464064708412634</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0687053537575999</v>
+        <v>0.07757165758280909</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02540295615845735</v>
+        <v>0.05454355444318727</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04217948191124025</v>
+        <v>0.02766111568273782</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02579094741961785</v>
+        <v>0.05590380109349644</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0192178790786925</v>
+        <v>0.02267961123621309</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02652245950196685</v>
+        <v>0.05619638942631415</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04373129309861976</v>
+        <v>0.05015105126604796</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02622357896208268</v>
+        <v>0.05629642426849381</v>
       </c>
       <c r="N99" t="n">
-        <v>0.06921000088482809</v>
+        <v>0.0779933568736374</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02617274270871364</v>
+        <v>0.05619638942631415</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04314063071106457</v>
+        <v>0.0276605332257925</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02654950469666544</v>
+        <v>0.0575480305374228</v>
       </c>
       <c r="J100" t="n">
-        <v>0.01971067108280815</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02730253184025999</v>
+        <v>0.05784922440944105</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04418080504294597</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02699486069626158</v>
+        <v>0.05795220145286126</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07018070650988034</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02694252925896992</v>
+        <v>0.05784922440944105</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04409222430440007</v>
+        <v>0.02764659342020294</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02730806197371302</v>
+        <v>0.05919225998134917</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01999291863427671</v>
+        <v>0.02271940224967811</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02808260417855313</v>
+        <v>0.05950205939256793</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0446097022097868</v>
+        <v>0.05017698125024039</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02776614243044049</v>
+        <v>0.05960797863722873</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07061736097653426</v>
+        <v>0.07842952055165697</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0277123158092262</v>
+        <v>0.05950205939256793</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04502946196656821</v>
+        <v>0.02561494382219794</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0280666192507606</v>
+        <v>0.06083648942527554</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02006429449236762</v>
+        <v>0.02290552467650388</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02886267651684627</v>
+        <v>0.06115489437569482</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04511754133957954</v>
+        <v>0.05015605200772261</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02853742416461939</v>
+        <v>0.0612637558215962</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07161985462856729</v>
+        <v>0.07838203190432586</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02848210235948248</v>
+        <v>0.06115489437569482</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04594754297289039</v>
+        <v>0.02756673994653978</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02882517652780818</v>
+        <v>0.0624807188692019</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02042447141635029</v>
+        <v>0.02277696554705549</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02964274885513942</v>
+        <v>0.0628077293588217</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04570387917276159</v>
+        <v>0.05040192405922828</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02930870589879829</v>
+        <v>0.06291953300596366</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0719880778097573</v>
+        <v>0.07808430340313682</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02925188890973877</v>
+        <v>0.0628077293588217</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04684166659868803</v>
+        <v>0.02650313730799073</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02958373380485577</v>
+        <v>0.06412494831312827</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02057312216549412</v>
+        <v>0.02273469745959351</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03042282119343256</v>
+        <v>0.06446056434194858</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04606827244977016</v>
+        <v>0.05041675930940956</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03007998763297719</v>
+        <v>0.06457531019033112</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07232192086388178</v>
+        <v>0.07813966325073823</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03002167545999505</v>
+        <v>0.06446056434194858</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04770703211928261</v>
+        <v>0.02742529142131306</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03034229108190336</v>
+        <v>0.06576917775705464</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02090991949906856</v>
+        <v>0.02277969301237855</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0312028935317257</v>
+        <v>0.06611339932507548</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04681027791104259</v>
+        <v>0.05030271966291841</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0308512693671561</v>
+        <v>0.06623108737469859</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07312127413471836</v>
+        <v>0.07775143964977849</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03079146201025133</v>
+        <v>0.06611339932507548</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04853883880999549</v>
+        <v>0.02733435780126907</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03110084835895094</v>
+        <v>0.06741340720098099</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02123453617634301</v>
+        <v>0.02251292480367117</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03198296587001884</v>
+        <v>0.06776623430820236</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04732945229701627</v>
+        <v>0.04976196702440697</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03162255110133499</v>
+        <v>0.06788686455906605</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0737860279660445</v>
+        <v>0.07732296080290602</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03156124856050762</v>
+        <v>0.06776623430820236</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04933228594614815</v>
+        <v>0.02723149196262103</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03185940563599852</v>
+        <v>0.06905763664490737</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02144664495658685</v>
+        <v>0.02253536543173197</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03276303820831199</v>
+        <v>0.06941906929132925</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04762535234812845</v>
+        <v>0.05009666329852722</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0323938328355139</v>
+        <v>0.06954264174343353</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07431607270163798</v>
+        <v>0.07715755491276921</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03233103511076391</v>
+        <v>0.06941906929132925</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05008257280306201</v>
+        <v>0.02711784942013123</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0326179629130461</v>
+        <v>0.07070186608883373</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02164591859906956</v>
+        <v>0.02234798749482154</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03354311054660513</v>
+        <v>0.07107190427445613</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04769753480481656</v>
+        <v>0.04980897038993132</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0331651145696928</v>
+        <v>0.07119841892780099</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07491129868527641</v>
+        <v>0.07655855018201652</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03310082166102019</v>
+        <v>0.07107190427445613</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05078489865605849</v>
+        <v>0.02699458568856193</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03337652019009369</v>
+        <v>0.0723460955327601</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02183202986306051</v>
+        <v>0.02245176359120046</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03432318288489827</v>
+        <v>0.07272473925758302</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0484455564075178</v>
+        <v>0.0497010502032712</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03393639630387171</v>
+        <v>0.07285419611216844</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07517159626073733</v>
+        <v>0.07622927481329628</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03387060821127647</v>
+        <v>0.07272473925758302</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05143446278045902</v>
+        <v>0.02686285628267544</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03413507746714127</v>
+        <v>0.07399032497668646</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02200465150782914</v>
+        <v>0.02234766631912931</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03510325522319142</v>
+        <v>0.0743775742407099</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04886897389666955</v>
+        <v>0.04917506464319901</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03470767803805061</v>
+        <v>0.07450997329653591</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07589685577179839</v>
+        <v>0.07577305700925691</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03464039476153275</v>
+        <v>0.0743775742407099</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05202646445158504</v>
+        <v>0.02672381671723402</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03489363474418886</v>
+        <v>0.07563455442061283</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02216345629264486</v>
+        <v>0.02203666827686868</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03588332756148456</v>
+        <v>0.0760304092238368</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04896734401270914</v>
+        <v>0.04883317561436679</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03547895977222951</v>
+        <v>0.07616575048090338</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07648696756223705</v>
+        <v>0.07569322497254677</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03541018131178903</v>
+        <v>0.0760304092238368</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05255610294475797</v>
+        <v>0.02457862250699995</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03565219202123644</v>
+        <v>0.07727878386453919</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02220811697677709</v>
+        <v>0.02191974206267917</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0366633998997777</v>
+        <v>0.07768324420696368</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04894022349607388</v>
+        <v>0.04857754502142661</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03625024150640841</v>
+        <v>0.07782152766527084</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07684182197583111</v>
+        <v>0.0749931069058144</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03617996786204532</v>
+        <v>0.07768324420696368</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05301857753529926</v>
+        <v>0.02642842916673552</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03641074929828402</v>
+        <v>0.07892301330846556</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02243830631949524</v>
+        <v>0.02199786027482137</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03744347223807085</v>
+        <v>0.07933607919009057</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04958716908720118</v>
+        <v>0.04821033476903053</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03702152324058731</v>
+        <v>0.07947730484963832</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07716130935635812</v>
+        <v>0.07517603101170806</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0369497544123016</v>
+        <v>0.07933607919009057</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05340908749853029</v>
+        <v>0.02527439221120298</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03716930657533161</v>
+        <v>0.08056724275239192</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02235369708006872</v>
+        <v>0.02167199551155582</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03822354457636399</v>
+        <v>0.08098891417321745</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04950773752652812</v>
+        <v>0.04843370676183054</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03779280497476621</v>
+        <v>0.08113308203400577</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07724532004759571</v>
+        <v>0.07444532549287619</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03771954096255788</v>
+        <v>0.08098891417321745</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05373047921208558</v>
+        <v>0.02411766715516465</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03792786385237919</v>
+        <v>0.08221147219631829</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02245396201776699</v>
+        <v>0.02174312037114316</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03900361691465713</v>
+        <v>0.08264174915634434</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04990148555449231</v>
+        <v>0.04764982290447878</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03856408670894512</v>
+        <v>0.08278885921837324</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07759374439332134</v>
+        <v>0.0741043185519672</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03848932751281417</v>
+        <v>0.08264174915634434</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05403620013477115</v>
+        <v>0.0259594095133828</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03868642112942678</v>
+        <v>0.08385570164024465</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02263877389185941</v>
+        <v>0.02161220745184396</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03978368925295027</v>
+        <v>0.08429458413947123</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05016796991153091</v>
+        <v>0.04746084510162726</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03933536844312402</v>
+        <v>0.08444463640274071</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07740647273731271</v>
+        <v>0.07325633839162954</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03925911406307045</v>
+        <v>0.08429458413947123</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0543374115749541</v>
+        <v>0.02480077480061969</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03944497840647436</v>
+        <v>0.08549993108417103</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02260780546161542</v>
+        <v>0.0214802293519188</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04056376159124341</v>
+        <v>0.08594741912259812</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05030674733808127</v>
+        <v>0.04716893525792809</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04010665017730292</v>
+        <v>0.08610041358710817</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07748339542334753</v>
+        <v>0.07330471321451154</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04002890061332674</v>
+        <v>0.08594741912259812</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.05463403799130503</v>
+        <v>0.02564291853163761</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04020353568352195</v>
+        <v>0.0871441605280974</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02276072948630443</v>
+        <v>0.02124815866962826</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04134383392953656</v>
+        <v>0.087600254105725</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05051737457458078</v>
+        <v>0.04697625527803326</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04087793191148183</v>
+        <v>0.08775619077147563</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07822440279520326</v>
+        <v>0.07235277122326167</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04079868716358302</v>
+        <v>0.087600254105725</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05492600384249451</v>
+        <v>0.02448682757122513</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04096209296056953</v>
+        <v>0.08878838997202376</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02289721872519589</v>
+        <v>0.02101696800323294</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0421239062678297</v>
+        <v>0.08925308908885189</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05029940836146662</v>
+        <v>0.0465849670665949</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04164921364566073</v>
+        <v>0.08941196795584309</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07772938519665756</v>
+        <v>0.07250384062052828</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04156847371383929</v>
+        <v>0.08925308908885189</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05521323358719302</v>
+        <v>0.02431663684626033</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04172065023761712</v>
+        <v>0.09043261941595011</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.02088611664033929</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04290397860612284</v>
+        <v>0.09090592407197877</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.04639698550120402</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04242049537983963</v>
+        <v>0.09106774514021056</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.07165607110440031</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04233826026409558</v>
+        <v>0.09090592407197877</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05549565168407111</v>
+        <v>0.02312401110853333</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0424792075146647</v>
+        <v>0.09207684885987648</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02272026588976007</v>
+        <v>0.0207394105918262</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04368405094441598</v>
+        <v>0.09255875905510566</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05047592254814695</v>
+        <v>0.04638334943360675</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04319177711401853</v>
+        <v>0.09272352232457803</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07843083646347226</v>
+        <v>0.07135404732029088</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04310804681435187</v>
+        <v>0.09255875905510566</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05577318259179939</v>
+        <v>0.02491271516326439</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04323776479171228</v>
+        <v>0.09372107830380286</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02281525776269647</v>
+        <v>0.02057471231425786</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04446412328270912</v>
+        <v>0.09421159403823255</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05026689493453887</v>
+        <v>0.04552800123688425</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04396305884819744</v>
+        <v>0.0943792995089455</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0777284254395591</v>
+        <v>0.07069045465741719</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04387783336460815</v>
+        <v>0.09421159403823255</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05604575076904833</v>
+        <v>0.0226865138156737</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04399632206875986</v>
+        <v>0.09536530774772922</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02270449576055071</v>
+        <v>0.02049519064902705</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04524419562100227</v>
+        <v>0.09586442902135944</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05031870569320201</v>
+        <v>0.04513798465481675</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04473434058237633</v>
+        <v>0.09603507669331295</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07809677003907722</v>
+        <v>0.0697761367978455</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04464761991486443</v>
+        <v>0.09586442902135944</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05631328067448853</v>
+        <v>0.02344917187098151</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04475487934580744</v>
+        <v>0.09700953719165559</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0228881654117925</v>
+        <v>0.02040401443752653</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04602426795929541</v>
+        <v>0.09751726400448632</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05023272914922433</v>
+        <v>0.04482034343118443</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04550562231655524</v>
+        <v>0.09769085387768042</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07823732049601473</v>
+        <v>0.06972193742364141</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04541740646512072</v>
+        <v>0.09751726400448632</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05657569676679051</v>
+        <v>0.02320445413440807</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04551343662285503</v>
+        <v>0.09865376663558195</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02286645224489148</v>
+        <v>0.02020435252114899</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04680434029758856</v>
+        <v>0.09917009898761321</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04991079901209131</v>
+        <v>0.04448212130976739</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04627690405073414</v>
+        <v>0.09934663106204789</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07825097239496603</v>
+        <v>0.06863870021687118</v>
       </c>
       <c r="O125" t="n">
-        <v>0.046187193015377</v>
+        <v>0.09917009898761321</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05683292350462481</v>
+        <v>0.02295612541117355</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04627199389990262</v>
+        <v>0.1002979960795083</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02283954178831731</v>
+        <v>0.01979937374128719</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0475844126358817</v>
+        <v>0.1008229339707401</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04985474899128839</v>
+        <v>0.04423036203434583</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04704818578491304</v>
+        <v>0.1010024082464153</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07763862132052574</v>
+        <v>0.06783726885960056</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04695697956563329</v>
+        <v>0.1008229339707401</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05708488534666201</v>
+        <v>0.02370795050649818</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0470305511769502</v>
+        <v>0.1019422255234347</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02270761957053966</v>
+        <v>0.0195922469393339</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04836448497417484</v>
+        <v>0.102475768953867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04996641279630104</v>
+        <v>0.04357210934869993</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04781946751909195</v>
+        <v>0.1026581854307828</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0777011628572884</v>
+        <v>0.06742848703389548</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04772676611588957</v>
+        <v>0.102475768953867</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05733150675157259</v>
+        <v>0.02146369422560222</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04778910845399778</v>
+        <v>0.103586454967361</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02267087112002819</v>
+        <v>0.01938614095668185</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04914455731246798</v>
+        <v>0.1041286039369939</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04964762413661461</v>
+        <v>0.04311440699660979</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04859074925327085</v>
+        <v>0.1043139626151503</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0776394925898487</v>
+        <v>0.06672319842182206</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04849655266614585</v>
+        <v>0.1041286039369939</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05757271217802715</v>
+        <v>0.02322712137370589</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04854766573104537</v>
+        <v>0.1052306844112874</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02252948196525255</v>
+        <v>0.01938422463472378</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04992462965076112</v>
+        <v>0.1057814389201208</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04910021672171463</v>
+        <v>0.04266429872185562</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04936203098744976</v>
+        <v>0.1059697397995177</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07755450610280112</v>
+        <v>0.06593224670544601</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04926633921640213</v>
+        <v>0.1057814389201208</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05780842608469623</v>
+        <v>0.02300181812669379</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04930622300809295</v>
+        <v>0.1068749138552138</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02268363763468245</v>
+        <v>0.01918966681485239</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05070470198905427</v>
+        <v>0.1074342739032476</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04882602426108648</v>
+        <v>0.04242882826821759</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05013331272162865</v>
+        <v>0.1076255169838852</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07744709898074031</v>
+        <v>0.06546647556683355</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05003612576665842</v>
+        <v>0.1074342739032476</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05803857293025035</v>
+        <v>0.02176772870158153</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05006478028514053</v>
+        <v>0.1085191432991402</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0224335236567875</v>
+        <v>0.01900295046600074</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05148477432734741</v>
+        <v>0.1090871088863745</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04902688046421569</v>
+        <v>0.04211408452158241</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05090459445580756</v>
+        <v>0.1092812941682527</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0769181668082608</v>
+        <v>0.06452753771147141</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0508059123169147</v>
+        <v>0.1090871088863745</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05826307717336007</v>
+        <v>0.02251302386430078</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05082333756218812</v>
+        <v>0.1101633727430665</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02247932556003739</v>
+        <v>0.01870222475730611</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05226484666564055</v>
+        <v>0.1107399438695014</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04860461904058763</v>
+        <v>0.0414792477819641</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05167587618998646</v>
+        <v>0.1109370713526201</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0768686051699573</v>
+        <v>0.06384066023867285</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05157569886717098</v>
+        <v>0.1107399438695014</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05848186327269593</v>
+        <v>0.02024309293462719</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0515818948392357</v>
+        <v>0.1118076021869929</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0225212288729018</v>
+        <v>0.01838563239561415</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0530449190039337</v>
+        <v>0.1123927788526283</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04796107369968769</v>
+        <v>0.04080684005500645</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05244715792416536</v>
+        <v>0.1125928485369876</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07649930965042423</v>
+        <v>0.0629994875458777</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05234548541742727</v>
+        <v>0.1123927788526283</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05869485568692848</v>
+        <v>0.02196332523233639</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05234045211628329</v>
+        <v>0.1134518316309193</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02235941912385034</v>
+        <v>0.01815770957830691</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05382499134222683</v>
+        <v>0.1140456138357552</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04769807815100147</v>
+        <v>0.04020694446199416</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05321843965834427</v>
+        <v>0.1142486257213551</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07571117583425635</v>
+        <v>0.06271954236713984</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05311527196768356</v>
+        <v>0.1140456138357552</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05890197887472826</v>
+        <v>0.02067911007720406</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05309900939333087</v>
+        <v>0.1150960610748456</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0222940818413527</v>
+        <v>0.01792299250276638</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05460506368051998</v>
+        <v>0.1156984488188821</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0473174661040143</v>
+        <v>0.03988964412421206</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05398972139252316</v>
+        <v>0.1159044029057225</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07590509930604811</v>
+        <v>0.06161634743651334</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05388505851793984</v>
+        <v>0.1156984488188821</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05910315729476583</v>
+        <v>0.01939583678900586</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05385756667037846</v>
+        <v>0.116740290518772</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02212540255387858</v>
+        <v>0.01768601736637462</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05538513601881312</v>
+        <v>0.117351283802009</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04682107126821158</v>
+        <v>0.03926502216294492</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05476100312670207</v>
+        <v>0.11756018009009</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07568197565039408</v>
+        <v>0.06110542548805237</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05465484506819612</v>
+        <v>0.117351283802009</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05929831540571172</v>
+        <v>0.02011889468751744</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05461612394742604</v>
+        <v>0.1183845199626983</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0220535667898976</v>
+        <v>0.01755132036651363</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05616520835710627</v>
+        <v>0.1190041187851359</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04661072735307886</v>
+        <v>0.03894316169947751</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05553228486088097</v>
+        <v>0.1192159572744575</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07494270045188894</v>
+        <v>0.0601022992558109</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0554246316184524</v>
+        <v>0.1190041187851359</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05948737766623649</v>
+        <v>0.01885367309251444</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05537468122447362</v>
+        <v>0.1200287494066247</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02197876007787944</v>
+        <v>0.01732343770056545</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05694528069539941</v>
+        <v>0.1206569537682627</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04598826806810152</v>
+        <v>0.0382341458550946</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05630356659505987</v>
+        <v>0.1208717344588249</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07438816929512732</v>
+        <v>0.05892249147384315</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05619441816870868</v>
+        <v>0.1206569537682627</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05967026853501065</v>
+        <v>0.01960556132377253</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05613323850152121</v>
+        <v>0.1216729788505511</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02200116794629375</v>
+        <v>0.01700690556591208</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05772535303369255</v>
+        <v>0.1223097887513896</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04585552712276506</v>
+        <v>0.03764805775108099</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05707484832923877</v>
+        <v>0.1225275116431924</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0743192777647036</v>
+        <v>0.05828152487620297</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05696420471896496</v>
+        <v>0.1223097887513896</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05984691247070477</v>
+        <v>0.01937994870106738</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05689179577856879</v>
+        <v>0.1233172082944774</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02192097592361021</v>
+        <v>0.0169062601599356</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05850542537198569</v>
+        <v>0.1239626237345165</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0452143382265548</v>
+        <v>0.03749498050872144</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05784613006341768</v>
+        <v>0.1241832888275599</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0737369214452126</v>
+        <v>0.05769492219694461</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05773399126922125</v>
+        <v>0.1239626237345165</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06001723393198939</v>
+        <v>0.01818222454417463</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05765035305561637</v>
+        <v>0.1249614377384038</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02173836953829848</v>
+        <v>0.01682603768001799</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05928549771027884</v>
+        <v>0.1256154587176434</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04476653508895628</v>
+        <v>0.03708499724930073</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05861741179759659</v>
+        <v>0.1258390660119273</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07354199592124872</v>
+        <v>0.05727820617012208</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05850377781947753</v>
+        <v>0.1256154587176434</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06018115737753507</v>
+        <v>0.02001777817286993</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05840891033266395</v>
+        <v>0.1266056671823302</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02165353431882822</v>
+        <v>0.01657077432354126</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06006557004857199</v>
+        <v>0.1272682937007703</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04431395141945496</v>
+        <v>0.03672819109410366</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05938869353177548</v>
+        <v>0.1274948431962948</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0732353967774067</v>
+        <v>0.0567468995297894</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05927356436973381</v>
+        <v>0.1272682937007703</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06033860726601234</v>
+        <v>0.01989199890692894</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05916746760971154</v>
+        <v>0.1282498966262565</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0216666557936691</v>
+        <v>0.01644500628788749</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06084564238686512</v>
+        <v>0.1289211286838972</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04395842092753618</v>
+        <v>0.03653464516441499</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06015997526595438</v>
+        <v>0.1291506203806622</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07301801959828108</v>
+        <v>0.05651652501000065</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06004335091999011</v>
+        <v>0.1289211286838972</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06048950805609177</v>
+        <v>0.01981027606612733</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05992602488675913</v>
+        <v>0.1298941260701829</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02147791949129076</v>
+        <v>0.01645326977043866</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06162571472515826</v>
+        <v>0.1305739636670241</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04340177732268546</v>
+        <v>0.03621444258151946</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06093125700013329</v>
+        <v>0.1308063975650297</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07249075996846632</v>
+        <v>0.05630260534480996</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06081313747024639</v>
+        <v>0.1305739636670241</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06063378420644386</v>
+        <v>0.01777799897024074</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06068458216380671</v>
+        <v>0.1315383555141093</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02158751094016288</v>
+        <v>0.01620010096857684</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0624057870634514</v>
+        <v>0.132226798650151</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04294585431438827</v>
+        <v>0.0361776664667019</v>
       </c>
       <c r="M145" t="n">
-        <v>0.0617025387343122</v>
+        <v>0.1324621747493972</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07215451347255719</v>
+        <v>0.05572066326827141</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06158292402050267</v>
+        <v>0.132226798650151</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06077136017573918</v>
+        <v>0.01978088956163748</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0614431394408543</v>
+        <v>0.1331825849580356</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02149561566875513</v>
+        <v>0.01618850432161482</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06318585940174455</v>
+        <v>0.1338796336332778</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04239248561212997</v>
+        <v>0.03583420600446477</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06247382046849109</v>
+        <v>0.1341179519337646</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07121017569514815</v>
+        <v>0.05538097988336765</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06235271057075895</v>
+        <v>0.1338796336332778</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06090216042264827</v>
+        <v>0.01979176073365953</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06220169671790187</v>
+        <v>0.134826814401962</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02130241920553717</v>
+        <v>0.01619364216508605</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06396593174003769</v>
+        <v>0.1355324686164047</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04214350492539604</v>
+        <v>0.03584255599580188</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06324510220266999</v>
+        <v>0.1357737291181321</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0706586422208339</v>
+        <v>0.05569856143264751</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06312249712101524</v>
+        <v>0.1355324686164047</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06102610940584169</v>
+        <v>0.01880995937766713</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06296025399494946</v>
+        <v>0.1364710438458884</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02110810707897866</v>
+        <v>0.01640511848514432</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06474600407833084</v>
+        <v>0.1371853035995316</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0415007459636719</v>
+        <v>0.03576512423816353</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0640163839368489</v>
+        <v>0.1374295063024996</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07040080863420889</v>
+        <v>0.05573783306242486</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06389228367127152</v>
+        <v>0.1371853035995316</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06114313158398997</v>
+        <v>0.01983508948840633</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06371881127199704</v>
+        <v>0.1381152732898147</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02111286481754926</v>
+        <v>0.01622259996365838</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06552607641662397</v>
+        <v>0.1388381385826585</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04136604243644307</v>
+        <v>0.03630116982747059</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0647876656710278</v>
+        <v>0.1390852834868671</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07023757051986779</v>
+        <v>0.05549765416785585</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06466207022152781</v>
+        <v>0.1388381385826585</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06125315141576367</v>
+        <v>0.01786675506062314</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06447736854904462</v>
+        <v>0.1397595027337411</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02111687794971864</v>
+        <v>0.01644575328249702</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06630614875491712</v>
+        <v>0.1404909735657854</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04104122805319488</v>
+        <v>0.03594995185964406</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06555894740520669</v>
+        <v>0.1407410606712345</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06966982346240513</v>
+        <v>0.05597688414409652</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06543185677178409</v>
+        <v>0.1404909735657854</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0613560933598333</v>
+        <v>0.01790456008906363</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06523592582609221</v>
+        <v>0.1414037321776675</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02082033200395646</v>
+        <v>0.01637424512352896</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06708622109321026</v>
+        <v>0.1421438085489123</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04062813652341279</v>
+        <v>0.0360107294306049</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0663302291393856</v>
+        <v>0.142396837855602</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06909846304641559</v>
+        <v>0.05607438238630313</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06620164332204037</v>
+        <v>0.1421438085489123</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06145188187486944</v>
+        <v>0.01994810856847386</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06599448310313979</v>
+        <v>0.1430479616215938</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02082341250873239</v>
+        <v>0.01630774216862299</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06786629343150341</v>
+        <v>0.1437966435320392</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03972860155658234</v>
+        <v>0.03598276163627404</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06710151087356452</v>
+        <v>0.1440526150399694</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06872438485649374</v>
+        <v>0.05578900828963185</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06697142987229665</v>
+        <v>0.1437966435320392</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06154044141954261</v>
+        <v>0.01799700449359982</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06675304038018738</v>
+        <v>0.1446921910655202</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02082630499251609</v>
+        <v>0.01654591109964787</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06864636576979655</v>
+        <v>0.145449478515166</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03974445686218889</v>
+        <v>0.03606530757257248</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06787279260774341</v>
+        <v>0.1457083922243369</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06804848447723411</v>
+        <v>0.05611962124923858</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06774121642255293</v>
+        <v>0.145449478515166</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0616216964525234</v>
+        <v>0.01905085185918759</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06751159765723495</v>
+        <v>0.1463364205094466</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0205291949837772</v>
+        <v>0.01638841859847234</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06942643810808968</v>
+        <v>0.1471023134982929</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03947753614971788</v>
+        <v>0.03665762633542111</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06864407434192231</v>
+        <v>0.1473641694087044</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06757165749323124</v>
+        <v>0.05636508066027979</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06851100297280921</v>
+        <v>0.1471023134982929</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06169557143248229</v>
+        <v>0.01810925465998321</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06827015493428254</v>
+        <v>0.1479806499533729</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02063226801098543</v>
+        <v>0.01663493134696517</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07020651044638283</v>
+        <v>0.1487551484814198</v>
       </c>
       <c r="L155" t="n">
-        <v>0.03882967312865476</v>
+        <v>0.0365589770207409</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06941535607610122</v>
+        <v>0.1490199465930718</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06729479948907979</v>
+        <v>0.05672424591791148</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0692807895230655</v>
+        <v>0.1487551484814198</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06176199081808988</v>
+        <v>0.02017181689073271</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06902871221133013</v>
+        <v>0.1496248793972993</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0204357096026104</v>
+        <v>0.01668511602699514</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07098658278467597</v>
+        <v>0.1504079834645467</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03880270150848503</v>
+        <v>0.03686861872445282</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07018663781028012</v>
+        <v>0.1506757237774393</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06711880604937442</v>
+        <v>0.05709597641728964</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07005057607332178</v>
+        <v>0.1504079834645467</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06182087906801668</v>
+        <v>0.01923814254618214</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06978726948837771</v>
+        <v>0.1512691088412257</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02023970528712181</v>
+        <v>0.01663863932043098</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07176665512296912</v>
+        <v>0.1520608184476736</v>
       </c>
       <c r="L157" t="n">
-        <v>0.03839845499869404</v>
+        <v>0.03698581054247785</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07095791954445901</v>
+        <v>0.1523315009618068</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06634457275870959</v>
+        <v>0.05707913155357064</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07082036262357806</v>
+        <v>0.1520608184476736</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06187216064093327</v>
+        <v>0.01833715017012169</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0705458267654253</v>
+        <v>0.152913338285152</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02024150156631088</v>
+        <v>0.01679934565894818</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07254672746126226</v>
+        <v>0.1537136534308005</v>
       </c>
       <c r="L158" t="n">
-        <v>0.03801211077181782</v>
+        <v>0.03661218641190536</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07172920127863792</v>
+        <v>0.1539872781461742</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06615691680265967</v>
+        <v>0.05678686685890211</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07159014917383436</v>
+        <v>0.1537136534308005</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06191575999551015</v>
+        <v>0.01949847561815181</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07130438404247288</v>
+        <v>0.1545575677290784</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02023650036646238</v>
+        <v>0.01680622474702317</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07332679979955541</v>
+        <v>0.1553664884139274</v>
       </c>
       <c r="L159" t="n">
-        <v>0.03763278576946746</v>
+        <v>0.03732654877673802</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07250048301281682</v>
+        <v>0.1556430553305417</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06523008093444727</v>
+        <v>0.05715260395550709</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07235993572409063</v>
+        <v>0.1553664884139274</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06195160159041789</v>
+        <v>0.01871030230324312</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07206294131952047</v>
+        <v>0.1562017971730048</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01992493877503788</v>
+        <v>0.01706089026934053</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07410687213784854</v>
+        <v>0.1570193233970543</v>
       </c>
       <c r="L160" t="n">
-        <v>0.03725986066891798</v>
+        <v>0.0376511157488969</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07327176474699572</v>
+        <v>0.1572988325149092</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06446546300238803</v>
+        <v>0.05778186482492581</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07312972227434691</v>
+        <v>0.1570193233970543</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06197960988432706</v>
+        <v>0.01996067578257142</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07282149859656804</v>
+        <v>0.1578460266169311</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01990712658909857</v>
+        <v>0.01705328015601014</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07488694447614169</v>
+        <v>0.1586721583801811</v>
       </c>
       <c r="L161" t="n">
-        <v>0.03699290390883492</v>
+        <v>0.03796352122247126</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07404304648117463</v>
+        <v>0.1589546096992766</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06426490718348432</v>
+        <v>0.05864021735987013</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07389950882460321</v>
+        <v>0.1586721583801811</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06199970933590815</v>
+        <v>0.02123764161331242</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07358005587361563</v>
+        <v>0.1594902560608575</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01988337360570563</v>
+        <v>0.01727333233714186</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07566701681443483</v>
+        <v>0.160324993363308</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0371314839278836</v>
+        <v>0.03844139909155048</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07481432821535354</v>
+        <v>0.1606103868836441</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06313025765473829</v>
+        <v>0.05969322945305205</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07466929537485949</v>
+        <v>0.160324993363308</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06201182440383174</v>
+        <v>0.01952924535264193</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07433861315066322</v>
+        <v>0.1611344855047838</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01975398962192024</v>
+        <v>0.0176109847428456</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07644708915272798</v>
+        <v>0.1619778283464349</v>
       </c>
       <c r="L163" t="n">
-        <v>0.03657516916472944</v>
+        <v>0.03896238325022391</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07558560994953242</v>
+        <v>0.1622661640680115</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06256335859315215</v>
+        <v>0.06050646899718348</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07543908192511577</v>
+        <v>0.1619778283464349</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06201587954676839</v>
+        <v>0.01982353255773568</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0750971704277108</v>
+        <v>0.1627787149487102</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01951928443480354</v>
+        <v>0.0177561753032312</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07722716149102112</v>
+        <v>0.1636306633295618</v>
       </c>
       <c r="L164" t="n">
-        <v>0.03632352805803787</v>
+        <v>0.03940410759258087</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07635689168371133</v>
+        <v>0.163921941252379</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06196605417572826</v>
+        <v>0.06124550388497624</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07620886847537205</v>
+        <v>0.1636306633295618</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06201587954676838</v>
+        <v>0.02210854878576947</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0750971704277108</v>
+        <v>0.1644229443926366</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01927956784141675</v>
+        <v>0.01799884194840859</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07800723382931425</v>
+        <v>0.1652834983126887</v>
       </c>
       <c r="L165" t="n">
-        <v>0.03627612904647434</v>
+        <v>0.04004420601271075</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07712817341789024</v>
+        <v>0.1655777184367465</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06164018857946879</v>
+        <v>0.06217590200914225</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07697865502562834</v>
+        <v>0.1652834983126887</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0609919516263786</v>
+        <v>0.02137233959391903</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07509690189924678</v>
+        <v>0.166067173836563</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01913514963882104</v>
+        <v>0.01842892260848759</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07878730616760739</v>
+        <v>0.1669363332958156</v>
       </c>
       <c r="L166" t="n">
-        <v>0.03573254056870423</v>
+        <v>0.04016031240470283</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07789945515206914</v>
+        <v>0.1672334956211139</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06028760598137606</v>
+        <v>0.06306323126239355</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07774844157588462</v>
+        <v>0.1669363332958156</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05997934620877411</v>
+        <v>0.02060295053936013</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07509663337078278</v>
+        <v>0.1677114032804893</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01898633962407757</v>
+        <v>0.01863635521357811</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07956737850590054</v>
+        <v>0.1685891682789425</v>
       </c>
       <c r="L167" t="n">
-        <v>0.03539233106339298</v>
+        <v>0.04073006066264653</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07867073688624804</v>
+        <v>0.1688892728054814</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05981015055845218</v>
+        <v>0.063773059537442</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0785182281261409</v>
+        <v>0.1685891682789425</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0589785678538997</v>
+        <v>0.02080943401346338</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07509636484231874</v>
+        <v>0.1693556327244157</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01903344759424756</v>
+        <v>0.01881500489640074</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08034745084419369</v>
+        <v>0.1702420032620694</v>
       </c>
       <c r="L168" t="n">
-        <v>0.03565506896920603</v>
+        <v>0.04123457293421059</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07944201862042695</v>
+        <v>0.1705450499898489</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0592096664876996</v>
+        <v>0.06368439349885374</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07928801467639719</v>
+        <v>0.1702420032620694</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05799012112183052</v>
+        <v>0.02201073542106967</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07509609631385473</v>
+        <v>0.1709998621683421</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01887678334639216</v>
+        <v>0.01888479514499281</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08112752318248682</v>
+        <v>0.1718948382451962</v>
       </c>
       <c r="L169" t="n">
-        <v>0.03542032272480874</v>
+        <v>0.041512286166067</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08021330035460585</v>
+        <v>0.1722008271742163</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0581879979461204</v>
+        <v>0.06466541073684073</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08005780122665347</v>
+        <v>0.1718948382451962</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05701451057251085</v>
+        <v>0.02220724307604584</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07509582778539071</v>
+        <v>0.1726440916122684</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01851665667757256</v>
+        <v>0.01895041361124386</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08190759552077997</v>
+        <v>0.1735476732283231</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0348876607688666</v>
+        <v>0.04228062300802013</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08098458208878474</v>
+        <v>0.1738566043585838</v>
       </c>
       <c r="N170" t="n">
-        <v>0.05764698911071681</v>
+        <v>0.06543215225832849</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08082758777690975</v>
+        <v>0.1735476732283231</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05605224076592867</v>
+        <v>0.02239933620929863</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07509555925692671</v>
+        <v>0.1742883210561948</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01855337738484995</v>
+        <v>0.01921217949429549</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08268766785907311</v>
+        <v>0.17520050821145</v>
       </c>
       <c r="L171" t="n">
-        <v>0.03495665154004496</v>
+        <v>0.04254029298026646</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08175586382296365</v>
+        <v>0.1755123815429513</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05648848415849117</v>
+        <v>0.06538571035339319</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08159737432716603</v>
+        <v>0.17520050821145</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05510381626203106</v>
+        <v>0.02358739405173463</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07509529072846267</v>
+        <v>0.1759325505001211</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01828725526528546</v>
+        <v>0.01947041199328924</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08346774019736626</v>
+        <v>0.1768533431945769</v>
       </c>
       <c r="L172" t="n">
-        <v>0.03462686347700927</v>
+        <v>0.04279200560300267</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08252714555714255</v>
+        <v>0.1771681587273187</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0558143272664457</v>
+        <v>0.06622717731211131</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08236716087742231</v>
+        <v>0.1768533431945769</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0541697416208887</v>
+        <v>0.02377179583426056</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07509502219999867</v>
+        <v>0.1775767799440475</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01811860011594033</v>
+        <v>0.01942543030736665</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0842478125356594</v>
+        <v>0.1785061781777038</v>
       </c>
       <c r="L173" t="n">
-        <v>0.03419786501842498</v>
+        <v>0.04313647039642543</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08329842729132146</v>
+        <v>0.1788239359116862</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05472636261158265</v>
+        <v>0.06715764542455915</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08313694742767859</v>
+        <v>0.1785061781777038</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05325052140244801</v>
+        <v>0.02395292078778309</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07509475367153465</v>
+        <v>0.1792210093879739</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01784772173387569</v>
+        <v>0.01967755363566936</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08502788487395255</v>
+        <v>0.1801590131608307</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03406922460295744</v>
+        <v>0.04367439688073133</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08406970902550036</v>
+        <v>0.1804797130960537</v>
       </c>
       <c r="N174" t="n">
-        <v>0.05392643437090416</v>
+        <v>0.06757820698081313</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08390673397793488</v>
+        <v>0.1801590131608307</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05234666016669706</v>
+        <v>0.02213114814320886</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07509448514307064</v>
+        <v>0.1808652388319002</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01787492991615278</v>
+        <v>0.01992710117733888</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08580795721224568</v>
+        <v>0.1818118481439575</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03394051066927217</v>
+        <v>0.04360649457611693</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08484099075967926</v>
+        <v>0.1821354902804211</v>
       </c>
       <c r="N175" t="n">
-        <v>0.05301638672141268</v>
+        <v>0.06768995427094954</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08467652052819116</v>
+        <v>0.1818118481439575</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05145866247358559</v>
+        <v>0.02330685713144459</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07509421661460661</v>
+        <v>0.1825094682758266</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01770053445983273</v>
+        <v>0.02007439213151682</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08658802955053883</v>
+        <v>0.1834646831270844</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0335112916560345</v>
+        <v>0.04413347300277898</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08561227249385817</v>
+        <v>0.1837912674647886</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05219806384011039</v>
+        <v>0.0682939795850448</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08544630707844744</v>
+        <v>0.1834646831270844</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05058703288317895</v>
+        <v>0.02348042698339692</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0750939480861426</v>
+        <v>0.184153697719753</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01742484516197672</v>
+        <v>0.02021974569734471</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08736810188883197</v>
+        <v>0.1851175181102113</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03338113600190987</v>
+        <v>0.044656041680914</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08638355422803706</v>
+        <v>0.1854470446491561</v>
       </c>
       <c r="N177" t="n">
-        <v>0.05107330990399933</v>
+        <v>0.06879137521317535</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08621609362870374</v>
+        <v>0.1851175181102113</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0497322759554262</v>
+        <v>0.02265223692997252</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07509367955767858</v>
+        <v>0.1857979271636793</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01734817181964597</v>
+        <v>0.02036348107396414</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08814817422712511</v>
+        <v>0.1867703530933382</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03324961214556371</v>
+        <v>0.04447491013071869</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08715483596221596</v>
+        <v>0.1871028218335235</v>
       </c>
       <c r="N178" t="n">
-        <v>0.05044396909008203</v>
+        <v>0.06948323344541757</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08698588017896002</v>
+        <v>0.1867703530933382</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0488948962503154</v>
+        <v>0.02382704334481291</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07509341102921456</v>
+        <v>0.1874421566076057</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01697082422990159</v>
+        <v>0.02050658573216581</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08892824656541824</v>
+        <v>0.1884231880764651</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03301628852566144</v>
+        <v>0.04519119431480326</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08792611769639487</v>
+        <v>0.188758599017891</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04951188557536057</v>
+        <v>0.07007293337778048</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08775566672921629</v>
+        <v>0.1884231880764651</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04807539832779931</v>
+        <v>0.02501196937162944</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07509314250075054</v>
+        <v>0.1890863860515321</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01679311218980482</v>
+        <v>0.02045737742726415</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08970831890371139</v>
+        <v>0.190076023059592</v>
       </c>
       <c r="L180" t="n">
-        <v>0.03258073358086847</v>
+        <v>0.04552219002685035</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08869739943057378</v>
+        <v>0.1904143762022584</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04797890353683726</v>
+        <v>0.07038893812436592</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08852545327947259</v>
+        <v>0.190076023059592</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04727428674793734</v>
+        <v>0.02520099776783442</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07509287397228652</v>
+        <v>0.1907306154954584</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01661534549641684</v>
+        <v>0.02071400221877923</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09048839124200454</v>
+        <v>0.1917288580427189</v>
       </c>
       <c r="L181" t="n">
-        <v>0.03264251574985019</v>
+        <v>0.04586794783853118</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08946868116475266</v>
+        <v>0.1920701533866259</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04774686715151422</v>
+        <v>0.07072490355536676</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08929523982972887</v>
+        <v>0.1917288580427189</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04649206607068147</v>
+        <v>0.02438761401531153</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07509260544382251</v>
+        <v>0.1923748449393848</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01643783394679879</v>
+        <v>0.02077097682843942</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09126846358029768</v>
+        <v>0.1933816930258458</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03220120347127209</v>
+        <v>0.04581627944426861</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09023996289893157</v>
+        <v>0.1937259305709934</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0466176205963939</v>
+        <v>0.07116206605377379</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09006502637998515</v>
+        <v>0.1933816930258458</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04572924085601973</v>
+        <v>0.02456530359594446</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07509233691535849</v>
+        <v>0.1940190743833112</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0163608873380119</v>
+        <v>0.02112281797797318</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09204853591859083</v>
+        <v>0.1950345280089726</v>
       </c>
       <c r="L183" t="n">
-        <v>0.03175636518379954</v>
+        <v>0.0462549965384855</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09101124463311049</v>
+        <v>0.1953817077553608</v>
       </c>
       <c r="N183" t="n">
-        <v>0.04559300804847827</v>
+        <v>0.07228166200257785</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09083481293024144</v>
+        <v>0.1950345280089726</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04498631566390832</v>
+        <v>0.02572755199161686</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07509206838689447</v>
+        <v>0.1956633038272375</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01618481546711729</v>
+        <v>0.02116404238910889</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09282860825688397</v>
+        <v>0.1966873629920995</v>
       </c>
       <c r="L184" t="n">
-        <v>0.03190756932609798</v>
+        <v>0.04667191081560462</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09178252636728938</v>
+        <v>0.1970374849397283</v>
       </c>
       <c r="N184" t="n">
-        <v>0.04487487368476994</v>
+        <v>0.07216492778476991</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09160459948049772</v>
+        <v>0.1966873629920995</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04426379505439991</v>
+        <v>0.02586784468421241</v>
       </c>
       <c r="G185" t="n">
-        <v>0.07509179985843045</v>
+        <v>0.1973075332711639</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01600992813117619</v>
+        <v>0.02118916678357499</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09360868059517712</v>
+        <v>0.1983401979752264</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03145438433683281</v>
+        <v>0.04695483397004879</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09255380810146828</v>
+        <v>0.1986932621240958</v>
       </c>
       <c r="N185" t="n">
-        <v>0.04346506168227088</v>
+        <v>0.07289309978334069</v>
       </c>
       <c r="O185" t="n">
-        <v>0.092374386030754</v>
+        <v>0.1983401979752264</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04356218358744983</v>
+        <v>0.02497966715561477</v>
       </c>
       <c r="G186" t="n">
-        <v>0.07509153132996645</v>
+        <v>0.1989517627150903</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01583653512724975</v>
+        <v>0.02129270788309988</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09438875293347025</v>
+        <v>0.1999930329583533</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03109637865466949</v>
+        <v>0.04699157769624082</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09332508983564719</v>
+        <v>0.2003490393084632</v>
       </c>
       <c r="N186" t="n">
-        <v>0.04296541621798344</v>
+        <v>0.07344741438128111</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09314417258101029</v>
+        <v>0.1999930329583533</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0428819858230461</v>
+        <v>0.02505826494952086</v>
       </c>
       <c r="G187" t="n">
-        <v>0.07509126280150243</v>
+        <v>0.2005959921590166</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01556494625239915</v>
+        <v>0.021369182409412</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0951688252717634</v>
+        <v>0.2016458679414802</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03073312071827333</v>
+        <v>0.04756995368860359</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09409637156982609</v>
+        <v>0.2020048164928307</v>
       </c>
       <c r="N187" t="n">
-        <v>0.04217778146890983</v>
+        <v>0.07370910796158203</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09391395913126657</v>
+        <v>0.2016458679414802</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04222370632114864</v>
+        <v>0.02512646776258834</v>
       </c>
       <c r="G188" t="n">
-        <v>0.07509099427303841</v>
+        <v>0.202240221602943</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0155954713036856</v>
+        <v>0.02152664962627204</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09594889761005654</v>
+        <v>0.2032987029246071</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03056417896630992</v>
+        <v>0.04749922389617536</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09486765330400498</v>
+        <v>0.2036605936771982</v>
       </c>
       <c r="N188" t="n">
-        <v>0.04090400161205227</v>
+        <v>0.07350575908784923</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09468374568152285</v>
+        <v>0.2032987029246071</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04158784964180276</v>
+        <v>0.02619316767593036</v>
       </c>
       <c r="G189" t="n">
-        <v>0.07509072574457439</v>
+        <v>0.2038844510468694</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01522842007817023</v>
+        <v>0.02158270499557223</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09672896994834967</v>
+        <v>0.204951537907734</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03018912183744446</v>
+        <v>0.04772375693139644</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09563893503818389</v>
+        <v>0.2053163708615656</v>
       </c>
       <c r="N189" t="n">
-        <v>0.04014592082441304</v>
+        <v>0.07359757891328211</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09545353223177915</v>
+        <v>0.204951537907734</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04097286005834933</v>
+        <v>0.02625834071523873</v>
       </c>
       <c r="G190" t="n">
-        <v>0.07509045721611037</v>
+        <v>0.2055286804907957</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01506410237291428</v>
+        <v>0.02153748976410189</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09750904228664281</v>
+        <v>0.2066043728908609</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03010751777034262</v>
+        <v>0.04804547665429626</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09641021677236279</v>
+        <v>0.2069721480459331</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03950538328299447</v>
+        <v>0.0736850507802404</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09622331878203542</v>
+        <v>0.2066043728908609</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04036688041106919</v>
+        <v>0.02532196290620528</v>
       </c>
       <c r="G191" t="n">
-        <v>0.07509018868764636</v>
+        <v>0.2071729099347221</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01500282798497889</v>
+        <v>0.02169098375265502</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09828911462493596</v>
+        <v>0.2082572078739877</v>
       </c>
       <c r="L191" t="n">
-        <v>0.02991893520366964</v>
+        <v>0.04806433821026093</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0971814985065417</v>
+        <v>0.2086279252303005</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03878423316479862</v>
+        <v>0.07456810563607441</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0969931053322917</v>
+        <v>0.2082572078739877</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03976835497330673</v>
+        <v>0.02438401027452181</v>
       </c>
       <c r="G192" t="n">
-        <v>0.07508992015918232</v>
+        <v>0.2088171393786485</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01494490671142525</v>
+        <v>0.02164316678202557</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0990691869632291</v>
+        <v>0.2099100428571146</v>
       </c>
       <c r="L192" t="n">
-        <v>0.02922294257609098</v>
+        <v>0.04798029674467666</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0979527802407206</v>
+        <v>0.210283702414668</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0373843146468279</v>
+        <v>0.07444667442813463</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09776289188254798</v>
+        <v>0.2099100428571146</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03917778830510216</v>
+        <v>0.02644445884588011</v>
       </c>
       <c r="G193" t="n">
-        <v>0.07508965163071832</v>
+        <v>0.2104613688225748</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01458642784758971</v>
+        <v>0.02169401867300755</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09984925930152225</v>
+        <v>0.2115628778402415</v>
       </c>
       <c r="L193" t="n">
-        <v>0.02931771129146085</v>
+        <v>0.04809330740292969</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09872406197489951</v>
+        <v>0.2119394795990355</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03679336841757092</v>
+        <v>0.07462068810377126</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09853267843280426</v>
+        <v>0.2115628778402415</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03859568496641731</v>
+        <v>0.02550328464597199</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0750893831022543</v>
+        <v>0.2121055982665012</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01442252244082955</v>
+        <v>0.02184351924639492</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1006293316398154</v>
+        <v>0.2132157128233684</v>
       </c>
       <c r="L194" t="n">
-        <v>0.02900171679106509</v>
+        <v>0.04820332533040619</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09949534370907841</v>
+        <v>0.213595256783403</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03599476027332471</v>
+        <v>0.0746900776103348</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09930246498306054</v>
+        <v>0.2132157128233684</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0380225495172402</v>
+        <v>0.02656046370048926</v>
       </c>
       <c r="G195" t="n">
-        <v>0.07508911457379029</v>
+        <v>0.2137498277104276</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01435364673594801</v>
+        <v>0.02199164832298169</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1014094039781085</v>
+        <v>0.2148685478064953</v>
       </c>
       <c r="L195" t="n">
-        <v>0.02827552922870441</v>
+        <v>0.0486103056724923</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1002666254432573</v>
+        <v>0.2152510339677704</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03508922280375176</v>
+        <v>0.07485477389517559</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1000722515333168</v>
+        <v>0.2148685478064953</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0374588865175346</v>
+        <v>0.02561597203512372</v>
       </c>
       <c r="G196" t="n">
-        <v>0.07508884604532626</v>
+        <v>0.2153940571543539</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01418027322050899</v>
+        <v>0.02203838572356182</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1021894763164017</v>
+        <v>0.2165213827896222</v>
       </c>
       <c r="L196" t="n">
-        <v>0.02803972402361365</v>
+        <v>0.04841420357457432</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1010379071774362</v>
+        <v>0.2169068111521379</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03417754717310956</v>
+        <v>0.07531470790564398</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1008420380835731</v>
+        <v>0.2165213827896222</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03690520052733759</v>
+        <v>0.02666978567556723</v>
       </c>
       <c r="G197" t="n">
-        <v>0.07508857751686225</v>
+        <v>0.2170382865982803</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01390287438207638</v>
+        <v>0.02188371126892925</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1029695486546948</v>
+        <v>0.2181742177727491</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0278948765950276</v>
+        <v>0.04881497418203834</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1018091889116151</v>
+        <v>0.2185625883365054</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03386052454565569</v>
+        <v>0.07516981058909034</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1016118246338294</v>
+        <v>0.2181742177727491</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03636199610661249</v>
+        <v>0.02672188064751151</v>
       </c>
       <c r="G198" t="n">
-        <v>0.07508830898839823</v>
+        <v>0.2186825160422066</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01392192270821407</v>
+        <v>0.02212760477987803</v>
       </c>
       <c r="K198" t="n">
-        <v>0.103749620992988</v>
+        <v>0.2198270527558759</v>
       </c>
       <c r="L198" t="n">
-        <v>0.02744156236218109</v>
+        <v>0.04841257264027057</v>
       </c>
       <c r="M198" t="n">
-        <v>0.102580470645794</v>
+        <v>0.2202183655208728</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03263894608564794</v>
+        <v>0.07562001289286507</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1023816111840857</v>
+        <v>0.2198270527558759</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03582977781534735</v>
+        <v>0.02677223297664842</v>
       </c>
       <c r="G199" t="n">
-        <v>0.07508804045993422</v>
+        <v>0.220326745486133</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01363789068648597</v>
+        <v>0.02197004607720209</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1045296933312811</v>
+        <v>0.2214798877390028</v>
       </c>
       <c r="L199" t="n">
-        <v>0.02738035674430889</v>
+        <v>0.04890695409465726</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1033517523799729</v>
+        <v>0.2218741427052403</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03171360295734399</v>
+        <v>0.07576524576431848</v>
       </c>
       <c r="O199" t="n">
-        <v>0.103151397734342</v>
+        <v>0.2214798877390028</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0353090502135078</v>
+        <v>0.02482081868866975</v>
       </c>
       <c r="G200" t="n">
-        <v>0.07508777193147019</v>
+        <v>0.2219709749300594</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01355125080445592</v>
+        <v>0.02221101498169543</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1053097656695742</v>
+        <v>0.2231327227221297</v>
       </c>
       <c r="L200" t="n">
-        <v>0.02701183516064579</v>
+        <v>0.04889807369058452</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1041230341141518</v>
+        <v>0.2235299198896078</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03118528632500123</v>
+        <v>0.07530544015080104</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1039211842845982</v>
+        <v>0.2231327227221297</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03480031786112725</v>
+        <v>0.02586761380926733</v>
       </c>
       <c r="G201" t="n">
-        <v>0.07508750340300618</v>
+        <v>0.2236152043739858</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01316247554968783</v>
+        <v>0.02205049131415203</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1060898380078674</v>
+        <v>0.2247855577052566</v>
       </c>
       <c r="L201" t="n">
-        <v>0.02663657303042669</v>
+        <v>0.04878588657343857</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1048943158483307</v>
+        <v>0.2251856970739752</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03005478735287753</v>
+        <v>0.07594052699966292</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1046909708348545</v>
+        <v>0.2247855577052566</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03430408531817082</v>
+        <v>0.02691259436413293</v>
       </c>
       <c r="G202" t="n">
-        <v>0.07508723487454216</v>
+        <v>0.2252594338179121</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01297203740974565</v>
+        <v>0.02218845489536585</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1068699103461605</v>
+        <v>0.2264383926883835</v>
       </c>
       <c r="L202" t="n">
-        <v>0.02595514577288627</v>
+        <v>0.04927034788860565</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1056655975825096</v>
+        <v>0.2268414742583427</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0293228972052304</v>
+        <v>0.07617043725825468</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1054607573851108</v>
+        <v>0.2264383926883835</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03382085714462654</v>
+        <v>0.02595573637895839</v>
       </c>
       <c r="G203" t="n">
-        <v>0.07508696634607814</v>
+        <v>0.2269036632618385</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01298040887219319</v>
+        <v>0.02232488554613092</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1076499826844537</v>
+        <v>0.2280912276715104</v>
       </c>
       <c r="L203" t="n">
-        <v>0.02536812880725947</v>
+        <v>0.04885141278147187</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1064368793166885</v>
+        <v>0.2284972514427101</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0289904070463175</v>
+        <v>0.07579510187392668</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1062305439353671</v>
+        <v>0.2280912276715104</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03335113790046233</v>
+        <v>0.02699701587943548</v>
       </c>
       <c r="G204" t="n">
-        <v>0.07508669781761412</v>
+        <v>0.2285478927057649</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01268806242459437</v>
+        <v>0.02235976308724116</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1084300550227468</v>
+        <v>0.2297440626546373</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02497609755278099</v>
+        <v>0.04902903639742348</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1072081610508674</v>
+        <v>0.2301530286270776</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02805810804039666</v>
+        <v>0.07621445179402919</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1070003304856234</v>
+        <v>0.2297440626546373</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03289543214570713</v>
+        <v>0.02503640889125604</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0750864292891501</v>
+        <v>0.2301921221496912</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01259547055451311</v>
+        <v>0.02219306733949056</v>
       </c>
       <c r="K205" t="n">
-        <v>0.10921012736104</v>
+        <v>0.2313968976377642</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02467962742868568</v>
+        <v>0.04950317388184666</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1079794427850463</v>
+        <v>0.2318088058114451</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02712679135172513</v>
+        <v>0.07602841796591264</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1077701170358797</v>
+        <v>0.2313968976377642</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03245424444032825</v>
+        <v>0.02707389144011187</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0750861607606861</v>
+        <v>0.2318363515936176</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01230310574951327</v>
+        <v>0.02242477812367315</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1099901996993331</v>
+        <v>0.2330497326208911</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02467929385420836</v>
+        <v>0.04927378038012759</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1087507245192252</v>
+        <v>0.2334645829958125</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02639724814456085</v>
+        <v>0.07623693133692749</v>
       </c>
       <c r="O206" t="n">
-        <v>0.108539903586136</v>
+        <v>0.2330497326208911</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03202807934431372</v>
+        <v>0.02710943955169477</v>
       </c>
       <c r="G207" t="n">
-        <v>0.07508589223222208</v>
+        <v>0.233480581037544</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01221144049715876</v>
+        <v>0.02235487526058284</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1107702720376262</v>
+        <v>0.2347025676040179</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02407567224858376</v>
+        <v>0.04934081103765245</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1095220062534041</v>
+        <v>0.23512036018018</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02537026958316141</v>
+        <v>0.07683992285442393</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1093096901363922</v>
+        <v>0.2347025676040179</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03161744141763409</v>
+        <v>0.02614302925169655</v>
       </c>
       <c r="G208" t="n">
-        <v>0.07508562370375806</v>
+        <v>0.2351248104814703</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01182094728501343</v>
+        <v>0.02228333857101367</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1115503443759194</v>
+        <v>0.2363554025871448</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02356933803104683</v>
+        <v>0.04960422099980746</v>
       </c>
       <c r="M208" t="n">
-        <v>0.110293287987583</v>
+        <v>0.2367761373645474</v>
       </c>
       <c r="N208" t="n">
-        <v>0.0247466468317844</v>
+        <v>0.07653732346575237</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1100794766866485</v>
+        <v>0.2363554025871448</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03122283522031315</v>
+        <v>0.02617463656580901</v>
       </c>
       <c r="G209" t="n">
-        <v>0.07508535517529404</v>
+        <v>0.2367690399253967</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01183209860064121</v>
+        <v>0.02251014787575957</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1123304167142125</v>
+        <v>0.2380082375702717</v>
       </c>
       <c r="L209" t="n">
-        <v>0.02346086662083219</v>
+        <v>0.04956396541197877</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1110645697217619</v>
+        <v>0.2384319145489149</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02392717105468739</v>
+        <v>0.07662906411826331</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1108492632369048</v>
+        <v>0.2380082375702717</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03084476531232073</v>
+        <v>0.02620423751972398</v>
       </c>
       <c r="G210" t="n">
-        <v>0.07508508664683003</v>
+        <v>0.2384132693693231</v>
       </c>
       <c r="J210" t="n">
-        <v>0.011545366931606</v>
+        <v>0.02243528299561456</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1131104890525057</v>
+        <v>0.2396610725533986</v>
       </c>
       <c r="L210" t="n">
-        <v>0.02295083343717483</v>
+        <v>0.04961999941955259</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1118358514559409</v>
+        <v>0.2400876917332824</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02261263341612813</v>
+        <v>0.07661507575930698</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1116190497871611</v>
+        <v>0.2396610725533986</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03048373625364485</v>
+        <v>0.02523180813913323</v>
       </c>
       <c r="G211" t="n">
-        <v>0.07508481811836601</v>
+        <v>0.2400574988132494</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01126122476547165</v>
+        <v>0.0223587237513726</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1138905613907988</v>
+        <v>0.2413139075365255</v>
       </c>
       <c r="L211" t="n">
-        <v>0.02253981389930945</v>
+        <v>0.04967227816791514</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1126071331901197</v>
+        <v>0.2417434689176499</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02220382508036423</v>
+        <v>0.07699528933623379</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1123888363374174</v>
+        <v>0.2413139075365255</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03014025260425905</v>
+        <v>0.0252573244497286</v>
       </c>
       <c r="G212" t="n">
-        <v>0.07508454958990199</v>
+        <v>0.2417017282571758</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01108014458980208</v>
+        <v>0.02248044996382767</v>
       </c>
       <c r="K212" t="n">
-        <v>0.114670633729092</v>
+        <v>0.2429667425196524</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02172838342647085</v>
+        <v>0.04942075680245259</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1133784149242986</v>
+        <v>0.2433992461020173</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02130153721165334</v>
+        <v>0.0769696357963941</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1131586228876737</v>
+        <v>0.2429667425196524</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02981481892418127</v>
+        <v>0.02728076247720186</v>
       </c>
       <c r="G213" t="n">
-        <v>0.07508428106143797</v>
+        <v>0.2433459577011022</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01110259889216118</v>
+        <v>0.02240044145377373</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1154507060673851</v>
+        <v>0.2446195775027793</v>
       </c>
       <c r="L213" t="n">
-        <v>0.02131711743789388</v>
+        <v>0.0498653904685511</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1141496966584775</v>
+        <v>0.2450550232863848</v>
       </c>
       <c r="N213" t="n">
-        <v>0.020706560974253</v>
+        <v>0.07703804608713832</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1139284094379299</v>
+        <v>0.2446195775027793</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02950793977338419</v>
+        <v>0.02730209824724486</v>
       </c>
       <c r="G214" t="n">
-        <v>0.07508401253297396</v>
+        <v>0.2449901871450285</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01082906016011283</v>
+        <v>0.02261867804200482</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1162307784056782</v>
+        <v>0.2462724124859061</v>
       </c>
       <c r="L214" t="n">
-        <v>0.02100659135281333</v>
+        <v>0.04950613431159692</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1149209783926565</v>
+        <v>0.2467108004707523</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01971968753242093</v>
+        <v>0.07740045115581684</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1146981959881862</v>
+        <v>0.2462724124859061</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02950793977338419</v>
+        <v>0.02732130778554938</v>
       </c>
       <c r="G215" t="n">
-        <v>0.07508401253297396</v>
+        <v>0.2466344165889549</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01066000088122093</v>
+        <v>0.02263513954931487</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1170108507439714</v>
+        <v>0.247925247469033</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02089738059046403</v>
+        <v>0.04964294347697615</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1156922601268354</v>
+        <v>0.2483665776551197</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01914170805041482</v>
+        <v>0.07725678194978003</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1154679825384425</v>
+        <v>0.247925247469033</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02876201813742549</v>
+        <v>0.02533836711780724</v>
       </c>
       <c r="G216" t="n">
-        <v>0.07495442793965719</v>
+        <v>0.2482786460328812</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01059589354304936</v>
+        <v>0.02264980579649788</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1177909230822645</v>
+        <v>0.2495780824521599</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02009006057008073</v>
+        <v>0.05007577311007508</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1164635418610143</v>
+        <v>0.2500223548394872</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01807341369249221</v>
+        <v>0.07720696941637806</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1162377690886988</v>
+        <v>0.2495780824521599</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02802405428303156</v>
+        <v>0.02535325226971022</v>
       </c>
       <c r="G217" t="n">
-        <v>0.07482484334634044</v>
+        <v>0.2499228754768076</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01033721063316202</v>
+        <v>0.02246265660434779</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1185709954205577</v>
+        <v>0.2512309174352868</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02008520671089831</v>
+        <v>0.04990457835627987</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1172348235951932</v>
+        <v>0.2516781320238546</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01761559562291082</v>
+        <v>0.07705094450296152</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1170075556389551</v>
+        <v>0.2512309174352868</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02729435956695576</v>
+        <v>0.02636593926695016</v>
       </c>
       <c r="G218" t="n">
-        <v>0.07469525875302369</v>
+        <v>0.251567104920734</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0100844246391228</v>
+        <v>0.02247367179365861</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1193510677588508</v>
+        <v>0.2528837524184137</v>
       </c>
       <c r="L218" t="n">
-        <v>0.01938339443215151</v>
+        <v>0.04962931436097667</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1180061053293721</v>
+        <v>0.2533339092082221</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0165690450059281</v>
+        <v>0.07698863815688084</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1177773421892114</v>
+        <v>0.2528837524184137</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0265732453459516</v>
+        <v>0.02537640413521886</v>
       </c>
       <c r="G219" t="n">
-        <v>0.07456567415970693</v>
+        <v>0.2532113343646603</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01013800804849559</v>
+        <v>0.02248283118522434</v>
       </c>
       <c r="K219" t="n">
-        <v>0.120131140097144</v>
+        <v>0.2545365874015406</v>
       </c>
       <c r="L219" t="n">
-        <v>0.01928519915307514</v>
+        <v>0.05004993626955176</v>
       </c>
       <c r="M219" t="n">
-        <v>0.118777387063551</v>
+        <v>0.2549896863925896</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01623455300580195</v>
+        <v>0.07721998132548608</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1185471287394676</v>
+        <v>0.2545365874015406</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02586102297677255</v>
+        <v>0.0263846229002081</v>
       </c>
       <c r="G220" t="n">
-        <v>0.07443608956639017</v>
+        <v>0.2548555638085867</v>
       </c>
       <c r="J220" t="n">
-        <v>0.009998433348844288</v>
+        <v>0.02269011459983895</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1209112124354371</v>
+        <v>0.2561894223846675</v>
       </c>
       <c r="L220" t="n">
-        <v>0.01899119629290408</v>
+        <v>0.0500663992273912</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1195486687977299</v>
+        <v>0.2566454635769571</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01491291078678991</v>
+        <v>0.07744490495612794</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1193169152897239</v>
+        <v>0.2561894223846675</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02515800381617214</v>
+        <v>0.0253905715876097</v>
       </c>
       <c r="G221" t="n">
-        <v>0.07430650497307342</v>
+        <v>0.2564997932525131</v>
       </c>
       <c r="J221" t="n">
-        <v>0.009866173027732766</v>
+        <v>0.0225955018582964</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1216912847737302</v>
+        <v>0.2578422573677943</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01820196127087306</v>
+        <v>0.04977865837988127</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1203199505319088</v>
+        <v>0.2583012407613245</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01460490951314947</v>
+        <v>0.07746333999615657</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1200867018399802</v>
+        <v>0.2578422573677943</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02446449922090373</v>
+        <v>0.02639422622311551</v>
       </c>
       <c r="G222" t="n">
-        <v>0.07417692037975666</v>
+        <v>0.2581440226964394</v>
       </c>
       <c r="J222" t="n">
-        <v>0.009741699572724929</v>
+        <v>0.02269897278139069</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1224713571120234</v>
+        <v>0.2594950923509212</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01821806950621693</v>
+        <v>0.05008666887240817</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1210912322660877</v>
+        <v>0.2599570179456919</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01391134034913838</v>
+        <v>0.0774752173929224</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1208564883902365</v>
+        <v>0.2594950923509212</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02378082054772085</v>
+        <v>0.02639556283241726</v>
       </c>
       <c r="G223" t="n">
-        <v>0.07404733578643991</v>
+        <v>0.2597882521403658</v>
       </c>
       <c r="J223" t="n">
-        <v>0.00962548547138467</v>
+        <v>0.02270050718991576</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1232514294503165</v>
+        <v>0.2611479273340481</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01754009641817045</v>
+        <v>0.04969038585035804</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1218625140002666</v>
+        <v>0.2616127951300594</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01333299445901442</v>
+        <v>0.07698046809377584</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1216262749404928</v>
+        <v>0.2611479273340481</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02310727915337699</v>
+        <v>0.02736465450485903</v>
       </c>
       <c r="G224" t="n">
-        <v>0.07391775119312316</v>
+        <v>0.2614324815842922</v>
       </c>
       <c r="J224" t="n">
-        <v>0.00941800321127588</v>
+        <v>0.02268511710011362</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1240315017886097</v>
+        <v>0.262800762317175</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01716861742596848</v>
+        <v>0.04986286944100479</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1226337957344455</v>
+        <v>0.2632685723144269</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01237066300703499</v>
+        <v>0.07762780365901967</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1223960614907491</v>
+        <v>0.262800762317175</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0224441863946255</v>
+        <v>0.02626670075811285</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0737881665998064</v>
+        <v>0.2630767110282186</v>
       </c>
       <c r="J225" t="n">
-        <v>0.009319725279962436</v>
+        <v>0.02261459566170269</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1248115741269028</v>
+        <v>0.2644535973003019</v>
       </c>
       <c r="L225" t="n">
-        <v>0.01690420794884576</v>
+        <v>0.0498151882724209</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1234050774686244</v>
+        <v>0.2649243494987943</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0120251371574579</v>
+        <v>0.07708648137046564</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1231658480410053</v>
+        <v>0.2644535973003019</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02179185362821996</v>
+        <v>0.02710898675213666</v>
       </c>
       <c r="G226" t="n">
-        <v>0.07365858200648963</v>
+        <v>0.2647209404721449</v>
       </c>
       <c r="J226" t="n">
-        <v>0.00923112416500825</v>
+        <v>0.02229275846283267</v>
       </c>
       <c r="K226" t="n">
-        <v>0.125591646465196</v>
+        <v>0.2661064322834288</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01644744340603721</v>
+        <v>0.0493526753842877</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1241763592028033</v>
+        <v>0.2665801266831618</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01149720807454069</v>
+        <v>0.07696955805856442</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1239356345912616</v>
+        <v>0.2661064322834288</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0211505922109138</v>
+        <v>0.02489898631885985</v>
       </c>
       <c r="G227" t="n">
-        <v>0.07352899741317287</v>
+        <v>0.2663651699160713</v>
       </c>
       <c r="J227" t="n">
-        <v>0.009152672353977188</v>
+        <v>0.02212589623744464</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1263717188034891</v>
+        <v>0.2677592672665557</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01629889921677755</v>
+        <v>0.04888931390563514</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1249476409369822</v>
+        <v>0.2682359038675293</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01028766692254096</v>
+        <v>0.07629856042988281</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1247054211415179</v>
+        <v>0.2677592672665557</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02052071349946052</v>
+        <v>0.02464417329021193</v>
       </c>
       <c r="G228" t="n">
-        <v>0.07339941281985612</v>
+        <v>0.2680093993599976</v>
       </c>
       <c r="J228" t="n">
-        <v>0.009184842334433167</v>
+        <v>0.02192029971947966</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1271517911417822</v>
+        <v>0.2694121022496826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01595915080030155</v>
+        <v>0.04843908696549318</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1257189226711611</v>
+        <v>0.2698916810518968</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01019730486571652</v>
+        <v>0.07549501519098772</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1254752076917742</v>
+        <v>0.2694121022496826</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01990252885061353</v>
+        <v>0.02535202149812234</v>
       </c>
       <c r="G229" t="n">
-        <v>0.07326982822653937</v>
+        <v>0.269653628803924</v>
       </c>
       <c r="J229" t="n">
-        <v>0.009128106593940075</v>
+        <v>0.02188225964287883</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1279318634800754</v>
+        <v>0.2710649372328094</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01542877357584407</v>
+        <v>0.0479159776928918</v>
       </c>
       <c r="M229" t="n">
-        <v>0.12649020440534</v>
+        <v>0.2715474582362642</v>
       </c>
       <c r="N229" t="n">
-        <v>0.009726913068324794</v>
+        <v>0.07448044904844597</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1262449942420305</v>
+        <v>0.2710649372328094</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01929634962112629</v>
+        <v>0.02403000477452048</v>
       </c>
       <c r="G230" t="n">
-        <v>0.07314024363322261</v>
+        <v>0.2712978582478504</v>
       </c>
       <c r="J230" t="n">
-        <v>0.008882860407388213</v>
+        <v>0.02151806674158326</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1287119358183685</v>
+        <v>0.2727177722159363</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01500830544603782</v>
+        <v>0.04763396921686092</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1272614861395189</v>
+        <v>0.2732032354206317</v>
       </c>
       <c r="N230" t="n">
-        <v>0.008777197626807898</v>
+        <v>0.07337638870882457</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1270147807922868</v>
+        <v>0.2727177722159363</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01870248716775237</v>
+        <v>0.02468559695133589</v>
       </c>
       <c r="G231" t="n">
-        <v>0.07301065903990586</v>
+        <v>0.2729420876917767</v>
       </c>
       <c r="J231" t="n">
-        <v>0.009042607117571343</v>
+        <v>0.02123401174953399</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1294920081566617</v>
+        <v>0.2743706071990633</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01469331563669238</v>
+        <v>0.04720704466643053</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1280327678736978</v>
+        <v>0.2748590126049992</v>
       </c>
       <c r="N231" t="n">
-        <v>0.008238782945022227</v>
+        <v>0.07240436087869034</v>
       </c>
       <c r="O231" t="n">
-        <v>0.127784567342543</v>
+        <v>0.2743706071990633</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0181212528472451</v>
+        <v>0.02532627186049798</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0728810744465891</v>
+        <v>0.2745863171357031</v>
       </c>
       <c r="J232" t="n">
-        <v>0.008902983738554505</v>
+        <v>0.02103638540067213</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1302720804949548</v>
+        <v>0.2760234421821901</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01478048493057427</v>
+        <v>0.04614918717063057</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1288040496078767</v>
+        <v>0.2765147897893666</v>
       </c>
       <c r="N232" t="n">
-        <v>0.007505059918846646</v>
+        <v>0.07198589226461016</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1285543538927993</v>
+        <v>0.2760234421821901</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01755295801635803</v>
+        <v>0.02395950333393616</v>
       </c>
       <c r="G233" t="n">
-        <v>0.07275148985327234</v>
+        <v>0.2762305465796295</v>
       </c>
       <c r="J233" t="n">
-        <v>0.008864025453334673</v>
+        <v>0.02073147842893876</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1310521528332479</v>
+        <v>0.277676277165317</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01436984622505424</v>
+        <v>0.04567437985849102</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1295753313420556</v>
+        <v>0.2781705669737341</v>
       </c>
       <c r="N233" t="n">
-        <v>0.007276241959584873</v>
+        <v>0.07054250957315089</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1293241404430556</v>
+        <v>0.277676277165317</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0169979140318446</v>
+        <v>0.02359276520357995</v>
       </c>
       <c r="G234" t="n">
-        <v>0.07262190525995559</v>
+        <v>0.2778747760235558</v>
       </c>
       <c r="J234" t="n">
-        <v>0.008825767444908809</v>
+        <v>0.02032558156827495</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1318322251715411</v>
+        <v>0.2793291121484439</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01416143241750309</v>
+        <v>0.04499660585904183</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1303466130762345</v>
+        <v>0.2798263441581015</v>
       </c>
       <c r="N234" t="n">
-        <v>0.006452542478541157</v>
+        <v>0.06949573951087951</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1300939269933119</v>
+        <v>0.2793291121484439</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01645643225045834</v>
+        <v>0.02323353130135877</v>
       </c>
       <c r="G235" t="n">
-        <v>0.07249232066663884</v>
+        <v>0.2795190054674822</v>
       </c>
       <c r="J235" t="n">
-        <v>0.008788244896273875</v>
+        <v>0.01992498555262182</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1326122975098342</v>
+        <v>0.2809819471315708</v>
       </c>
       <c r="L235" t="n">
-        <v>0.01345527640529165</v>
+        <v>0.04452984830131296</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1311178948104134</v>
+        <v>0.281482121342469</v>
       </c>
       <c r="N235" t="n">
-        <v>0.006434174887019251</v>
+        <v>0.06846710878436285</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1308637135435682</v>
+        <v>0.2809819471315708</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0159288240289526</v>
+        <v>0.02288927545920208</v>
       </c>
       <c r="G236" t="n">
-        <v>0.07236273607332207</v>
+        <v>0.2811632349114085</v>
       </c>
       <c r="J236" t="n">
-        <v>0.008851492990426854</v>
+        <v>0.01973598111592043</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1333923698481274</v>
+        <v>0.2826347821146977</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0134514110857907</v>
+        <v>0.04388809031433433</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1318891765445923</v>
+        <v>0.2831378985268365</v>
       </c>
       <c r="N236" t="n">
-        <v>0.00562135259632307</v>
+        <v>0.06717814410016787</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1316335000938245</v>
+        <v>0.2826347821146977</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01541540072408092</v>
+        <v>0.02156747150903932</v>
       </c>
       <c r="G237" t="n">
-        <v>0.07223315148000531</v>
+        <v>0.2828074643553349</v>
       </c>
       <c r="J237" t="n">
-        <v>0.008615546910364702</v>
+        <v>0.01956485899211188</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1341724421864205</v>
+        <v>0.2842876170978245</v>
       </c>
       <c r="L237" t="n">
-        <v>0.01284986935637095</v>
+        <v>0.04288531502713597</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1326604582787712</v>
+        <v>0.284793675711204</v>
       </c>
       <c r="N237" t="n">
-        <v>0.005214289017756724</v>
+        <v>0.0666503721648613</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1324032866440807</v>
+        <v>0.2842876170978245</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0149164736925968</v>
+        <v>0.02227297816653173</v>
       </c>
       <c r="G238" t="n">
-        <v>0.07210356688668856</v>
+        <v>0.2844516937992613</v>
       </c>
       <c r="J238" t="n">
-        <v>0.008580441839084373</v>
+        <v>0.01931703046515093</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1349525145247137</v>
+        <v>0.2859404520809514</v>
       </c>
       <c r="L238" t="n">
-        <v>0.01275068411440336</v>
+        <v>0.04223424106051563</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1334317400129501</v>
+        <v>0.2864494528955714</v>
       </c>
       <c r="N238" t="n">
-        <v>0.005113197562623961</v>
+        <v>0.06570231023301742</v>
       </c>
       <c r="O238" t="n">
-        <v>0.133173073194337</v>
+        <v>0.2859404520809514</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01443235429125361</v>
+        <v>0.02098399451091047</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0719739822933718</v>
+        <v>0.2860959232431877</v>
       </c>
       <c r="J239" t="n">
-        <v>0.008646212959582851</v>
+        <v>0.01887644037673822</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1357325868630068</v>
+        <v>0.2875932870640783</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0121538882572586</v>
+        <v>0.04200144493342478</v>
       </c>
       <c r="M239" t="n">
-        <v>0.134203021747129</v>
+        <v>0.2881052300799388</v>
       </c>
       <c r="N239" t="n">
-        <v>0.004018291642228888</v>
+        <v>0.06477901802503866</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1339428597445933</v>
+        <v>0.2875932870640783</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01396208250339489</v>
+        <v>0.02269390721601568</v>
       </c>
       <c r="G240" t="n">
-        <v>0.07184439770005505</v>
+        <v>0.2877401526871141</v>
       </c>
       <c r="J240" t="n">
-        <v>0.008612895454857106</v>
+        <v>0.01873492813008025</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1365126592013</v>
+        <v>0.2892461220472052</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01235951468230748</v>
+        <v>0.04156660413435154</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1349743034813079</v>
+        <v>0.2897610072643063</v>
       </c>
       <c r="N240" t="n">
-        <v>0.003429784667875413</v>
+        <v>0.06415257021866083</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1347126462948496</v>
+        <v>0.2892461220472052</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01349834144531416</v>
+        <v>0.02040269857606235</v>
       </c>
       <c r="G241" t="n">
-        <v>0.07171481310673829</v>
+        <v>0.2893843821310404</v>
       </c>
       <c r="J241" t="n">
-        <v>0.008580524507904086</v>
+        <v>0.01859247882219503</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1372927315395931</v>
+        <v>0.2908989570303321</v>
       </c>
       <c r="L241" t="n">
-        <v>0.01166759628692082</v>
+        <v>0.04072968553674461</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1357455852154868</v>
+        <v>0.2914167844486737</v>
       </c>
       <c r="N241" t="n">
-        <v>0.003247890050867341</v>
+        <v>0.06352291581631769</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1354824328451059</v>
+        <v>0.2908989570303321</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01304017110035494</v>
+        <v>0.02111035088526549</v>
       </c>
       <c r="G242" t="n">
-        <v>0.07158522851342154</v>
+        <v>0.2910286115749667</v>
       </c>
       <c r="J242" t="n">
-        <v>0.008449135301720784</v>
+        <v>0.01824907755010056</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1380728038778862</v>
+        <v>0.292551792013459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.01167816596846941</v>
+        <v>0.04059065601405287</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1365168669496657</v>
+        <v>0.2930725616330412</v>
       </c>
       <c r="N242" t="n">
-        <v>0.002472821202508746</v>
+        <v>0.0626900038204431</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1362522193953622</v>
+        <v>0.292551792013459</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01258788282527061</v>
+        <v>0.02181684643784007</v>
       </c>
       <c r="G243" t="n">
-        <v>0.07145564392010478</v>
+        <v>0.2926728410188931</v>
       </c>
       <c r="J243" t="n">
-        <v>0.008418763019304151</v>
+        <v>0.01800470941081486</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1388528762161794</v>
+        <v>0.2942046269965858</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01149125662432401</v>
+        <v>0.03974948243972504</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1372881486838446</v>
+        <v>0.2947283388174087</v>
       </c>
       <c r="N243" t="n">
-        <v>0.002304791534103512</v>
+        <v>0.06135378323347096</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1370220059456184</v>
+        <v>0.2942046269965858</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01214178797681469</v>
+        <v>0.02152216752800117</v>
       </c>
       <c r="G244" t="n">
-        <v>0.07132605932678802</v>
+        <v>0.2943170704628195</v>
       </c>
       <c r="J244" t="n">
-        <v>0.008589442843651145</v>
+        <v>0.01785935950135598</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1396329485544725</v>
+        <v>0.2958574619797127</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01080690115185545</v>
+        <v>0.0395061316872099</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1380594304180235</v>
+        <v>0.2963841160017762</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0018440144569557</v>
+        <v>0.06041420305783501</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1377917924958747</v>
+        <v>0.2958574619797127</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01170219791174069</v>
+        <v>0.02022629644996372</v>
       </c>
       <c r="G245" t="n">
-        <v>0.07119647473347128</v>
+        <v>0.2959612999067459</v>
       </c>
       <c r="J245" t="n">
-        <v>0.008361209957758756</v>
+        <v>0.01751301291874184</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1404130208927657</v>
+        <v>0.2975102969628396</v>
       </c>
       <c r="L245" t="n">
-        <v>0.01072513244843454</v>
+        <v>0.03866057062995631</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1388307121522024</v>
+        <v>0.2980398931861437</v>
       </c>
       <c r="N245" t="n">
-        <v>0.001090703382369218</v>
+        <v>0.05977121229596921</v>
       </c>
       <c r="O245" t="n">
-        <v>0.138561579046131</v>
+        <v>0.2975102969628396</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01126942398680197</v>
+        <v>0.01892921549794277</v>
       </c>
       <c r="G246" t="n">
-        <v>0.07106689014015451</v>
+        <v>0.2976055293506722</v>
       </c>
       <c r="J246" t="n">
-        <v>0.00853409954462394</v>
+        <v>0.01736565475999052</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1411930932310588</v>
+        <v>0.2991631319459665</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01014598341143202</v>
+        <v>0.03791276614141298</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1396019938863813</v>
+        <v>0.2996956703705111</v>
       </c>
       <c r="N246" t="n">
-        <v>0.001045071721647861</v>
+        <v>0.05922475995030746</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1393313655963873</v>
+        <v>0.2991631319459665</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01084377755875206</v>
+        <v>0.01863090696615329</v>
       </c>
       <c r="G247" t="n">
-        <v>0.07093730554683775</v>
+        <v>0.2992497587945986</v>
       </c>
       <c r="J247" t="n">
-        <v>0.008508146787243653</v>
+        <v>0.01701727012212002</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1419731655693519</v>
+        <v>0.3008159669290935</v>
       </c>
       <c r="L247" t="n">
-        <v>0.01036948693821874</v>
+        <v>0.03746268509502873</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1403732756205602</v>
+        <v>0.3013514475548786</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0004073328860956238</v>
+        <v>0.05827479502328348</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1401011521466436</v>
+        <v>0.3008159669290935</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01042556998434442</v>
+        <v>0.02033135314881032</v>
       </c>
       <c r="G248" t="n">
-        <v>0.07080772095352099</v>
+        <v>0.3008939882385249</v>
       </c>
       <c r="J248" t="n">
-        <v>0.008483386868614884</v>
+        <v>0.01686784410214834</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1427532379076451</v>
+        <v>0.3024688019122203</v>
       </c>
       <c r="L248" t="n">
-        <v>0.00959567592616542</v>
+        <v>0.03711029436425234</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1411445573547391</v>
+        <v>0.3030072247392461</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0003777002870166135</v>
+        <v>0.05772126651733123</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1408709386968999</v>
+        <v>0.3024688019122203</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01001511262033256</v>
+        <v>0.01803053634012883</v>
       </c>
       <c r="G249" t="n">
-        <v>0.07067813636020424</v>
+        <v>0.3025382176824513</v>
       </c>
       <c r="J249" t="n">
-        <v>0.008459854971734578</v>
+        <v>0.01641736179709351</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1435333102459382</v>
+        <v>0.3041216368953472</v>
       </c>
       <c r="L249" t="n">
-        <v>0.009824583272642934</v>
+        <v>0.03655556082253258</v>
       </c>
       <c r="M249" t="n">
-        <v>0.141915839088918</v>
+        <v>0.3046630019236135</v>
       </c>
       <c r="N249" t="n">
-        <v>-0.0004436126642853866</v>
+        <v>0.05686412343488456</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1416407252471561</v>
+        <v>0.3041216368953472</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009612716823469869</v>
+        <v>0.01872843883432382</v>
       </c>
       <c r="G250" t="n">
-        <v>0.07054855176688749</v>
+        <v>0.3041824471263777</v>
       </c>
       <c r="J250" t="n">
-        <v>0.008237586279599723</v>
+        <v>0.01626580830397353</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1443133825842314</v>
+        <v>0.3057744718784741</v>
       </c>
       <c r="L250" t="n">
-        <v>0.00905624187502202</v>
+        <v>0.03619845134331826</v>
       </c>
       <c r="M250" t="n">
-        <v>0.142687120823097</v>
+        <v>0.306318779107981</v>
       </c>
       <c r="N250" t="n">
-        <v>-0.0007563925565064467</v>
+        <v>0.05600331477837728</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1424105117974124</v>
+        <v>0.3057744718784741</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.009218693950509838</v>
+        <v>0.01942504292561031</v>
       </c>
       <c r="G251" t="n">
-        <v>0.07041896717357073</v>
+        <v>0.305826676570304</v>
       </c>
       <c r="J251" t="n">
-        <v>0.008316615975207269</v>
+        <v>0.01601316871980639</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1450934549225245</v>
+        <v>0.307427306861601</v>
       </c>
       <c r="L251" t="n">
-        <v>0.00919068463067349</v>
+        <v>0.03563893280005814</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1434584025572758</v>
+        <v>0.3079745562923484</v>
       </c>
       <c r="N251" t="n">
-        <v>-0.0007604259783424716</v>
+        <v>0.05473878955024331</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1431802983476687</v>
+        <v>0.307427306861601</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008833355358205987</v>
+        <v>0.01712033090820332</v>
       </c>
       <c r="G252" t="n">
-        <v>0.07028938258025398</v>
+        <v>0.3074709060142304</v>
       </c>
       <c r="J252" t="n">
-        <v>0.008396979241554192</v>
+        <v>0.01565942814161016</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1458735272608177</v>
+        <v>0.3090801418447279</v>
       </c>
       <c r="L252" t="n">
-        <v>0.008927944436968149</v>
+        <v>0.03467697206620102</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1442296842914547</v>
+        <v>0.3096303334767159</v>
       </c>
       <c r="N252" t="n">
-        <v>-0.00135549951848965</v>
+        <v>0.05417049675291641</v>
       </c>
       <c r="O252" t="n">
-        <v>0.143950084897925</v>
+        <v>0.3090801418447279</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008457012403311696</v>
+        <v>0.01881428507631783</v>
       </c>
       <c r="G253" t="n">
-        <v>0.07015979798693722</v>
+        <v>0.3091151354581568</v>
       </c>
       <c r="J253" t="n">
-        <v>0.008278711261637463</v>
+        <v>0.01540457166640277</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1466535995991108</v>
+        <v>0.3107329768278547</v>
       </c>
       <c r="L253" t="n">
-        <v>0.008468054191276775</v>
+        <v>0.03421253601519569</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1450009660256336</v>
+        <v>0.3112861106610834</v>
       </c>
       <c r="N253" t="n">
-        <v>-0.001741399765643997</v>
+        <v>0.05289838538883057</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1447198714481813</v>
+        <v>0.3107329768278547</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008089976442580478</v>
+        <v>0.01750688772416883</v>
       </c>
       <c r="G254" t="n">
-        <v>0.07003021339362046</v>
+        <v>0.3107593649020832</v>
       </c>
       <c r="J254" t="n">
-        <v>0.008361847218454038</v>
+        <v>0.0151485843912023</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1474336719374039</v>
+        <v>0.3123858118109816</v>
       </c>
       <c r="L254" t="n">
-        <v>0.008011046790970172</v>
+        <v>0.03344559152049092</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1457722477598125</v>
+        <v>0.3129418878454509</v>
       </c>
       <c r="N254" t="n">
-        <v>-0.002017913308501568</v>
+        <v>0.05232240446041958</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1454896579984376</v>
+        <v>0.3123858118109816</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007732558832765808</v>
+        <v>0.01819812114597138</v>
       </c>
       <c r="G255" t="n">
-        <v>0.0699006288003037</v>
+        <v>0.3124035943460095</v>
       </c>
       <c r="J255" t="n">
-        <v>0.008346422295000884</v>
+        <v>0.01499145141302674</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1482137442756971</v>
+        <v>0.3140386467941085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.007856955133419136</v>
+        <v>0.0329761054555355</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1465435294939914</v>
+        <v>0.3145976650298183</v>
       </c>
       <c r="N255" t="n">
-        <v>-0.002884826735758406</v>
+        <v>0.05154250297011725</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1462594445486938</v>
+        <v>0.3140386467941085</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007385070930621171</v>
+        <v>0.01688796763594042</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06977104420698695</v>
+        <v>0.3140478237899358</v>
       </c>
       <c r="J256" t="n">
-        <v>0.008132471674274978</v>
+        <v>0.01473315782889409</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1489938166139902</v>
+        <v>0.3156914817772354</v>
       </c>
       <c r="L256" t="n">
-        <v>0.007905812115994448</v>
+        <v>0.03240404469377822</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1473148112281704</v>
+        <v>0.3162534422141858</v>
       </c>
       <c r="N256" t="n">
-        <v>-0.003241926636110615</v>
+        <v>0.05005862992035753</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1470292310989501</v>
+        <v>0.3156914817772354</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.00704782409289996</v>
+        <v>0.01657640948829098</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06964145961367019</v>
+        <v>0.3156920532338622</v>
       </c>
       <c r="J257" t="n">
-        <v>0.008320030539273285</v>
+        <v>0.01457368873582235</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1497738889522834</v>
+        <v>0.3173443167603623</v>
       </c>
       <c r="L257" t="n">
-        <v>0.007557650636066893</v>
+        <v>0.03192937610866789</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1480860929623493</v>
+        <v>0.3179092193985533</v>
       </c>
       <c r="N257" t="n">
-        <v>-0.003388999598254228</v>
+        <v>0.04977073431357426</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1477990176492064</v>
+        <v>0.3173443167603623</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006721129676355707</v>
+        <v>0.01526342899723807</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06951187502035343</v>
+        <v>0.3173362826777886</v>
       </c>
       <c r="J258" t="n">
-        <v>0.008309134072992767</v>
+        <v>0.01411302923082958</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1505539612905765</v>
+        <v>0.3189971517434891</v>
       </c>
       <c r="L258" t="n">
-        <v>0.007312503591007269</v>
+        <v>0.0312520665736532</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1488573746965282</v>
+        <v>0.3195649965829206</v>
       </c>
       <c r="N258" t="n">
-        <v>-0.003625832210885249</v>
+        <v>0.04827876515220125</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1485688041994627</v>
+        <v>0.3189971517434891</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006405299037741875</v>
+        <v>0.01694900845699669</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06938229042703668</v>
+        <v>0.318980512121715</v>
       </c>
       <c r="J259" t="n">
-        <v>0.008099817458430393</v>
+        <v>0.01405116441093374</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1513340336288697</v>
+        <v>0.320649986726616</v>
       </c>
       <c r="L259" t="n">
-        <v>0.007270403878186421</v>
+        <v>0.03057208296218308</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1496286564307071</v>
+        <v>0.3212207737672881</v>
       </c>
       <c r="N259" t="n">
-        <v>-0.004152211062699834</v>
+        <v>0.04808267143867234</v>
       </c>
       <c r="O259" t="n">
-        <v>0.149338590749719</v>
+        <v>0.320649986726616</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006100643533811879</v>
+        <v>0.01663313016178183</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06925270583371992</v>
+        <v>0.3206247415656414</v>
       </c>
       <c r="J260" t="n">
-        <v>0.00819211587858313</v>
+        <v>0.01358807937315287</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1521141059671628</v>
+        <v>0.3223028217097429</v>
       </c>
       <c r="L260" t="n">
-        <v>0.006531384394975082</v>
+        <v>0.03028939214770621</v>
       </c>
       <c r="M260" t="n">
-        <v>0.150399938164886</v>
+        <v>0.3228765509516556</v>
       </c>
       <c r="N260" t="n">
-        <v>-0.003967922742393937</v>
+        <v>0.04718240217542147</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1501083772999753</v>
+        <v>0.3223028217097429</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005807474521319238</v>
+        <v>0.01631577640580851</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06912312124040317</v>
+        <v>0.3222689710095677</v>
       </c>
       <c r="J261" t="n">
-        <v>0.008186064516447947</v>
+        <v>0.01352375921450497</v>
       </c>
       <c r="K261" t="n">
-        <v>0.152894178305456</v>
+        <v>0.3239556566928698</v>
       </c>
       <c r="L261" t="n">
-        <v>0.006795478038744057</v>
+        <v>0.02970396100367134</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1511712198990648</v>
+        <v>0.3245323281360231</v>
       </c>
       <c r="N261" t="n">
-        <v>-0.004972753838663718</v>
+        <v>0.0460779063648824</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1508781638502315</v>
+        <v>0.3239556566928698</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005526103357017385</v>
+        <v>0.01499692948329173</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06899353664708641</v>
+        <v>0.3239132004534941</v>
       </c>
       <c r="J262" t="n">
-        <v>0.008281698555021803</v>
+        <v>0.01315818903200805</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1536742506437491</v>
+        <v>0.3256084916759967</v>
       </c>
       <c r="L262" t="n">
-        <v>0.006362717706864196</v>
+        <v>0.02931575640352738</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1519425016332438</v>
+        <v>0.3261881053203906</v>
       </c>
       <c r="N262" t="n">
-        <v>-0.004966490940205154</v>
+        <v>0.04526913300948904</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1516479504004878</v>
+        <v>0.3256084916759967</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005256841397659834</v>
+        <v>0.01467657168844647</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06886395205376966</v>
+        <v>0.3255574298974205</v>
       </c>
       <c r="J263" t="n">
-        <v>0.008179053177301686</v>
+        <v>0.01289135392268013</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1544543229820422</v>
+        <v>0.3272613266591236</v>
       </c>
       <c r="L263" t="n">
-        <v>0.005933136296706165</v>
+        <v>0.02842474522072302</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1527137833674227</v>
+        <v>0.327843882504758</v>
       </c>
       <c r="N263" t="n">
-        <v>-0.004948920635714282</v>
+        <v>0.04425603111167531</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1524177369507441</v>
+        <v>0.3272613266591236</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01435468531548777</v>
       </c>
       <c r="G264" t="n">
-        <v>0.0687343674604529</v>
+        <v>0.3272016593413468</v>
       </c>
       <c r="J264" t="n">
-        <v>0.008178163566284535</v>
+        <v>0.01272323898353921</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1552343953203354</v>
+        <v>0.3289141616422505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.005706766705640881</v>
+        <v>0.0277308943287071</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1534850651016016</v>
+        <v>0.3294996596891255</v>
       </c>
       <c r="N264" t="n">
-        <v>-0.005819829513887237</v>
+        <v>0.04323854967387492</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1531875235010004</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06872120956571605</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005767807694624101</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06872147809418007</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006531578684958857</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06872174662264408</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.00729127034034445</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06872201515110811</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.008046840030021978</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06872228367957212</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008798245123331813</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06872255220803614</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009545442989581182</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06872282073650016</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01028839099810954</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06872308926496418</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01102704651815943</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.0687233577934282</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01176136691907051</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.0687236263218922</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01249130957015</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06872389485035622</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01321683184073658</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06872416337882024</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01393789110007433</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06872443190728426</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01465444471750214</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06872470043574827</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01536645006232724</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06872496896421229</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01607386450388752</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06872523749267631</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01677664541142864</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06872550602114033</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01747475015428869</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06872577454960434</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.0181681361017749</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06872604307806836</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01885676062322436</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06872631160653238</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01954058108788434</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.0687265801349964</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.02021955486509212</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06872684866346042</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.02089363932415497</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06872711719192443</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02156279183440905</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06872738572038846</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.0222269697651034</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06872765424885247</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02288630456090329</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06872792277731649</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02354179804308912</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06872819130578049</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02419358165632518</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06872845983424453</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02484161276986198</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06872872836270853</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02548584875303518</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06872899689117255</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02612624697515202</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06872926541963657</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.0267627648055473</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06872953394810059</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02739535961347289</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06872980247656461</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02802398876826373</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06873007100502862</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02864860963922709</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06873033953349264</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02926917959569708</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06873060806195666</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02988565600692693</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06873087659042068</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.03049799624225093</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06873114511888469</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.03110615767097631</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06873141364734871</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03171009766243647</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06873168217581273</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03230977358588609</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06873195070427675</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03290514281065875</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06873221923274075</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03349616270606165</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06873248776120477</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03408279064142748</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06873275628966879</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03466498398601237</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06873302481813282</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03524270010914918</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06873329334659684</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03581589638014511</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06873356187506084</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03638453016833205</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06873383040352488</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03694855884296773</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06873409893198888</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03750793977338419</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.0687343674604529</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03750793977338419</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06872120956571605</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03811598097690518</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06885133121596083</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03871873931610398</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06898145286620563</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03931609026184681</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06911157451645043</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03990790928499972</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06924169616669522</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.04049407185642895</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06937181781694</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.04107445344700064</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06950193946718479</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04164892952758095</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06963206111742959</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.0422173755690361</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06976218276767439</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.04277966704223213</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06989230441791917</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.04333567941803529</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.07002242606816396</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04388528816731173</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.07015254771840874</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04442836876092758</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.07028266936865353</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04496479666974909</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.07041279101889834</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04549444736464231</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.07054291266914313</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04601719631647347</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.07067303431938791</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04653291899610869</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.0708031559696327</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04704149087441419</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.07093327761987749</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04754278742225611</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.07106339927012228</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04803668411050058</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.07119352092036708</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04852305641001375</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.07132364257061187</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04900177979166183</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.07145376422085666</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04947272972631098</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.07158388587110144</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04993578168482737</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.07171400752134624</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.0503908111380771</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.07184412917159104</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.05083820205088957</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.07197425082183583</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.05128088085790991</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.07210437247208061</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.05171923152396751</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.0722344941223254</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.05215312951992855</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.0723646157725702</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.05258245031665912</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.07249473742281498</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.05300706938502542</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.07262485907305978</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.05342686219589357</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.07275498072330457</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.05384170422012984</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.07288510237354937</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05425147092860028</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.07301522402379415</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05465603779217108</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.07314534567403894</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05505528028170843</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.07327546732428374</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05544907386807846</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.07340558897452852</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05583729402214739</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.07353571062477331</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05621981621478134</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.07366583227501811</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05659651591684645</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.07379595392526289</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05696726859920891</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.07392607557550768</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05733194973273487</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.07405619722575248</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05769043478829053</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.07418631887599728</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05804259923674199</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.07431644052624206</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05838831854895546</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.07444656217648685</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05872746819579706</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.07457668382673163</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05905992364813301</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.07470680547697643</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05938556037682945</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.07483692712722123</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05970425385275251</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.07496704877746602</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.06001587954676837</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.0750971704277108</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05634391969784558</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.0750971704277108</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.06022200614952453</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07736794082060755</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.06041345997427369</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.0796387112135043</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.06059078276862138</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.08190948160640103</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.06075451628017313</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.08418025199929778</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.06090520225653441</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.08645102239219453</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.06104338244531075</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08872179278509129</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.06116959859410766</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.09099256317798803</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.06128439245053065</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.09326333357088477</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.06138830576218521</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.09553410396378152</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.06148188027667685</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.09780487435667827</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.06156565774161112</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.100075644749575</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.06164017990459347</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.1023464151424718</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.06170598851322946</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.1046171855353685</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.06176362531512455</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.1068879559282652</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.06181363205788429</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.109158726321162</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.06185655048911418</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.1114294967140587</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.0618929223564197</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1137002671069555</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.06192328940740638</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1159710374998522</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.06194819338967973</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.118241807892749</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.06196817605084526</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1205125782856457</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.06198377913850847</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1227833486785425</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.06199554440027488</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1250541190714392</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.06200401358375</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.127324889464336</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.06200972843653933</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1295956598572327</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.06201323070624837</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1318664302501295</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.06201506214048264</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1341372006430262</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.06201576448684763</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1364079710359229</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0620158794929489</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1386787414288197</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.06196725500595972</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1409495118217165</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.06180851670795273</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1432202822146132</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.06154810149200568</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1454910526075099</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.06119486724579215</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1477618230004067</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.06075767185698573</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.06024537321326001</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1523033637862002</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05966682920228855</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1545741341790969</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05903089771174497</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1568449045719937</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05834643662930285</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1591156749648904</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05762230384263577</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1613864453577872</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05686735723941731</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1636572157506839</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05609045470732107</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1659279861435807</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05530045413402065</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1681987565364774</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.05450621340718963</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1704695269293741</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.05371659041450155</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1727402973222709</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.05294044304363006</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1750110677151676</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.05218662918224873</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1772818381080644</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.05146400671803114</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1795526085009611</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.05078143353865086</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1818233788938579</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.05014776753178152</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1840941492867546</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04957186658509669</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1863649196796514</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04906258858626993</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1886356900725481</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04862879142297484</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1909064604654449</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04825945997269648</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1931772308583416</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04790923178811618</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1954480012512383</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04757475906339861</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1977187716441351</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04725487309943363</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1999895420370319</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04694840519711115</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.2022603124299286</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04665418665732107</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.2045310828228253</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04637104878095323</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.2068018532157221</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04609782286889752</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.2090726236086188</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04583334022204384</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.2113433940015156</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04557643214128208</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.2136141643944123</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04532592992750209</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.2158849347873091</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04508066488159376</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.2181557051802058</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04483946830444699</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.2204264755731025</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04460117149695167</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.2226972459659994</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04436460575999764</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.2249680163588961</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04412860239447482</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.2272387867517928</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04389199270127307</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.2295095571446895</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.04365360798128229</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2317803275375863</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04341227953539235</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2340510979304831</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.04316683866449313</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2363218683233798</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.04291611666947451</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2385926387162765</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.0426589448512264</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2408634091091733</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.04239415451063863</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.24313417950207</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.04212057694860115</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2454049498949668</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.0418370434660038</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2476757202878636</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.04154428642310067</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2499464906807603</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.0412485005465838</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.252217261073657</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.04095030324444805</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2544880314665537</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.04064972637105273</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2567588018594505</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.04034680178075711</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2590295722523472</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.04004156132792046</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.261300342645244</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03973403686690209</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2635711130381407</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03942426025206124</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2658418834310375</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03911226333775721</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2681126538239342</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03879807797834929</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.270383424216831</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03848173602819674</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2726541946097278</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03816326934165885</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2749249650026245</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03784270977309491</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2771957353955212</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03752008917686417</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.279466505788418</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03719543940732596</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2817372761813147</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03686879231883951</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2840080465742115</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03654017976576412</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2862788169671082</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03620963360245909</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.288549587360005</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03587718568328366</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2908203577529017</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03554286786259712</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2930911281457985</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03520671199475879</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2953618985386952</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.0348687499341279</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.297632668931592</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03452901353506377</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2999034393244887</v>
-      </c>
-    </row>
+        <v>0.3289141616422505</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1218.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1218.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001943488726881201</v>
+        <v>0.0009676941622716664</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001644229443926366</v>
+        <v>0.0005283782911524882</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003071253379120932</v>
+        <v>0.001336948136819262</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001652834983126887</v>
+        <v>0.0008385771518498221</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008419283875014422</v>
+        <v>0.00436452898831538</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001655777184367465</v>
+        <v>0.0008216213113422315</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01568674101022338</v>
+        <v>0.006889588926888623</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001959371994308214</v>
+        <v>0.0008227163173890998</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004522317243823834</v>
+        <v>0.001918369759992565</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003288458887852732</v>
+        <v>0.001056756582304976</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005599758012101705</v>
+        <v>0.002794076961035598</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003305669966253774</v>
+        <v>0.001677154303699644</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01317606291742723</v>
+        <v>0.00882889127419878</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002857244112465095</v>
+        <v>0.001643242622684463</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01967084490615972</v>
+        <v>0.01316110886155686</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003305669966253774</v>
+        <v>0.0016454326347782</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.002842253754654675</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004113150274698776</v>
+        <v>0.001585134873457465</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.006761584399466891</v>
+        <v>0.004319712419017713</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004222820756979558</v>
+        <v>0.002515731455549466</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01615323163000187</v>
+        <v>0.01190913379075154</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004967331553102395</v>
+        <v>0.002253826125077362</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02458467685796006</v>
+        <v>0.01803975216175691</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004958504949380661</v>
+        <v>0.002276038175206514</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008216168537231498</v>
+        <v>0.003729573107749941</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006576917775705463</v>
+        <v>0.002113513164609953</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008245199878568296</v>
+        <v>0.005730156270734657</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006611339932507548</v>
+        <v>0.003578661658457253</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01847419210616555</v>
+        <v>0.01571630702863017</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006623108737469859</v>
+        <v>0.003286485245368926</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02795083432019263</v>
+        <v>0.02370357848880933</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006611339932507548</v>
+        <v>0.003290865269556399</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01071567198351182</v>
+        <v>0.004570554780770314</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00822114721963183</v>
+        <v>0.002641891455762441</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008958297957758016</v>
+        <v>0.006316760120270326</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008264174915634435</v>
+        <v>0.00419288575924911</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01995779634534658</v>
+        <v>0.01843428064668531</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008278885921837323</v>
+        <v>0.004108106556711157</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03034124086885326</v>
+        <v>0.02784946888949758</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008264174915634435</v>
+        <v>0.0041135815869455</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01005148551191629</v>
+        <v>0.005355425735207774</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009865376663558195</v>
+        <v>0.00317026974691493</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009734026661574725</v>
+        <v>0.007084488705514522</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009917009898761322</v>
+        <v>0.005031462911098933</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02137339952797032</v>
+        <v>0.0206627146504415</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00993466310620479</v>
+        <v>0.004929727868053389</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03272782007993791</v>
+        <v>0.03108060858076728</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009917009898761322</v>
+        <v>0.004936297904334599</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01125882773380761</v>
+        <v>0.006074412932554271</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01150960610748456</v>
+        <v>0.003698648038067417</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01035416238002285</v>
+        <v>0.007980976762758017</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01156984488188821</v>
+        <v>0.005870040062948755</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0222903568344622</v>
+        <v>0.02278889759457817</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01159044029057225</v>
+        <v>0.00575134917939562</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03508249552944243</v>
+        <v>0.0348825225372475</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01156984488188821</v>
+        <v>0.005759014221723699</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01383055784136891</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01233945082409633</v>
+        <v>0.004113150274698776</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01110048150310682</v>
+        <v>0.008716307251358101</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0132226798650151</v>
+        <v>0.006708617214798577</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0239780234452478</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01324621747493972</v>
+        <v>0.006850535334581644</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03787719079336282</v>
+        <v>0.03774073573356684</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.0132226798650151</v>
+        <v>0.006581730539112799</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01348598992930736</v>
+        <v>0.007336863481558882</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01479806499533729</v>
+        <v>0.004755404620372394</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.009400563130672016</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01405195312499999</v>
+        <v>0.007547194366648398</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.02635501357383738</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01463745117187499</v>
+        <v>0.007394591802080084</v>
       </c>
       <c r="N74" s="171" t="n">
         <v>0.03921685252555845</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01405195312499999</v>
+        <v>0.007068441537908421</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01657497937773791</v>
+        <v>0.007947068832607797</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01644229443926366</v>
+        <v>0.005283782911524882</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01253739662219742</v>
+        <v>0.009943827360057042</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01652834983126887</v>
+        <v>0.00838577151849822</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02711740941960153</v>
+        <v>0.02768039235687142</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01655777184367465</v>
+        <v>0.008216213113422315</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04320826337405448</v>
+        <v>0.04212578620262969</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01652834983126887</v>
+        <v>0.008227163173891</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01763883375290293</v>
+        <v>0.008546991354488574</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01808652388319002</v>
+        <v>0.00581216120267737</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01326580399914914</v>
+        <v>0.01055618289887041</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01818118481439576</v>
+        <v>0.009224348670348043</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02872001063673532</v>
+        <v>0.02889062956810234</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01821354902804211</v>
+        <v>0.009037834424764546</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04584411478234468</v>
+        <v>0.04435430925140676</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01818118481439576</v>
+        <v>0.009049879491280098</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01666843249014557</v>
+        <v>0.009133388970934665</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01973075332711639</v>
+        <v>0.006340539493829859</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01431192997250351</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01983401979752264</v>
+        <v>0.01022474759559215</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03097778424242947</v>
+        <v>0.03088169477669173</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01986932621240958</v>
+        <v>0.009859455736106778</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04879049614974662</v>
+        <v>0.04675810257794139</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01983401979752264</v>
+        <v>0.009872595808669197</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01865465502480905</v>
+        <v>0.0097030196056795</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02137498277104276</v>
+        <v>0.006868917784982348</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01516159996158023</v>
+        <v>0.01183552392287616</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02148685478064953</v>
+        <v>0.01090150297404769</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03275837756283001</v>
+        <v>0.03194955755180115</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02152510339677704</v>
+        <v>0.01068107704744901</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05170727427151189</v>
+        <v>0.04873066730654152</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02148685478064953</v>
+        <v>0.0106953121260583</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01958838079223653</v>
+        <v>0.01025264118245653</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02301921221496912</v>
+        <v>0.007397296076134835</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01590063938569906</v>
+        <v>0.01233664070340185</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02313968976377642</v>
+        <v>0.01174008012589751</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03442943792408293</v>
+        <v>0.03359018746259215</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02318088058114451</v>
+        <v>0.01150269835879124</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05505431594289178</v>
+        <v>0.05116550456151453</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02313968976377642</v>
+        <v>0.0115180284434474</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02046048922777118</v>
+        <v>0.0107790116249992</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02466344165889549</v>
+        <v>0.007925674367287323</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01661487366417971</v>
+        <v>0.01304839457739586</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0247925247469033</v>
+        <v>0.01257865727774733</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03635861265233417</v>
+        <v>0.0347995540782263</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02483665776551197</v>
+        <v>0.01232431967013347</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05779148795913785</v>
+        <v>0.05345611546716827</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0247925247469033</v>
+        <v>0.0123407447608365</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02126185976675615</v>
+        <v>0.01127888885704094</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02630767110282185</v>
+        <v>0.008454052658439811</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01759012821634191</v>
+        <v>0.01376763332044632</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02644535973003019</v>
+        <v>0.01341723442959715</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03801354907372978</v>
+        <v>0.03657362696786509</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02649243494987943</v>
+        <v>0.0131459409814757</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06037865711550133</v>
+        <v>0.05549600114781039</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02644535973003019</v>
+        <v>0.0131634610782256</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02298337184453469</v>
+        <v>0.01174903080231521</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02795190054674822</v>
+        <v>0.0089824309495923</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01831222846150538</v>
+        <v>0.01429120470814137</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02809819471315708</v>
+        <v>0.01425581158144698</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03956189451441569</v>
+        <v>0.03790837570067015</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0281482121342469</v>
+        <v>0.01396756229281793</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06237569020723377</v>
+        <v>0.05797866272774854</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02809819471315708</v>
+        <v>0.0139861773956147</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02261590489644993</v>
+        <v>0.01218619538455545</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02959612999067458</v>
+        <v>0.009510809240744789</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0189669998189898</v>
+        <v>0.01481595651606907</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02975102969628397</v>
+        <v>0.0150943887332968</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04097129630053803</v>
+        <v>0.03909976984580302</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02980398931861436</v>
+        <v>0.01478918360416017</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06454245402958647</v>
+        <v>0.05939760133129041</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02975102969628397</v>
+        <v>0.0148088937130038</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02315033835784507</v>
+        <v>0.01258714052749509</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03124035943460095</v>
+        <v>0.01003918753189728</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01934026770811495</v>
+        <v>0.01553873651981763</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03140386467941085</v>
+        <v>0.01593296588514662</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0428094017582426</v>
+        <v>0.04024377897242523</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03145976650298183</v>
+        <v>0.0156108049155024</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06643881537781093</v>
+        <v>0.06194631808274359</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03140386467941085</v>
+        <v>0.0156316100303929</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02257755166406326</v>
+        <v>0.01294862415486759</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03288458887852732</v>
+        <v>0.01056756582304976</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01981785754820053</v>
+        <v>0.01605639249497512</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03305669966253774</v>
+        <v>0.01677154303699644</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04364385821367558</v>
+        <v>0.04123637264969837</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03311554368734929</v>
+        <v>0.01643242622684463</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06842464104715851</v>
+        <v>0.06331831410641586</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03305669966253774</v>
+        <v>0.016454326347782</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02391651909537586</v>
+        <v>0.01326740419040639</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03452881832245368</v>
+        <v>0.01109594411420225</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02038559475856629</v>
+        <v>0.01686577221712969</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03470953464566463</v>
+        <v>0.01761012018884626</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04444231299298282</v>
+        <v>0.04237352044678397</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03477132087171676</v>
+        <v>0.01725404753818686</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06905979783288063</v>
+        <v>0.06520709052661483</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03470953464566463</v>
+        <v>0.01727704266517109</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02324171331090749</v>
+        <v>0.01354023855784492</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03617304776638005</v>
+        <v>0.01162432240535474</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02046650261650777</v>
+        <v>0.01746372346186942</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03636236962879151</v>
+        <v>0.01844869734069609</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0452014060505054</v>
+        <v>0.04345119193284361</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03642709805608422</v>
+        <v>0.01807566884952909</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07062016425363077</v>
+        <v>0.06670614846764827</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03636236962879151</v>
+        <v>0.0180997589825602</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02455579489486941</v>
+        <v>0.01383055784136891</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03781727721030641</v>
+        <v>0.01233945082409633</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02073673402649674</v>
+        <v>0.01784709400478246</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0380152046119184</v>
+        <v>0.01928727449254591</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04570567876875448</v>
+        <v>0.04486535667703886</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03808287524045169</v>
+        <v>0.01889729016087132</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07144488819243816</v>
+        <v>0.06830898905382365</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0380152046119184</v>
+        <v>0.0189224752999493</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02385657133960717</v>
+        <v>0.01394598076741618</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03946150665423278</v>
+        <v>0.01268107898765972</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0211975158566705</v>
+        <v>0.01851273162145695</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03966803959504529</v>
+        <v>0.02012585164439573</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04649026703402565</v>
+        <v>0.04571198424853123</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03973865242481916</v>
+        <v>0.01971891147221356</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07233727594698341</v>
+        <v>0.06990911340944883</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03966803959504529</v>
+        <v>0.01974519161733839</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02514185013746642</v>
+        <v>0.01412266355511003</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04110573609815914</v>
+        <v>0.01320945727881221</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0214470026705183</v>
+        <v>0.01905748408748098</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04132087457817217</v>
+        <v>0.02096442879624555</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04695106878492381</v>
+        <v>0.04668704421648232</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04139442960918662</v>
+        <v>0.02054053278355579</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07279101248779207</v>
+        <v>0.07160002265883136</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04132087457817217</v>
+        <v>0.0205679079347275</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02640943878079274</v>
+        <v>0.01429711318993314</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04274996554208552</v>
+        <v>0.0137378355699647</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02148334903152944</v>
+        <v>0.01947819917844268</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04297370956129906</v>
+        <v>0.02180300594809538</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04768398196005402</v>
+        <v>0.04698650615005362</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04305020679355408</v>
+        <v>0.02136215409489802</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07369978278538986</v>
+        <v>0.07307521792627908</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04297370956129906</v>
+        <v>0.0213906242521166</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02465714476193177</v>
+        <v>0.01446932590507521</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04439419498601188</v>
+        <v>0.01426621386111718</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02180470950319326</v>
+        <v>0.0199717246699302</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04462654454442595</v>
+        <v>0.02264158309994519</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0482849044980212</v>
+        <v>0.04780633961840675</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04470598397792155</v>
+        <v>0.02218377540624025</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07435727181030205</v>
+        <v>0.0737282003360995</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04462654454442595</v>
+        <v>0.0222133405695057</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02488277557322909</v>
+        <v>0.01463929793372592</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04603842442993824</v>
+        <v>0.01479459215226967</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02210923864899894</v>
+        <v>0.02043490833753166</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04627937952755283</v>
+        <v>0.02348016025179502</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04864973433743044</v>
+        <v>0.04864251419070323</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04636176116228902</v>
+        <v>0.02300539671758248</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07565716453305427</v>
+        <v>0.0752524710126003</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04627937952755283</v>
+        <v>0.0230360568868948</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02508413870703032</v>
+        <v>0.01480702550907496</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04768265387386461</v>
+        <v>0.01532297044342216</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02219509103243583</v>
+        <v>0.02086459795683512</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04793221451067972</v>
+        <v>0.02431873740364484</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04897436941688665</v>
+        <v>0.04919099943610464</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04801753834665647</v>
+        <v>0.02382701802892472</v>
       </c>
       <c r="N94" t="n">
-        <v>0.075993145924172</v>
+        <v>0.07594153108008916</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04793221451067972</v>
+        <v>0.0238587732042839</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02625904165568106</v>
+        <v>0.01497250486431204</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04932688331779098</v>
+        <v>0.01585134873457465</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02226042121699319</v>
+        <v>0.02125764130342879</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04958504949380661</v>
+        <v>0.02515731455549466</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04915470767499491</v>
+        <v>0.04974776492377261</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04967331553102394</v>
+        <v>0.02464863934026694</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07625890095418092</v>
+        <v>0.07648888166287388</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04958504949380661</v>
+        <v>0.02468148952167299</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02640529191152692</v>
+        <v>0.01513573223262683</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05097111276171734</v>
+        <v>0.01637972702572714</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02260338376616032</v>
+        <v>0.02171088615290073</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0512378844769335</v>
+        <v>0.02599589170734448</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04978664705036018</v>
+        <v>0.04990878022286854</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05132909271539141</v>
+        <v>0.02547026065160918</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07714811459360632</v>
+        <v>0.07728802388526196</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0512378844769335</v>
+        <v>0.0255042058390621</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0255206969669135</v>
+        <v>0.01529670384720903</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05261534220564371</v>
+        <v>0.01690810531687962</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0225221332434265</v>
+        <v>0.02212118028083908</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05289071946006038</v>
+        <v>0.02683446885919431</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05006608548158745</v>
+        <v>0.04997001490255407</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05298486989975887</v>
+        <v>0.02629188196295141</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07775447181297385</v>
+        <v>0.07773245887156111</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05289071946006038</v>
+        <v>0.02632692215645119</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02560306431418642</v>
+        <v>0.01545541594124834</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05425957164957008</v>
+        <v>0.01743648360803211</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02271482421228099</v>
+        <v>0.02238537146283198</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05454355444318727</v>
+        <v>0.02767304601104413</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05008892090728173</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05464064708412634</v>
+        <v>0.02711350327429364</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07757165758280909</v>
+        <v>0.07831568774607917</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05454355444318727</v>
+        <v>0.0271496384738403</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02766111568273782</v>
+        <v>0.01561186474793443</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05590380109349644</v>
+        <v>0.0179648618991846</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02267961123621309</v>
+        <v>0.02260030747446755</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05619638942631415</v>
+        <v>0.02851162316289395</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05015105126604796</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05629642426849381</v>
+        <v>0.02793512458563587</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0779933568736374</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05619638942631415</v>
+        <v>0.02797235479122939</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0276605332257925</v>
+        <v>0.015766046500457</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0575480305374228</v>
+        <v>0.01849324019033709</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.02266283609133389</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05784922440944105</v>
+        <v>0.02935020031474377</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05795220145286126</v>
+        <v>0.0287567458969781</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05784922440944105</v>
+        <v>0.02879507110861849</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02764659342020294</v>
+        <v>0.01591795743200575</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05919225998134917</v>
+        <v>0.01902161848148958</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02271940224967811</v>
+        <v>0.02286980508901913</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05950205939256793</v>
+        <v>0.03018877746659359</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05017698125024039</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05960797863722873</v>
+        <v>0.02957836720832033</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07842952055165697</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05950205939256793</v>
+        <v>0.0296177874260076</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02561494382219794</v>
+        <v>0.01606759377577037</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06083648942527554</v>
+        <v>0.01954999677264206</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02290552467650388</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06115489437569482</v>
+        <v>0.03102735461844341</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05015605200772261</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0612637558215962</v>
+        <v>0.03039998851966257</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07838203190432586</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06115489437569482</v>
+        <v>0.0304405037433967</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02756673994653978</v>
+        <v>0.01621495176494053</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0624807188692019</v>
+        <v>0.02007837506379455</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02277696554705549</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0628077293588217</v>
+        <v>0.03186593177029324</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05040192405922828</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06291953300596366</v>
+        <v>0.03122160983100479</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07808430340313682</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0628077293588217</v>
+        <v>0.03126322006078579</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02650313730799073</v>
+        <v>0.01636002763270595</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06412494831312827</v>
+        <v>0.02060675335494704</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02273469745959351</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06446056434194858</v>
+        <v>0.03270450892214306</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05041675930940956</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06457531019033112</v>
+        <v>0.03204323114234703</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07813966325073823</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06446056434194858</v>
+        <v>0.0320859363781749</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02742529142131306</v>
+        <v>0.01650281761225631</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06576917775705464</v>
+        <v>0.02113513164609953</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02277969301237855</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06611339932507548</v>
+        <v>0.03354308607399288</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05030271966291841</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06623108737469859</v>
+        <v>0.03286485245368926</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07775143964977849</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06611339932507548</v>
+        <v>0.032908652695564</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02733435780126907</v>
+        <v>0.0166433179367813</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06741340720098099</v>
+        <v>0.02166350993725202</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02251292480367117</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06776623430820236</v>
+        <v>0.03438166322584271</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04976196702440697</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06788686455906605</v>
+        <v>0.03368647376503149</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07732296080290602</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06776623430820236</v>
+        <v>0.03373136901295309</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02723149196262103</v>
+        <v>0.0167815248394706</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06905763664490737</v>
+        <v>0.0221918882284045</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02253536543173197</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06941906929132925</v>
+        <v>0.03522024037769253</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05009666329852722</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06954264174343353</v>
+        <v>0.03450809507637372</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07715755491276921</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06941906929132925</v>
+        <v>0.03455408533034219</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02711784942013123</v>
+        <v>0.01691743455351393</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07070186608883373</v>
+        <v>0.02272026651955699</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02234798749482154</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07107190427445613</v>
+        <v>0.03605881752954235</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04980897038993132</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07119841892780099</v>
+        <v>0.03532971638771595</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07655855018201652</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07107190427445613</v>
+        <v>0.03537680164773129</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02699458568856193</v>
+        <v>0.01705104331210095</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0723460955327601</v>
+        <v>0.02324864481070948</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02245176359120046</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07272473925758302</v>
+        <v>0.03689739468139217</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0497010502032712</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07285419611216844</v>
+        <v>0.03615133769905819</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07622927481329628</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07272473925758302</v>
+        <v>0.03619951796512039</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02686285628267544</v>
+        <v>0.01718234734842137</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07399032497668646</v>
+        <v>0.02377702310186197</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02234766631912931</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0743775742407099</v>
+        <v>0.037735971833242</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04917506464319901</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07450997329653591</v>
+        <v>0.03697295901040042</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07577305700925691</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0743775742407099</v>
+        <v>0.03702223428250949</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02672381671723402</v>
+        <v>0.01731134289566488</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07563455442061283</v>
+        <v>0.02430540139301446</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02203666827686868</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0760304092238368</v>
+        <v>0.03857454898509181</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04883317561436679</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07616575048090338</v>
+        <v>0.03779458032174265</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07569322497254677</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0760304092238368</v>
+        <v>0.03784495059989859</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02457862250699995</v>
+        <v>0.01743802618702116</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07727878386453919</v>
+        <v>0.02483377968416695</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02191974206267917</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07768324420696368</v>
+        <v>0.03941312613694164</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04857754502142661</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07782152766527084</v>
+        <v>0.03861620163308488</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0749931069058144</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07768324420696368</v>
+        <v>0.03866766691728769</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02642842916673552</v>
+        <v>0.0175623934556799</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07892301330846556</v>
+        <v>0.02536215797531944</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02199786027482137</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07933607919009057</v>
+        <v>0.04025170328879146</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04821033476903053</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07947730484963832</v>
+        <v>0.03943782294442711</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07517603101170806</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07933607919009057</v>
+        <v>0.03949038323467679</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02527439221120298</v>
+        <v>0.01768444093483081</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08056724275239192</v>
+        <v>0.02589053626647192</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02167199551155582</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08098891417321745</v>
+        <v>0.04109028044064128</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04843370676183054</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08113308203400577</v>
+        <v>0.04025944425576935</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07444532549287619</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08098891417321745</v>
+        <v>0.04031309955206589</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02411766715516465</v>
+        <v>0.01780416485766356</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08221147219631829</v>
+        <v>0.02641891455762441</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02174312037114316</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08264174915634434</v>
+        <v>0.0419288575924911</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04764982290447878</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08278885921837324</v>
+        <v>0.04108106556711157</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0741043185519672</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08264174915634434</v>
+        <v>0.04113581586945499</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0259594095133828</v>
+        <v>0.01792156145736787</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08385570164024465</v>
+        <v>0.0269472928487769</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02161220745184396</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08429458413947123</v>
+        <v>0.04276743474434092</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04746084510162726</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08444463640274071</v>
+        <v>0.0419026868784538</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07325633839162954</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08429458413947123</v>
+        <v>0.0419585321868441</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02480077480061969</v>
+        <v>0.01803662696713339</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08549993108417103</v>
+        <v>0.02747567113992939</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0214802293519188</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08594741912259812</v>
+        <v>0.04360601189619075</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04716893525792809</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08610041358710817</v>
+        <v>0.04272430818979604</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07330471321451154</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08594741912259812</v>
+        <v>0.04278124850423319</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02564291853163761</v>
+        <v>0.01814935762014985</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0871441605280974</v>
+        <v>0.02800404943108188</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02124815866962826</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K118" t="n">
-        <v>0.087600254105725</v>
+        <v>0.04444458904804057</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04697625527803326</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08775619077147563</v>
+        <v>0.04354592950113827</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07235277122326167</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O118" t="n">
-        <v>0.087600254105725</v>
+        <v>0.04360396482162229</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02448682757122513</v>
+        <v>0.01825974964960692</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08878838997202376</v>
+        <v>0.02853242772223437</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02101696800323294</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08925308908885189</v>
+        <v>0.04528316619989039</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0465849670665949</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08941196795584309</v>
+        <v>0.04436755081248051</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07250384062052828</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08925308908885189</v>
+        <v>0.0444266811390114</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02431663684626033</v>
+        <v>0.01836779928869429</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09043261941595011</v>
+        <v>0.02906080601338685</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02088611664033929</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09090592407197877</v>
+        <v>0.04612174335174021</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04639698550120402</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09106774514021056</v>
+        <v>0.04518917212382273</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07165607110440031</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09090592407197877</v>
+        <v>0.0452493974564005</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02312401110853333</v>
+        <v>0.01847350277060167</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09207684885987648</v>
+        <v>0.02958918430453934</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0207394105918262</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09255875905510566</v>
+        <v>0.04696032050359004</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04638334943360675</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09272352232457803</v>
+        <v>0.04601079343516496</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07135404732029088</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09255875905510566</v>
+        <v>0.04607211377378959</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02491271516326439</v>
+        <v>0.01857685632851873</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09372107830380286</v>
+        <v>0.03011756259569183</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02057471231425786</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09421159403823255</v>
+        <v>0.04779889765543986</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04552800123688425</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0943792995089455</v>
+        <v>0.04683241474650719</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07069045465741719</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09421159403823255</v>
+        <v>0.04689483009117869</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0226865138156737</v>
+        <v>0.01867785619563517</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09536530774772922</v>
+        <v>0.03064594088684432</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02049519064902705</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09586442902135944</v>
+        <v>0.04863747480728968</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04513798465481675</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09603507669331295</v>
+        <v>0.04765403605784943</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0697761367978455</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09586442902135944</v>
+        <v>0.04771754640856779</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02344917187098151</v>
+        <v>0.01877649860514068</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09700953719165559</v>
+        <v>0.0311743191779968</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02040401443752653</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09751726400448632</v>
+        <v>0.0494760519591395</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04482034343118443</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09769085387768042</v>
+        <v>0.04847565736919166</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06972193742364141</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09751726400448632</v>
+        <v>0.04854026272595689</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02320445413440807</v>
+        <v>0.01887277979022493</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09865376663558195</v>
+        <v>0.03170269746914929</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02020435252114899</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09917009898761321</v>
+        <v>0.05031462911098933</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04448212130976739</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09934663106204789</v>
+        <v>0.04929727868053389</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06863870021687118</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09917009898761321</v>
+        <v>0.04936297904334599</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02295612541117355</v>
+        <v>0.01896669598407766</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1002979960795083</v>
+        <v>0.03223107576030178</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01979937374128719</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1008229339707401</v>
+        <v>0.05115320626283915</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04423036203434583</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1010024082464153</v>
+        <v>0.05011889999187612</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06783726885960056</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1008229339707401</v>
+        <v>0.05018569536073509</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02370795050649818</v>
+        <v>0.01905824341988854</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1019422255234347</v>
+        <v>0.03275945405145427</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0195922469393339</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K127" t="n">
-        <v>0.102475768953867</v>
+        <v>0.05199178341468896</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04357210934869993</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1026581854307828</v>
+        <v>0.05094052130321836</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06742848703389548</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O127" t="n">
-        <v>0.102475768953867</v>
+        <v>0.05100841167812419</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02146369422560222</v>
+        <v>0.01914741833084724</v>
       </c>
       <c r="G128" t="n">
-        <v>0.103586454967361</v>
+        <v>0.03328783234260676</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01938614095668185</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1041286039369939</v>
+        <v>0.05283036056653879</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04311440699660979</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1043139626151503</v>
+        <v>0.05176214261456059</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06672319842182206</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1041286039369939</v>
+        <v>0.05183112799551329</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02322712137370589</v>
+        <v>0.01923421695014346</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1052306844112874</v>
+        <v>0.03381621063375925</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01938422463472378</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1057814389201208</v>
+        <v>0.05366893771838861</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04266429872185562</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1059697397995177</v>
+        <v>0.05258376392590282</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06593224670544601</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1057814389201208</v>
+        <v>0.05265384431290239</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02300181812669379</v>
+        <v>0.01931863551096691</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1068749138552138</v>
+        <v>0.03434458892491173</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01918966681485239</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1074342739032476</v>
+        <v>0.05450751487023844</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04242882826821759</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1076255169838852</v>
+        <v>0.05340538523724505</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06546647556683355</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1074342739032476</v>
+        <v>0.05347656063029149</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02176772870158153</v>
+        <v>0.01940067024650727</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1085191432991402</v>
+        <v>0.03487296721606422</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01900295046600074</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1090871088863745</v>
+        <v>0.05534609202208825</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04211408452158241</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1092812941682527</v>
+        <v>0.05422700654858727</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06452753771147141</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1090871088863745</v>
+        <v>0.05429927694768059</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02251302386430078</v>
+        <v>0.01948031738995422</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1101633727430665</v>
+        <v>0.03540134550721671</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01870222475730611</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1107399438695014</v>
+        <v>0.05618466917393807</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0414792477819641</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1109370713526201</v>
+        <v>0.05504862785992951</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06384066023867285</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1107399438695014</v>
+        <v>0.05512199326506969</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02024309293462719</v>
+        <v>0.01955757317449748</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1118076021869929</v>
+        <v>0.0359297237983692</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01838563239561415</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1123927788526283</v>
+        <v>0.0570232463257879</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04080684005500645</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1125928485369876</v>
+        <v>0.05587024917127174</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0629994875458777</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1123927788526283</v>
+        <v>0.05594470958245878</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02196332523233639</v>
+        <v>0.0196324338333267</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1134518316309193</v>
+        <v>0.03645810208952169</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01815770957830691</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1140456138357552</v>
+        <v>0.05786182347763773</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04020694446199416</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1142486257213551</v>
+        <v>0.05669187048261398</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06271954236713984</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1140456138357552</v>
+        <v>0.05676742589984789</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02067911007720406</v>
+        <v>0.01970489559963161</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1150960610748456</v>
+        <v>0.03698648038067417</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01792299250276638</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1156984488188821</v>
+        <v>0.05870040062948755</v>
       </c>
       <c r="L135" t="n">
-        <v>0.03988964412421206</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1159044029057225</v>
+        <v>0.05751349179395621</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06161634743651334</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1156984488188821</v>
+        <v>0.05759014221723699</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01939583678900586</v>
+        <v>0.01977495470660187</v>
       </c>
       <c r="G136" t="n">
-        <v>0.116740290518772</v>
+        <v>0.03751485867182666</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01768601736637462</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K136" t="n">
-        <v>0.117351283802009</v>
+        <v>0.05953897778133737</v>
       </c>
       <c r="L136" t="n">
-        <v>0.03926502216294492</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M136" t="n">
-        <v>0.11756018009009</v>
+        <v>0.05833511310529844</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06110542548805237</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O136" t="n">
-        <v>0.117351283802009</v>
+        <v>0.0584128585346261</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02011889468751744</v>
+        <v>0.0198426073874272</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1183845199626983</v>
+        <v>0.03804323696297916</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01755132036651363</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1190041187851359</v>
+        <v>0.06037755493318719</v>
       </c>
       <c r="L137" t="n">
-        <v>0.03894316169947751</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1192159572744575</v>
+        <v>0.05915673441664067</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0601022992558109</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1190041187851359</v>
+        <v>0.05923557485201519</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01885367309251444</v>
+        <v>0.01990784987529727</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1200287494066247</v>
+        <v>0.03857161525413164</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01732343770056545</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1206569537682627</v>
+        <v>0.06121613208503701</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0382341458550946</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1208717344588249</v>
+        <v>0.0599783557279829</v>
       </c>
       <c r="N138" t="n">
-        <v>0.05892249147384315</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1206569537682627</v>
+        <v>0.06005829116940429</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01960556132377253</v>
+        <v>0.01997067840340178</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1216729788505511</v>
+        <v>0.03909999354528413</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01700690556591208</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1223097887513896</v>
+        <v>0.06205470923688683</v>
       </c>
       <c r="L139" t="n">
-        <v>0.03764805775108099</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1225275116431924</v>
+        <v>0.06079997703932513</v>
       </c>
       <c r="N139" t="n">
-        <v>0.05828152487620297</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1223097887513896</v>
+        <v>0.06088100748679339</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01937994870106738</v>
+        <v>0.02003108920493041</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1233172082944774</v>
+        <v>0.03962837183643662</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0169062601599356</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1239626237345165</v>
+        <v>0.06289328638873666</v>
       </c>
       <c r="L140" t="n">
-        <v>0.03749498050872144</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1241832888275599</v>
+        <v>0.06162159835066736</v>
       </c>
       <c r="N140" t="n">
-        <v>0.05769492219694461</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1239626237345165</v>
+        <v>0.06170372380418249</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01818222454417463</v>
+        <v>0.02008907851307286</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1249614377384038</v>
+        <v>0.0401567501275891</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01682603768001799</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1256154587176434</v>
+        <v>0.06373186354058648</v>
       </c>
       <c r="L141" t="n">
-        <v>0.03708499724930073</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1258390660119273</v>
+        <v>0.06244321966200959</v>
       </c>
       <c r="N141" t="n">
-        <v>0.05727820617012208</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1256154587176434</v>
+        <v>0.06252644012157159</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02001777817286993</v>
+        <v>0.02014464256101883</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1266056671823302</v>
+        <v>0.04068512841874159</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01657077432354126</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1272682937007703</v>
+        <v>0.0645704406924363</v>
       </c>
       <c r="L142" t="n">
-        <v>0.03672819109410366</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1274948431962948</v>
+        <v>0.06326484097335182</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0567468995297894</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1272682937007703</v>
+        <v>0.06334915643896069</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01989199890692894</v>
+        <v>0.02019777758195801</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1282498966262565</v>
+        <v>0.04121350670989408</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01644500628788749</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1289211286838972</v>
+        <v>0.06540901784428613</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03653464516441499</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1291506203806622</v>
+        <v>0.06408646228469406</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05651652501000065</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1289211286838972</v>
+        <v>0.06417187275634979</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01981027606612733</v>
+        <v>0.02024847980908007</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1298941260701829</v>
+        <v>0.04174188500104657</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01645326977043866</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1305739636670241</v>
+        <v>0.06624759499613594</v>
       </c>
       <c r="L144" t="n">
-        <v>0.03621444258151946</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1308063975650297</v>
+        <v>0.0649080835960363</v>
       </c>
       <c r="N144" t="n">
-        <v>0.05630260534480996</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1305739636670241</v>
+        <v>0.06499458907373888</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01777799897024074</v>
+        <v>0.02029674547557471</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1315383555141093</v>
+        <v>0.04227026329219905</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01620010096857684</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K145" t="n">
-        <v>0.132226798650151</v>
+        <v>0.06708617214798576</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0361776664667019</v>
+        <v>0.05057668474528274</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1324621747493972</v>
+        <v>0.06572970490737852</v>
       </c>
       <c r="N145" t="n">
-        <v>0.05572066326827141</v>
+        <v>0.07823332499781854</v>
       </c>
       <c r="O145" t="n">
-        <v>0.132226798650151</v>
+        <v>0.065817305391128</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01978088956163748</v>
+        <v>0.02034257081463163</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1331825849580356</v>
+        <v>0.04279864158335154</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01618850432161482</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1338796336332778</v>
+        <v>0.06792474929983558</v>
       </c>
       <c r="L146" t="n">
-        <v>0.03583420600446477</v>
+        <v>0.05057344185688298</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1341179519337646</v>
+        <v>0.06655132621872076</v>
       </c>
       <c r="N146" t="n">
-        <v>0.05538097988336765</v>
+        <v>0.0784290400467953</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1338796336332778</v>
+        <v>0.06664002170851709</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01979176073365953</v>
+        <v>0.02038595205944053</v>
       </c>
       <c r="G147" t="n">
-        <v>0.134826814401962</v>
+        <v>0.04332701987450403</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01619364216508605</v>
+        <v>0.02292061107562128</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1355324686164047</v>
+        <v>0.06876332645168541</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03584255599580188</v>
+        <v>0.05056723858770337</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1357737291181321</v>
+        <v>0.06737294753006298</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05569856143264751</v>
+        <v>0.07782013313786151</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1355324686164047</v>
+        <v>0.06746273802590619</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01880995937766713</v>
+        <v>0.02042688544319109</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1364710438458884</v>
+        <v>0.04385539816565652</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01640511848514432</v>
+        <v>0.02271968156035484</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1371853035995316</v>
+        <v>0.06960190360353524</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03576512423816353</v>
+        <v>0.05035818933090638</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1374295063024996</v>
+        <v>0.06819456884140522</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05573783306242486</v>
+        <v>0.07800678202761591</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1371853035995316</v>
+        <v>0.06828545434329529</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01983508948840633</v>
+        <v>0.02046536719907298</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1381152732898147</v>
+        <v>0.04438377645680901</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01622259996365838</v>
+        <v>0.02281733603982596</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1388381385826585</v>
+        <v>0.07044048075538506</v>
       </c>
       <c r="L149" t="n">
-        <v>0.03630116982747059</v>
+        <v>0.05014640847965449</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1390852834868671</v>
+        <v>0.06901619015274744</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05549765416785585</v>
+        <v>0.07798916447265714</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1388381385826585</v>
+        <v>0.06910817066068438</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01786675506062314</v>
+        <v>0.02050139356027593</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1397595027337411</v>
+        <v>0.04491215474796149</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01644575328249702</v>
+        <v>0.02291362952233177</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1404909735657854</v>
+        <v>0.07127905790723488</v>
       </c>
       <c r="L150" t="n">
-        <v>0.03594995185964406</v>
+        <v>0.05013201042711024</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1407410606712345</v>
+        <v>0.06983781146408967</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05597688414409652</v>
+        <v>0.07806745822958394</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1404909735657854</v>
+        <v>0.06993088697807349</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01790456008906363</v>
+        <v>0.02053496075998959</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1414037321776675</v>
+        <v>0.04544053303911398</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01637424512352896</v>
+        <v>0.02280861701616947</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1421438085489123</v>
+        <v>0.07211763505908469</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0360107294306049</v>
+        <v>0.05021510956643604</v>
       </c>
       <c r="M151" t="n">
-        <v>0.142396837855602</v>
+        <v>0.07065943277543191</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05607438238630313</v>
+        <v>0.07804184105499501</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1421438085489123</v>
+        <v>0.07075360329546258</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01994810856847386</v>
+        <v>0.02056606503140368</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1430479616215938</v>
+        <v>0.04596891133026648</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01630774216862299</v>
+        <v>0.02290235352963627</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1437966435320392</v>
+        <v>0.07295621221093451</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03598276163627404</v>
+        <v>0.05039582029079445</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1440526150399694</v>
+        <v>0.07148105408677415</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05578900828963185</v>
+        <v>0.07781249070548907</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1437966435320392</v>
+        <v>0.07157631961285169</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01799700449359982</v>
+        <v>0.0205947026077079</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1446921910655202</v>
+        <v>0.04649728962141896</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01654591109964787</v>
+        <v>0.02289489407102926</v>
       </c>
       <c r="K153" t="n">
-        <v>0.145449478515166</v>
+        <v>0.07379478936278434</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03606530757257248</v>
+        <v>0.05037425699334794</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1457083922243369</v>
+        <v>0.07230267539811637</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05611962124923858</v>
+        <v>0.07807958493766481</v>
       </c>
       <c r="O153" t="n">
-        <v>0.145449478515166</v>
+        <v>0.07239903593024079</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01905085185918759</v>
+        <v>0.0206208697220919</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1463364205094466</v>
+        <v>0.04702566791257145</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01638841859847234</v>
+        <v>0.02288629364864569</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1471023134982929</v>
+        <v>0.07463336651463418</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03665762633542111</v>
+        <v>0.05005053406725896</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1473641694087044</v>
+        <v>0.07312429670945861</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05636508066027979</v>
+        <v>0.07794330150812084</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1471023134982929</v>
+        <v>0.07322175224762989</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01810925465998321</v>
+        <v>0.02064456260774543</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1479806499533729</v>
+        <v>0.04755404620372394</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01663493134696517</v>
+        <v>0.02287660727078271</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1487551484814198</v>
+        <v>0.07547194366648399</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0365589770207409</v>
+        <v>0.05012476590569001</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1490199465930718</v>
+        <v>0.07394591802080083</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05672424591791148</v>
+        <v>0.07750381817345608</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1487551484814198</v>
+        <v>0.07404446856501898</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02017181689073271</v>
+        <v>0.0206657774978581</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1496248793972993</v>
+        <v>0.04808242449487642</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01668511602699514</v>
+        <v>0.0227658899457375</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1504079834645467</v>
+        <v>0.07631052081833381</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03686861872445282</v>
+        <v>0.05039706690180362</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1506757237774393</v>
+        <v>0.07476753933214307</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05709597641728964</v>
+        <v>0.078061312690269</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1504079834645467</v>
+        <v>0.07486718488240809</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01923814254618214</v>
+        <v>0.0206845106256197</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1512691088412257</v>
+        <v>0.04861080278602892</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01663863932043098</v>
+        <v>0.02265419668180721</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1520608184476736</v>
+        <v>0.07714909797018363</v>
       </c>
       <c r="L157" t="n">
-        <v>0.03698581054247785</v>
+        <v>0.04996755144876219</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1523315009618068</v>
+        <v>0.0755891606434853</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05707913155357064</v>
+        <v>0.07751596281515843</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1520608184476736</v>
+        <v>0.07568990119979718</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01833715017012169</v>
+        <v>0.02070075822421982</v>
       </c>
       <c r="G158" t="n">
-        <v>0.152913338285152</v>
+        <v>0.0491391810771814</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01679934565894818</v>
+        <v>0.02274158248728904</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1537136534308005</v>
+        <v>0.07798767512203346</v>
       </c>
       <c r="L158" t="n">
-        <v>0.03661218641190536</v>
+        <v>0.05023633393972832</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1539872781461742</v>
+        <v>0.07641078195482753</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05678686685890211</v>
+        <v>0.077767946304723</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1537136534308005</v>
+        <v>0.07651261751718628</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01949847561815181</v>
+        <v>0.02071451652684823</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1545575677290784</v>
+        <v>0.04966755936833389</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01680622474702317</v>
+        <v>0.02282810237048016</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1553664884139274</v>
+        <v>0.07882625227388328</v>
       </c>
       <c r="L159" t="n">
-        <v>0.03732654877673802</v>
+        <v>0.05020352876786441</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1556430553305417</v>
+        <v>0.07723240326616976</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05715260395550709</v>
+        <v>0.07741744091556158</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1553664884139274</v>
+        <v>0.07733533383457539</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01871030230324312</v>
+        <v>0.02072578176669458</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1562017971730048</v>
+        <v>0.05019593765948638</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01706089026934053</v>
+        <v>0.02281381133967773</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1570193233970543</v>
+        <v>0.07966482942573309</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0376511157488969</v>
+        <v>0.05006925032633297</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1572988325149092</v>
+        <v>0.07805402457751198</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05778186482492581</v>
+        <v>0.07766462440427269</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1570193233970543</v>
+        <v>0.07815805015196449</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01996067578257142</v>
+        <v>0.0207345501769486</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1578460266169311</v>
+        <v>0.05072431595063887</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01705328015601014</v>
+        <v>0.02279876440317893</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1586721583801811</v>
+        <v>0.08050340657758293</v>
       </c>
       <c r="L161" t="n">
-        <v>0.03796352122247126</v>
+        <v>0.0498336130082965</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1589546096992766</v>
+        <v>0.07887564588885422</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05864021735987013</v>
+        <v>0.07720967452745509</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1586721583801811</v>
+        <v>0.07898076646935358</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02123764161331242</v>
+        <v>0.02074081799079992</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1594902560608575</v>
+        <v>0.05125269424179136</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01727333233714186</v>
+        <v>0.02258301656928095</v>
       </c>
       <c r="K162" t="n">
-        <v>0.160324993363308</v>
+        <v>0.08134198372943274</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03844139909155048</v>
+        <v>0.05019673120691748</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1606103868836441</v>
+        <v>0.07969726720019646</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05969322945305205</v>
+        <v>0.0774527690417075</v>
       </c>
       <c r="O162" t="n">
-        <v>0.160324993363308</v>
+        <v>0.07980348278674269</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01952924535264193</v>
+        <v>0.02074458144143829</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1611344855047838</v>
+        <v>0.05178107253294385</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0176109847428456</v>
+        <v>0.02276662284628098</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1619778283464349</v>
+        <v>0.08218056088128256</v>
       </c>
       <c r="L163" t="n">
-        <v>0.03896238325022391</v>
+        <v>0.05025871931535839</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1622661640680115</v>
+        <v>0.0805188885115387</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06050646899718348</v>
+        <v>0.07729408570362867</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1619778283464349</v>
+        <v>0.08062619910413178</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01982353255773568</v>
+        <v>0.02074583676205335</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1627787149487102</v>
+        <v>0.05230945082409633</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0177561753032312</v>
+        <v>0.02274963824247613</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1636306633295618</v>
+        <v>0.08301913803313239</v>
       </c>
       <c r="L164" t="n">
-        <v>0.03940410759258087</v>
+        <v>0.04981969172678172</v>
       </c>
       <c r="M164" t="n">
-        <v>0.163921941252379</v>
+        <v>0.08134050982288092</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06124550388497624</v>
+        <v>0.0771338022698172</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1636306633295618</v>
+        <v>0.08144891542152088</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02210854878576947</v>
+        <v>0.02074583676205337</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1644229443926366</v>
+        <v>0.05230945082409633</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01799884194840859</v>
+        <v>0.02253211776616361</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1652834983126887</v>
+        <v>0.08385771518498221</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04004420601271075</v>
+        <v>0.05017976283434999</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1655777184367465</v>
+        <v>0.08216213113422315</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06217590200914225</v>
+        <v>0.07737209649687182</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1652834983126887</v>
+        <v>0.08227163173890999</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02137233959391903</v>
+        <v>0.0202664464521027</v>
       </c>
       <c r="G166" t="n">
-        <v>0.166067173836563</v>
+        <v>0.05230918229563232</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01842892260848759</v>
+        <v>0.02251411642564062</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1669363332958156</v>
+        <v>0.08469629233683203</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04016031240470283</v>
+        <v>0.05003904703122564</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1672334956211139</v>
+        <v>0.08298375244556538</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06306323126239355</v>
+        <v>0.07750914614139126</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1669363332958156</v>
+        <v>0.08309434805629907</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02060295053936013</v>
+        <v>0.01979259288887886</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1677114032804893</v>
+        <v>0.0523089137671683</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01863635521357811</v>
+        <v>0.02249568922920429</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1685891682789425</v>
+        <v>0.08553486948868184</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04073006066264653</v>
+        <v>0.04999765871057116</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1688892728054814</v>
+        <v>0.08380537375690761</v>
       </c>
       <c r="N167" t="n">
-        <v>0.063773059537442</v>
+        <v>0.07724512895997421</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1685891682789425</v>
+        <v>0.08391706437368819</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02080943401346338</v>
+        <v>0.01932486842066307</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1693556327244157</v>
+        <v>0.05230864523870429</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01881500489640074</v>
+        <v>0.02257689118515183</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1702420032620694</v>
+        <v>0.08637344664053166</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04123457293421059</v>
+        <v>0.04995571226554907</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1705450499898489</v>
+        <v>0.08462699506824985</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06368439349885374</v>
+        <v>0.07708022270921944</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1702420032620694</v>
+        <v>0.08473978069107728</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02201073542106967</v>
+        <v>0.01886386539569555</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1709998621683421</v>
+        <v>0.05230837671024027</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01888479514499281</v>
+        <v>0.02255777730178039</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1718948382451962</v>
+        <v>0.08721202379238151</v>
       </c>
       <c r="L169" t="n">
-        <v>0.041512286166067</v>
+        <v>0.04991332208932184</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1722008271742163</v>
+        <v>0.08544861637959207</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06466541073684073</v>
+        <v>0.07711460514572555</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1718948382451962</v>
+        <v>0.08556249700846638</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02220724307604584</v>
+        <v>0.01841017616225693</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1726440916122684</v>
+        <v>0.05230810818177625</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01895041361124386</v>
+        <v>0.02243840258738716</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1735476732283231</v>
+        <v>0.08805060094423132</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04228062300802013</v>
+        <v>0.04967060257505193</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1738566043585838</v>
+        <v>0.0862702376909343</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06543215225832849</v>
+        <v>0.07734845402609131</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1735476732283231</v>
+        <v>0.08638521332585548</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02239933620929863</v>
+        <v>0.01796439306858807</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1742883210561948</v>
+        <v>0.05230783965331223</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01921217949429549</v>
+        <v>0.02261882205026931</v>
       </c>
       <c r="K171" t="n">
-        <v>0.17520050821145</v>
+        <v>0.08888917809608114</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04254029298026646</v>
+        <v>0.04982766811590186</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1755123815429513</v>
+        <v>0.08709185900227655</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06538571035339319</v>
+        <v>0.07698194710691536</v>
       </c>
       <c r="O171" t="n">
-        <v>0.17520050821145</v>
+        <v>0.08720792964324459</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02358739405173463</v>
+        <v>0.01752710846296893</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1759325505001211</v>
+        <v>0.05230757112484821</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01947041199328924</v>
+        <v>0.02249909069872402</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1768533431945769</v>
+        <v>0.08972775524793096</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04279200560300267</v>
+        <v>0.04958143161792336</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1771681587273187</v>
+        <v>0.08791348031361877</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06622717731211131</v>
+        <v>0.07721177744973712</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1768533431945769</v>
+        <v>0.08803064596063367</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02377179583426056</v>
+        <v>0.01709891469364107</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1775767799440475</v>
+        <v>0.05230730259638419</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01942543030736665</v>
+        <v>0.02257926354104846</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1785061781777038</v>
+        <v>0.09056633239978078</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04313647039642543</v>
+        <v>0.0495247892952225</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1788239359116862</v>
+        <v>0.08873510162496101</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06715764542455915</v>
+        <v>0.07642593038037016</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1785061781777038</v>
+        <v>0.08885336227802279</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02395292078778309</v>
+        <v>0.01668040410888369</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1792210093879739</v>
+        <v>0.05230703406792018</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01967755363566936</v>
+        <v>0.02245735547558628</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1801590131608307</v>
+        <v>0.09140490955163061</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04367439688073133</v>
+        <v>0.04955857246509188</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1804797130960537</v>
+        <v>0.08955672293630323</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06757820698081313</v>
+        <v>0.07672500125179271</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1801590131608307</v>
+        <v>0.08967607859541188</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02213114814320886</v>
+        <v>0.01627216905693919</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1808652388319002</v>
+        <v>0.05230676553945616</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01992710117733888</v>
+        <v>0.02233049740397468</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1818118481439575</v>
+        <v>0.09224348670348043</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04360649457611693</v>
+        <v>0.04928397102092874</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1821354902804211</v>
+        <v>0.09037834424764546</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06768995427094954</v>
+        <v>0.07691083905041723</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1818118481439575</v>
+        <v>0.09049879491280099</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02330685713144459</v>
+        <v>0.01587480188608588</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1825094682758266</v>
+        <v>0.05230649701099215</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02007439213151682</v>
+        <v>0.02229921987788233</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1834646831270844</v>
+        <v>0.09308206385533026</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04413347300277898</v>
+        <v>0.04950217485613034</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1837912674647886</v>
+        <v>0.0911999655589877</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0682939795850448</v>
+        <v>0.07678529276265589</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1834646831270844</v>
+        <v>0.09132151123019008</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02348042698339692</v>
+        <v>0.01548889494456708</v>
       </c>
       <c r="G177" t="n">
-        <v>0.184153697719753</v>
+        <v>0.05230622848252812</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02021974569734471</v>
+        <v>0.02236409508194138</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1851175181102113</v>
+        <v>0.09392064100718008</v>
       </c>
       <c r="L177" t="n">
-        <v>0.044656041680914</v>
+        <v>0.04911437386409367</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1854470446491561</v>
+        <v>0.09202158687032992</v>
       </c>
       <c r="N177" t="n">
-        <v>0.06879137521317535</v>
+        <v>0.07635021137492115</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1851175181102113</v>
+        <v>0.09214422754757919</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02265223692997252</v>
+        <v>0.01511504058066014</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1857979271636793</v>
+        <v>0.05230595995406411</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02036348107396414</v>
+        <v>0.02232569520078395</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1867703530933382</v>
+        <v>0.09475921815902989</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04447491013071869</v>
+        <v>0.04902175793821609</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1871028218335235</v>
+        <v>0.09284320818167216</v>
       </c>
       <c r="N178" t="n">
-        <v>0.06948323344541757</v>
+        <v>0.07640744387362536</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1867703530933382</v>
+        <v>0.09296694386496829</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02382704334481291</v>
+        <v>0.01475383114260938</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1874421566076057</v>
+        <v>0.05230569142560009</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02050658573216581</v>
+        <v>0.02218459241904221</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1884231880764651</v>
+        <v>0.09559779531087971</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04519119431480326</v>
+        <v>0.04902551697189478</v>
       </c>
       <c r="M179" t="n">
-        <v>0.188758599017891</v>
+        <v>0.09366482949301438</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07007293337778048</v>
+        <v>0.07575883924518073</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1884231880764651</v>
+        <v>0.09378966018235739</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02501196937162944</v>
+        <v>0.01440585897869111</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1890863860515321</v>
+        <v>0.05230542289713608</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02045737742726415</v>
+        <v>0.02224135892134832</v>
       </c>
       <c r="K180" t="n">
-        <v>0.190076023059592</v>
+        <v>0.09643637246272954</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04552219002685035</v>
+        <v>0.04902684085852677</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1904143762022584</v>
+        <v>0.09448645080435662</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07038893812436592</v>
+        <v>0.07580624647599959</v>
       </c>
       <c r="O180" t="n">
-        <v>0.190076023059592</v>
+        <v>0.09461237649974648</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02520099776783442</v>
+        <v>0.01407171643715075</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1907306154954584</v>
+        <v>0.05230515436867206</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02071400221877923</v>
+        <v>0.0221965668923344</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1917288580427189</v>
+        <v>0.09727494961457936</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04586794783853118</v>
+        <v>0.0486269194915093</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1920701533866259</v>
+        <v>0.09530807211569886</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07072490355536676</v>
+        <v>0.07545151455249438</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1917288580427189</v>
+        <v>0.09543509281713558</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02438761401531153</v>
+        <v>0.01375199586626343</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1923748449393848</v>
+        <v>0.05230488584020804</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02077097682843942</v>
+        <v>0.02225078851663261</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1933816930258458</v>
+        <v>0.09811352676642918</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04581627944426861</v>
+        <v>0.04862694276423962</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1937259305709934</v>
+        <v>0.09612969342704109</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07116206605377379</v>
+        <v>0.07579649246107739</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1933816930258458</v>
+        <v>0.09625780913452468</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02456530359594446</v>
+        <v>0.01344728961428229</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1940190743833112</v>
+        <v>0.05230461731174402</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02112281797797318</v>
+        <v>0.02220459597887509</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1950345280089726</v>
+        <v>0.09895210391827901</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0462549965384855</v>
+        <v>0.04872810057011487</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1953817077553608</v>
+        <v>0.09695131473838332</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07228166200257785</v>
+        <v>0.07554302918816097</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1950345280089726</v>
+        <v>0.09708052545191377</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02572755199161686</v>
+        <v>0.01315819002946176</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1956633038272375</v>
+        <v>0.05230434878328</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02116404238910889</v>
+        <v>0.02205856146369399</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1966873629920995</v>
+        <v>0.09979068107012883</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04667191081560462</v>
+        <v>0.04843158280253218</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1970374849397283</v>
+        <v>0.09777293604972555</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07216492778476991</v>
+        <v>0.07559297372015727</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1966873629920995</v>
+        <v>0.09790324176930289</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02586784468421241</v>
+        <v>0.012885289460075</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1973075332711639</v>
+        <v>0.05230408025481599</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02118916678357499</v>
+        <v>0.02191325715572147</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1983401979752264</v>
+        <v>0.1006292582219787</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04695483397004879</v>
+        <v>0.04873857935488884</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1986932621240958</v>
+        <v>0.09859455736106777</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07289309978334069</v>
+        <v>0.07534817504347885</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1983401979752264</v>
+        <v>0.09872595808669198</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02497966715561477</v>
+        <v>0.01262918025437074</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1989517627150903</v>
+        <v>0.05230381172635197</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02129270788309988</v>
+        <v>0.02196925523958966</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1999930329583533</v>
+        <v>0.1014678353738285</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04699157769624082</v>
+        <v>0.04815028012058192</v>
       </c>
       <c r="M186" t="n">
-        <v>0.2003490393084632</v>
+        <v>0.09941617867241001</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07344741438128111</v>
+        <v>0.07521048214453796</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1999930329583533</v>
+        <v>0.09954867440408108</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02505826494952086</v>
+        <v>0.01239045476062067</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2005959921590166</v>
+        <v>0.05230354319788796</v>
       </c>
       <c r="J187" t="n">
-        <v>0.021369182409412</v>
+        <v>0.02182712789993073</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2016458679414802</v>
+        <v>0.1023064125256783</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04756995368860359</v>
+        <v>0.04816787499300865</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2020048164928307</v>
+        <v>0.1002377999837522</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07370910796158203</v>
+        <v>0.07458174400974688</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2016458679414802</v>
+        <v>0.1003713907214702</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02512646776258834</v>
+        <v>0.01216970532707499</v>
       </c>
       <c r="G188" t="n">
-        <v>0.202240221602943</v>
+        <v>0.05230327466942394</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02152664962627204</v>
+        <v>0.02188744732137682</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2032987029246071</v>
+        <v>0.1031449896775281</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04749922389617536</v>
+        <v>0.04809255386556618</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2036605936771982</v>
+        <v>0.1010594212950945</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07350575908784923</v>
+        <v>0.07476380962551793</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2032987029246071</v>
+        <v>0.1011941070388593</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02619316767593036</v>
+        <v>0.01196752430200392</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2038844510468694</v>
+        <v>0.05230300614095992</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02158270499557223</v>
+        <v>0.02195078568856006</v>
       </c>
       <c r="K189" t="n">
-        <v>0.204951537907734</v>
+        <v>0.1039835668293779</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04772375693139644</v>
+        <v>0.04802550663165175</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2053163708615656</v>
+        <v>0.1018810426064367</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07359757891328211</v>
+        <v>0.07445852797826363</v>
       </c>
       <c r="O189" t="n">
-        <v>0.204951537907734</v>
+        <v>0.1020168233562484</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02625834071523873</v>
+        <v>0.01178208527826168</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2055286804907957</v>
+        <v>0.0523027376124959</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02153748976410189</v>
+        <v>0.0219177151861126</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2066043728908609</v>
+        <v>0.1048221439812278</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04804547665429626</v>
+        <v>0.04786792318466251</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2069721480459331</v>
+        <v>0.1027026639177789</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0736850507802404</v>
+        <v>0.07446774805439599</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2066043728908609</v>
+        <v>0.1028395396736375</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02532196290620528</v>
+        <v>0.01159946807173293</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2071729099347221</v>
+        <v>0.05230246908403189</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02169098375265502</v>
+        <v>0.0217888079986666</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2082572078739877</v>
+        <v>0.1056607211330776</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04806433821026093</v>
+        <v>0.04822099341799563</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2086279252303005</v>
+        <v>0.1035242852291212</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07456810563607441</v>
+        <v>0.07439331884032763</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2082572078739877</v>
+        <v>0.1036622559910266</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02438401027452181</v>
+        <v>0.01141784627527301</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2088171393786485</v>
+        <v>0.05230220055556787</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02164316678202557</v>
+        <v>0.0216646363108542</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2099100428571146</v>
+        <v>0.1064992982849274</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04798029674467666</v>
+        <v>0.04808050739066894</v>
       </c>
       <c r="M192" t="n">
-        <v>0.210283702414668</v>
+        <v>0.1043459065404634</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07444667442813463</v>
+        <v>0.07413029453336589</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2099100428571146</v>
+        <v>0.1044849723084157</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02644445884588011</v>
+        <v>0.01123781223715038</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2104613688225748</v>
+        <v>0.05230193202710385</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02169401867300755</v>
+        <v>0.02164509521974582</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2115628778402415</v>
+        <v>0.1073378754367772</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04809330740292969</v>
+        <v>0.04824127505314921</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2119394795990355</v>
+        <v>0.1051675278518056</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07462068810377126</v>
+        <v>0.0745693106544324</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2115628778402415</v>
+        <v>0.1053076886258048</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02550328464597199</v>
+        <v>0.01105995830561782</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2121055982665012</v>
+        <v>0.05230166349863983</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02184351924639492</v>
+        <v>0.02172672369852054</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2132157128233684</v>
+        <v>0.1081764525886271</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04820332533040619</v>
+        <v>0.04820325796442915</v>
       </c>
       <c r="M194" t="n">
-        <v>0.213595256783403</v>
+        <v>0.1059891491631479</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0746900776103348</v>
+        <v>0.07421021824744517</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2132157128233684</v>
+        <v>0.1061304049431939</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02656046370048926</v>
+        <v>0.0108848768289436</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2137498277104276</v>
+        <v>0.05230139497017582</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02199164832298169</v>
+        <v>0.02170893272542407</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2148685478064953</v>
+        <v>0.1090150297404769</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0486103056724923</v>
+        <v>0.04816641799569263</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2152510339677704</v>
+        <v>0.1068107704744901</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07485477389517559</v>
+        <v>0.07425295806368259</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2148685478064953</v>
+        <v>0.106953121260583</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02561597203512372</v>
+        <v>0.01071316015538073</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2153940571543539</v>
+        <v>0.0523011264417118</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02203838572356182</v>
+        <v>0.02159170396543351</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2165213827896222</v>
+        <v>0.1098536068923267</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04841420357457432</v>
+        <v>0.0481307170181236</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2169068111521379</v>
+        <v>0.1076323917858323</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07531470790564398</v>
+        <v>0.07419747085442274</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2165213827896222</v>
+        <v>0.1077758375779721</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02666978567556723</v>
+        <v>0.01054540063319721</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2170382865982803</v>
+        <v>0.05230085791324778</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02188371126892925</v>
+        <v>0.02157501908352609</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2181742177727491</v>
+        <v>0.1106921840441765</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04881497418203834</v>
+        <v>0.04769611690290596</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2185625883365054</v>
+        <v>0.1084540130971745</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07516981058909034</v>
+        <v>0.07434369737094376</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2181742177727491</v>
+        <v>0.1085985538953612</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02672188064751151</v>
+        <v>0.01038219061064987</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2186825160422066</v>
+        <v>0.05230058938478377</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02212760477987803</v>
+        <v>0.02165885974467893</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2198270527558759</v>
+        <v>0.1115307611960263</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04841257264027057</v>
+        <v>0.04786257952122358</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2202183655208728</v>
+        <v>0.1092756344085168</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07562001289286507</v>
+        <v>0.07439157836452392</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2198270527558759</v>
+        <v>0.1094212702127503</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02677223297664842</v>
+        <v>0.01022412243599586</v>
       </c>
       <c r="G199" t="n">
-        <v>0.220326745486133</v>
+        <v>0.05230032085631975</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02197004607720209</v>
+        <v>0.02174320761386918</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2214798877390028</v>
+        <v>0.1123693383478761</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04890695409465726</v>
+        <v>0.0478300667442603</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2218741427052403</v>
+        <v>0.110097255719859</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07576524576431848</v>
+        <v>0.07364105458644121</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2214798877390028</v>
+        <v>0.1102439865301394</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02482081868866975</v>
+        <v>0.01007178845750265</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2219709749300594</v>
+        <v>0.05230005232785574</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02221101498169543</v>
+        <v>0.02172804435607402</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2231327227221297</v>
+        <v>0.113207915499726</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04889807369058452</v>
+        <v>0.04799854044320007</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2235299198896078</v>
+        <v>0.1109188770312012</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07530544015080104</v>
+        <v>0.07419206678797396</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2231327227221297</v>
+        <v>0.1110667028475285</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02586761380926733</v>
+        <v>0.009925781023424174</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2236152043739858</v>
+        <v>0.05229978379939172</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02205049131415203</v>
+        <v>0.02161335163627057</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2247855577052566</v>
+        <v>0.1140464926515758</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04878588657343857</v>
+        <v>0.04796796248922675</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2251856970739752</v>
+        <v>0.1117404983425435</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07594052699966292</v>
+        <v>0.07424455572040017</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2247855577052566</v>
+        <v>0.1118894191649176</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02691259436413293</v>
+        <v>0.009786692482027383</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2252594338179121</v>
+        <v>0.0522995152709277</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02218845489536585</v>
+        <v>0.021699111119436</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2264383926883835</v>
+        <v>0.1148850698034256</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04927034788860565</v>
+        <v>0.04773829475352426</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2268414742583427</v>
+        <v>0.1125621196538857</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07617043725825468</v>
+        <v>0.07409846213499816</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2264383926883835</v>
+        <v>0.1127121354823067</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02595573637895839</v>
+        <v>0.009655115181566802</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2269036632618385</v>
+        <v>0.05229924674246368</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02232488554613092</v>
+        <v>0.02148530447054749</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2280912276715104</v>
+        <v>0.1157236469552755</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04885141278147187</v>
+        <v>0.04770949910727645</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2284972514427101</v>
+        <v>0.113383740965228</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07579510187392668</v>
+        <v>0.073553726783046</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2280912276715104</v>
+        <v>0.1135348517996958</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02699701587943548</v>
+        <v>0.009531641470308723</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2285478927057649</v>
+        <v>0.05229897821399967</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02235976308724116</v>
+        <v>0.02147191335458215</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2297440626546373</v>
+        <v>0.1165622241071253</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04902903639742348</v>
+        <v>0.04768153742166725</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2301530286270776</v>
+        <v>0.1142053622765702</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07621445179402919</v>
+        <v>0.07341029041582192</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2297440626546373</v>
+        <v>0.1143575681170849</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02503640889125604</v>
+        <v>0.009416863696508362</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2301921221496912</v>
+        <v>0.05229870968553565</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02219306733949056</v>
+        <v>0.02155891943651718</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2313968976377642</v>
+        <v>0.1174008012589751</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04950317388184666</v>
+        <v>0.04765437156788049</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2318088058114451</v>
+        <v>0.1150269835879124</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07602841796591264</v>
+        <v>0.07366809378460398</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2313968976377642</v>
+        <v>0.115180284434474</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02707389144011187</v>
+        <v>0.009311374208431297</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2318363515936176</v>
+        <v>0.05229844115707163</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02242477812367315</v>
+        <v>0.0214463043813297</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2330497326208911</v>
+        <v>0.1182393784108249</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04927378038012759</v>
+        <v>0.04782796341710019</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2334645829958125</v>
+        <v>0.1158486048992547</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07623693133692749</v>
+        <v>0.07372707764067038</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2330497326208911</v>
+        <v>0.1160030007518631</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02710943955169477</v>
+        <v>0.009215765354333508</v>
       </c>
       <c r="G207" t="n">
-        <v>0.233480581037544</v>
+        <v>0.05229817262860761</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02235487526058284</v>
+        <v>0.0216340498539969</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2347025676040179</v>
+        <v>0.1190779555626747</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04934081103765245</v>
+        <v>0.04730227484051011</v>
       </c>
       <c r="M207" t="n">
-        <v>0.23512036018018</v>
+        <v>0.1166702262105969</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07683992285442393</v>
+        <v>0.07328718273529949</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2347025676040179</v>
+        <v>0.1168257170692522</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02614302925169655</v>
+        <v>0.009130629482479738</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2351248104814703</v>
+        <v>0.05229790410014359</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02228333857101367</v>
+        <v>0.0216221375194959</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2363554025871448</v>
+        <v>0.1199165327145246</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04960422099980746</v>
+        <v>0.04767726770929417</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2367761373645474</v>
+        <v>0.1174918475219391</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07653732346575237</v>
+        <v>0.07324834981976908</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2363554025871448</v>
+        <v>0.1176484333866413</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02617463656580901</v>
+        <v>0.009056558941126863</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2367690399253967</v>
+        <v>0.05229763557167957</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02251014787575957</v>
+        <v>0.02151054904280388</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2380082375702717</v>
+        <v>0.1207551098663744</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04956396541197877</v>
+        <v>0.0474529038946363</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2384319145489149</v>
+        <v>0.1183134688332813</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07662906411826331</v>
+        <v>0.07381051964535768</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2380082375702717</v>
+        <v>0.1184711497040304</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02620423751972398</v>
+        <v>0.008994146078538691</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2384132693693231</v>
+        <v>0.05229736704321556</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02243528299561456</v>
+        <v>0.02149926608889798</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2396610725533986</v>
+        <v>0.1215936870182242</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04961999941955259</v>
+        <v>0.04762914526772036</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2400876917332824</v>
+        <v>0.1191350901446236</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07661507575930698</v>
+        <v>0.07357363296334318</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2396610725533986</v>
+        <v>0.1192938660214195</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02523180813913323</v>
+        <v>0.008943983242973082</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2400574988132494</v>
+        <v>0.05229709851475154</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0223587237513726</v>
+        <v>0.02148827032275535</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2413139075365255</v>
+        <v>0.122432264170074</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04967227816791514</v>
+        <v>0.04770595369973021</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2417434689176499</v>
+        <v>0.1199567114559658</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07699528933623379</v>
+        <v>0.07323763052500393</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2413139075365255</v>
+        <v>0.1201165823388086</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0252573244497286</v>
+        <v>0.008906662782692795</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2417017282571758</v>
+        <v>0.05229682998628753</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02248044996382767</v>
+        <v>0.02137754340935318</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2429667425196524</v>
+        <v>0.1232708413219239</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04942075680245259</v>
+        <v>0.04748329106184979</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2433992461020173</v>
+        <v>0.120778332767308</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0769696357963941</v>
+        <v>0.07350245308161801</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2429667425196524</v>
+        <v>0.1209392986561977</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02728076247720186</v>
+        <v>0.008882777045956781</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2433459577011022</v>
+        <v>0.05229656145782351</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02240044145377373</v>
+        <v>0.02136706701366858</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2446195775027793</v>
+        <v>0.1241094184737737</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0498653904685511</v>
+        <v>0.04746111922526303</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2450550232863848</v>
+        <v>0.1215999540786503</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07703804608713832</v>
+        <v>0.0735680413844636</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2446195775027793</v>
+        <v>0.1217620149735868</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02730209824724486</v>
+        <v>0.008872918381026676</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2449901871450285</v>
+        <v>0.05229629292935949</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02261867804200482</v>
+        <v>0.02135682280067876</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2462724124859061</v>
+        <v>0.1249479956256235</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04950613431159692</v>
+        <v>0.04713940006115369</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2467108004707523</v>
+        <v>0.1224215753899925</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07740045115581684</v>
+        <v>0.07363433618481885</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2462724124859061</v>
+        <v>0.1225847312909759</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02732130778554938</v>
+        <v>0.008872918381026676</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2466344165889549</v>
+        <v>0.05229629292935949</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02263513954931487</v>
+        <v>0.02154679243536083</v>
       </c>
       <c r="K215" t="n">
-        <v>0.247925247469033</v>
+        <v>0.1257865727774733</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04964294347697615</v>
+        <v>0.04751809544070576</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2483665776551197</v>
+        <v>0.1232431967013347</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07725678194978003</v>
+        <v>0.07360127823396195</v>
       </c>
       <c r="O215" t="n">
-        <v>0.247925247469033</v>
+        <v>0.123407447608365</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02533836711780724</v>
+        <v>0.008587497554610905</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2482786460328812</v>
+        <v>0.05226286952448245</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02264980579649788</v>
+        <v>0.02153695758269195</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2495780824521599</v>
+        <v>0.1266251499293231</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05007577311007508</v>
+        <v>0.04719716723510312</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2500223548394872</v>
+        <v>0.124064818012677</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07720696941637806</v>
+        <v>0.07306880828317103</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2495780824521599</v>
+        <v>0.1242301639257541</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02535325226971022</v>
+        <v>0.008304884917657511</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2499228754768076</v>
+        <v>0.05222944611960541</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02246265660434779</v>
+        <v>0.02152729990764929</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2512309174352868</v>
+        <v>0.127463727081173</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04990457835627987</v>
+        <v>0.04747657731552968</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2516781320238546</v>
+        <v>0.1248864393240192</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07705094450296152</v>
+        <v>0.07363686708372424</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2512309174352868</v>
+        <v>0.1250528802431432</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02636593926695016</v>
+        <v>0.00802587053248021</v>
       </c>
       <c r="G218" t="n">
-        <v>0.251567104920734</v>
+        <v>0.05219602271472838</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02247367179365861</v>
+        <v>0.02131780107521</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2528837524184137</v>
+        <v>0.1283023042330228</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04962931436097667</v>
+        <v>0.04755628755316924</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2533339092082221</v>
+        <v>0.1257080606353614</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07698863815688084</v>
+        <v>0.07340539538689983</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2528837524184137</v>
+        <v>0.1258755965605323</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02537640413521886</v>
+        <v>0.007751244461392706</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2532113343646603</v>
+        <v>0.05216259930985134</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02248283118522434</v>
+        <v>0.02150844275035124</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2545365874015406</v>
+        <v>0.1291408813848726</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05004993626955176</v>
+        <v>0.04703625981920573</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2549896863925896</v>
+        <v>0.1265296819467036</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07721998132548608</v>
+        <v>0.07307433394397589</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2545365874015406</v>
+        <v>0.1266983128779214</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0263846229002081</v>
+        <v>0.007481796766708682</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2548555638085867</v>
+        <v>0.0521291759049743</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02269011459983895</v>
+        <v>0.02139920659805016</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2561894223846675</v>
+        <v>0.1299794585367224</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0500663992273912</v>
+        <v>0.0472164559848231</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2566454635769571</v>
+        <v>0.1273513032580459</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07744490495612794</v>
+        <v>0.07324362350623054</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2561894223846675</v>
+        <v>0.1275210291953105</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0253905715876097</v>
+        <v>0.00721831751074186</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2564997932525131</v>
+        <v>0.05209575250009726</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0225955018582964</v>
+        <v>0.02149007428328391</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2578422573677943</v>
+        <v>0.1308180356885723</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04977865837988127</v>
+        <v>0.04749683792120518</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2583012407613245</v>
+        <v>0.1281729245693881</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07746333999615657</v>
+        <v>0.07291320482494212</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2578422573677943</v>
+        <v>0.1283437455126996</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02639422622311551</v>
+        <v>0.006961596755805877</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2581440226964394</v>
+        <v>0.05206232909522022</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02269897278139069</v>
+        <v>0.02128102747102964</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2594950923509212</v>
+        <v>0.1316566128404221</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05008666887240817</v>
+        <v>0.04707736749953589</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2599570179456919</v>
+        <v>0.1289945458807304</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0774752173929224</v>
+        <v>0.07348301865138862</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2594950923509212</v>
+        <v>0.1291664618300887</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02639556283241726</v>
+        <v>0.006712424564214552</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2597882521403658</v>
+        <v>0.05202890569034318</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02270050718991576</v>
+        <v>0.02147204782626454</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2611479273340481</v>
+        <v>0.1324951899922719</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04969038585035804</v>
+        <v>0.04745800659099916</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2616127951300594</v>
+        <v>0.1298161671920726</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07698046809377584</v>
+        <v>0.07325300573684823</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2611479273340481</v>
+        <v>0.1299891781474778</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02736465450485903</v>
+        <v>0.006471590998281505</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2614324815842922</v>
+        <v>0.05199548228546614</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02268511710011362</v>
+        <v>0.02126311701396573</v>
       </c>
       <c r="K224" t="n">
-        <v>0.262800762317175</v>
+        <v>0.1333337671441217</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04986286944100479</v>
+        <v>0.04723871706677873</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2632685723144269</v>
+        <v>0.1306377885034148</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07762780365901967</v>
+        <v>0.07272310683259919</v>
       </c>
       <c r="O224" t="n">
-        <v>0.262800762317175</v>
+        <v>0.1308118944648669</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02626670075811285</v>
+        <v>0.006239886120320462</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2630767110282186</v>
+        <v>0.0519620588805891</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02261459566170269</v>
+        <v>0.02145421669911038</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2644535973003019</v>
+        <v>0.1341723442959715</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0498151882724209</v>
+        <v>0.04721946079805867</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2649243494987943</v>
+        <v>0.131459409814757</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07708648137046564</v>
+        <v>0.07329326268991954</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2644535973003019</v>
+        <v>0.131634610782256</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02710898675213666</v>
+        <v>0.006018099992645118</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2647209404721449</v>
+        <v>0.05192863547571206</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02229275846283267</v>
+        <v>0.02144532854667565</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2661064322834288</v>
+        <v>0.1350109214478214</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0493526753842877</v>
+        <v>0.04720019965602273</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2665801266831618</v>
+        <v>0.1322810311260993</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07696955805856442</v>
+        <v>0.07266341406008764</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2661064322834288</v>
+        <v>0.1324573270996451</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02489898631885985</v>
+        <v>0.005807022677569183</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2663651699160713</v>
+        <v>0.05189521207083502</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02212589623744464</v>
+        <v>0.02123643422163868</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2677592672665557</v>
+        <v>0.1358494985996712</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04888931390563514</v>
+        <v>0.04718089551185486</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2682359038675293</v>
+        <v>0.1331026524374415</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07629856042988281</v>
+        <v>0.07333350169438141</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2677592672665557</v>
+        <v>0.1332800434170342</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02464417329021193</v>
+        <v>0.005607444237406334</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2680093993599976</v>
+        <v>0.05186178866595798</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02192029971947966</v>
+        <v>0.02122751538897662</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2694121022496826</v>
+        <v>0.136688075751521</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04843908696549318</v>
+        <v>0.04736151023673904</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2698916810518968</v>
+        <v>0.1339242737487837</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07549501519098772</v>
+        <v>0.07280346634407914</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2694121022496826</v>
+        <v>0.1341027597344233</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02535202149812234</v>
+        <v>0.005420154734470294</v>
       </c>
       <c r="G229" t="n">
-        <v>0.269653628803924</v>
+        <v>0.05182836526108094</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02188225964287883</v>
+        <v>0.02131855371366666</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2710649372328094</v>
+        <v>0.1375266529033708</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0479159776928918</v>
+        <v>0.04714200570185895</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2715474582362642</v>
+        <v>0.134745895060126</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07448044904844597</v>
+        <v>0.07307324876045912</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2710649372328094</v>
+        <v>0.1349254760518124</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02403000477452048</v>
+        <v>0.005245944231074759</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2712978582478504</v>
+        <v>0.0517949418562039</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02151806674158326</v>
+        <v>0.02140953086068592</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2727177722159363</v>
+        <v>0.1383652300552206</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04763396921686092</v>
+        <v>0.04702234377839867</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2732032354206317</v>
+        <v>0.1355675163714682</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07337638870882457</v>
+        <v>0.07284278969479924</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2727177722159363</v>
+        <v>0.1357481923692015</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02468559695133589</v>
+        <v>0.005085602789533426</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2729420876917767</v>
+        <v>0.05176151845132687</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02123401174953399</v>
+        <v>0.02140042849501159</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2743706071990633</v>
+        <v>0.1392038072070705</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04720704466643053</v>
+        <v>0.04700248633754203</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2748590126049992</v>
+        <v>0.1363891376828104</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07240436087869034</v>
+        <v>0.07321202989837783</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2743706071990633</v>
+        <v>0.1365709086865906</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02532627186049798</v>
+        <v>0.004939920472159999</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2745863171357031</v>
+        <v>0.05172809504644983</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02103638540067213</v>
+        <v>0.02129122867701697</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2760234421821901</v>
+        <v>0.1400423843589203</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04614918717063057</v>
+        <v>0.04678250588516697</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2765147897893666</v>
+        <v>0.1372107589941527</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07198589226461016</v>
+        <v>0.07258106160365407</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2760234421821901</v>
+        <v>0.1373936250039797</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02395950333393616</v>
+        <v>0.00480968734126818</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2762305465796295</v>
+        <v>0.05169467164157279</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02073147842893876</v>
+        <v>0.02128202527287501</v>
       </c>
       <c r="K233" t="n">
-        <v>0.277676277165317</v>
+        <v>0.1408809615107701</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04567437985849102</v>
+        <v>0.04716267867173243</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2781705669737341</v>
+        <v>0.1380323803054949</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07054250957315089</v>
+        <v>0.07305032280286605</v>
       </c>
       <c r="O233" t="n">
-        <v>0.277676277165317</v>
+        <v>0.1382163413213688</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02359276520357995</v>
+        <v>0.004695693459171653</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2778747760235558</v>
+        <v>0.05166124823669575</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02032558156827495</v>
+        <v>0.0213729018382488</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2793291121484439</v>
+        <v>0.1417195386626199</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04499660585904183</v>
+        <v>0.04694302330867167</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2798263441581015</v>
+        <v>0.1388540016168371</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06949573951087951</v>
+        <v>0.07291985047440652</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2793291121484439</v>
+        <v>0.1390390576387579</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02323353130135877</v>
+        <v>0.004598728888184155</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2795190054674822</v>
+        <v>0.05162782483181871</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01992498555262182</v>
+        <v>0.02116385996427031</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2809819471315708</v>
+        <v>0.1425581158144698</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04452984830131296</v>
+        <v>0.04702354310484225</v>
       </c>
       <c r="M235" t="n">
-        <v>0.281482121342469</v>
+        <v>0.1396756229281793</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06846710878436285</v>
+        <v>0.07258964975993992</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2809819471315708</v>
+        <v>0.139861773956147</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02288927545920208</v>
+        <v>0.004519583690619368</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2811632349114085</v>
+        <v>0.05159440142694167</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01973598111592043</v>
+        <v>0.02135490124207153</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2826347821146977</v>
+        <v>0.1433966929663196</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04388809031433433</v>
+        <v>0.04680424136910183</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2831378985268365</v>
+        <v>0.1404972442395216</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06717814410016787</v>
+        <v>0.07285972580113098</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2826347821146977</v>
+        <v>0.1406844902735361</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02156747150903932</v>
+        <v>0.004459047928790996</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2828074643553349</v>
+        <v>0.05156097802206463</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01956485899211188</v>
+        <v>0.02114602726278449</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2842876170978245</v>
+        <v>0.1442352701181694</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04288531502713597</v>
+        <v>0.04708512141030802</v>
       </c>
       <c r="M237" t="n">
-        <v>0.284793675711204</v>
+        <v>0.1413188655508638</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0666503721648613</v>
+        <v>0.07273008373964418</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2842876170978245</v>
+        <v>0.1415072065909252</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02227297816653173</v>
+        <v>0.004417911665012736</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2844516937992613</v>
+        <v>0.05152755461718759</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01931703046515093</v>
+        <v>0.02113723961754116</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2859404520809514</v>
+        <v>0.1450738472700192</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04223424106051563</v>
+        <v>0.04676618653731829</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2864494528955714</v>
+        <v>0.142140486862206</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06570231023301742</v>
+        <v>0.07250072871714408</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2859404520809514</v>
+        <v>0.1423299229083143</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02098399451091047</v>
+        <v>0.004396964961598297</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2860959232431877</v>
+        <v>0.05149413121231056</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01887644037673822</v>
+        <v>0.02122853989747356</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2875932870640783</v>
+        <v>0.145912424421869</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04200144493342478</v>
+        <v>0.04684744005899041</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2881052300799388</v>
+        <v>0.1429621081735483</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06477901802503866</v>
+        <v>0.07247166587529535</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2875932870640783</v>
+        <v>0.1431526392257034</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02269390721601568</v>
+        <v>0.004394314737784073</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2877401526871141</v>
+        <v>0.05146070780743352</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01873492813008025</v>
+        <v>0.02111992969371371</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2892461220472052</v>
+        <v>0.1467510015737189</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04156660413435154</v>
+        <v>0.04682888528418186</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2897610072643063</v>
+        <v>0.1437837294848905</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06415257021866083</v>
+        <v>0.07244290035576256</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2892461220472052</v>
+        <v>0.1439753555430925</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02040269857606235</v>
+        <v>0.004394448593156179</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2893843821310404</v>
+        <v>0.05142728440255648</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01859247882219503</v>
+        <v>0.02111141059739362</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2908989570303321</v>
+        <v>0.1475895787255687</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04072968553674461</v>
+        <v>0.04681052552175027</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2914167844486737</v>
+        <v>0.1446053507962327</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06352291581631769</v>
+        <v>0.07271443730021027</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2908989570303321</v>
+        <v>0.1447980718604816</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02111035088526549</v>
+        <v>0.004394953124943347</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2910286115749667</v>
+        <v>0.05139386099767944</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01824907755010056</v>
+        <v>0.02130298419964527</v>
       </c>
       <c r="K242" t="n">
-        <v>0.292551792013459</v>
+        <v>0.1484281558774185</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04059065601405287</v>
+        <v>0.04679236408055326</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2930725616330412</v>
+        <v>0.145426972107575</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0626900038204431</v>
+        <v>0.07288628185030299</v>
       </c>
       <c r="O242" t="n">
-        <v>0.292551792013459</v>
+        <v>0.1456207881778707</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02181684643784007</v>
+        <v>0.004396075450755627</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2926728410188931</v>
+        <v>0.0513604375928024</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01800470941081486</v>
+        <v>0.02129465209160067</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2942046269965858</v>
+        <v>0.1492667330292684</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03974948243972504</v>
+        <v>0.04697440426944832</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2947283388174087</v>
+        <v>0.1462485934189172</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06135378323347096</v>
+        <v>0.07255843914770532</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2942046269965858</v>
+        <v>0.1464435044952598</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02152216752800117</v>
+        <v>0.004398062688203065</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2943170704628195</v>
+        <v>0.05132701418792536</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01785935950135598</v>
+        <v>0.02128641586439181</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2958574619797127</v>
+        <v>0.1501053101811181</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0395061316872099</v>
+        <v>0.04705664939729318</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2963841160017762</v>
+        <v>0.1470702147302594</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06041420305783501</v>
+        <v>0.07233091433408195</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2958574619797127</v>
+        <v>0.1472662208126489</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02022629644996372</v>
+        <v>0.004401161954895691</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2959612999067459</v>
+        <v>0.05129359078304832</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01751301291874184</v>
+        <v>0.02127827710915074</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2975102969628396</v>
+        <v>0.150943887332968</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03866057062995631</v>
+        <v>0.04673910277294538</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2980398931861437</v>
+        <v>0.1478918360416017</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05977121229596921</v>
+        <v>0.07250371255109739</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2975102969628396</v>
+        <v>0.148088937130038</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01892921549794277</v>
+        <v>0.004405620368443552</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2976055293506722</v>
+        <v>0.05126016737817127</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01736565475999052</v>
+        <v>0.02107023741700943</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2991631319459665</v>
+        <v>0.1517824644848178</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03791276614141298</v>
+        <v>0.04692176770526252</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2996956703705111</v>
+        <v>0.1487134573529439</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05922475995030746</v>
+        <v>0.07237683894041619</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2991631319459665</v>
+        <v>0.1489116534474271</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01863090696615329</v>
+        <v>0.004411685046456698</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2992497587945986</v>
+        <v>0.05122674397329424</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01701727012212002</v>
+        <v>0.02116229837909989</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3008159669290935</v>
+        <v>0.1526210416366676</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03746268509502873</v>
+        <v>0.04650464750310215</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3013514475548786</v>
+        <v>0.1495350786642861</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05827479502328348</v>
+        <v>0.07275029864370297</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3008159669290935</v>
+        <v>0.1497343697648162</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02033135314881032</v>
+        <v>0.004419603106545163</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3008939882385249</v>
+        <v>0.0511933205684172</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01686784410214834</v>
+        <v>0.02105446158655412</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3024688019122203</v>
+        <v>0.1534596187885174</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03711029436425234</v>
+        <v>0.04698774547532189</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3030072247392461</v>
+        <v>0.1503566999756284</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05772126651733123</v>
+        <v>0.07252409680262234</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3024688019122203</v>
+        <v>0.1505570860822053</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01803053634012883</v>
+        <v>0.004429621666318995</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3025382176824513</v>
+        <v>0.05115989716354016</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01641736179709351</v>
+        <v>0.02124672863050411</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3041216368953472</v>
+        <v>0.1542981959403673</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03655556082253258</v>
+        <v>0.04667106493077938</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3046630019236135</v>
+        <v>0.1511783212869706</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05686412343488456</v>
+        <v>0.07219823855883878</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3041216368953472</v>
+        <v>0.1513798023995944</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01872843883432382</v>
+        <v>0.004441987843388243</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3041824471263777</v>
+        <v>0.05112647375866312</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01626580830397353</v>
+        <v>0.02123910110208191</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3057744718784741</v>
+        <v>0.1551367730922171</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03619845134331826</v>
+        <v>0.04645460917833222</v>
       </c>
       <c r="M250" t="n">
-        <v>0.306318779107981</v>
+        <v>0.1519999425983128</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05600331477837728</v>
+        <v>0.0720727290540169</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3057744718784741</v>
+        <v>0.1522025187169835</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01942504292561031</v>
+        <v>0.004456948755362941</v>
       </c>
       <c r="G251" t="n">
-        <v>0.305826676570304</v>
+        <v>0.05109305035378608</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01601316871980639</v>
+        <v>0.0210315805924195</v>
       </c>
       <c r="K251" t="n">
-        <v>0.307427306861601</v>
+        <v>0.1559753502440669</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03563893280005814</v>
+        <v>0.04693838152683791</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3079745562923484</v>
+        <v>0.1528215639096551</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05473878955024331</v>
+        <v>0.07234757342982129</v>
       </c>
       <c r="O251" t="n">
-        <v>0.307427306861601</v>
+        <v>0.1530252350343726</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01712033090820332</v>
+        <v>0.004474751519853146</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3074709060142304</v>
+        <v>0.05105962694890905</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01565942814161016</v>
+        <v>0.02102416869264888</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3090801418447279</v>
+        <v>0.1568139273959167</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03467697206620102</v>
+        <v>0.04692238528515413</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3096303334767159</v>
+        <v>0.1536431852209973</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05417049675291641</v>
+        <v>0.07242277682791665</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3090801418447279</v>
+        <v>0.1538479513517617</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01881428507631783</v>
+        <v>0.004495643254468877</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3091151354581568</v>
+        <v>0.05102620354403201</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01540457166640277</v>
+        <v>0.02101686699390205</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3107329768278547</v>
+        <v>0.1576525045477666</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03421253601519569</v>
+        <v>0.04680662376213848</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3112861106610834</v>
+        <v>0.1544648065323395</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05289838538883057</v>
+        <v>0.07249834438996744</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3107329768278547</v>
+        <v>0.1546706676691508</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01750688772416883</v>
+        <v>0.004519871076820198</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3107593649020832</v>
+        <v>0.05099278013915497</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0151485843912023</v>
+        <v>0.02100967708731102</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3123858118109816</v>
+        <v>0.1584910816996164</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03344559152049092</v>
+        <v>0.04689110026664847</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3129418878454509</v>
+        <v>0.1552864278436817</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05232240446041958</v>
+        <v>0.0721742812576382</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3123858118109816</v>
+        <v>0.1554933839865399</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01819812114597138</v>
+        <v>0.004547682104517142</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3124035943460095</v>
+        <v>0.05095935673427793</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01499145141302674</v>
+        <v>0.02100260056400781</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3140386467941085</v>
+        <v>0.1593296588514662</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0329761054555355</v>
+        <v>0.04657581810754183</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3145976650298183</v>
+        <v>0.156108049155024</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05154250297011725</v>
+        <v>0.07235059257259363</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3140386467941085</v>
+        <v>0.156316100303929</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01688796763594042</v>
+        <v>0.004579323455169759</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3140478237899358</v>
+        <v>0.0509259333294009</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01473315782889409</v>
+        <v>0.0209956390151244</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3156914817772354</v>
+        <v>0.160168236003316</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03240404469377822</v>
+        <v>0.04686078059367602</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3162534422141858</v>
+        <v>0.1569296704663662</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05005862992035753</v>
+        <v>0.07242728347649824</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3156914817772354</v>
+        <v>0.1571388166213181</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01657640948829098</v>
+        <v>0.00461504224638809</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3156920532338622</v>
+        <v>0.05089250992452386</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01457368873582235</v>
+        <v>0.02108879403179281</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3173443167603623</v>
+        <v>0.1610068131551659</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03192937610866789</v>
+        <v>0.04664599103390871</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3179092193985533</v>
+        <v>0.1577512917777084</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04977073431357426</v>
+        <v>0.07180435911101662</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3173443167603623</v>
+        <v>0.1579615329387072</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01526342899723807</v>
+        <v>0.004655085595782184</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3173362826777886</v>
+        <v>0.05085908651964681</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01411302923082958</v>
+        <v>0.02118206720514505</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3189971517434891</v>
+        <v>0.1618453903070157</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0312520665736532</v>
+        <v>0.04683145273709749</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3195649965829206</v>
+        <v>0.1585729130890507</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04827876515220125</v>
+        <v>0.0722818246178133</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3189971517434891</v>
+        <v>0.1587842492560963</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01694900845699669</v>
+        <v>0.004699700620962061</v>
       </c>
       <c r="G259" t="n">
-        <v>0.318980512121715</v>
+        <v>0.05082566311476977</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01405116441093374</v>
+        <v>0.02097546012631309</v>
       </c>
       <c r="K259" t="n">
-        <v>0.320649986726616</v>
+        <v>0.1626839674588655</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03057208296218308</v>
+        <v>0.04671716901209993</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3212207737672881</v>
+        <v>0.1593945344003929</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04808267143867234</v>
+        <v>0.07175968513855291</v>
       </c>
       <c r="O259" t="n">
-        <v>0.320649986726616</v>
+        <v>0.1596069655734854</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01663313016178183</v>
+        <v>0.004749134439537797</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3206247415656414</v>
+        <v>0.05079223970989273</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01358807937315287</v>
+        <v>0.02106897438642898</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3223028217097429</v>
+        <v>0.1635225446107153</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03028939214770621</v>
+        <v>0.04640314316777361</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3228765509516556</v>
+        <v>0.1602161557117351</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04718240217542147</v>
+        <v>0.07223794581490006</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3223028217097429</v>
+        <v>0.1604296818908745</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01631577640580851</v>
+        <v>0.004803634169119414</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3222689710095677</v>
+        <v>0.05075881630501569</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01352375921450497</v>
+        <v>0.02096261157662468</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3239556566928698</v>
+        <v>0.1643611217625651</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02970396100367134</v>
+        <v>0.0465893785129762</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3245323281360231</v>
+        <v>0.1610377770230774</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0460779063648824</v>
+        <v>0.07221661178851929</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3239556566928698</v>
+        <v>0.1612523982082636</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01499692948329173</v>
+        <v>0.004863446927316953</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3239132004534941</v>
+        <v>0.05072539290013865</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01315818903200805</v>
+        <v>0.02105637328803224</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3256084916759967</v>
+        <v>0.1651996989144149</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02931575640352738</v>
+        <v>0.04667587835656525</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3261881053203906</v>
+        <v>0.1618593983344196</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04526913300948904</v>
+        <v>0.07239568820107523</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3256084916759967</v>
+        <v>0.1620751145256527</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01467657168844647</v>
+        <v>0.004928819831740469</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3255574298974205</v>
+        <v>0.05069196949526161</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01289135392268013</v>
+        <v>0.02095026111178364</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3272613266591236</v>
+        <v>0.1660382760662648</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02842474522072302</v>
+        <v>0.04636264600739837</v>
       </c>
       <c r="M263" t="n">
-        <v>0.327843882504758</v>
+        <v>0.1626810196457618</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04425603111167531</v>
+        <v>0.0722751801942324</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3272613266591236</v>
+        <v>0.1628978308430418</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01435468531548777</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3272016593413468</v>
+        <v>0.05065854609038458</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01272323898353921</v>
+        <v>0.02114427663901088</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3289141616422505</v>
+        <v>0.1668768532181146</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0277308943287071</v>
+        <v>0.04674968477433311</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3294996596891255</v>
+        <v>0.1635026409571041</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04323854967387492</v>
+        <v>0.07235509290965536</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3289141616422505</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1637205471604309</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05064538819564773</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005330340547585549</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05064565672411175</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005657618995760387</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05064592525257577</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005981752659310037</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05064619378103979</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006302658853048405</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05064646230950381</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00662025489176131</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05064673083796782</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006934458090262351</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05064699936643184</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007245185763337651</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05064726789489585</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007552355225800514</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05064753642335987</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007855883792437353</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05064780495182389</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008155688778061165</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05064807348028791</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008451687497458685</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05064834200875192</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008743797265442596</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05064861053721594</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.009031935396799959</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05064887906567996</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.00931601920634309</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05064914759414398</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009595966008859431</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.050649416122608</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009871693119160939</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05064968465107202</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0101431178520354</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05064995317953603</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01041015752228865</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05065022170800004</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01067272944472614</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05065049023646406</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01093075093413624</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05065075876492808</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01118413930532995</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0506510272933921</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01143281187309605</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05065129582185611</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01167668595224512</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05065156435032013</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01191567885756634</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05065183287878414</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01215004553510413</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05065210140724816</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01238172908705331</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05065236993571218</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01261098445945794</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0506526384641762</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01283772896710782</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05065290699264022</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01306187992481261</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05065317552110424</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01328335464736234</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05065344404956825</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01350207044956643</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05065371257803227</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01371794464621515</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05065398110649628</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01393089455211309</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0506542496349603</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01414083748206457</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05065451816342432</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01434769075086022</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05065478669188833</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01455137167330885</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05065505522035235</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01475179756420137</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05065532374881637</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01494888573834628</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05065559227728039</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01514255351053481</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05065586080574441</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01533271819557517</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05065612933420843</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01551929710825886</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05065639786267244</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01570220756339379</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05065666639113646</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01588136687577178</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05065693491960047</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01605669236020043</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05065720344806449</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01622810133147188</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05065747197652851</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01639551110439336</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05065774050499253</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01655883899375741</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05065800903345654</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01671800231437089</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05065827756192056</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01687291838102668</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05065854609038458</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01687291838102668</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05064538819564773</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01701134197206245</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05067934865745281</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.0171483910441817</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05071330911925789</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01728368352833884</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05074726958106296</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01741683735548828</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05078123004286803</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01754747045658443</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05081519050467311</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0176752007625817</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05084915096647818</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01779964620443451</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05088311142828325</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01792042471309725</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05091707189008832</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01803715421952434</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0509510323518934</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0181494526546702</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05098499281369847</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01825693794948922</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05101895327550354</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01835922803493583</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05105291373730862</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01845594084196443</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05108687419911369</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.0185466943015294</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05112083466091876</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.0186311063445852</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05115479512272383</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01870879490208623</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05118875558452891</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01877937790498689</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05122271604633398</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01884247328424157</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05125667650813905</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01889769897080472</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05129063696994413</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.0189446728956307</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0513245974317492</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01898301298967396</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05135855789355428</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01901233718388891</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05139251835535935</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01903226340922995</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05142647881716442</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01904240959665147</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0514604392789695</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0190436932478058</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05149439974077458</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01904362742204906</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05152836020257965</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01904337930958132</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05156232066438472</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01904282738592861</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0515962811261898</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01904185012661694</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05163024158799487</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.0190403260071723</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05166420204979994</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.0190381335031207</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05169816251160501</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01903515108998817</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05173212297341009</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01903125724330069</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05176608343521516</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.0190263304385843</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05180004389702023</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01902024915136499</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05183400435882531</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01901289185716878</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05186796482063038</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01900413703152166</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05190192528243545</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01899386314994966</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05193588574424052</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01898194868797877</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0519698462060456</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01896827212113501</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05200380666785067</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01895271192494438</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05203776712965574</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01893514657493291</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05207172759146082</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01891545454662659</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0521056880532659</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01889351431555142</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05213964851507097</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01886920435723344</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05217360897687604</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01884240314719862</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05220756943868111</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.018812989160973</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05224152990048619</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01878084087408258</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05227549036229126</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01874583676205337</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05230945082409633</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01874583676205337</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05230945082409633</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0191801501066213</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05389179532533393</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01960600358614595</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05547413982657154</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02002320156458545</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05705648432780913</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02043154840589786</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05863882882904673</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02083084847404133</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06022117333028434</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02122090613297395</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06180351783152194</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02160152574665379</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06338586233275953</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02197251167903899</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06496820683399714</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02233366829408763</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06655055133523473</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02268479995575781</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06813289583647233</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02302571102800766</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06971524033770994</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02335620587479524</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07129758483894753</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.0236760888600787</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07287992934018513</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02398516434781613</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07446227384142273</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02428323670196558</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07604461834266034</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02457011028648523</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07762696284389795</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02484558946533313</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07920930734513554</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02510947860246741</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08079165184637313</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02536158206184616</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08237399634761074</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02560170420742747</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08395634084884833</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02582964940316947</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08553868535008595</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02604522201303026</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08712102985132353</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02624822640096791</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08870337435256113</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02643846693094057</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09028571885379874</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02661574796690627</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09186806335503633</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02677987387282321</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09345040785627394</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02693064901264942</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09503275235751153</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02706787775034301</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09661509685874914</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02719136444986212</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09819744135998675</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02730091347516482</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09977978586122434</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02739632919020922</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1013621303624619</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02747741595895344</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1029444748636995</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02754397814535554</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1045268193649371</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02759582011337366</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1061091638661747</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0276327462269659</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1076915083674123</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02766111568273782</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1092738528686499</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02766109630599019</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1108561973698875</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02765751606936588</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1124385418711251</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02764806328914857</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1140208863723627</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02763318397625357</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1156032308736003</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02761332414159623</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1171855753748379</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02758892979609191</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1187679198760755</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02756044695065596</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1203502643773132</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02752832161620374</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1219326088785507</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02749299980365055</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1235149533797883</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02745492752391179</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1250972978810259</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02741455078790279</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1266796423822635</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.0273723156065389</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1282619868835011</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02732866799073547</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1298443313847387</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02728405395140783</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1314266758859763</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02723861870558836</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1330090203872139</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02717899655364031</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1345913648884516</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02710115588031878</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1361737093896891</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.027009735996503</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1377560538909267</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02690937621307231</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1393383983921643</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02680471584090599</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.140920742893402</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02670039419088335</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1425030873946395</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02660105057388365</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1440854318958771</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02651132430078622</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1456677763971148</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02643585468247031</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1472501208983523</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02637928102981527</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1488324653995899</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0263369855136434</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02629727468051583</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1519971544020652</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02625989533033841</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1535794989033027</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02622469880153201</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1551618434045403</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02619153643251754</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.156744187905778</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02616025956171587</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1583265324070155</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02613071952754795</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1599088769082531</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02610276766843463</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1614912214094908</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0260762553227968</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1630735659107283</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02605103382905538</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.164655910411966</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02602695452563125</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1662382549132035</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02600386875094531</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1678205994144412</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02598162784341845</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1694029439156787</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02596008314147154</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1709852884169163</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02593908598352553</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.172567632918154</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02591848770800126</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1741499774193915</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02589813965331966</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1757323219206292</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02587789315790161</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1773146664218668</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.025857599560168</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1788970109231043</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02583711019853972</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1804793554243419</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02581627641143769</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1820616999255796</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02579538496445298</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1836440444268171</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02577484264944049</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1852263889280547</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02575466239052</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1868087334292924</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02573485708869512</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.18839107793053</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02571543964496949</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1899734224317675</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02569642296034674</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1915557669330052</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.0256778199358305</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1931381114342428</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0256596434724244</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1947204559354803</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02564190647113208</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1963028004367179</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02562462183295718</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1978851449379556</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.0256078024589033</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1994674894391931</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02559146124997413</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2010498339404307</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02557561110717325</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2026321784416684</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02556026493150435</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.204214522942906</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02554543562397102</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2057968674441435</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02553113608557689</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2073792119453811</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02551737921732564</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2089615564466188</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
